--- a/content/drafts/entitats/Codis_Territori_Paisos_ISOA2.xlsx
+++ b/content/drafts/entitats/Codis_Territori_Paisos_ISOA2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAA\CTTI\02.Projecte_DadesRef\_____c6\01.CATaleg\07.Proposta_noves_ER\04.Cataleg_Entitats_Modelades.v03\07.Continents_paisos\Propostes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643B41F3-C52D-46D1-BE8C-43BCAC0C3884}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9159D78C-C498-4E3C-A610-7F1C47B3D092}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{2A9043EE-0398-4927-8C09-CA4E22432D8B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="539">
   <si>
     <t>Nom Taula:</t>
   </si>
@@ -1648,54 +1648,6 @@
   </si>
   <si>
     <t>Terres Australs i Antàrtiques Franceses</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Com Finlàndia</t>
-  </si>
-  <si>
-    <t>Wiki:Suazilandia, una pequeña monarquía sin litoral del sur de África. Posem el mateix que a Lesoto i Sudàfrica</t>
-  </si>
-  <si>
-    <t>Wiki: Guadalupe, un territorio francés de ultramar, es un grupo de islas en el sur del Caribe. Posem el mateix que l'illa de Montserrat i Dominica</t>
-  </si>
-  <si>
-    <t>Wiki: La Guayana Francesa es una región francesa de ultramar en la costa noreste de Sudamérica. Posem el mateix que Surinam</t>
-  </si>
-  <si>
-    <t>Wiki: Guernsey es una isla en el Canal de la Mancha frente a la costa de Normandía. No és de la EU.</t>
-  </si>
-  <si>
-    <t>Wiki: La Isla de Man es una dependencia autónoma de la Corona británica en el mar de Irlanda, entre Inglaterra e Irlanda. Esta fora de la EU: https://en.wikipedia.org/wiki/External_relations_of_the_Isle_of_Man</t>
-  </si>
-  <si>
-    <t>Wiki: es una dependencia de la Corona británica​ ubicada en el canal de la Mancha. No és de la EU.</t>
-  </si>
-  <si>
-    <t>Wiki: Martinica es una accidentada isla del Caribe que pertenece a las Antillas Menores. Com Santa Lucia i Dominica</t>
-  </si>
-  <si>
-    <t>Wiki: Mònaco no forma part de la EU</t>
-  </si>
-  <si>
-    <t>A Eurostat A2 apareix com Territoris Palestins, posem el mateix que Eurostat A2</t>
-  </si>
-  <si>
-    <t>Wiki: Puerto Rico es una isla del Caribe y un territorio no incorporado de Estados Unidos. Com República Dominicana i Montserrat</t>
-  </si>
-  <si>
-    <t>Wiki: Reunión es una isla del archipiélago de las Mascareñas con estatus de departamento de ultramar francés, situado en el océano Índico, al este de Madagascar, y constituido como una región ultraperiférica de la Unión Europea. Continent Àfrica. Com Maurici i Madagascar.</t>
-  </si>
-  <si>
-    <t>Wiki: La isla de San Martín (en francés, Saint-Martin; en neerlandés, Sint Maarten) es una isla ubicada en el mar Caribe. Com Montserrat.</t>
-  </si>
-  <si>
-    <t>Wiki: denominación utilizada por la ISO 3166-1​ con fines estadísticos, en el que se agrupan dos territorios de Noruega con jurisdicciones separadas: Svalbard y Jan Mayen. No és de la EU.</t>
-  </si>
-  <si>
-    <t>Apareix a Eurostat A2 com TAAF (Terres Australs i Antàrtiques Franceses). Posem el mateix que a Eurostat A2</t>
-  </si>
-  <si>
-    <t>Nota Pïsos sense continent per no existir a Eurostat A2</t>
   </si>
 </sst>
 </file>
@@ -1805,7 +1757,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1814,7 +1766,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2314,7 +2265,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2437B9F8-92A3-4EC2-8B66-E7A00C4A92EC}">
-  <dimension ref="A1:G254"/>
+  <dimension ref="A1:F254"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2326,39 +2277,38 @@
     <col min="4" max="4" width="24.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="41" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="104.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="100.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="24.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="100.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="23.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="100.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="29.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="100.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="30" width="21.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="105.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="28.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="28" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="46.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="11.453125" style="2"/>
+    <col min="7" max="7" width="16.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="104.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="100.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="100.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="100.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="29.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="100.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="21.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="105.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="28.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="28" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="46.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2369,122 +2319,113 @@
       <c r="D1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>477</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="17">
         <v>12</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
         <v>511</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>512</v>
       </c>
       <c r="C5" t="s">
         <v>282</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="18">
         <v>17</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="17">
         <v>16</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>315</v>
       </c>
       <c r="C7" t="s">
         <v>282</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="18">
         <v>17</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="16" t="s">
         <v>107</v>
       </c>
       <c r="B8" t="s">
@@ -2493,19 +2434,18 @@
       <c r="C8" t="s">
         <v>210</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E8">
         <v>5</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="17" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="16" t="s">
         <v>285</v>
       </c>
       <c r="B9" t="s">
@@ -2514,19 +2454,18 @@
       <c r="C9" t="s">
         <v>282</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E9">
         <v>16</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B10" t="s">
@@ -2535,19 +2474,18 @@
       <c r="C10" t="s">
         <v>210</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="16" t="s">
         <v>386</v>
       </c>
       <c r="B11" t="s">
@@ -2556,19 +2494,18 @@
       <c r="C11" t="s">
         <v>216</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E11">
         <v>9</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="17" t="s">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="16" t="s">
         <v>176</v>
       </c>
       <c r="B12" t="s">
@@ -2577,19 +2514,18 @@
       <c r="C12" t="s">
         <v>506</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>178</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="17" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="16" t="s">
         <v>388</v>
       </c>
       <c r="B13" t="s">
@@ -2598,19 +2534,18 @@
       <c r="C13" t="s">
         <v>216</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E13">
         <v>9</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="17" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="16" t="s">
         <v>432</v>
       </c>
       <c r="B14" t="s">
@@ -2619,19 +2554,18 @@
       <c r="C14" t="s">
         <v>477</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>187</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="17" t="s">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="16" t="s">
         <v>155</v>
       </c>
       <c r="B15" t="s">
@@ -2640,19 +2574,18 @@
       <c r="C15" t="s">
         <v>216</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E15">
         <v>8</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="17" t="s">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="16" t="s">
         <v>216</v>
       </c>
       <c r="B16" t="s">
@@ -2661,19 +2594,18 @@
       <c r="C16" t="s">
         <v>282</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E16">
         <v>16</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="17" t="s">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="16" t="s">
         <v>390</v>
       </c>
       <c r="B17" t="s">
@@ -2682,19 +2614,18 @@
       <c r="C17" t="s">
         <v>216</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E17">
         <v>9</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="17" t="s">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="16" t="s">
         <v>266</v>
       </c>
       <c r="B18" t="s">
@@ -2703,19 +2634,18 @@
       <c r="C18" t="s">
         <v>507</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>263</v>
       </c>
       <c r="E18">
         <v>18</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="17" t="s">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="16" t="s">
         <v>316</v>
       </c>
       <c r="B19" t="s">
@@ -2724,19 +2654,18 @@
       <c r="C19" t="s">
         <v>282</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E19">
         <v>17</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="17" t="s">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="16" t="s">
         <v>278</v>
       </c>
       <c r="B20" t="s">
@@ -2745,19 +2674,18 @@
       <c r="C20" t="s">
         <v>282</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E20">
         <v>16</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="17" t="s">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="16" t="s">
         <v>275</v>
       </c>
       <c r="B21" t="s">
@@ -2766,19 +2694,18 @@
       <c r="C21" t="s">
         <v>216</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E21">
         <v>9</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="17" t="s">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="16" t="s">
         <v>434</v>
       </c>
       <c r="B22" t="s">
@@ -2787,19 +2714,18 @@
       <c r="C22" t="s">
         <v>477</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>187</v>
       </c>
       <c r="E22">
         <v>13</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="17" t="s">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="16" t="s">
         <v>212</v>
       </c>
       <c r="B23" t="s">
@@ -2808,19 +2734,18 @@
       <c r="C23" t="s">
         <v>477</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>187</v>
       </c>
       <c r="E23">
         <v>12</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="17" t="s">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="16" t="s">
         <v>440</v>
       </c>
       <c r="B24" t="s">
@@ -2829,19 +2754,18 @@
       <c r="C24" t="s">
         <v>216</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E24">
         <v>9</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="17" t="s">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="16" t="s">
         <v>330</v>
       </c>
       <c r="B25" t="s">
@@ -2850,19 +2774,18 @@
       <c r="C25" t="s">
         <v>282</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E25">
         <v>16</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="17" t="s">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="16" t="s">
         <v>318</v>
       </c>
       <c r="B26" t="s">
@@ -2871,19 +2794,18 @@
       <c r="C26" t="s">
         <v>282</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E26">
         <v>17</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="17" t="s">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="16" t="s">
         <v>118</v>
       </c>
       <c r="B27" t="s">
@@ -2892,19 +2814,18 @@
       <c r="C27" t="s">
         <v>216</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E27">
         <v>6</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="17" t="s">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="16" t="s">
         <v>37</v>
       </c>
       <c r="B28" t="s">
@@ -2913,19 +2834,18 @@
       <c r="C28" t="s">
         <v>210</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E28">
         <v>3</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="17" t="s">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="16" t="s">
         <v>134</v>
       </c>
       <c r="B29" t="s">
@@ -2934,19 +2854,18 @@
       <c r="C29" t="s">
         <v>216</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E29">
         <v>7</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="17" t="s">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="16" t="s">
         <v>214</v>
       </c>
       <c r="B30" t="s">
@@ -2955,19 +2874,18 @@
       <c r="C30" t="s">
         <v>477</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="5" t="s">
         <v>187</v>
       </c>
       <c r="E30">
         <v>12</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="17" t="s">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="16" t="s">
         <v>146</v>
       </c>
       <c r="B31" t="s">
@@ -2976,19 +2894,18 @@
       <c r="C31" t="s">
         <v>216</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E31">
         <v>8</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="17" t="s">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="16" t="s">
         <v>442</v>
       </c>
       <c r="B32" t="s">
@@ -2997,19 +2914,18 @@
       <c r="C32" t="s">
         <v>216</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E32">
         <v>9</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="17" t="s">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="16" t="s">
         <v>287</v>
       </c>
       <c r="B33" t="s">
@@ -3018,19 +2934,18 @@
       <c r="C33" t="s">
         <v>282</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E33">
         <v>16</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="17" t="s">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B34" t="s">
@@ -3039,19 +2954,18 @@
       <c r="C34" t="s">
         <v>210</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E34">
         <v>2</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="17" t="s">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="16" t="s">
         <v>151</v>
       </c>
       <c r="B35" t="s">
@@ -3060,19 +2974,18 @@
       <c r="C35" t="s">
         <v>216</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E35">
         <v>8</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="17" t="s">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="16" t="s">
         <v>236</v>
       </c>
       <c r="B36" t="s">
@@ -3081,19 +2994,18 @@
       <c r="C36" t="s">
         <v>477</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="5" t="s">
         <v>187</v>
       </c>
       <c r="E36">
         <v>15</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="17" t="s">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="16" t="s">
         <v>273</v>
       </c>
       <c r="B37" t="s">
@@ -3102,19 +3014,18 @@
       <c r="C37" t="s">
         <v>282</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E37">
         <v>17</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="17" t="s">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="16" t="s">
         <v>40</v>
       </c>
       <c r="B38" t="s">
@@ -3123,19 +3034,18 @@
       <c r="C38" t="s">
         <v>210</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E38">
         <v>3</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="17" t="s">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="16" t="s">
         <v>382</v>
       </c>
       <c r="B39" t="s">
@@ -3144,19 +3054,18 @@
       <c r="C39" t="s">
         <v>210</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E39">
         <v>4</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="17" t="s">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="16" t="s">
         <v>239</v>
       </c>
       <c r="B40" t="s">
@@ -3165,19 +3074,18 @@
       <c r="C40" t="s">
         <v>477</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="5" t="s">
         <v>187</v>
       </c>
       <c r="E40">
         <v>15</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="G40" s="4"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="17" t="s">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B41" t="s">
@@ -3186,19 +3094,18 @@
       <c r="C41" t="s">
         <v>210</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G41" s="4"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="17" t="s">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="16" t="s">
         <v>144</v>
       </c>
       <c r="B42" t="s">
@@ -3207,19 +3114,18 @@
       <c r="C42" t="s">
         <v>216</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E42">
         <v>7</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G42" s="4"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="17" t="s">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="16" t="s">
         <v>42</v>
       </c>
       <c r="B43" t="s">
@@ -3228,19 +3134,18 @@
       <c r="C43" t="s">
         <v>210</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E43">
         <v>3</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F43" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G43" s="4"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="17" t="s">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="16" t="s">
         <v>158</v>
       </c>
       <c r="B44" t="s">
@@ -3249,19 +3154,18 @@
       <c r="C44" t="s">
         <v>216</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E44">
         <v>8</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F44" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="G44" s="4"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="17" t="s">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="16" t="s">
         <v>72</v>
       </c>
       <c r="B45" t="s">
@@ -3270,19 +3174,18 @@
       <c r="C45" t="s">
         <v>210</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E45">
         <v>4</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G45" s="4"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="17" t="s">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B46" t="s">
@@ -3291,19 +3194,18 @@
       <c r="C46" t="s">
         <v>210</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F46" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G46" s="4"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="17" t="s">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="16" t="s">
         <v>221</v>
       </c>
       <c r="B47" t="s">
@@ -3312,19 +3214,18 @@
       <c r="C47" t="s">
         <v>477</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="5" t="s">
         <v>187</v>
       </c>
       <c r="E47">
         <v>14</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G47" s="4"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="17" t="s">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="16" t="s">
         <v>224</v>
       </c>
       <c r="B48" t="s">
@@ -3333,19 +3234,18 @@
       <c r="C48" t="s">
         <v>477</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="5" t="s">
         <v>187</v>
       </c>
       <c r="E48">
         <v>14</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F48" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G48" s="4"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="17" t="s">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="16" t="s">
         <v>44</v>
       </c>
       <c r="B49" t="s">
@@ -3354,19 +3254,18 @@
       <c r="C49" t="s">
         <v>210</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E49">
         <v>3</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="F49" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G49" s="4"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="17" t="s">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="16" t="s">
         <v>122</v>
       </c>
       <c r="B50" t="s">
@@ -3375,19 +3274,18 @@
       <c r="C50" t="s">
         <v>216</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E50">
         <v>6</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="F50" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="G50" s="4"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="17" t="s">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="16" t="s">
         <v>289</v>
       </c>
       <c r="B51" t="s">
@@ -3396,19 +3294,18 @@
       <c r="C51" t="s">
         <v>282</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E51">
         <v>17</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="F51" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G51" s="4"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="17" t="s">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="16" t="s">
         <v>372</v>
       </c>
       <c r="B52" t="s">
@@ -3417,19 +3314,18 @@
       <c r="C52" t="s">
         <v>216</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E52">
         <v>9</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="F52" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G52" s="4"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="17" t="s">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="16" t="s">
         <v>444</v>
       </c>
       <c r="B53" t="s">
@@ -3438,19 +3334,18 @@
       <c r="C53" t="s">
         <v>216</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E53">
         <v>9</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="F53" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G53" s="4"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="17" t="s">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="16" t="s">
         <v>348</v>
       </c>
       <c r="B54" t="s">
@@ -3459,19 +3354,18 @@
       <c r="C54" t="s">
         <v>282</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E54">
         <v>17</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="F54" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G54" s="4"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="17" t="s">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="16" t="s">
         <v>74</v>
       </c>
       <c r="B55" t="s">
@@ -3480,19 +3374,18 @@
       <c r="C55" t="s">
         <v>210</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E55">
         <v>4</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="F55" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G55" s="4"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="17" t="s">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="16" t="s">
         <v>446</v>
       </c>
       <c r="B56" t="s">
@@ -3501,19 +3394,18 @@
       <c r="C56" t="s">
         <v>216</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D56" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E56">
         <v>9</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="F56" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G56" s="4"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="17" t="s">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="16" t="s">
         <v>415</v>
       </c>
       <c r="B57" t="s">
@@ -3522,19 +3414,18 @@
       <c r="C57" t="s">
         <v>210</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D57" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E57">
         <v>5</v>
       </c>
-      <c r="F57" s="6" t="s">
+      <c r="F57" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G57" s="4"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="17" t="s">
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="16" t="s">
         <v>124</v>
       </c>
       <c r="B58" t="s">
@@ -3543,19 +3434,18 @@
       <c r="C58" t="s">
         <v>216</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E58">
         <v>6</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="F58" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="G58" s="4"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="17" t="s">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="16" t="s">
         <v>436</v>
       </c>
       <c r="B59" t="s">
@@ -3564,19 +3454,18 @@
       <c r="C59" t="s">
         <v>477</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D59" s="5" t="s">
         <v>187</v>
       </c>
       <c r="E59">
         <v>13</v>
       </c>
-      <c r="F59" s="6" t="s">
+      <c r="F59" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="G59" s="4"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="17" t="s">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="16" t="s">
         <v>160</v>
       </c>
       <c r="B60" t="s">
@@ -3585,19 +3474,18 @@
       <c r="C60" t="s">
         <v>216</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D60" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E60">
         <v>8</v>
       </c>
-      <c r="F60" s="6" t="s">
+      <c r="F60" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="G60" s="4"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="17" t="s">
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="16" t="s">
         <v>76</v>
       </c>
       <c r="B61" t="s">
@@ -3606,19 +3494,18 @@
       <c r="C61" t="s">
         <v>210</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D61" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E61">
         <v>4</v>
       </c>
-      <c r="F61" s="6" t="s">
+      <c r="F61" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G61" s="4"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="17" t="s">
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="16" t="s">
         <v>332</v>
       </c>
       <c r="B62" t="s">
@@ -3627,19 +3514,18 @@
       <c r="C62" t="s">
         <v>282</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E62">
         <v>17</v>
       </c>
-      <c r="F62" s="6" t="s">
+      <c r="F62" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G62" s="4"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" s="17" t="s">
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="16" t="s">
         <v>291</v>
       </c>
       <c r="B63" t="s">
@@ -3648,19 +3534,18 @@
       <c r="C63" t="s">
         <v>282</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D63" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E63">
         <v>17</v>
       </c>
-      <c r="F63" s="6" t="s">
+      <c r="F63" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G63" s="4"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" s="17" t="s">
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="16" t="s">
         <v>293</v>
       </c>
       <c r="B64" t="s">
@@ -3669,19 +3554,18 @@
       <c r="C64" t="s">
         <v>282</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D64" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E64">
         <v>17</v>
       </c>
-      <c r="F64" s="6" t="s">
+      <c r="F64" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G64" s="4"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="17" t="s">
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="16" t="s">
         <v>137</v>
       </c>
       <c r="B65" t="s">
@@ -3690,19 +3574,18 @@
       <c r="C65" t="s">
         <v>216</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D65" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E65">
         <v>7</v>
       </c>
-      <c r="F65" s="6" t="s">
+      <c r="F65" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G65" s="4"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="17" t="s">
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="16" t="s">
         <v>350</v>
       </c>
       <c r="B66" t="s">
@@ -3711,19 +3594,18 @@
       <c r="C66" t="s">
         <v>282</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D66" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E66">
         <v>17</v>
       </c>
-      <c r="F66" s="6" t="s">
+      <c r="F66" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G66" s="4"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="17" t="s">
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="16" t="s">
         <v>36</v>
       </c>
       <c r="B67" t="s">
@@ -3732,21 +3614,18 @@
       <c r="C67" t="s">
         <v>210</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D67" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E67">
         <v>2</v>
       </c>
-      <c r="F67" s="6" t="s">
+      <c r="F67" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G67" s="4" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="17" t="s">
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="16" t="s">
         <v>78</v>
       </c>
       <c r="B68" t="s">
@@ -3755,19 +3634,18 @@
       <c r="C68" t="s">
         <v>210</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D68" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E68">
         <v>4</v>
       </c>
-      <c r="F68" s="6" t="s">
+      <c r="F68" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G68" s="4"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="17" t="s">
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="16" t="s">
         <v>352</v>
       </c>
       <c r="B69" t="s">
@@ -3776,19 +3654,18 @@
       <c r="C69" t="s">
         <v>282</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D69" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E69">
         <v>16</v>
       </c>
-      <c r="F69" s="6" t="s">
+      <c r="F69" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="G69" s="4"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="17" t="s">
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="16" t="s">
         <v>394</v>
       </c>
       <c r="B70" t="s">
@@ -3797,19 +3674,18 @@
       <c r="C70" t="s">
         <v>507</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D70" s="5" t="s">
         <v>263</v>
       </c>
       <c r="E70">
         <v>19</v>
       </c>
-      <c r="F70" s="6" t="s">
+      <c r="F70" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="G70" s="4"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="17" t="s">
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="16" t="s">
         <v>241</v>
       </c>
       <c r="B71" t="s">
@@ -3818,19 +3694,18 @@
       <c r="C71" t="s">
         <v>477</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="D71" s="5" t="s">
         <v>187</v>
       </c>
       <c r="E71">
         <v>15</v>
       </c>
-      <c r="F71" s="6" t="s">
+      <c r="F71" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="G71" s="4"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" s="17" t="s">
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="16" t="s">
         <v>354</v>
       </c>
       <c r="B72" t="s">
@@ -3839,19 +3714,18 @@
       <c r="C72" t="s">
         <v>282</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D72" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E72">
         <v>17</v>
       </c>
-      <c r="F72" s="6" t="s">
+      <c r="F72" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G72" s="4"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" s="17" t="s">
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="16" t="s">
         <v>320</v>
       </c>
       <c r="B73" t="s">
@@ -3860,19 +3734,18 @@
       <c r="C73" t="s">
         <v>282</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="D73" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E73">
         <v>17</v>
       </c>
-      <c r="F73" s="6" t="s">
+      <c r="F73" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G73" s="4"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="17" t="s">
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B74" t="s">
@@ -3881,19 +3754,18 @@
       <c r="C74" t="s">
         <v>210</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="D74" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E74">
         <v>1</v>
       </c>
-      <c r="F74" s="6" t="s">
+      <c r="F74" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G74" s="4"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="17" t="s">
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="16" t="s">
         <v>46</v>
       </c>
       <c r="B75" t="s">
@@ -3902,19 +3774,18 @@
       <c r="C75" t="s">
         <v>210</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="D75" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E75">
         <v>3</v>
       </c>
-      <c r="F75" s="6" t="s">
+      <c r="F75" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G75" s="4"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="17" t="s">
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="16" t="s">
         <v>219</v>
       </c>
       <c r="B76" t="s">
@@ -3923,19 +3794,18 @@
       <c r="C76" t="s">
         <v>282</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="D76" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E76">
         <v>16</v>
       </c>
-      <c r="F76" s="6" t="s">
+      <c r="F76" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="G76" s="4"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" s="17" t="s">
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="16" t="s">
         <v>48</v>
       </c>
       <c r="B77" t="s">
@@ -3944,19 +3814,18 @@
       <c r="C77" t="s">
         <v>210</v>
       </c>
-      <c r="D77" s="6" t="s">
+      <c r="D77" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E77">
         <v>3</v>
       </c>
-      <c r="F77" s="6" t="s">
+      <c r="F77" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G77" s="4"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="17" t="s">
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" s="16" t="s">
         <v>295</v>
       </c>
       <c r="B78" t="s">
@@ -3965,19 +3834,18 @@
       <c r="C78" t="s">
         <v>282</v>
       </c>
-      <c r="D78" s="6" t="s">
+      <c r="D78" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E78">
         <v>17</v>
       </c>
-      <c r="F78" s="6" t="s">
+      <c r="F78" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G78" s="4"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="17" t="s">
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" s="16" t="s">
         <v>297</v>
       </c>
       <c r="B79" t="s">
@@ -3986,19 +3854,18 @@
       <c r="C79" t="s">
         <v>282</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="D79" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E79">
         <v>17</v>
       </c>
-      <c r="F79" s="6" t="s">
+      <c r="F79" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G79" s="4"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="17" t="s">
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="16" t="s">
         <v>448</v>
       </c>
       <c r="B80" t="s">
@@ -4007,19 +3874,18 @@
       <c r="C80" t="s">
         <v>216</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="D80" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E80">
         <v>9</v>
       </c>
-      <c r="F80" s="6" t="s">
+      <c r="F80" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G80" s="4"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="17" t="s">
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="16" t="s">
         <v>138</v>
       </c>
       <c r="B81" t="s">
@@ -4028,19 +3894,18 @@
       <c r="C81" t="s">
         <v>216</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="D81" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E81">
         <v>7</v>
       </c>
-      <c r="F81" s="6" t="s">
+      <c r="F81" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G81" s="4"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="17" t="s">
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="16" t="s">
         <v>514</v>
       </c>
       <c r="B82" t="s">
@@ -4049,21 +3914,18 @@
       <c r="C82" t="s">
         <v>216</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="D82" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E82">
         <v>9</v>
       </c>
-      <c r="F82" s="6" t="s">
+      <c r="F82" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G82" s="4" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="17" t="s">
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="16" t="s">
         <v>516</v>
       </c>
       <c r="B83" t="s">
@@ -4072,21 +3934,18 @@
       <c r="C83" t="s">
         <v>216</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="D83" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E83">
         <v>8</v>
       </c>
-      <c r="F83" s="6" t="s">
+      <c r="F83" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="G83" s="4" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="17" t="s">
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="16" t="s">
         <v>402</v>
       </c>
       <c r="B84" t="s">
@@ -4095,19 +3954,18 @@
       <c r="C84" t="s">
         <v>507</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="D84" s="5" t="s">
         <v>263</v>
       </c>
       <c r="E84">
         <v>20</v>
       </c>
-      <c r="F84" s="6" t="s">
+      <c r="F84" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="G84" s="4"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="17" t="s">
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="16" t="s">
         <v>126</v>
       </c>
       <c r="B85" t="s">
@@ -4116,19 +3974,18 @@
       <c r="C85" t="s">
         <v>216</v>
       </c>
-      <c r="D85" s="6" t="s">
+      <c r="D85" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E85">
         <v>6</v>
       </c>
-      <c r="F85" s="6" t="s">
+      <c r="F85" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="G85" s="4"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="17" t="s">
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="16" t="s">
         <v>518</v>
       </c>
       <c r="B86" t="s">
@@ -4137,21 +3994,18 @@
       <c r="C86" t="s">
         <v>282</v>
       </c>
-      <c r="D86" s="6" t="s">
+      <c r="D86" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E86">
         <v>16</v>
       </c>
-      <c r="F86" s="6" t="s">
+      <c r="F86" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="G86" s="4" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" s="17" t="s">
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B87" t="s">
@@ -4160,19 +4014,18 @@
       <c r="C87" t="s">
         <v>210</v>
       </c>
-      <c r="D87" s="6" t="s">
+      <c r="D87" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E87">
         <v>3</v>
       </c>
-      <c r="F87" s="6" t="s">
+      <c r="F87" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G87" s="4"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="17" t="s">
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B88" t="s">
@@ -4181,19 +4034,18 @@
       <c r="C88" t="s">
         <v>210</v>
       </c>
-      <c r="D88" s="6" t="s">
+      <c r="D88" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E88">
         <v>1</v>
       </c>
-      <c r="F88" s="6" t="s">
+      <c r="F88" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G88" s="4"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="17" t="s">
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="16" t="s">
         <v>52</v>
       </c>
       <c r="B89" t="s">
@@ -4202,19 +4054,18 @@
       <c r="C89" t="s">
         <v>210</v>
       </c>
-      <c r="D89" s="6" t="s">
+      <c r="D89" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E89">
         <v>3</v>
       </c>
-      <c r="F89" s="6" t="s">
+      <c r="F89" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G89" s="4"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="17" t="s">
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="16" t="s">
         <v>162</v>
       </c>
       <c r="B90" t="s">
@@ -4223,19 +4074,18 @@
       <c r="C90" t="s">
         <v>216</v>
       </c>
-      <c r="D90" s="6" t="s">
+      <c r="D90" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E90">
         <v>8</v>
       </c>
-      <c r="F90" s="6" t="s">
+      <c r="F90" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="G90" s="4"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" s="17" t="s">
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="16" t="s">
         <v>374</v>
       </c>
       <c r="B91" t="s">
@@ -4244,19 +4094,18 @@
       <c r="C91" t="s">
         <v>216</v>
       </c>
-      <c r="D91" s="6" t="s">
+      <c r="D91" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E91">
         <v>9</v>
       </c>
-      <c r="F91" s="6" t="s">
+      <c r="F91" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G91" s="4"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" s="17" t="s">
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" s="16" t="s">
         <v>128</v>
       </c>
       <c r="B92" t="s">
@@ -4265,19 +4114,18 @@
       <c r="C92" t="s">
         <v>216</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="D92" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E92">
         <v>6</v>
       </c>
-      <c r="F92" s="6" t="s">
+      <c r="F92" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="G92" s="4"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A93" s="17" t="s">
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="16" t="s">
         <v>226</v>
       </c>
       <c r="B93" t="s">
@@ -4286,19 +4134,18 @@
       <c r="C93" t="s">
         <v>477</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="D93" s="5" t="s">
         <v>187</v>
       </c>
       <c r="E93">
         <v>14</v>
       </c>
-      <c r="F93" s="6" t="s">
+      <c r="F93" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G93" s="4"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" s="17" t="s">
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" s="16" t="s">
         <v>334</v>
       </c>
       <c r="B94" t="s">
@@ -4307,19 +4154,18 @@
       <c r="C94" t="s">
         <v>282</v>
       </c>
-      <c r="D94" s="6" t="s">
+      <c r="D94" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E94">
         <v>17</v>
       </c>
-      <c r="F94" s="6" t="s">
+      <c r="F94" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G94" s="4"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" s="17" t="s">
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" s="16" t="s">
         <v>437</v>
       </c>
       <c r="B95" t="s">
@@ -4328,19 +4174,18 @@
       <c r="C95" t="s">
         <v>477</v>
       </c>
-      <c r="D95" s="6" t="s">
+      <c r="D95" s="5" t="s">
         <v>187</v>
       </c>
       <c r="E95">
         <v>13</v>
       </c>
-      <c r="F95" s="6" t="s">
+      <c r="F95" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="G95" s="4"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" s="17" t="s">
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" s="16" t="s">
         <v>179</v>
       </c>
       <c r="B96" t="s">
@@ -4349,19 +4194,18 @@
       <c r="C96" t="s">
         <v>506</v>
       </c>
-      <c r="D96" s="6" t="s">
+      <c r="D96" s="5" t="s">
         <v>178</v>
       </c>
       <c r="E96">
         <v>10</v>
       </c>
-      <c r="F96" s="6" t="s">
+      <c r="F96" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="G96" s="4"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" s="17" t="s">
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97" s="16" t="s">
         <v>243</v>
       </c>
       <c r="B97" t="s">
@@ -4370,19 +4214,18 @@
       <c r="C97" t="s">
         <v>507</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="D97" s="5" t="s">
         <v>263</v>
       </c>
       <c r="E97">
         <v>18</v>
       </c>
-      <c r="F97" s="6" t="s">
+      <c r="F97" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="G97" s="4"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98" s="17" t="s">
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98" s="16" t="s">
         <v>520</v>
       </c>
       <c r="B98" t="s">
@@ -4391,21 +4234,18 @@
       <c r="C98" t="s">
         <v>282</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="D98" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E98">
         <v>16</v>
       </c>
-      <c r="F98" s="6" t="s">
+      <c r="F98" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="G98" s="4" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" s="17" t="s">
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99" s="16" t="s">
         <v>269</v>
       </c>
       <c r="B99" t="s">
@@ -4414,19 +4254,18 @@
       <c r="C99" t="s">
         <v>507</v>
       </c>
-      <c r="D99" s="6" t="s">
+      <c r="D99" s="5" t="s">
         <v>263</v>
       </c>
       <c r="E99">
         <v>18</v>
       </c>
-      <c r="F99" s="6" t="s">
+      <c r="F99" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="G99" s="4"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" s="17" t="s">
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100" s="16" t="s">
         <v>376</v>
       </c>
       <c r="B100" t="s">
@@ -4435,19 +4274,18 @@
       <c r="C100" t="s">
         <v>216</v>
       </c>
-      <c r="D100" s="6" t="s">
+      <c r="D100" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E100">
         <v>9</v>
       </c>
-      <c r="F100" s="6" t="s">
+      <c r="F100" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G100" s="4"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" s="17" t="s">
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101" s="16" t="s">
         <v>265</v>
       </c>
       <c r="B101" t="s">
@@ -4456,19 +4294,18 @@
       <c r="C101" t="s">
         <v>507</v>
       </c>
-      <c r="D101" s="6" t="s">
+      <c r="D101" s="5" t="s">
         <v>263</v>
       </c>
       <c r="E101">
         <v>18</v>
       </c>
-      <c r="F101" s="6" t="s">
+      <c r="F101" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="G101" s="4"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102" s="17" t="s">
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102" s="16" t="s">
         <v>466</v>
       </c>
       <c r="B102" t="s">
@@ -4477,19 +4314,18 @@
       <c r="C102" t="s">
         <v>507</v>
       </c>
-      <c r="D102" s="6" t="s">
+      <c r="D102" s="5" t="s">
         <v>263</v>
       </c>
       <c r="E102">
         <v>21</v>
       </c>
-      <c r="F102" s="6" t="s">
+      <c r="F102" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="G102" s="4"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103" s="17" t="s">
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103" s="16" t="s">
         <v>157</v>
       </c>
       <c r="B103" t="s">
@@ -4498,19 +4334,18 @@
       <c r="C103" t="s">
         <v>216</v>
       </c>
-      <c r="D103" s="6" t="s">
+      <c r="D103" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E103">
         <v>8</v>
       </c>
-      <c r="F103" s="6" t="s">
+      <c r="F103" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="G103" s="4"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" s="17" t="s">
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104" s="16" t="s">
         <v>181</v>
       </c>
       <c r="B104" t="s">
@@ -4519,19 +4354,18 @@
       <c r="C104" t="s">
         <v>506</v>
       </c>
-      <c r="D104" s="6" t="s">
+      <c r="D104" s="5" t="s">
         <v>178</v>
       </c>
       <c r="E104">
         <v>10</v>
       </c>
-      <c r="F104" s="6" t="s">
+      <c r="F104" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="G104" s="4"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A105" s="17" t="s">
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105" s="16" t="s">
         <v>183</v>
       </c>
       <c r="B105" t="s">
@@ -4540,19 +4374,18 @@
       <c r="C105" t="s">
         <v>506</v>
       </c>
-      <c r="D105" s="6" t="s">
+      <c r="D105" s="5" t="s">
         <v>178</v>
       </c>
       <c r="E105">
         <v>10</v>
       </c>
-      <c r="F105" s="6" t="s">
+      <c r="F105" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="G105" s="4"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106" s="17" t="s">
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106" s="16" t="s">
         <v>487</v>
       </c>
       <c r="B106" t="s">
@@ -4561,19 +4394,18 @@
       <c r="C106" t="s">
         <v>507</v>
       </c>
-      <c r="D106" s="6" t="s">
+      <c r="D106" s="5" t="s">
         <v>263</v>
       </c>
       <c r="E106">
         <v>20</v>
       </c>
-      <c r="F106" s="6" t="s">
+      <c r="F106" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="G106" s="4"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A107" s="17" t="s">
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107" s="16" t="s">
         <v>405</v>
       </c>
       <c r="B107" t="s">
@@ -4582,19 +4414,18 @@
       <c r="C107" t="s">
         <v>507</v>
       </c>
-      <c r="D107" s="6" t="s">
+      <c r="D107" s="5" t="s">
         <v>263</v>
       </c>
       <c r="E107">
         <v>20</v>
       </c>
-      <c r="F107" s="6" t="s">
+      <c r="F107" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="G107" s="4"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A108" s="17" t="s">
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108" s="16" t="s">
         <v>407</v>
       </c>
       <c r="B108" t="s">
@@ -4603,19 +4434,18 @@
       <c r="C108" t="s">
         <v>507</v>
       </c>
-      <c r="D108" s="6" t="s">
+      <c r="D108" s="5" t="s">
         <v>263</v>
       </c>
       <c r="E108">
         <v>20</v>
       </c>
-      <c r="F108" s="6" t="s">
+      <c r="F108" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="G108" s="4"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A109" s="17" t="s">
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109" s="16" t="s">
         <v>396</v>
       </c>
       <c r="B109" t="s">
@@ -4624,19 +4454,18 @@
       <c r="C109" t="s">
         <v>507</v>
       </c>
-      <c r="D109" s="6" t="s">
+      <c r="D109" s="5" t="s">
         <v>263</v>
       </c>
       <c r="E109">
         <v>19</v>
       </c>
-      <c r="F109" s="6" t="s">
+      <c r="F109" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="G109" s="4"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A110" s="17" t="s">
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110" s="16" t="s">
         <v>276</v>
       </c>
       <c r="B110" t="s">
@@ -4645,19 +4474,18 @@
       <c r="C110" t="s">
         <v>216</v>
       </c>
-      <c r="D110" s="6" t="s">
+      <c r="D110" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E110">
         <v>9</v>
       </c>
-      <c r="F110" s="6" t="s">
+      <c r="F110" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G110" s="4"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A111" s="17" t="s">
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111" s="16" t="s">
         <v>450</v>
       </c>
       <c r="B111" t="s">
@@ -4666,19 +4494,18 @@
       <c r="C111" t="s">
         <v>216</v>
       </c>
-      <c r="D111" s="6" t="s">
+      <c r="D111" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E111">
         <v>9</v>
       </c>
-      <c r="F111" s="6" t="s">
+      <c r="F111" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G111" s="4"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A112" s="17" t="s">
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112" s="16" t="s">
         <v>452</v>
       </c>
       <c r="B112" t="s">
@@ -4687,19 +4514,18 @@
       <c r="C112" t="s">
         <v>216</v>
       </c>
-      <c r="D112" s="6" t="s">
+      <c r="D112" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E112">
         <v>9</v>
       </c>
-      <c r="F112" s="6" t="s">
+      <c r="F112" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G112" s="4"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A113" s="17" t="s">
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113" s="16" t="s">
         <v>197</v>
       </c>
       <c r="B113" t="s">
@@ -4708,19 +4534,18 @@
       <c r="C113" t="s">
         <v>477</v>
       </c>
-      <c r="D113" s="6" t="s">
+      <c r="D113" s="5" t="s">
         <v>187</v>
       </c>
       <c r="E113">
         <v>12</v>
       </c>
-      <c r="F113" s="6" t="s">
+      <c r="F113" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G113" s="4"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A114" s="17" t="s">
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114" s="16" t="s">
         <v>257</v>
       </c>
       <c r="B114" t="s">
@@ -4729,19 +4554,18 @@
       <c r="C114" t="s">
         <v>477</v>
       </c>
-      <c r="D114" s="6" t="s">
+      <c r="D114" s="5" t="s">
         <v>187</v>
       </c>
       <c r="E114">
         <v>15</v>
       </c>
-      <c r="F114" s="6" t="s">
+      <c r="F114" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="G114" s="4"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A115" s="17" t="s">
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115" s="16" t="s">
         <v>200</v>
       </c>
       <c r="B115" t="s">
@@ -4750,19 +4574,18 @@
       <c r="C115" t="s">
         <v>477</v>
       </c>
-      <c r="D115" s="6" t="s">
+      <c r="D115" s="5" t="s">
         <v>187</v>
       </c>
       <c r="E115">
         <v>12</v>
       </c>
-      <c r="F115" s="6" t="s">
+      <c r="F115" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G115" s="4"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A116" s="17" t="s">
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116" s="16" t="s">
         <v>417</v>
       </c>
       <c r="B116" t="s">
@@ -4771,19 +4594,18 @@
       <c r="C116" t="s">
         <v>477</v>
       </c>
-      <c r="D116" s="6" t="s">
+      <c r="D116" s="5" t="s">
         <v>187</v>
       </c>
       <c r="E116">
         <v>13</v>
       </c>
-      <c r="F116" s="6" t="s">
+      <c r="F116" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="G116" s="4"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A117" s="17" t="s">
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117" s="16" t="s">
         <v>356</v>
       </c>
       <c r="B117" t="s">
@@ -4792,19 +4614,18 @@
       <c r="C117" t="s">
         <v>282</v>
       </c>
-      <c r="D117" s="6" t="s">
+      <c r="D117" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E117">
         <v>17</v>
       </c>
-      <c r="F117" s="6" t="s">
+      <c r="F117" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G117" s="4"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A118" s="17" t="s">
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118" s="16" t="s">
         <v>358</v>
       </c>
       <c r="B118" t="s">
@@ -4813,19 +4634,18 @@
       <c r="C118" t="s">
         <v>282</v>
       </c>
-      <c r="D118" s="6" t="s">
+      <c r="D118" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E118">
         <v>16</v>
       </c>
-      <c r="F118" s="6" t="s">
+      <c r="F118" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="G118" s="4"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A119" s="17" t="s">
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119" s="16" t="s">
         <v>419</v>
       </c>
       <c r="B119" t="s">
@@ -4834,19 +4654,18 @@
       <c r="C119" t="s">
         <v>477</v>
       </c>
-      <c r="D119" s="6" t="s">
+      <c r="D119" s="5" t="s">
         <v>187</v>
       </c>
       <c r="E119">
         <v>13</v>
       </c>
-      <c r="F119" s="6" t="s">
+      <c r="F119" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="G119" s="4"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A120" s="17" t="s">
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120" s="16" t="s">
         <v>299</v>
       </c>
       <c r="B120" t="s">
@@ -4855,19 +4674,18 @@
       <c r="C120" t="s">
         <v>282</v>
       </c>
-      <c r="D120" s="6" t="s">
+      <c r="D120" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E120">
         <v>17</v>
       </c>
-      <c r="F120" s="6" t="s">
+      <c r="F120" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G120" s="4"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A121" s="17" t="s">
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121" s="16" t="s">
         <v>378</v>
       </c>
       <c r="B121" t="s">
@@ -4876,19 +4694,18 @@
       <c r="C121" t="s">
         <v>216</v>
       </c>
-      <c r="D121" s="6" t="s">
+      <c r="D121" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E121">
         <v>9</v>
       </c>
-      <c r="F121" s="6" t="s">
+      <c r="F121" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G121" s="4"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A122" s="17" t="s">
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122" s="16" t="s">
         <v>227</v>
       </c>
       <c r="B122" t="s">
@@ -4897,19 +4714,18 @@
       <c r="C122" t="s">
         <v>477</v>
       </c>
-      <c r="D122" s="6" t="s">
+      <c r="D122" s="5" t="s">
         <v>187</v>
       </c>
       <c r="E122">
         <v>14</v>
       </c>
-      <c r="F122" s="6" t="s">
+      <c r="F122" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G122" s="4"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A123" s="17" t="s">
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123" s="16" t="s">
         <v>522</v>
       </c>
       <c r="B123" t="s">
@@ -4918,21 +4734,18 @@
       <c r="C123" t="s">
         <v>282</v>
       </c>
-      <c r="D123" s="6" t="s">
+      <c r="D123" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E123">
         <v>16</v>
       </c>
-      <c r="F123" s="6" t="s">
+      <c r="F123" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="G123" s="4" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A124" s="17" t="s">
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124" s="16" t="s">
         <v>421</v>
       </c>
       <c r="B124" t="s">
@@ -4941,19 +4754,18 @@
       <c r="C124" t="s">
         <v>477</v>
       </c>
-      <c r="D124" s="6" t="s">
+      <c r="D124" s="5" t="s">
         <v>187</v>
       </c>
       <c r="E124">
         <v>13</v>
       </c>
-      <c r="F124" s="6" t="s">
+      <c r="F124" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="G124" s="4"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A125" s="17" t="s">
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125" s="16" t="s">
         <v>185</v>
       </c>
       <c r="B125" t="s">
@@ -4962,19 +4774,18 @@
       <c r="C125" t="s">
         <v>477</v>
       </c>
-      <c r="D125" s="6" t="s">
+      <c r="D125" s="5" t="s">
         <v>187</v>
       </c>
       <c r="E125">
         <v>11</v>
       </c>
-      <c r="F125" s="6" t="s">
+      <c r="F125" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="G125" s="4"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A126" s="17" t="s">
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A126" s="16" t="s">
         <v>80</v>
       </c>
       <c r="B126" t="s">
@@ -4983,19 +4794,18 @@
       <c r="C126" t="s">
         <v>210</v>
       </c>
-      <c r="D126" s="6" t="s">
+      <c r="D126" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E126">
         <v>4</v>
       </c>
-      <c r="F126" s="6" t="s">
+      <c r="F126" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G126" s="4"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A127" s="17" t="s">
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A127" s="16" t="s">
         <v>189</v>
       </c>
       <c r="B127" t="s">
@@ -5004,19 +4814,18 @@
       <c r="C127" t="s">
         <v>477</v>
       </c>
-      <c r="D127" s="6" t="s">
+      <c r="D127" s="5" t="s">
         <v>187</v>
       </c>
       <c r="E127">
         <v>11</v>
       </c>
-      <c r="F127" s="6" t="s">
+      <c r="F127" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="G127" s="4"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A128" s="17" t="s">
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A128" s="16" t="s">
         <v>408</v>
       </c>
       <c r="B128" t="s">
@@ -5025,19 +4834,18 @@
       <c r="C128" t="s">
         <v>507</v>
       </c>
-      <c r="D128" s="6" t="s">
+      <c r="D128" s="5" t="s">
         <v>263</v>
       </c>
       <c r="E128">
         <v>20</v>
       </c>
-      <c r="F128" s="6" t="s">
+      <c r="F128" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="G128" s="4"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A129" s="17" t="s">
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A129" s="16" t="s">
         <v>423</v>
       </c>
       <c r="B129" t="s">
@@ -5046,19 +4854,18 @@
       <c r="C129" t="s">
         <v>477</v>
       </c>
-      <c r="D129" s="6" t="s">
+      <c r="D129" s="5" t="s">
         <v>187</v>
       </c>
       <c r="E129">
         <v>13</v>
       </c>
-      <c r="F129" s="6" t="s">
+      <c r="F129" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="G129" s="4"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A130" s="17" t="s">
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A130" s="16" t="s">
         <v>245</v>
       </c>
       <c r="B130" t="s">
@@ -5067,19 +4874,18 @@
       <c r="C130" t="s">
         <v>477</v>
       </c>
-      <c r="D130" s="6" t="s">
+      <c r="D130" s="5" t="s">
         <v>187</v>
       </c>
       <c r="E130">
         <v>15</v>
       </c>
-      <c r="F130" s="6" t="s">
+      <c r="F130" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="G130" s="4"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A131" s="17" t="s">
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A131" s="16" t="s">
         <v>30</v>
       </c>
       <c r="B131" t="s">
@@ -5088,19 +4894,18 @@
       <c r="C131" t="s">
         <v>210</v>
       </c>
-      <c r="D131" s="6" t="s">
+      <c r="D131" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E131">
         <v>2</v>
       </c>
-      <c r="F131" s="6" t="s">
+      <c r="F131" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G131" s="4"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A132" s="17" t="s">
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A132" s="16" t="s">
         <v>360</v>
       </c>
       <c r="B132" t="s">
@@ -5109,19 +4914,18 @@
       <c r="C132" t="s">
         <v>282</v>
       </c>
-      <c r="D132" s="6" t="s">
+      <c r="D132" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E132">
         <v>17</v>
       </c>
-      <c r="F132" s="6" t="s">
+      <c r="F132" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G132" s="4"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A133" s="17" t="s">
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A133" s="16" t="s">
         <v>425</v>
       </c>
       <c r="B133" t="s">
@@ -5130,19 +4934,18 @@
       <c r="C133" t="s">
         <v>477</v>
       </c>
-      <c r="D133" s="6" t="s">
+      <c r="D133" s="5" t="s">
         <v>187</v>
       </c>
       <c r="E133">
         <v>13</v>
       </c>
-      <c r="F133" s="6" t="s">
+      <c r="F133" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="G133" s="4"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A134" s="17" t="s">
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A134" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B134" t="s">
@@ -5151,19 +4954,18 @@
       <c r="C134" t="s">
         <v>210</v>
       </c>
-      <c r="D134" s="6" t="s">
+      <c r="D134" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E134">
         <v>3</v>
       </c>
-      <c r="F134" s="6" t="s">
+      <c r="F134" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G134" s="4"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A135" s="17" t="s">
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A135" s="16" t="s">
         <v>110</v>
       </c>
       <c r="B135" t="s">
@@ -5172,19 +4974,18 @@
       <c r="C135" t="s">
         <v>210</v>
       </c>
-      <c r="D135" s="6" t="s">
+      <c r="D135" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E135">
         <v>5</v>
       </c>
-      <c r="F135" s="6" t="s">
+      <c r="F135" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G135" s="4"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A136" s="17" t="s">
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A136" s="16" t="s">
         <v>322</v>
       </c>
       <c r="B136" t="s">
@@ -5193,19 +4994,18 @@
       <c r="C136" t="s">
         <v>282</v>
       </c>
-      <c r="D136" s="6" t="s">
+      <c r="D136" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E136">
         <v>16</v>
       </c>
-      <c r="F136" s="6" t="s">
+      <c r="F136" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="G136" s="4"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A137" s="17" t="s">
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A137" s="16" t="s">
         <v>362</v>
       </c>
       <c r="B137" t="s">
@@ -5214,19 +5014,18 @@
       <c r="C137" t="s">
         <v>282</v>
       </c>
-      <c r="D137" s="6" t="s">
+      <c r="D137" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E137">
         <v>17</v>
       </c>
-      <c r="F137" s="6" t="s">
+      <c r="F137" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G137" s="4"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A138" s="17" t="s">
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A138" s="16" t="s">
         <v>324</v>
       </c>
       <c r="B138" t="s">
@@ -5235,19 +5034,18 @@
       <c r="C138" t="s">
         <v>282</v>
       </c>
-      <c r="D138" s="6" t="s">
+      <c r="D138" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E138">
         <v>17</v>
       </c>
-      <c r="F138" s="6" t="s">
+      <c r="F138" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G138" s="4"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A139" s="17" t="s">
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A139" s="16" t="s">
         <v>229</v>
       </c>
       <c r="B139" t="s">
@@ -5256,19 +5054,18 @@
       <c r="C139" t="s">
         <v>477</v>
       </c>
-      <c r="D139" s="6" t="s">
+      <c r="D139" s="5" t="s">
         <v>187</v>
       </c>
       <c r="E139">
         <v>14</v>
       </c>
-      <c r="F139" s="6" t="s">
+      <c r="F139" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G139" s="4"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A140" s="17" t="s">
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A140" s="16" t="s">
         <v>301</v>
       </c>
       <c r="B140" t="s">
@@ -5277,19 +5074,18 @@
       <c r="C140" t="s">
         <v>282</v>
       </c>
-      <c r="D140" s="6" t="s">
+      <c r="D140" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E140">
         <v>16</v>
       </c>
-      <c r="F140" s="6" t="s">
+      <c r="F140" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="G140" s="4"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A141" s="17" t="s">
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A141" s="16" t="s">
         <v>82</v>
       </c>
       <c r="B141" t="s">
@@ -5298,19 +5094,18 @@
       <c r="C141" t="s">
         <v>210</v>
       </c>
-      <c r="D141" s="6" t="s">
+      <c r="D141" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E141">
         <v>4</v>
       </c>
-      <c r="F141" s="6" t="s">
+      <c r="F141" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G141" s="4"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A142" s="17" t="s">
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A142" s="16" t="s">
         <v>247</v>
       </c>
       <c r="B142" t="s">
@@ -5319,19 +5114,18 @@
       <c r="C142" t="s">
         <v>477</v>
       </c>
-      <c r="D142" s="6" t="s">
+      <c r="D142" s="5" t="s">
         <v>187</v>
       </c>
       <c r="E142">
         <v>15</v>
       </c>
-      <c r="F142" s="6" t="s">
+      <c r="F142" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="G142" s="4"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A143" s="17" t="s">
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A143" s="16" t="s">
         <v>84</v>
       </c>
       <c r="B143" t="s">
@@ -5340,19 +5134,18 @@
       <c r="C143" t="s">
         <v>210</v>
       </c>
-      <c r="D143" s="6" t="s">
+      <c r="D143" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E143">
         <v>4</v>
       </c>
-      <c r="F143" s="6" t="s">
+      <c r="F143" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G143" s="4"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A144" s="17" t="s">
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A144" s="16" t="s">
         <v>202</v>
       </c>
       <c r="B144" t="s">
@@ -5361,19 +5154,18 @@
       <c r="C144" t="s">
         <v>477</v>
       </c>
-      <c r="D144" s="6" t="s">
+      <c r="D144" s="5" t="s">
         <v>187</v>
       </c>
       <c r="E144">
         <v>12</v>
       </c>
-      <c r="F144" s="6" t="s">
+      <c r="F144" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G144" s="4"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A145" s="17" t="s">
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A145" s="16" t="s">
         <v>56</v>
       </c>
       <c r="B145" t="s">
@@ -5382,19 +5174,18 @@
       <c r="C145" t="s">
         <v>210</v>
       </c>
-      <c r="D145" s="6" t="s">
+      <c r="D145" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E145">
         <v>3</v>
       </c>
-      <c r="F145" s="6" t="s">
+      <c r="F145" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G145" s="4"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A146" s="17" t="s">
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A146" s="16" t="s">
         <v>303</v>
       </c>
       <c r="B146" t="s">
@@ -5403,19 +5194,18 @@
       <c r="C146" t="s">
         <v>282</v>
       </c>
-      <c r="D146" s="6" t="s">
+      <c r="D146" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E146">
         <v>17</v>
       </c>
-      <c r="F146" s="6" t="s">
+      <c r="F146" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G146" s="4"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A147" s="17" t="s">
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A147" s="16" t="s">
         <v>112</v>
       </c>
       <c r="B147" t="s">
@@ -5424,19 +5214,18 @@
       <c r="C147" t="s">
         <v>210</v>
       </c>
-      <c r="D147" s="6" t="s">
+      <c r="D147" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E147">
         <v>5</v>
       </c>
-      <c r="F147" s="6" t="s">
+      <c r="F147" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G147" s="4"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A148" s="17" t="s">
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A148" s="16" t="s">
         <v>524</v>
       </c>
       <c r="B148" t="s">
@@ -5445,21 +5234,18 @@
       <c r="C148" t="s">
         <v>216</v>
       </c>
-      <c r="D148" s="6" t="s">
+      <c r="D148" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E148">
         <v>9</v>
       </c>
-      <c r="F148" s="6" t="s">
+      <c r="F148" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G148" s="4" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A149" s="17" t="s">
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A149" s="16" t="s">
         <v>86</v>
       </c>
       <c r="B149" t="s">
@@ -5468,19 +5254,18 @@
       <c r="C149" t="s">
         <v>210</v>
       </c>
-      <c r="D149" s="6" t="s">
+      <c r="D149" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E149">
         <v>4</v>
       </c>
-      <c r="F149" s="6" t="s">
+      <c r="F149" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G149" s="4"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A150" s="17" t="s">
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A150" s="16" t="s">
         <v>58</v>
       </c>
       <c r="B150" t="s">
@@ -5489,19 +5274,18 @@
       <c r="C150" t="s">
         <v>210</v>
       </c>
-      <c r="D150" s="6" t="s">
+      <c r="D150" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E150">
         <v>3</v>
       </c>
-      <c r="F150" s="6" t="s">
+      <c r="F150" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G150" s="4"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A151" s="17" t="s">
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A151" s="16" t="s">
         <v>88</v>
       </c>
       <c r="B151" t="s">
@@ -5510,19 +5294,18 @@
       <c r="C151" t="s">
         <v>282</v>
       </c>
-      <c r="D151" s="6" t="s">
+      <c r="D151" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E151">
         <v>17</v>
       </c>
-      <c r="F151" s="6" t="s">
+      <c r="F151" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G151" s="4"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A152" s="17" t="s">
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A152" s="16" t="s">
         <v>140</v>
       </c>
       <c r="B152" t="s">
@@ -5531,19 +5314,18 @@
       <c r="C152" t="s">
         <v>216</v>
       </c>
-      <c r="D152" s="6" t="s">
+      <c r="D152" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E152">
         <v>6</v>
       </c>
-      <c r="F152" s="6" t="s">
+      <c r="F152" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="G152" s="4"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A153" s="17" t="s">
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A153" s="16" t="s">
         <v>410</v>
       </c>
       <c r="B153" t="s">
@@ -5552,19 +5334,18 @@
       <c r="C153" t="s">
         <v>507</v>
       </c>
-      <c r="D153" s="6" t="s">
+      <c r="D153" s="5" t="s">
         <v>263</v>
       </c>
       <c r="E153">
         <v>20</v>
       </c>
-      <c r="F153" s="6" t="s">
+      <c r="F153" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="G153" s="4"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A154" s="17" t="s">
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A154" s="16" t="s">
         <v>90</v>
       </c>
       <c r="B154" t="s">
@@ -5573,19 +5354,18 @@
       <c r="C154" t="s">
         <v>210</v>
       </c>
-      <c r="D154" s="6" t="s">
+      <c r="D154" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E154">
         <v>4</v>
       </c>
-      <c r="F154" s="6" t="s">
+      <c r="F154" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G154" s="4"/>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A155" s="17" t="s">
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A155" s="16" t="s">
         <v>336</v>
       </c>
       <c r="B155" t="s">
@@ -5594,19 +5374,18 @@
       <c r="C155" t="s">
         <v>282</v>
       </c>
-      <c r="D155" s="6" t="s">
+      <c r="D155" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E155">
         <v>16</v>
       </c>
-      <c r="F155" s="6" t="s">
+      <c r="F155" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="G155" s="4"/>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A156" s="17" t="s">
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A156" s="16" t="s">
         <v>526</v>
       </c>
       <c r="B156" t="s">
@@ -5615,21 +5394,18 @@
       <c r="C156" t="s">
         <v>282</v>
       </c>
-      <c r="D156" s="6" t="s">
+      <c r="D156" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E156">
         <v>16</v>
       </c>
-      <c r="F156" s="6" t="s">
+      <c r="F156" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="G156" s="4" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A157" s="17" t="s">
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A157" s="16" t="s">
         <v>230</v>
       </c>
       <c r="B157" t="s">
@@ -5638,19 +5414,18 @@
       <c r="C157" t="s">
         <v>477</v>
       </c>
-      <c r="D157" s="6" t="s">
+      <c r="D157" s="5" t="s">
         <v>187</v>
       </c>
       <c r="E157">
         <v>14</v>
       </c>
-      <c r="F157" s="6" t="s">
+      <c r="F157" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G157" s="4"/>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A158" s="17" t="s">
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A158" s="16" t="s">
         <v>305</v>
       </c>
       <c r="B158" t="s">
@@ -5659,19 +5434,18 @@
       <c r="C158" t="s">
         <v>282</v>
       </c>
-      <c r="D158" s="6" t="s">
+      <c r="D158" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E158">
         <v>16</v>
       </c>
-      <c r="F158" s="6" t="s">
+      <c r="F158" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="G158" s="4"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A159" s="17" t="s">
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A159" s="16" t="s">
         <v>454</v>
       </c>
       <c r="B159" t="s">
@@ -5680,19 +5454,18 @@
       <c r="C159" t="s">
         <v>216</v>
       </c>
-      <c r="D159" s="6" t="s">
+      <c r="D159" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E159">
         <v>9</v>
       </c>
-      <c r="F159" s="6" t="s">
+      <c r="F159" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G159" s="4"/>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A160" s="17" t="s">
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A160" s="16" t="s">
         <v>249</v>
       </c>
       <c r="B160" t="s">
@@ -5701,19 +5474,18 @@
       <c r="C160" t="s">
         <v>477</v>
       </c>
-      <c r="D160" s="6" t="s">
+      <c r="D160" s="5" t="s">
         <v>187</v>
       </c>
       <c r="E160">
         <v>15</v>
       </c>
-      <c r="F160" s="6" t="s">
+      <c r="F160" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="G160" s="4"/>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A161" s="17" t="s">
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A161" s="16" t="s">
         <v>32</v>
       </c>
       <c r="B161" t="s">
@@ -5722,19 +5494,18 @@
       <c r="C161" t="s">
         <v>210</v>
       </c>
-      <c r="D161" s="6" t="s">
+      <c r="D161" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E161">
         <v>2</v>
       </c>
-      <c r="F161" s="6" t="s">
+      <c r="F161" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G161" s="4"/>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A162" s="17" t="s">
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A162" s="16" t="s">
         <v>411</v>
       </c>
       <c r="B162" t="s">
@@ -5743,19 +5514,18 @@
       <c r="C162" t="s">
         <v>507</v>
       </c>
-      <c r="D162" s="6" t="s">
+      <c r="D162" s="5" t="s">
         <v>263</v>
       </c>
       <c r="E162">
         <v>20</v>
       </c>
-      <c r="F162" s="6" t="s">
+      <c r="F162" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="G162" s="4"/>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A163" s="17" t="s">
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A163" s="16" t="s">
         <v>204</v>
       </c>
       <c r="B163" t="s">
@@ -5764,19 +5534,18 @@
       <c r="C163" t="s">
         <v>477</v>
       </c>
-      <c r="D163" s="6" t="s">
+      <c r="D163" s="5" t="s">
         <v>187</v>
       </c>
       <c r="E163">
         <v>12</v>
       </c>
-      <c r="F163" s="6" t="s">
+      <c r="F163" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G163" s="4"/>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A164" s="17" t="s">
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A164" s="16" t="s">
         <v>130</v>
       </c>
       <c r="B164" t="s">
@@ -5785,19 +5554,18 @@
       <c r="C164" t="s">
         <v>216</v>
       </c>
-      <c r="D164" s="6" t="s">
+      <c r="D164" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E164">
         <v>6</v>
       </c>
-      <c r="F164" s="6" t="s">
+      <c r="F164" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="G164" s="4"/>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A165" s="17" t="s">
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A165" s="16" t="s">
         <v>60</v>
       </c>
       <c r="B165" t="s">
@@ -5806,19 +5574,18 @@
       <c r="C165" t="s">
         <v>210</v>
       </c>
-      <c r="D165" s="6" t="s">
+      <c r="D165" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E165">
         <v>3</v>
       </c>
-      <c r="F165" s="6" t="s">
+      <c r="F165" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G165" s="4"/>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A166" s="17" t="s">
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A166" s="16" t="s">
         <v>62</v>
       </c>
       <c r="B166" t="s">
@@ -5827,19 +5594,18 @@
       <c r="C166" t="s">
         <v>210</v>
       </c>
-      <c r="D166" s="6" t="s">
+      <c r="D166" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E166">
         <v>3</v>
       </c>
-      <c r="F166" s="6" t="s">
+      <c r="F166" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G166" s="4"/>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A167" s="17" t="s">
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A167" s="16" t="s">
         <v>469</v>
       </c>
       <c r="B167" t="s">
@@ -5848,19 +5614,18 @@
       <c r="C167" t="s">
         <v>507</v>
       </c>
-      <c r="D167" s="6" t="s">
+      <c r="D167" s="5" t="s">
         <v>263</v>
       </c>
       <c r="E167">
         <v>21</v>
       </c>
-      <c r="F167" s="6" t="s">
+      <c r="F167" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="G167" s="4"/>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A168" s="17" t="s">
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A168" s="16" t="s">
         <v>364</v>
       </c>
       <c r="B168" t="s">
@@ -5869,19 +5634,18 @@
       <c r="C168" t="s">
         <v>282</v>
       </c>
-      <c r="D168" s="6" t="s">
+      <c r="D168" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E168">
         <v>16</v>
       </c>
-      <c r="F168" s="6" t="s">
+      <c r="F168" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="G168" s="4"/>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A169" s="17" t="s">
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A169" s="16" t="s">
         <v>398</v>
       </c>
       <c r="B169" t="s">
@@ -5890,19 +5654,18 @@
       <c r="C169" t="s">
         <v>507</v>
       </c>
-      <c r="D169" s="6" t="s">
+      <c r="D169" s="5" t="s">
         <v>263</v>
       </c>
       <c r="E169">
         <v>19</v>
       </c>
-      <c r="F169" s="6" t="s">
+      <c r="F169" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="G169" s="4"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A170" s="17" t="s">
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A170" s="16" t="s">
         <v>271</v>
       </c>
       <c r="B170" t="s">
@@ -5911,19 +5674,18 @@
       <c r="C170" t="s">
         <v>507</v>
       </c>
-      <c r="D170" s="6" t="s">
+      <c r="D170" s="5" t="s">
         <v>263</v>
       </c>
       <c r="E170">
         <v>18</v>
       </c>
-      <c r="F170" s="6" t="s">
+      <c r="F170" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="G170" s="4"/>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A171" s="17" t="s">
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A171" s="16" t="s">
         <v>427</v>
       </c>
       <c r="B171" t="s">
@@ -5932,19 +5694,18 @@
       <c r="C171" t="s">
         <v>477</v>
       </c>
-      <c r="D171" s="6" t="s">
+      <c r="D171" s="5" t="s">
         <v>187</v>
       </c>
       <c r="E171">
         <v>13</v>
       </c>
-      <c r="F171" s="6" t="s">
+      <c r="F171" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="G171" s="4"/>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A172" s="17" t="s">
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A172" s="16" t="s">
         <v>326</v>
       </c>
       <c r="B172" t="s">
@@ -5953,19 +5714,18 @@
       <c r="C172" t="s">
         <v>282</v>
       </c>
-      <c r="D172" s="6" t="s">
+      <c r="D172" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E172">
         <v>17</v>
       </c>
-      <c r="F172" s="6" t="s">
+      <c r="F172" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G172" s="4"/>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A173" s="17" t="s">
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A173" s="16" t="s">
         <v>206</v>
       </c>
       <c r="B173" t="s">
@@ -5974,19 +5734,18 @@
       <c r="C173" t="s">
         <v>477</v>
       </c>
-      <c r="D173" s="6" t="s">
+      <c r="D173" s="5" t="s">
         <v>187</v>
       </c>
       <c r="E173">
         <v>12</v>
       </c>
-      <c r="F173" s="6" t="s">
+      <c r="F173" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G173" s="4"/>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A174" s="17" t="s">
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A174" s="16" t="s">
         <v>413</v>
       </c>
       <c r="B174" t="s">
@@ -5995,19 +5754,18 @@
       <c r="C174" t="s">
         <v>507</v>
       </c>
-      <c r="D174" s="6" t="s">
+      <c r="D174" s="5" t="s">
         <v>263</v>
       </c>
       <c r="E174">
         <v>20</v>
       </c>
-      <c r="F174" s="6" t="s">
+      <c r="F174" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="G174" s="4"/>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A175" s="17" t="s">
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A175" s="16" t="s">
         <v>429</v>
       </c>
       <c r="B175" t="s">
@@ -6016,21 +5774,18 @@
       <c r="C175" t="s">
         <v>477</v>
       </c>
-      <c r="D175" s="6" t="s">
+      <c r="D175" s="5" t="s">
         <v>187</v>
       </c>
       <c r="E175">
         <v>13</v>
       </c>
-      <c r="F175" s="6" t="s">
+      <c r="F175" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="G175" s="4" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A176" s="17" t="s">
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A176" s="16" t="s">
         <v>132</v>
       </c>
       <c r="B176" t="s">
@@ -6039,19 +5794,18 @@
       <c r="C176" t="s">
         <v>216</v>
       </c>
-      <c r="D176" s="6" t="s">
+      <c r="D176" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E176">
         <v>6</v>
       </c>
-      <c r="F176" s="6" t="s">
+      <c r="F176" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="G176" s="4"/>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A177" s="17" t="s">
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A177" s="16" t="s">
         <v>261</v>
       </c>
       <c r="B177" t="s">
@@ -6060,19 +5814,18 @@
       <c r="C177" t="s">
         <v>507</v>
       </c>
-      <c r="D177" s="6" t="s">
+      <c r="D177" s="5" t="s">
         <v>263</v>
       </c>
       <c r="E177">
         <v>19</v>
       </c>
-      <c r="F177" s="6" t="s">
+      <c r="F177" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="G177" s="4"/>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A178" s="17" t="s">
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A178" s="16" t="s">
         <v>149</v>
       </c>
       <c r="B178" t="s">
@@ -6081,19 +5834,18 @@
       <c r="C178" t="s">
         <v>216</v>
       </c>
-      <c r="D178" s="6" t="s">
+      <c r="D178" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E178">
         <v>8</v>
       </c>
-      <c r="F178" s="6" t="s">
+      <c r="F178" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="G178" s="4"/>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A179" s="17" t="s">
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A179" s="16" t="s">
         <v>166</v>
       </c>
       <c r="B179" t="s">
@@ -6102,19 +5854,18 @@
       <c r="C179" t="s">
         <v>216</v>
       </c>
-      <c r="D179" s="6" t="s">
+      <c r="D179" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E179">
         <v>8</v>
       </c>
-      <c r="F179" s="6" t="s">
+      <c r="F179" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="G179" s="4"/>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A180" s="17" t="s">
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A180" s="16" t="s">
         <v>471</v>
       </c>
       <c r="B180" t="s">
@@ -6123,19 +5874,18 @@
       <c r="C180" t="s">
         <v>507</v>
       </c>
-      <c r="D180" s="6" t="s">
+      <c r="D180" s="5" t="s">
         <v>263</v>
       </c>
       <c r="E180">
         <v>21</v>
       </c>
-      <c r="F180" s="6" t="s">
+      <c r="F180" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="G180" s="4"/>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A181" s="17" t="s">
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A181" s="16" t="s">
         <v>473</v>
       </c>
       <c r="B181" t="s">
@@ -6144,19 +5894,18 @@
       <c r="C181" t="s">
         <v>507</v>
       </c>
-      <c r="D181" s="6" t="s">
+      <c r="D181" s="5" t="s">
         <v>263</v>
       </c>
       <c r="E181">
         <v>21</v>
       </c>
-      <c r="F181" s="6" t="s">
+      <c r="F181" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="G181" s="4"/>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A182" s="17" t="s">
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A182" s="16" t="s">
         <v>338</v>
       </c>
       <c r="B182" t="s">
@@ -6165,19 +5914,18 @@
       <c r="C182" t="s">
         <v>282</v>
       </c>
-      <c r="D182" s="6" t="s">
+      <c r="D182" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E182">
         <v>17</v>
       </c>
-      <c r="F182" s="6" t="s">
+      <c r="F182" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G182" s="4"/>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A183" s="17" t="s">
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A183" s="16" t="s">
         <v>307</v>
       </c>
       <c r="B183" t="s">
@@ -6186,19 +5934,18 @@
       <c r="C183" t="s">
         <v>282</v>
       </c>
-      <c r="D183" s="6" t="s">
+      <c r="D183" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E183">
         <v>17</v>
       </c>
-      <c r="F183" s="6" t="s">
+      <c r="F183" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G183" s="4"/>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A184" s="17" t="s">
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A184" s="16" t="s">
         <v>529</v>
       </c>
       <c r="B184" t="s">
@@ -6207,21 +5954,18 @@
       <c r="C184" t="s">
         <v>216</v>
       </c>
-      <c r="D184" s="6" t="s">
+      <c r="D184" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E184">
         <v>9</v>
       </c>
-      <c r="F184" s="6" t="s">
+      <c r="F184" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G184" s="4" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A185" s="17" t="s">
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A185" s="16" t="s">
         <v>438</v>
       </c>
       <c r="B185" t="s">
@@ -6230,19 +5974,18 @@
       <c r="C185" t="s">
         <v>477</v>
       </c>
-      <c r="D185" s="6" t="s">
+      <c r="D185" s="5" t="s">
         <v>187</v>
       </c>
       <c r="E185">
         <v>13</v>
       </c>
-      <c r="F185" s="6" t="s">
+      <c r="F185" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="G185" s="4"/>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A186" s="17" t="s">
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A186" s="16" t="s">
         <v>366</v>
       </c>
       <c r="B186" t="s">
@@ -6251,19 +5994,18 @@
       <c r="C186" t="s">
         <v>282</v>
       </c>
-      <c r="D186" s="6" t="s">
+      <c r="D186" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E186">
         <v>17</v>
       </c>
-      <c r="F186" s="6" t="s">
+      <c r="F186" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G186" s="4"/>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A187" s="17" t="s">
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A187" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B187" t="s">
@@ -6272,19 +6014,18 @@
       <c r="C187" t="s">
         <v>210</v>
       </c>
-      <c r="D187" s="6" t="s">
+      <c r="D187" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E187">
         <v>1</v>
       </c>
-      <c r="F187" s="6" t="s">
+      <c r="F187" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G187" s="4"/>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A188" s="17" t="s">
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A188" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B188" t="s">
@@ -6293,19 +6034,18 @@
       <c r="C188" t="s">
         <v>210</v>
       </c>
-      <c r="D188" s="6" t="s">
+      <c r="D188" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E188">
         <v>1</v>
       </c>
-      <c r="F188" s="6" t="s">
+      <c r="F188" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G188" s="4"/>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A189" s="17" t="s">
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A189" s="16" t="s">
         <v>380</v>
       </c>
       <c r="B189" t="s">
@@ -6314,19 +6054,18 @@
       <c r="C189" t="s">
         <v>216</v>
       </c>
-      <c r="D189" s="6" t="s">
+      <c r="D189" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E189">
         <v>9</v>
       </c>
-      <c r="F189" s="6" t="s">
+      <c r="F189" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G189" s="4"/>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A190" s="17" t="s">
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A190" s="16" t="s">
         <v>531</v>
       </c>
       <c r="B190" t="s">
@@ -6335,21 +6074,18 @@
       <c r="C190" t="s">
         <v>210</v>
       </c>
-      <c r="D190" s="6" t="s">
+      <c r="D190" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E190">
         <v>4</v>
       </c>
-      <c r="F190" s="6" t="s">
+      <c r="F190" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G190" s="4" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A191" s="17" t="s">
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A191" s="16" t="s">
         <v>340</v>
       </c>
       <c r="B191" t="s">
@@ -6358,19 +6094,18 @@
       <c r="C191" t="s">
         <v>282</v>
       </c>
-      <c r="D191" s="6" t="s">
+      <c r="D191" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E191">
         <v>17</v>
       </c>
-      <c r="F191" s="6" t="s">
+      <c r="F191" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G191" s="4"/>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A192" s="17" t="s">
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A192" s="16" t="s">
         <v>384</v>
       </c>
       <c r="B192" t="s">
@@ -6379,19 +6114,18 @@
       <c r="C192" t="s">
         <v>210</v>
       </c>
-      <c r="D192" s="6" t="s">
+      <c r="D192" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E192">
         <v>4</v>
       </c>
-      <c r="F192" s="6" t="s">
+      <c r="F192" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G192" s="4"/>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A193" s="17" t="s">
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A193" s="16" t="s">
         <v>346</v>
       </c>
       <c r="B193" t="s">
@@ -6400,19 +6134,18 @@
       <c r="C193" t="s">
         <v>282</v>
       </c>
-      <c r="D193" s="6" t="s">
+      <c r="D193" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E193">
         <v>16</v>
       </c>
-      <c r="F193" s="6" t="s">
+      <c r="F193" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="G193" s="4"/>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A194" s="17" t="s">
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A194" s="16" t="s">
         <v>113</v>
       </c>
       <c r="B194" t="s">
@@ -6421,19 +6154,18 @@
       <c r="C194" t="s">
         <v>210</v>
       </c>
-      <c r="D194" s="6" t="s">
+      <c r="D194" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E194">
         <v>5</v>
       </c>
-      <c r="F194" s="6" t="s">
+      <c r="F194" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G194" s="4"/>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A195" s="17" t="s">
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A195" s="16" t="s">
         <v>64</v>
       </c>
       <c r="B195" t="s">
@@ -6442,19 +6174,18 @@
       <c r="C195" t="s">
         <v>210</v>
       </c>
-      <c r="D195" s="6" t="s">
+      <c r="D195" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E195">
         <v>3</v>
       </c>
-      <c r="F195" s="6" t="s">
+      <c r="F195" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G195" s="4"/>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A196" s="17" t="s">
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A196" s="16" t="s">
         <v>456</v>
       </c>
       <c r="B196" t="s">
@@ -6463,19 +6194,18 @@
       <c r="C196" t="s">
         <v>216</v>
       </c>
-      <c r="D196" s="6" t="s">
+      <c r="D196" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E196">
         <v>9</v>
       </c>
-      <c r="F196" s="6" t="s">
+      <c r="F196" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G196" s="4"/>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A197" s="17" t="s">
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A197" s="16" t="s">
         <v>458</v>
       </c>
       <c r="B197" t="s">
@@ -6484,19 +6214,18 @@
       <c r="C197" t="s">
         <v>216</v>
       </c>
-      <c r="D197" s="6" t="s">
+      <c r="D197" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E197">
         <v>9</v>
       </c>
-      <c r="F197" s="6" t="s">
+      <c r="F197" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G197" s="4"/>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A198" s="17" t="s">
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A198" s="16" t="s">
         <v>460</v>
       </c>
       <c r="B198" t="s">
@@ -6505,19 +6234,18 @@
       <c r="C198" t="s">
         <v>216</v>
       </c>
-      <c r="D198" s="6" t="s">
+      <c r="D198" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E198">
         <v>9</v>
       </c>
-      <c r="F198" s="6" t="s">
+      <c r="F198" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G198" s="4"/>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A199" s="17" t="s">
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A199" s="16" t="s">
         <v>462</v>
       </c>
       <c r="B199" t="s">
@@ -6526,19 +6254,18 @@
       <c r="C199" t="s">
         <v>216</v>
       </c>
-      <c r="D199" s="6" t="s">
+      <c r="D199" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E199">
         <v>9</v>
       </c>
-      <c r="F199" s="6" t="s">
+      <c r="F199" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G199" s="4"/>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A200" s="17" t="s">
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A200" s="16" t="s">
         <v>533</v>
       </c>
       <c r="B200" t="s">
@@ -6547,21 +6274,18 @@
       <c r="C200" t="s">
         <v>216</v>
       </c>
-      <c r="D200" s="6" t="s">
+      <c r="D200" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E200">
         <v>9</v>
       </c>
-      <c r="F200" s="6" t="s">
+      <c r="F200" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G200" s="4" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A201" s="17" t="s">
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A201" s="16" t="s">
         <v>142</v>
       </c>
       <c r="B201" t="s">
@@ -6570,19 +6294,18 @@
       <c r="C201" t="s">
         <v>216</v>
       </c>
-      <c r="D201" s="6" t="s">
+      <c r="D201" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E201">
         <v>7</v>
       </c>
-      <c r="F201" s="6" t="s">
+      <c r="F201" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G201" s="4"/>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A202" s="17" t="s">
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A202" s="16" t="s">
         <v>475</v>
       </c>
       <c r="B202" t="s">
@@ -6591,19 +6314,18 @@
       <c r="C202" t="s">
         <v>507</v>
       </c>
-      <c r="D202" s="6" t="s">
+      <c r="D202" s="5" t="s">
         <v>263</v>
       </c>
       <c r="E202">
         <v>21</v>
       </c>
-      <c r="F202" s="6" t="s">
+      <c r="F202" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="G202" s="4"/>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A203" s="17" t="s">
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A203" s="16" t="s">
         <v>477</v>
       </c>
       <c r="B203" t="s">
@@ -6612,19 +6334,18 @@
       <c r="C203" t="s">
         <v>507</v>
       </c>
-      <c r="D203" s="6" t="s">
+      <c r="D203" s="5" t="s">
         <v>263</v>
       </c>
       <c r="E203">
         <v>21</v>
       </c>
-      <c r="F203" s="6" t="s">
+      <c r="F203" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="G203" s="4"/>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A204" s="17" t="s">
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A204" s="16" t="s">
         <v>309</v>
       </c>
       <c r="B204" t="s">
@@ -6633,19 +6354,18 @@
       <c r="C204" t="s">
         <v>282</v>
       </c>
-      <c r="D204" s="6" t="s">
+      <c r="D204" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E204">
         <v>16</v>
       </c>
-      <c r="F204" s="6" t="s">
+      <c r="F204" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="G204" s="4"/>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A205" s="17" t="s">
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A205" s="16" t="s">
         <v>311</v>
       </c>
       <c r="B205" t="s">
@@ -6654,19 +6374,18 @@
       <c r="C205" t="s">
         <v>282</v>
       </c>
-      <c r="D205" s="6" t="s">
+      <c r="D205" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E205">
         <v>16</v>
       </c>
-      <c r="F205" s="6" t="s">
+      <c r="F205" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="G205" s="4"/>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A206" s="17" t="s">
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A206" s="16" t="s">
         <v>21</v>
       </c>
       <c r="B206" t="s">
@@ -6675,19 +6394,18 @@
       <c r="C206" t="s">
         <v>210</v>
       </c>
-      <c r="D206" s="6" t="s">
+      <c r="D206" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E206">
         <v>1</v>
       </c>
-      <c r="F206" s="6" t="s">
+      <c r="F206" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G206" s="4"/>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A207" s="17" t="s">
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A207" s="16" t="s">
         <v>66</v>
       </c>
       <c r="B207" t="s">
@@ -6696,19 +6414,18 @@
       <c r="C207" t="s">
         <v>210</v>
       </c>
-      <c r="D207" s="6" t="s">
+      <c r="D207" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E207">
         <v>3</v>
       </c>
-      <c r="F207" s="6" t="s">
+      <c r="F207" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G207" s="4"/>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A208" s="17" t="s">
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A208" s="16" t="s">
         <v>535</v>
       </c>
       <c r="B208" t="s">
@@ -6717,19 +6434,18 @@
       <c r="C208" t="s">
         <v>282</v>
       </c>
-      <c r="D208" s="6" t="s">
+      <c r="D208" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E208">
         <v>16</v>
       </c>
-      <c r="F208" s="6" t="s">
+      <c r="F208" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="G208" s="4"/>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A209" s="17" t="s">
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A209" s="16" t="s">
         <v>92</v>
       </c>
       <c r="B209" t="s">
@@ -6738,19 +6454,18 @@
       <c r="C209" t="s">
         <v>210</v>
       </c>
-      <c r="D209" s="6" t="s">
+      <c r="D209" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E209">
         <v>4</v>
       </c>
-      <c r="F209" s="6" t="s">
+      <c r="F209" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G209" s="4"/>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A210" s="17" t="s">
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A210" s="16" t="s">
         <v>68</v>
       </c>
       <c r="B210" t="s">
@@ -6759,19 +6474,18 @@
       <c r="C210" t="s">
         <v>210</v>
       </c>
-      <c r="D210" s="6" t="s">
+      <c r="D210" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E210">
         <v>3</v>
       </c>
-      <c r="F210" s="6" t="s">
+      <c r="F210" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G210" s="4"/>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A211" s="17" t="s">
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A211" s="16" t="s">
         <v>251</v>
       </c>
       <c r="B211" t="s">
@@ -6780,19 +6494,18 @@
       <c r="C211" t="s">
         <v>477</v>
       </c>
-      <c r="D211" s="6" t="s">
+      <c r="D211" s="5" t="s">
         <v>187</v>
       </c>
       <c r="E211">
         <v>15</v>
       </c>
-      <c r="F211" s="6" t="s">
+      <c r="F211" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="G211" s="4"/>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A212" s="17" t="s">
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A212" s="16" t="s">
         <v>464</v>
       </c>
       <c r="B212" t="s">
@@ -6801,19 +6514,18 @@
       <c r="C212" t="s">
         <v>216</v>
       </c>
-      <c r="D212" s="6" t="s">
+      <c r="D212" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E212">
         <v>9</v>
       </c>
-      <c r="F212" s="6" t="s">
+      <c r="F212" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G212" s="4"/>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A213" s="17" t="s">
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A213" s="16" t="s">
         <v>430</v>
       </c>
       <c r="B213" t="s">
@@ -6822,19 +6534,18 @@
       <c r="C213" t="s">
         <v>477</v>
       </c>
-      <c r="D213" s="6" t="s">
+      <c r="D213" s="5" t="s">
         <v>187</v>
       </c>
       <c r="E213">
         <v>13</v>
       </c>
-      <c r="F213" s="6" t="s">
+      <c r="F213" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="G213" s="4"/>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A214" s="17" t="s">
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A214" s="16" t="s">
         <v>94</v>
       </c>
       <c r="B214" t="s">
@@ -6843,19 +6554,18 @@
       <c r="C214" t="s">
         <v>210</v>
       </c>
-      <c r="D214" s="6" t="s">
+      <c r="D214" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E214">
         <v>4</v>
       </c>
-      <c r="F214" s="6" t="s">
+      <c r="F214" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G214" s="4"/>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A215" s="17" t="s">
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A215" s="16" t="s">
         <v>208</v>
       </c>
       <c r="B215" t="s">
@@ -6864,19 +6574,18 @@
       <c r="C215" t="s">
         <v>477</v>
       </c>
-      <c r="D215" s="6" t="s">
+      <c r="D215" s="5" t="s">
         <v>187</v>
       </c>
       <c r="E215">
         <v>12</v>
       </c>
-      <c r="F215" s="6" t="s">
+      <c r="F215" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G215" s="4"/>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A216" s="17" t="s">
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A216" s="16" t="s">
         <v>34</v>
       </c>
       <c r="B216" t="s">
@@ -6885,19 +6594,18 @@
       <c r="C216" t="s">
         <v>210</v>
       </c>
-      <c r="D216" s="6" t="s">
+      <c r="D216" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E216">
         <v>2</v>
       </c>
-      <c r="F216" s="6" t="s">
+      <c r="F216" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G216" s="4"/>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A217" s="17" t="s">
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A217" s="16" t="s">
         <v>106</v>
       </c>
       <c r="B217" t="s">
@@ -6906,19 +6614,18 @@
       <c r="C217" t="s">
         <v>210</v>
       </c>
-      <c r="D217" s="6" t="s">
+      <c r="D217" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E217">
         <v>4</v>
       </c>
-      <c r="F217" s="6" t="s">
+      <c r="F217" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G217" s="4"/>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A218" s="17" t="s">
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A218" s="16" t="s">
         <v>115</v>
       </c>
       <c r="B218" t="s">
@@ -6927,19 +6634,18 @@
       <c r="C218" t="s">
         <v>210</v>
       </c>
-      <c r="D218" s="6" t="s">
+      <c r="D218" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E218">
         <v>5</v>
       </c>
-      <c r="F218" s="6" t="s">
+      <c r="F218" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G218" s="4"/>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A219" s="17" t="s">
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A219" s="16" t="s">
         <v>368</v>
       </c>
       <c r="B219" t="s">
@@ -6948,19 +6654,18 @@
       <c r="C219" t="s">
         <v>282</v>
       </c>
-      <c r="D219" s="6" t="s">
+      <c r="D219" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E219">
         <v>17</v>
       </c>
-      <c r="F219" s="6" t="s">
+      <c r="F219" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G219" s="4"/>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A220" s="17" t="s">
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A220" s="16" t="s">
         <v>328</v>
       </c>
       <c r="B220" t="s">
@@ -6969,19 +6674,18 @@
       <c r="C220" t="s">
         <v>282</v>
       </c>
-      <c r="D220" s="6" t="s">
+      <c r="D220" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E220">
         <v>16</v>
       </c>
-      <c r="F220" s="6" t="s">
+      <c r="F220" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="G220" s="4"/>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A221" s="17" t="s">
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A221" s="16" t="s">
         <v>164</v>
       </c>
       <c r="B221" t="s">
@@ -6990,19 +6694,18 @@
       <c r="C221" t="s">
         <v>216</v>
       </c>
-      <c r="D221" s="6" t="s">
+      <c r="D221" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E221">
         <v>8</v>
       </c>
-      <c r="F221" s="6" t="s">
+      <c r="F221" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="G221" s="4"/>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A222" s="17" t="s">
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A222" s="16" t="s">
         <v>536</v>
       </c>
       <c r="B222" t="s">
@@ -7011,21 +6714,18 @@
       <c r="C222" t="s">
         <v>282</v>
       </c>
-      <c r="D222" s="6" t="s">
+      <c r="D222" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E222">
         <v>16</v>
       </c>
-      <c r="F222" s="6" t="s">
+      <c r="F222" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="G222" s="4" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A223" s="17" t="s">
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A223" s="16" t="s">
         <v>191</v>
       </c>
       <c r="B223" t="s">
@@ -7034,19 +6734,18 @@
       <c r="C223" t="s">
         <v>477</v>
       </c>
-      <c r="D223" s="6" t="s">
+      <c r="D223" s="5" t="s">
         <v>187</v>
       </c>
       <c r="E223">
         <v>11</v>
       </c>
-      <c r="F223" s="6" t="s">
+      <c r="F223" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="G223" s="4"/>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A224" s="17" t="s">
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A224" s="16" t="s">
         <v>253</v>
       </c>
       <c r="B224" t="s">
@@ -7055,19 +6754,18 @@
       <c r="C224" t="s">
         <v>477</v>
       </c>
-      <c r="D224" s="6" t="s">
+      <c r="D224" s="5" t="s">
         <v>187</v>
       </c>
       <c r="E224">
         <v>15</v>
       </c>
-      <c r="F224" s="6" t="s">
+      <c r="F224" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="G224" s="4"/>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A225" s="17" t="s">
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A225" s="16" t="s">
         <v>232</v>
       </c>
       <c r="B225" t="s">
@@ -7076,19 +6774,18 @@
       <c r="C225" t="s">
         <v>477</v>
       </c>
-      <c r="D225" s="6" t="s">
+      <c r="D225" s="5" t="s">
         <v>187</v>
       </c>
       <c r="E225">
         <v>14</v>
       </c>
-      <c r="F225" s="6" t="s">
+      <c r="F225" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G225" s="4"/>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A226" s="17" t="s">
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A226" s="16" t="s">
         <v>96</v>
       </c>
       <c r="B226" t="s">
@@ -7097,19 +6794,18 @@
       <c r="C226" t="s">
         <v>210</v>
       </c>
-      <c r="D226" s="6" t="s">
+      <c r="D226" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E226">
         <v>4</v>
       </c>
-      <c r="F226" s="6" t="s">
+      <c r="F226" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G226" s="4"/>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A227" s="17" t="s">
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A227" s="16" t="s">
         <v>175</v>
       </c>
       <c r="B227" t="s">
@@ -7118,21 +6814,18 @@
       <c r="C227" t="s">
         <v>506</v>
       </c>
-      <c r="D227" s="6" t="s">
+      <c r="D227" s="5" t="s">
         <v>178</v>
       </c>
       <c r="E227">
         <v>10</v>
       </c>
-      <c r="F227" s="6" t="s">
+      <c r="F227" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="G227" s="4" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A228" s="17" t="s">
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A228" s="16" t="s">
         <v>98</v>
       </c>
       <c r="B228" t="s">
@@ -7141,19 +6834,18 @@
       <c r="C228" t="s">
         <v>210</v>
       </c>
-      <c r="D228" s="6" t="s">
+      <c r="D228" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E228">
         <v>4</v>
       </c>
-      <c r="F228" s="6" t="s">
+      <c r="F228" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G228" s="4"/>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A229" s="17" t="s">
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A229" s="16" t="s">
         <v>259</v>
       </c>
       <c r="B229" t="s">
@@ -7162,19 +6854,18 @@
       <c r="C229" t="s">
         <v>477</v>
       </c>
-      <c r="D229" s="6" t="s">
+      <c r="D229" s="5" t="s">
         <v>187</v>
       </c>
       <c r="E229">
         <v>15</v>
       </c>
-      <c r="F229" s="6" t="s">
+      <c r="F229" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="G229" s="4"/>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A230" s="17" t="s">
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A230" s="16" t="s">
         <v>70</v>
       </c>
       <c r="B230" t="s">
@@ -7183,19 +6874,18 @@
       <c r="C230" t="s">
         <v>210</v>
       </c>
-      <c r="D230" s="6" t="s">
+      <c r="D230" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E230">
         <v>3</v>
       </c>
-      <c r="F230" s="6" t="s">
+      <c r="F230" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G230" s="4"/>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A231" s="17" t="s">
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A231" s="16" t="s">
         <v>479</v>
       </c>
       <c r="B231" t="s">
@@ -7204,19 +6894,18 @@
       <c r="C231" t="s">
         <v>507</v>
       </c>
-      <c r="D231" s="6" t="s">
+      <c r="D231" s="5" t="s">
         <v>263</v>
       </c>
       <c r="E231">
         <v>21</v>
       </c>
-      <c r="F231" s="6" t="s">
+      <c r="F231" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="G231" s="4"/>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A232" s="17" t="s">
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A232" s="16" t="s">
         <v>481</v>
       </c>
       <c r="B232" t="s">
@@ -7225,19 +6914,18 @@
       <c r="C232" t="s">
         <v>507</v>
       </c>
-      <c r="D232" s="6" t="s">
+      <c r="D232" s="5" t="s">
         <v>263</v>
       </c>
       <c r="E232">
         <v>21</v>
       </c>
-      <c r="F232" s="6" t="s">
+      <c r="F232" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="G232" s="4"/>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A233" s="17" t="s">
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A233" s="16" t="s">
         <v>172</v>
       </c>
       <c r="B233" t="s">
@@ -7246,19 +6934,18 @@
       <c r="C233" t="s">
         <v>216</v>
       </c>
-      <c r="D233" s="6" t="s">
+      <c r="D233" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E233">
         <v>9</v>
       </c>
-      <c r="F233" s="6" t="s">
+      <c r="F233" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G233" s="4"/>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A234" s="17" t="s">
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A234" s="16" t="s">
         <v>116</v>
       </c>
       <c r="B234" t="s">
@@ -7267,19 +6954,18 @@
       <c r="C234" t="s">
         <v>210</v>
       </c>
-      <c r="D234" s="6" t="s">
+      <c r="D234" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E234">
         <v>5</v>
       </c>
-      <c r="F234" s="6" t="s">
+      <c r="F234" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G234" s="4"/>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A235" s="17" t="s">
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A235" s="16" t="s">
         <v>193</v>
       </c>
       <c r="B235" t="s">
@@ -7288,19 +6974,18 @@
       <c r="C235" t="s">
         <v>477</v>
       </c>
-      <c r="D235" s="6" t="s">
+      <c r="D235" s="5" t="s">
         <v>187</v>
       </c>
       <c r="E235">
         <v>11</v>
       </c>
-      <c r="F235" s="6" t="s">
+      <c r="F235" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="G235" s="4"/>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A236" s="17" t="s">
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A236" s="16" t="s">
         <v>370</v>
       </c>
       <c r="B236" t="s">
@@ -7309,19 +6994,18 @@
       <c r="C236" t="s">
         <v>282</v>
       </c>
-      <c r="D236" s="6" t="s">
+      <c r="D236" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E236">
         <v>16</v>
       </c>
-      <c r="F236" s="6" t="s">
+      <c r="F236" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="G236" s="4"/>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A237" s="17" t="s">
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A237" s="16" t="s">
         <v>483</v>
       </c>
       <c r="B237" t="s">
@@ -7330,19 +7014,18 @@
       <c r="C237" t="s">
         <v>507</v>
       </c>
-      <c r="D237" s="6" t="s">
+      <c r="D237" s="5" t="s">
         <v>263</v>
       </c>
       <c r="E237">
         <v>21</v>
       </c>
-      <c r="F237" s="6" t="s">
+      <c r="F237" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="G237" s="4"/>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A238" s="17" t="s">
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A238" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B238" t="s">
@@ -7351,19 +7034,18 @@
       <c r="C238" t="s">
         <v>210</v>
       </c>
-      <c r="D238" s="6" t="s">
+      <c r="D238" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E238">
         <v>1</v>
       </c>
-      <c r="F238" s="6" t="s">
+      <c r="F238" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G238" s="4"/>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A239" s="17" t="s">
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A239" s="16" t="s">
         <v>342</v>
       </c>
       <c r="B239" t="s">
@@ -7372,19 +7054,18 @@
       <c r="C239" t="s">
         <v>282</v>
       </c>
-      <c r="D239" s="6" t="s">
+      <c r="D239" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E239">
         <v>17</v>
       </c>
-      <c r="F239" s="6" t="s">
+      <c r="F239" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G239" s="4"/>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A240" s="17" t="s">
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A240" s="16" t="s">
         <v>344</v>
       </c>
       <c r="B240" t="s">
@@ -7393,19 +7074,18 @@
       <c r="C240" t="s">
         <v>282</v>
       </c>
-      <c r="D240" s="6" t="s">
+      <c r="D240" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E240">
         <v>16</v>
       </c>
-      <c r="F240" s="6" t="s">
+      <c r="F240" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="G240" s="4"/>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A241" s="17" t="s">
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A241" s="16" t="s">
         <v>100</v>
       </c>
       <c r="B241" t="s">
@@ -7414,19 +7094,18 @@
       <c r="C241" t="s">
         <v>210</v>
       </c>
-      <c r="D241" s="6" t="s">
+      <c r="D241" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E241">
         <v>4</v>
       </c>
-      <c r="F241" s="6" t="s">
+      <c r="F241" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G241" s="4"/>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A242" s="17" t="s">
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A242" s="16" t="s">
         <v>153</v>
       </c>
       <c r="B242" t="s">
@@ -7435,19 +7114,18 @@
       <c r="C242" t="s">
         <v>216</v>
       </c>
-      <c r="D242" s="6" t="s">
+      <c r="D242" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E242">
         <v>8</v>
       </c>
-      <c r="F242" s="6" t="s">
+      <c r="F242" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="G242" s="4"/>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A243" s="17" t="s">
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A243" s="16" t="s">
         <v>195</v>
       </c>
       <c r="B243" t="s">
@@ -7456,19 +7134,18 @@
       <c r="C243" t="s">
         <v>477</v>
       </c>
-      <c r="D243" s="6" t="s">
+      <c r="D243" s="5" t="s">
         <v>187</v>
       </c>
       <c r="E243">
         <v>11</v>
       </c>
-      <c r="F243" s="6" t="s">
+      <c r="F243" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="G243" s="4"/>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A244" s="17" t="s">
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A244" s="16" t="s">
         <v>400</v>
       </c>
       <c r="B244" t="s">
@@ -7477,19 +7154,18 @@
       <c r="C244" t="s">
         <v>507</v>
       </c>
-      <c r="D244" s="6" t="s">
+      <c r="D244" s="5" t="s">
         <v>263</v>
       </c>
       <c r="E244">
         <v>19</v>
       </c>
-      <c r="F244" s="6" t="s">
+      <c r="F244" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="G244" s="4"/>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A245" s="17" t="s">
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A245" s="16" t="s">
         <v>170</v>
       </c>
       <c r="B245" t="s">
@@ -7498,19 +7174,18 @@
       <c r="C245" t="s">
         <v>216</v>
       </c>
-      <c r="D245" s="6" t="s">
+      <c r="D245" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E245">
         <v>8</v>
       </c>
-      <c r="F245" s="6" t="s">
+      <c r="F245" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="G245" s="4"/>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A246" s="17" t="s">
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A246" s="16" t="s">
         <v>255</v>
       </c>
       <c r="B246" t="s">
@@ -7519,19 +7194,18 @@
       <c r="C246" t="s">
         <v>477</v>
       </c>
-      <c r="D246" s="6" t="s">
+      <c r="D246" s="5" t="s">
         <v>187</v>
       </c>
       <c r="E246">
         <v>15</v>
       </c>
-      <c r="F246" s="6" t="s">
+      <c r="F246" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="G246" s="4"/>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A247" s="17" t="s">
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A247" s="16" t="s">
         <v>485</v>
       </c>
       <c r="B247" t="s">
@@ -7540,19 +7214,18 @@
       <c r="C247" t="s">
         <v>507</v>
       </c>
-      <c r="D247" s="6" t="s">
+      <c r="D247" s="5" t="s">
         <v>263</v>
       </c>
       <c r="E247">
         <v>21</v>
       </c>
-      <c r="F247" s="6" t="s">
+      <c r="F247" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="G247" s="4"/>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A248" s="17" t="s">
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A248" s="16" t="s">
         <v>168</v>
       </c>
       <c r="B248" t="s">
@@ -7561,19 +7234,18 @@
       <c r="C248" t="s">
         <v>216</v>
       </c>
-      <c r="D248" s="6" t="s">
+      <c r="D248" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E248">
         <v>8</v>
       </c>
-      <c r="F248" s="6" t="s">
+      <c r="F248" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="G248" s="4"/>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A249" s="17" t="s">
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A249" s="16" t="s">
         <v>234</v>
       </c>
       <c r="B249" t="s">
@@ -7582,19 +7254,18 @@
       <c r="C249" t="s">
         <v>477</v>
       </c>
-      <c r="D249" s="6" t="s">
+      <c r="D249" s="5" t="s">
         <v>187</v>
       </c>
       <c r="E249">
         <v>14</v>
       </c>
-      <c r="F249" s="6" t="s">
+      <c r="F249" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G249" s="4"/>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A250" s="17" t="s">
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A250" s="16" t="s">
         <v>392</v>
       </c>
       <c r="B250" t="s">
@@ -7603,19 +7274,18 @@
       <c r="C250" t="s">
         <v>282</v>
       </c>
-      <c r="D250" s="6" t="s">
+      <c r="D250" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E250">
         <v>17</v>
       </c>
-      <c r="F250" s="6" t="s">
+      <c r="F250" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G250" s="4"/>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A251" s="17" t="s">
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A251" s="16" t="s">
         <v>102</v>
       </c>
       <c r="B251" t="s">
@@ -7624,19 +7294,18 @@
       <c r="C251" t="s">
         <v>210</v>
       </c>
-      <c r="D251" s="6" t="s">
+      <c r="D251" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E251">
         <v>4</v>
       </c>
-      <c r="F251" s="6" t="s">
+      <c r="F251" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G251" s="4"/>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A252" s="17" t="s">
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A252" s="16" t="s">
         <v>104</v>
       </c>
       <c r="B252" t="s">
@@ -7645,19 +7314,18 @@
       <c r="C252" t="s">
         <v>210</v>
       </c>
-      <c r="D252" s="6" t="s">
+      <c r="D252" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E252">
         <v>4</v>
       </c>
-      <c r="F252" s="6" t="s">
+      <c r="F252" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G252" s="4"/>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A253" s="17" t="s">
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A253" s="16" t="s">
         <v>508</v>
       </c>
       <c r="B253" t="s">
@@ -7666,19 +7334,18 @@
       <c r="C253" t="s">
         <v>398</v>
       </c>
-      <c r="D253" s="6" t="s">
+      <c r="D253" s="5" t="s">
         <v>489</v>
       </c>
       <c r="E253">
         <v>98</v>
       </c>
-      <c r="F253" s="6" t="s">
+      <c r="F253" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="G253" s="4"/>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A254" s="17" t="s">
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A254" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B254" t="s">
@@ -7687,16 +7354,15 @@
       <c r="C254" t="s">
         <v>285</v>
       </c>
-      <c r="D254" s="6" t="s">
+      <c r="D254" s="5" t="s">
         <v>281</v>
       </c>
       <c r="E254">
         <v>99</v>
       </c>
-      <c r="F254" s="6" t="s">
+      <c r="F254" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="G254" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/content/drafts/entitats/Codis_Territori_Paisos_ISOA2.xlsx
+++ b/content/drafts/entitats/Codis_Territori_Paisos_ISOA2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAA\CTTI\02.Projecte_DadesRef\_____c6\01.CATaleg\07.Proposta_noves_ER\04.Cataleg_Entitats_Modelades.v03\07.Continents_paisos\Propostes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAYATSAL\git\Portal\portal\content\drafts\entitats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9159D78C-C498-4E3C-A610-7F1C47B3D092}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A9F25D-B1FF-4FBB-8EA4-CB6757FC0D9E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{2A9043EE-0398-4927-8C09-CA4E22432D8B}"/>
   </bookViews>
@@ -1681,7 +1681,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1704,6 +1704,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor theme="4"/>
       </patternFill>
     </fill>
   </fills>
@@ -1757,7 +1763,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1777,7 +1783,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1791,6 +1796,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1865,7 +1873,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0" tint="-0.499984740745262"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2272,7 +2280,7 @@
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.26953125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="35.1796875" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.26953125" style="2" bestFit="1" customWidth="1"/>
@@ -2331,7 +2339,7 @@
       <c r="B3" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -2351,13 +2359,13 @@
       <c r="B4" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="18" t="s">
         <v>477</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="16">
         <v>12</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -2365,19 +2373,19 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>511</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>512</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="17">
         <v>17</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -2391,13 +2399,13 @@
       <c r="B6" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="18" t="s">
         <v>282</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <v>16</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -2405,19 +2413,19 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="17">
         <v>17</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -2425,13 +2433,13 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>107</v>
       </c>
       <c r="B8" t="s">
         <v>108</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -2445,13 +2453,13 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>285</v>
       </c>
       <c r="B9" t="s">
         <v>286</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -2465,13 +2473,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -2485,13 +2493,13 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>386</v>
       </c>
       <c r="B11" t="s">
         <v>387</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -2505,13 +2513,13 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>176</v>
       </c>
       <c r="B12" t="s">
         <v>177</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="19" t="s">
         <v>506</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -2525,13 +2533,13 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>388</v>
       </c>
       <c r="B13" t="s">
         <v>389</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -2545,13 +2553,13 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>432</v>
       </c>
       <c r="B14" t="s">
         <v>433</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="19" t="s">
         <v>477</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -2565,13 +2573,13 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>155</v>
       </c>
       <c r="B15" t="s">
         <v>156</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -2585,13 +2593,13 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>216</v>
       </c>
       <c r="B16" t="s">
         <v>217</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -2605,13 +2613,13 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>390</v>
       </c>
       <c r="B17" t="s">
         <v>391</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -2625,13 +2633,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>266</v>
       </c>
       <c r="B18" t="s">
         <v>267</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="19" t="s">
         <v>507</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -2645,13 +2653,13 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>316</v>
       </c>
       <c r="B19" t="s">
         <v>317</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -2665,13 +2673,13 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>278</v>
       </c>
       <c r="B20" t="s">
         <v>279</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D20" s="5" t="s">
@@ -2685,13 +2693,13 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>275</v>
       </c>
       <c r="B21" t="s">
         <v>492</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D21" s="5" t="s">
@@ -2705,13 +2713,13 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>434</v>
       </c>
       <c r="B22" t="s">
         <v>435</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="19" t="s">
         <v>477</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -2725,13 +2733,13 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>212</v>
       </c>
       <c r="B23" t="s">
         <v>213</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="19" t="s">
         <v>477</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -2745,13 +2753,13 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
         <v>440</v>
       </c>
       <c r="B24" t="s">
         <v>441</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -2765,13 +2773,13 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>330</v>
       </c>
       <c r="B25" t="s">
         <v>331</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -2785,13 +2793,13 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="15" t="s">
         <v>318</v>
       </c>
       <c r="B26" t="s">
         <v>319</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D26" s="5" t="s">
@@ -2805,13 +2813,13 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="15" t="s">
         <v>118</v>
       </c>
       <c r="B27" t="s">
         <v>119</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D27" s="5" t="s">
@@ -2825,13 +2833,13 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B28" t="s">
         <v>38</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D28" s="5" t="s">
@@ -2845,13 +2853,13 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="15" t="s">
         <v>134</v>
       </c>
       <c r="B29" t="s">
         <v>135</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -2865,13 +2873,13 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="15" t="s">
         <v>214</v>
       </c>
       <c r="B30" t="s">
         <v>215</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="19" t="s">
         <v>477</v>
       </c>
       <c r="D30" s="5" t="s">
@@ -2885,13 +2893,13 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="15" t="s">
         <v>146</v>
       </c>
       <c r="B31" t="s">
         <v>147</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -2905,13 +2913,13 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="15" t="s">
         <v>442</v>
       </c>
       <c r="B32" t="s">
         <v>443</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D32" s="5" t="s">
@@ -2925,13 +2933,13 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="15" t="s">
         <v>287</v>
       </c>
       <c r="B33" t="s">
         <v>288</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D33" s="5" t="s">
@@ -2945,13 +2953,13 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B34" t="s">
         <v>26</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -2965,13 +2973,13 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="15" t="s">
         <v>151</v>
       </c>
       <c r="B35" t="s">
         <v>152</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D35" s="5" t="s">
@@ -2985,13 +2993,13 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="15" t="s">
         <v>236</v>
       </c>
       <c r="B36" t="s">
         <v>237</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="19" t="s">
         <v>477</v>
       </c>
       <c r="D36" s="5" t="s">
@@ -3005,13 +3013,13 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="15" t="s">
         <v>273</v>
       </c>
       <c r="B37" t="s">
         <v>274</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -3025,13 +3033,13 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="15" t="s">
         <v>40</v>
       </c>
       <c r="B38" t="s">
         <v>41</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D38" s="5" t="s">
@@ -3045,13 +3053,13 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="15" t="s">
         <v>382</v>
       </c>
       <c r="B39" t="s">
         <v>383</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D39" s="5" t="s">
@@ -3065,13 +3073,13 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="15" t="s">
         <v>239</v>
       </c>
       <c r="B40" t="s">
         <v>240</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="19" t="s">
         <v>477</v>
       </c>
       <c r="D40" s="5" t="s">
@@ -3085,13 +3093,13 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B41" t="s">
         <v>10</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -3105,13 +3113,13 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="15" t="s">
         <v>144</v>
       </c>
       <c r="B42" t="s">
         <v>145</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D42" s="5" t="s">
@@ -3125,13 +3133,13 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="15" t="s">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>43</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D43" s="5" t="s">
@@ -3145,13 +3153,13 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="15" t="s">
         <v>158</v>
       </c>
       <c r="B44" t="s">
         <v>159</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D44" s="5" t="s">
@@ -3165,13 +3173,13 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="15" t="s">
         <v>72</v>
       </c>
       <c r="B45" t="s">
         <v>493</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D45" s="5" t="s">
@@ -3185,13 +3193,13 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B46" t="s">
         <v>12</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D46" s="5" t="s">
@@ -3205,13 +3213,13 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="15" t="s">
         <v>221</v>
       </c>
       <c r="B47" t="s">
         <v>222</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="19" t="s">
         <v>477</v>
       </c>
       <c r="D47" s="5" t="s">
@@ -3225,13 +3233,13 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="15" t="s">
         <v>224</v>
       </c>
       <c r="B48" t="s">
         <v>225</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="19" t="s">
         <v>477</v>
       </c>
       <c r="D48" s="5" t="s">
@@ -3245,13 +3253,13 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="15" t="s">
         <v>44</v>
       </c>
       <c r="B49" t="s">
         <v>45</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D49" s="5" t="s">
@@ -3265,13 +3273,13 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="15" t="s">
         <v>122</v>
       </c>
       <c r="B50" t="s">
         <v>123</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D50" s="5" t="s">
@@ -3285,13 +3293,13 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="15" t="s">
         <v>289</v>
       </c>
       <c r="B51" t="s">
         <v>290</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D51" s="5" t="s">
@@ -3305,13 +3313,13 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="15" t="s">
         <v>372</v>
       </c>
       <c r="B52" t="s">
         <v>373</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D52" s="5" t="s">
@@ -3325,13 +3333,13 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="15" t="s">
         <v>444</v>
       </c>
       <c r="B53" t="s">
         <v>445</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D53" s="5" t="s">
@@ -3345,13 +3353,13 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="15" t="s">
         <v>348</v>
       </c>
       <c r="B54" t="s">
         <v>349</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D54" s="5" t="s">
@@ -3365,13 +3373,13 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="15" t="s">
         <v>74</v>
       </c>
       <c r="B55" t="s">
         <v>75</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D55" s="5" t="s">
@@ -3385,13 +3393,13 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="15" t="s">
         <v>446</v>
       </c>
       <c r="B56" t="s">
         <v>447</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D56" s="5" t="s">
@@ -3405,13 +3413,13 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="15" t="s">
         <v>415</v>
       </c>
       <c r="B57" t="s">
         <v>416</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D57" s="5" t="s">
@@ -3425,13 +3433,13 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="15" t="s">
         <v>124</v>
       </c>
       <c r="B58" t="s">
         <v>125</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D58" s="5" t="s">
@@ -3445,13 +3453,13 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="15" t="s">
         <v>436</v>
       </c>
       <c r="B59" t="s">
         <v>494</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="19" t="s">
         <v>477</v>
       </c>
       <c r="D59" s="5" t="s">
@@ -3465,13 +3473,13 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="16" t="s">
+      <c r="A60" s="15" t="s">
         <v>160</v>
       </c>
       <c r="B60" t="s">
         <v>161</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D60" s="5" t="s">
@@ -3485,13 +3493,13 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="16" t="s">
+      <c r="A61" s="15" t="s">
         <v>76</v>
       </c>
       <c r="B61" t="s">
         <v>77</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D61" s="5" t="s">
@@ -3505,13 +3513,13 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="16" t="s">
+      <c r="A62" s="15" t="s">
         <v>332</v>
       </c>
       <c r="B62" t="s">
         <v>333</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D62" s="5" t="s">
@@ -3525,13 +3533,13 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="16" t="s">
+      <c r="A63" s="15" t="s">
         <v>291</v>
       </c>
       <c r="B63" t="s">
         <v>292</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D63" s="5" t="s">
@@ -3545,13 +3553,13 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" s="16" t="s">
+      <c r="A64" s="15" t="s">
         <v>293</v>
       </c>
       <c r="B64" t="s">
         <v>294</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D64" s="5" t="s">
@@ -3565,13 +3573,13 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="16" t="s">
+      <c r="A65" s="15" t="s">
         <v>137</v>
       </c>
       <c r="B65" t="s">
         <v>495</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D65" s="5" t="s">
@@ -3585,13 +3593,13 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="15" t="s">
         <v>350</v>
       </c>
       <c r="B66" t="s">
         <v>351</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D66" s="5" t="s">
@@ -3605,13 +3613,13 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" s="16" t="s">
+      <c r="A67" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B67" t="s">
         <v>513</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D67" s="5" t="s">
@@ -3625,13 +3633,13 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" s="16" t="s">
+      <c r="A68" s="15" t="s">
         <v>78</v>
       </c>
       <c r="B68" t="s">
         <v>79</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D68" s="5" t="s">
@@ -3645,13 +3653,13 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="16" t="s">
+      <c r="A69" s="15" t="s">
         <v>352</v>
       </c>
       <c r="B69" t="s">
         <v>353</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D69" s="5" t="s">
@@ -3665,13 +3673,13 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" s="16" t="s">
+      <c r="A70" s="15" t="s">
         <v>394</v>
       </c>
       <c r="B70" t="s">
         <v>395</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="19" t="s">
         <v>507</v>
       </c>
       <c r="D70" s="5" t="s">
@@ -3685,13 +3693,13 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" s="16" t="s">
+      <c r="A71" s="15" t="s">
         <v>241</v>
       </c>
       <c r="B71" t="s">
         <v>242</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="19" t="s">
         <v>477</v>
       </c>
       <c r="D71" s="5" t="s">
@@ -3705,13 +3713,13 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" s="16" t="s">
+      <c r="A72" s="15" t="s">
         <v>354</v>
       </c>
       <c r="B72" t="s">
         <v>355</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D72" s="5" t="s">
@@ -3725,13 +3733,13 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" s="16" t="s">
+      <c r="A73" s="15" t="s">
         <v>320</v>
       </c>
       <c r="B73" t="s">
         <v>321</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D73" s="5" t="s">
@@ -3745,13 +3753,13 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" s="16" t="s">
+      <c r="A74" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B74" t="s">
         <v>14</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D74" s="5" t="s">
@@ -3765,13 +3773,13 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" s="16" t="s">
+      <c r="A75" s="15" t="s">
         <v>46</v>
       </c>
       <c r="B75" t="s">
         <v>47</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D75" s="5" t="s">
@@ -3785,13 +3793,13 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76" s="16" t="s">
+      <c r="A76" s="15" t="s">
         <v>219</v>
       </c>
       <c r="B76" t="s">
         <v>220</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D76" s="5" t="s">
@@ -3805,13 +3813,13 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A77" s="16" t="s">
+      <c r="A77" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B77" t="s">
         <v>49</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D77" s="5" t="s">
@@ -3825,13 +3833,13 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A78" s="16" t="s">
+      <c r="A78" s="15" t="s">
         <v>295</v>
       </c>
       <c r="B78" t="s">
         <v>296</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D78" s="5" t="s">
@@ -3845,13 +3853,13 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A79" s="16" t="s">
+      <c r="A79" s="15" t="s">
         <v>297</v>
       </c>
       <c r="B79" t="s">
         <v>298</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D79" s="5" t="s">
@@ -3865,13 +3873,13 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A80" s="16" t="s">
+      <c r="A80" s="15" t="s">
         <v>448</v>
       </c>
       <c r="B80" t="s">
         <v>449</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D80" s="5" t="s">
@@ -3885,13 +3893,13 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81" s="16" t="s">
+      <c r="A81" s="15" t="s">
         <v>138</v>
       </c>
       <c r="B81" t="s">
         <v>139</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D81" s="5" t="s">
@@ -3905,13 +3913,13 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" s="16" t="s">
+      <c r="A82" s="15" t="s">
         <v>514</v>
       </c>
       <c r="B82" t="s">
         <v>515</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D82" s="5" t="s">
@@ -3925,13 +3933,13 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" s="16" t="s">
+      <c r="A83" s="15" t="s">
         <v>516</v>
       </c>
       <c r="B83" t="s">
         <v>517</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D83" s="5" t="s">
@@ -3945,13 +3953,13 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84" s="16" t="s">
+      <c r="A84" s="15" t="s">
         <v>402</v>
       </c>
       <c r="B84" t="s">
         <v>403</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="19" t="s">
         <v>507</v>
       </c>
       <c r="D84" s="5" t="s">
@@ -3965,13 +3973,13 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" s="16" t="s">
+      <c r="A85" s="15" t="s">
         <v>126</v>
       </c>
       <c r="B85" t="s">
         <v>127</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D85" s="5" t="s">
@@ -3985,13 +3993,13 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" s="16" t="s">
+      <c r="A86" s="15" t="s">
         <v>518</v>
       </c>
       <c r="B86" t="s">
         <v>519</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D86" s="5" t="s">
@@ -4005,13 +4013,13 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" s="16" t="s">
+      <c r="A87" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B87" t="s">
         <v>51</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D87" s="5" t="s">
@@ -4025,13 +4033,13 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A88" s="16" t="s">
+      <c r="A88" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B88" t="s">
         <v>16</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D88" s="5" t="s">
@@ -4045,13 +4053,13 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A89" s="16" t="s">
+      <c r="A89" s="15" t="s">
         <v>52</v>
       </c>
       <c r="B89" t="s">
         <v>53</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D89" s="5" t="s">
@@ -4065,13 +4073,13 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A90" s="16" t="s">
+      <c r="A90" s="15" t="s">
         <v>162</v>
       </c>
       <c r="B90" t="s">
         <v>163</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D90" s="5" t="s">
@@ -4085,13 +4093,13 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A91" s="16" t="s">
+      <c r="A91" s="15" t="s">
         <v>374</v>
       </c>
       <c r="B91" t="s">
         <v>375</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D91" s="5" t="s">
@@ -4105,13 +4113,13 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A92" s="16" t="s">
+      <c r="A92" s="15" t="s">
         <v>128</v>
       </c>
       <c r="B92" t="s">
         <v>129</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D92" s="5" t="s">
@@ -4125,13 +4133,13 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A93" s="16" t="s">
+      <c r="A93" s="15" t="s">
         <v>226</v>
       </c>
       <c r="B93" t="s">
         <v>496</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="19" t="s">
         <v>477</v>
       </c>
       <c r="D93" s="5" t="s">
@@ -4145,13 +4153,13 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A94" s="16" t="s">
+      <c r="A94" s="15" t="s">
         <v>334</v>
       </c>
       <c r="B94" t="s">
         <v>335</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D94" s="5" t="s">
@@ -4165,13 +4173,13 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A95" s="16" t="s">
+      <c r="A95" s="15" t="s">
         <v>437</v>
       </c>
       <c r="B95" t="s">
         <v>497</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="19" t="s">
         <v>477</v>
       </c>
       <c r="D95" s="5" t="s">
@@ -4185,13 +4193,13 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A96" s="16" t="s">
+      <c r="A96" s="15" t="s">
         <v>179</v>
       </c>
       <c r="B96" t="s">
         <v>180</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="19" t="s">
         <v>506</v>
       </c>
       <c r="D96" s="5" t="s">
@@ -4205,13 +4213,13 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A97" s="16" t="s">
+      <c r="A97" s="15" t="s">
         <v>243</v>
       </c>
       <c r="B97" t="s">
         <v>244</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="19" t="s">
         <v>507</v>
       </c>
       <c r="D97" s="5" t="s">
@@ -4225,13 +4233,13 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A98" s="16" t="s">
+      <c r="A98" s="15" t="s">
         <v>520</v>
       </c>
       <c r="B98" t="s">
         <v>521</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D98" s="5" t="s">
@@ -4245,13 +4253,13 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A99" s="16" t="s">
+      <c r="A99" s="15" t="s">
         <v>269</v>
       </c>
       <c r="B99" t="s">
         <v>270</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="19" t="s">
         <v>507</v>
       </c>
       <c r="D99" s="5" t="s">
@@ -4265,13 +4273,13 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A100" s="16" t="s">
+      <c r="A100" s="15" t="s">
         <v>376</v>
       </c>
       <c r="B100" t="s">
         <v>377</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D100" s="5" t="s">
@@ -4285,13 +4293,13 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A101" s="16" t="s">
+      <c r="A101" s="15" t="s">
         <v>265</v>
       </c>
       <c r="B101" t="s">
         <v>498</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="19" t="s">
         <v>507</v>
       </c>
       <c r="D101" s="5" t="s">
@@ -4305,13 +4313,13 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A102" s="16" t="s">
+      <c r="A102" s="15" t="s">
         <v>466</v>
       </c>
       <c r="B102" t="s">
         <v>467</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="19" t="s">
         <v>507</v>
       </c>
       <c r="D102" s="5" t="s">
@@ -4325,13 +4333,13 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A103" s="16" t="s">
+      <c r="A103" s="15" t="s">
         <v>157</v>
       </c>
       <c r="B103" t="s">
         <v>499</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D103" s="5" t="s">
@@ -4345,13 +4353,13 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A104" s="16" t="s">
+      <c r="A104" s="15" t="s">
         <v>181</v>
       </c>
       <c r="B104" t="s">
         <v>182</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="19" t="s">
         <v>506</v>
       </c>
       <c r="D104" s="5" t="s">
@@ -4365,13 +4373,13 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A105" s="16" t="s">
+      <c r="A105" s="15" t="s">
         <v>183</v>
       </c>
       <c r="B105" t="s">
         <v>184</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="19" t="s">
         <v>506</v>
       </c>
       <c r="D105" s="5" t="s">
@@ -4385,13 +4393,13 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A106" s="16" t="s">
+      <c r="A106" s="15" t="s">
         <v>487</v>
       </c>
       <c r="B106" t="s">
         <v>488</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="19" t="s">
         <v>507</v>
       </c>
       <c r="D106" s="5" t="s">
@@ -4405,13 +4413,13 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A107" s="16" t="s">
+      <c r="A107" s="15" t="s">
         <v>405</v>
       </c>
       <c r="B107" t="s">
         <v>406</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="19" t="s">
         <v>507</v>
       </c>
       <c r="D107" s="5" t="s">
@@ -4425,13 +4433,13 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A108" s="16" t="s">
+      <c r="A108" s="15" t="s">
         <v>407</v>
       </c>
       <c r="B108" t="s">
         <v>500</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="19" t="s">
         <v>507</v>
       </c>
       <c r="D108" s="5" t="s">
@@ -4445,13 +4453,13 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A109" s="16" t="s">
+      <c r="A109" s="15" t="s">
         <v>396</v>
       </c>
       <c r="B109" t="s">
         <v>397</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="19" t="s">
         <v>507</v>
       </c>
       <c r="D109" s="5" t="s">
@@ -4465,13 +4473,13 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A110" s="16" t="s">
+      <c r="A110" s="15" t="s">
         <v>276</v>
       </c>
       <c r="B110" t="s">
         <v>277</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D110" s="5" t="s">
@@ -4485,13 +4493,13 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A111" s="16" t="s">
+      <c r="A111" s="15" t="s">
         <v>450</v>
       </c>
       <c r="B111" t="s">
         <v>451</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D111" s="5" t="s">
@@ -4505,13 +4513,13 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A112" s="16" t="s">
+      <c r="A112" s="15" t="s">
         <v>452</v>
       </c>
       <c r="B112" t="s">
         <v>453</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D112" s="5" t="s">
@@ -4525,13 +4533,13 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A113" s="16" t="s">
+      <c r="A113" s="15" t="s">
         <v>197</v>
       </c>
       <c r="B113" t="s">
         <v>198</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="19" t="s">
         <v>477</v>
       </c>
       <c r="D113" s="5" t="s">
@@ -4545,13 +4553,13 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A114" s="16" t="s">
+      <c r="A114" s="15" t="s">
         <v>257</v>
       </c>
       <c r="B114" t="s">
         <v>258</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="19" t="s">
         <v>477</v>
       </c>
       <c r="D114" s="5" t="s">
@@ -4565,13 +4573,13 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A115" s="16" t="s">
+      <c r="A115" s="15" t="s">
         <v>200</v>
       </c>
       <c r="B115" t="s">
         <v>201</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="19" t="s">
         <v>477</v>
       </c>
       <c r="D115" s="5" t="s">
@@ -4585,13 +4593,13 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A116" s="16" t="s">
+      <c r="A116" s="15" t="s">
         <v>417</v>
       </c>
       <c r="B116" t="s">
         <v>501</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="19" t="s">
         <v>477</v>
       </c>
       <c r="D116" s="5" t="s">
@@ -4605,13 +4613,13 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A117" s="16" t="s">
+      <c r="A117" s="15" t="s">
         <v>356</v>
       </c>
       <c r="B117" t="s">
         <v>357</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D117" s="5" t="s">
@@ -4625,13 +4633,13 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A118" s="16" t="s">
+      <c r="A118" s="15" t="s">
         <v>358</v>
       </c>
       <c r="B118" t="s">
         <v>359</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D118" s="5" t="s">
@@ -4645,13 +4653,13 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A119" s="16" t="s">
+      <c r="A119" s="15" t="s">
         <v>419</v>
       </c>
       <c r="B119" t="s">
         <v>420</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="19" t="s">
         <v>477</v>
       </c>
       <c r="D119" s="5" t="s">
@@ -4665,13 +4673,13 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A120" s="16" t="s">
+      <c r="A120" s="15" t="s">
         <v>299</v>
       </c>
       <c r="B120" t="s">
         <v>300</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D120" s="5" t="s">
@@ -4685,13 +4693,13 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A121" s="16" t="s">
+      <c r="A121" s="15" t="s">
         <v>378</v>
       </c>
       <c r="B121" t="s">
         <v>379</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D121" s="5" t="s">
@@ -4705,13 +4713,13 @@
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A122" s="16" t="s">
+      <c r="A122" s="15" t="s">
         <v>227</v>
       </c>
       <c r="B122" t="s">
         <v>228</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="19" t="s">
         <v>477</v>
       </c>
       <c r="D122" s="5" t="s">
@@ -4725,13 +4733,13 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A123" s="16" t="s">
+      <c r="A123" s="15" t="s">
         <v>522</v>
       </c>
       <c r="B123" t="s">
         <v>523</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D123" s="5" t="s">
@@ -4745,13 +4753,13 @@
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A124" s="16" t="s">
+      <c r="A124" s="15" t="s">
         <v>421</v>
       </c>
       <c r="B124" t="s">
         <v>422</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="19" t="s">
         <v>477</v>
       </c>
       <c r="D124" s="5" t="s">
@@ -4765,13 +4773,13 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A125" s="16" t="s">
+      <c r="A125" s="15" t="s">
         <v>185</v>
       </c>
       <c r="B125" t="s">
         <v>186</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="19" t="s">
         <v>477</v>
       </c>
       <c r="D125" s="5" t="s">
@@ -4785,13 +4793,13 @@
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A126" s="16" t="s">
+      <c r="A126" s="15" t="s">
         <v>80</v>
       </c>
       <c r="B126" t="s">
         <v>81</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D126" s="5" t="s">
@@ -4805,13 +4813,13 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A127" s="16" t="s">
+      <c r="A127" s="15" t="s">
         <v>189</v>
       </c>
       <c r="B127" t="s">
         <v>190</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="19" t="s">
         <v>477</v>
       </c>
       <c r="D127" s="5" t="s">
@@ -4825,13 +4833,13 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A128" s="16" t="s">
+      <c r="A128" s="15" t="s">
         <v>408</v>
       </c>
       <c r="B128" t="s">
         <v>409</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="19" t="s">
         <v>507</v>
       </c>
       <c r="D128" s="5" t="s">
@@ -4845,13 +4853,13 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A129" s="16" t="s">
+      <c r="A129" s="15" t="s">
         <v>423</v>
       </c>
       <c r="B129" t="s">
         <v>424</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="19" t="s">
         <v>477</v>
       </c>
       <c r="D129" s="5" t="s">
@@ -4865,13 +4873,13 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A130" s="16" t="s">
+      <c r="A130" s="15" t="s">
         <v>245</v>
       </c>
       <c r="B130" t="s">
         <v>246</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="19" t="s">
         <v>477</v>
       </c>
       <c r="D130" s="5" t="s">
@@ -4885,13 +4893,13 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A131" s="16" t="s">
+      <c r="A131" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B131" t="s">
         <v>31</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D131" s="5" t="s">
@@ -4905,13 +4913,13 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A132" s="16" t="s">
+      <c r="A132" s="15" t="s">
         <v>360</v>
       </c>
       <c r="B132" t="s">
         <v>361</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D132" s="5" t="s">
@@ -4925,13 +4933,13 @@
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A133" s="16" t="s">
+      <c r="A133" s="15" t="s">
         <v>425</v>
       </c>
       <c r="B133" t="s">
         <v>426</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="19" t="s">
         <v>477</v>
       </c>
       <c r="D133" s="5" t="s">
@@ -4945,13 +4953,13 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A134" s="16" t="s">
+      <c r="A134" s="15" t="s">
         <v>54</v>
       </c>
       <c r="B134" t="s">
         <v>55</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D134" s="5" t="s">
@@ -4965,13 +4973,13 @@
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A135" s="16" t="s">
+      <c r="A135" s="15" t="s">
         <v>110</v>
       </c>
       <c r="B135" t="s">
         <v>111</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D135" s="5" t="s">
@@ -4985,13 +4993,13 @@
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A136" s="16" t="s">
+      <c r="A136" s="15" t="s">
         <v>322</v>
       </c>
       <c r="B136" t="s">
         <v>323</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D136" s="5" t="s">
@@ -5005,13 +5013,13 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A137" s="16" t="s">
+      <c r="A137" s="15" t="s">
         <v>362</v>
       </c>
       <c r="B137" t="s">
         <v>363</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D137" s="5" t="s">
@@ -5025,13 +5033,13 @@
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A138" s="16" t="s">
+      <c r="A138" s="15" t="s">
         <v>324</v>
       </c>
       <c r="B138" t="s">
         <v>325</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D138" s="5" t="s">
@@ -5045,13 +5053,13 @@
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A139" s="16" t="s">
+      <c r="A139" s="15" t="s">
         <v>229</v>
       </c>
       <c r="B139" t="s">
         <v>502</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="19" t="s">
         <v>477</v>
       </c>
       <c r="D139" s="5" t="s">
@@ -5065,13 +5073,13 @@
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A140" s="16" t="s">
+      <c r="A140" s="15" t="s">
         <v>301</v>
       </c>
       <c r="B140" t="s">
         <v>302</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D140" s="5" t="s">
@@ -5085,13 +5093,13 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A141" s="16" t="s">
+      <c r="A141" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B141" t="s">
         <v>83</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D141" s="5" t="s">
@@ -5105,13 +5113,13 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A142" s="16" t="s">
+      <c r="A142" s="15" t="s">
         <v>247</v>
       </c>
       <c r="B142" t="s">
         <v>248</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="19" t="s">
         <v>477</v>
       </c>
       <c r="D142" s="5" t="s">
@@ -5125,13 +5133,13 @@
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A143" s="16" t="s">
+      <c r="A143" s="15" t="s">
         <v>84</v>
       </c>
       <c r="B143" t="s">
         <v>85</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D143" s="5" t="s">
@@ -5145,13 +5153,13 @@
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A144" s="16" t="s">
+      <c r="A144" s="15" t="s">
         <v>202</v>
       </c>
       <c r="B144" t="s">
         <v>203</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="19" t="s">
         <v>477</v>
       </c>
       <c r="D144" s="5" t="s">
@@ -5165,13 +5173,13 @@
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A145" s="16" t="s">
+      <c r="A145" s="15" t="s">
         <v>56</v>
       </c>
       <c r="B145" t="s">
         <v>57</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D145" s="5" t="s">
@@ -5185,13 +5193,13 @@
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A146" s="16" t="s">
+      <c r="A146" s="15" t="s">
         <v>303</v>
       </c>
       <c r="B146" t="s">
         <v>304</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D146" s="5" t="s">
@@ -5205,13 +5213,13 @@
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A147" s="16" t="s">
+      <c r="A147" s="15" t="s">
         <v>112</v>
       </c>
       <c r="B147" t="s">
         <v>503</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D147" s="5" t="s">
@@ -5225,13 +5233,13 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A148" s="16" t="s">
+      <c r="A148" s="15" t="s">
         <v>524</v>
       </c>
       <c r="B148" t="s">
         <v>525</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D148" s="5" t="s">
@@ -5245,13 +5253,13 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A149" s="16" t="s">
+      <c r="A149" s="15" t="s">
         <v>86</v>
       </c>
       <c r="B149" t="s">
         <v>87</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D149" s="5" t="s">
@@ -5265,13 +5273,13 @@
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A150" s="16" t="s">
+      <c r="A150" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B150" t="s">
         <v>59</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D150" s="5" t="s">
@@ -5285,13 +5293,13 @@
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A151" s="16" t="s">
+      <c r="A151" s="15" t="s">
         <v>88</v>
       </c>
       <c r="B151" t="s">
         <v>89</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D151" s="5" t="s">
@@ -5305,13 +5313,13 @@
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A152" s="16" t="s">
+      <c r="A152" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B152" t="s">
         <v>141</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D152" s="5" t="s">
@@ -5325,13 +5333,13 @@
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A153" s="16" t="s">
+      <c r="A153" s="15" t="s">
         <v>410</v>
       </c>
       <c r="B153" t="s">
         <v>404</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="19" t="s">
         <v>507</v>
       </c>
       <c r="D153" s="5" t="s">
@@ -5345,13 +5353,13 @@
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A154" s="16" t="s">
+      <c r="A154" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B154" t="s">
         <v>91</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D154" s="5" t="s">
@@ -5365,13 +5373,13 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A155" s="16" t="s">
+      <c r="A155" s="15" t="s">
         <v>336</v>
       </c>
       <c r="B155" t="s">
         <v>337</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D155" s="5" t="s">
@@ -5385,13 +5393,13 @@
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A156" s="16" t="s">
+      <c r="A156" s="15" t="s">
         <v>526</v>
       </c>
       <c r="B156" t="s">
         <v>527</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D156" s="5" t="s">
@@ -5405,13 +5413,13 @@
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A157" s="16" t="s">
+      <c r="A157" s="15" t="s">
         <v>230</v>
       </c>
       <c r="B157" t="s">
         <v>231</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="19" t="s">
         <v>477</v>
       </c>
       <c r="D157" s="5" t="s">
@@ -5425,13 +5433,13 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A158" s="16" t="s">
+      <c r="A158" s="15" t="s">
         <v>305</v>
       </c>
       <c r="B158" t="s">
         <v>306</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D158" s="5" t="s">
@@ -5445,13 +5453,13 @@
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A159" s="16" t="s">
+      <c r="A159" s="15" t="s">
         <v>454</v>
       </c>
       <c r="B159" t="s">
         <v>455</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D159" s="5" t="s">
@@ -5465,13 +5473,13 @@
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A160" s="16" t="s">
+      <c r="A160" s="15" t="s">
         <v>249</v>
       </c>
       <c r="B160" t="s">
         <v>250</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="19" t="s">
         <v>477</v>
       </c>
       <c r="D160" s="5" t="s">
@@ -5485,13 +5493,13 @@
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A161" s="16" t="s">
+      <c r="A161" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B161" t="s">
         <v>33</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D161" s="5" t="s">
@@ -5505,13 +5513,13 @@
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A162" s="16" t="s">
+      <c r="A162" s="15" t="s">
         <v>411</v>
       </c>
       <c r="B162" t="s">
         <v>412</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="19" t="s">
         <v>507</v>
       </c>
       <c r="D162" s="5" t="s">
@@ -5525,13 +5533,13 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A163" s="16" t="s">
+      <c r="A163" s="15" t="s">
         <v>204</v>
       </c>
       <c r="B163" t="s">
         <v>205</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="19" t="s">
         <v>477</v>
       </c>
       <c r="D163" s="5" t="s">
@@ -5545,13 +5553,13 @@
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A164" s="16" t="s">
+      <c r="A164" s="15" t="s">
         <v>130</v>
       </c>
       <c r="B164" t="s">
         <v>131</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D164" s="5" t="s">
@@ -5565,13 +5573,13 @@
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A165" s="16" t="s">
+      <c r="A165" s="15" t="s">
         <v>60</v>
       </c>
       <c r="B165" t="s">
         <v>61</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D165" s="5" t="s">
@@ -5585,13 +5593,13 @@
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A166" s="16" t="s">
+      <c r="A166" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B166" t="s">
         <v>63</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C166" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D166" s="5" t="s">
@@ -5605,13 +5613,13 @@
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A167" s="16" t="s">
+      <c r="A167" s="15" t="s">
         <v>469</v>
       </c>
       <c r="B167" t="s">
         <v>470</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167" s="19" t="s">
         <v>507</v>
       </c>
       <c r="D167" s="5" t="s">
@@ -5625,13 +5633,13 @@
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A168" s="16" t="s">
+      <c r="A168" s="15" t="s">
         <v>364</v>
       </c>
       <c r="B168" t="s">
         <v>365</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C168" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D168" s="5" t="s">
@@ -5645,13 +5653,13 @@
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A169" s="16" t="s">
+      <c r="A169" s="15" t="s">
         <v>398</v>
       </c>
       <c r="B169" t="s">
         <v>399</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="19" t="s">
         <v>507</v>
       </c>
       <c r="D169" s="5" t="s">
@@ -5665,13 +5673,13 @@
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A170" s="16" t="s">
+      <c r="A170" s="15" t="s">
         <v>271</v>
       </c>
       <c r="B170" t="s">
         <v>272</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C170" s="19" t="s">
         <v>507</v>
       </c>
       <c r="D170" s="5" t="s">
@@ -5685,13 +5693,13 @@
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A171" s="16" t="s">
+      <c r="A171" s="15" t="s">
         <v>427</v>
       </c>
       <c r="B171" t="s">
         <v>428</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C171" s="19" t="s">
         <v>477</v>
       </c>
       <c r="D171" s="5" t="s">
@@ -5705,13 +5713,13 @@
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A172" s="16" t="s">
+      <c r="A172" s="15" t="s">
         <v>326</v>
       </c>
       <c r="B172" t="s">
         <v>327</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C172" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D172" s="5" t="s">
@@ -5725,13 +5733,13 @@
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A173" s="16" t="s">
+      <c r="A173" s="15" t="s">
         <v>206</v>
       </c>
       <c r="B173" t="s">
         <v>207</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C173" s="19" t="s">
         <v>477</v>
       </c>
       <c r="D173" s="5" t="s">
@@ -5745,13 +5753,13 @@
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A174" s="16" t="s">
+      <c r="A174" s="15" t="s">
         <v>413</v>
       </c>
       <c r="B174" t="s">
         <v>414</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C174" s="19" t="s">
         <v>507</v>
       </c>
       <c r="D174" s="5" t="s">
@@ -5765,13 +5773,13 @@
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A175" s="16" t="s">
+      <c r="A175" s="15" t="s">
         <v>429</v>
       </c>
       <c r="B175" t="s">
         <v>528</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C175" s="19" t="s">
         <v>477</v>
       </c>
       <c r="D175" s="5" t="s">
@@ -5785,13 +5793,13 @@
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A176" s="16" t="s">
+      <c r="A176" s="15" t="s">
         <v>132</v>
       </c>
       <c r="B176" t="s">
         <v>133</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C176" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D176" s="5" t="s">
@@ -5805,13 +5813,13 @@
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A177" s="16" t="s">
+      <c r="A177" s="15" t="s">
         <v>261</v>
       </c>
       <c r="B177" t="s">
         <v>262</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C177" s="19" t="s">
         <v>507</v>
       </c>
       <c r="D177" s="5" t="s">
@@ -5825,13 +5833,13 @@
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A178" s="16" t="s">
+      <c r="A178" s="15" t="s">
         <v>149</v>
       </c>
       <c r="B178" t="s">
         <v>150</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C178" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D178" s="5" t="s">
@@ -5845,13 +5853,13 @@
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A179" s="16" t="s">
+      <c r="A179" s="15" t="s">
         <v>166</v>
       </c>
       <c r="B179" t="s">
         <v>167</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C179" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D179" s="5" t="s">
@@ -5865,13 +5873,13 @@
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A180" s="16" t="s">
+      <c r="A180" s="15" t="s">
         <v>471</v>
       </c>
       <c r="B180" t="s">
         <v>472</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C180" s="19" t="s">
         <v>507</v>
       </c>
       <c r="D180" s="5" t="s">
@@ -5885,13 +5893,13 @@
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A181" s="16" t="s">
+      <c r="A181" s="15" t="s">
         <v>473</v>
       </c>
       <c r="B181" t="s">
         <v>474</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C181" s="19" t="s">
         <v>507</v>
       </c>
       <c r="D181" s="5" t="s">
@@ -5905,13 +5913,13 @@
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A182" s="16" t="s">
+      <c r="A182" s="15" t="s">
         <v>338</v>
       </c>
       <c r="B182" t="s">
         <v>339</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C182" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D182" s="5" t="s">
@@ -5925,13 +5933,13 @@
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A183" s="16" t="s">
+      <c r="A183" s="15" t="s">
         <v>307</v>
       </c>
       <c r="B183" t="s">
         <v>308</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C183" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D183" s="5" t="s">
@@ -5945,13 +5953,13 @@
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A184" s="16" t="s">
+      <c r="A184" s="15" t="s">
         <v>529</v>
       </c>
       <c r="B184" t="s">
         <v>530</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C184" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D184" s="5" t="s">
@@ -5965,13 +5973,13 @@
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A185" s="16" t="s">
+      <c r="A185" s="15" t="s">
         <v>438</v>
       </c>
       <c r="B185" t="s">
         <v>439</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C185" s="19" t="s">
         <v>477</v>
       </c>
       <c r="D185" s="5" t="s">
@@ -5985,13 +5993,13 @@
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A186" s="16" t="s">
+      <c r="A186" s="15" t="s">
         <v>366</v>
       </c>
       <c r="B186" t="s">
         <v>367</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C186" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D186" s="5" t="s">
@@ -6005,13 +6013,13 @@
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A187" s="16" t="s">
+      <c r="A187" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B187" t="s">
         <v>18</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C187" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D187" s="5" t="s">
@@ -6025,13 +6033,13 @@
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A188" s="16" t="s">
+      <c r="A188" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B188" t="s">
         <v>20</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C188" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D188" s="5" t="s">
@@ -6045,13 +6053,13 @@
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A189" s="16" t="s">
+      <c r="A189" s="15" t="s">
         <v>380</v>
       </c>
       <c r="B189" t="s">
         <v>381</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C189" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D189" s="5" t="s">
@@ -6065,13 +6073,13 @@
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A190" s="16" t="s">
+      <c r="A190" s="15" t="s">
         <v>531</v>
       </c>
       <c r="B190" t="s">
         <v>532</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C190" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D190" s="5" t="s">
@@ -6085,13 +6093,13 @@
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A191" s="16" t="s">
+      <c r="A191" s="15" t="s">
         <v>340</v>
       </c>
       <c r="B191" t="s">
         <v>341</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C191" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D191" s="5" t="s">
@@ -6105,13 +6113,13 @@
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A192" s="16" t="s">
+      <c r="A192" s="15" t="s">
         <v>384</v>
       </c>
       <c r="B192" t="s">
         <v>385</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C192" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D192" s="5" t="s">
@@ -6125,13 +6133,13 @@
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A193" s="16" t="s">
+      <c r="A193" s="15" t="s">
         <v>346</v>
       </c>
       <c r="B193" t="s">
         <v>347</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C193" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D193" s="5" t="s">
@@ -6145,13 +6153,13 @@
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A194" s="16" t="s">
+      <c r="A194" s="15" t="s">
         <v>113</v>
       </c>
       <c r="B194" t="s">
         <v>114</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C194" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D194" s="5" t="s">
@@ -6165,13 +6173,13 @@
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A195" s="16" t="s">
+      <c r="A195" s="15" t="s">
         <v>64</v>
       </c>
       <c r="B195" t="s">
         <v>65</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C195" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D195" s="5" t="s">
@@ -6185,13 +6193,13 @@
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A196" s="16" t="s">
+      <c r="A196" s="15" t="s">
         <v>456</v>
       </c>
       <c r="B196" t="s">
         <v>457</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C196" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D196" s="5" t="s">
@@ -6205,13 +6213,13 @@
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A197" s="16" t="s">
+      <c r="A197" s="15" t="s">
         <v>458</v>
       </c>
       <c r="B197" t="s">
         <v>459</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C197" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D197" s="5" t="s">
@@ -6225,13 +6233,13 @@
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A198" s="16" t="s">
+      <c r="A198" s="15" t="s">
         <v>460</v>
       </c>
       <c r="B198" t="s">
         <v>461</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C198" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D198" s="5" t="s">
@@ -6245,13 +6253,13 @@
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A199" s="16" t="s">
+      <c r="A199" s="15" t="s">
         <v>462</v>
       </c>
       <c r="B199" t="s">
         <v>463</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C199" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D199" s="5" t="s">
@@ -6265,13 +6273,13 @@
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A200" s="16" t="s">
+      <c r="A200" s="15" t="s">
         <v>533</v>
       </c>
       <c r="B200" t="s">
         <v>534</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C200" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D200" s="5" t="s">
@@ -6285,13 +6293,13 @@
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A201" s="16" t="s">
+      <c r="A201" s="15" t="s">
         <v>142</v>
       </c>
       <c r="B201" t="s">
         <v>143</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C201" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D201" s="5" t="s">
@@ -6305,13 +6313,13 @@
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A202" s="16" t="s">
+      <c r="A202" s="15" t="s">
         <v>475</v>
       </c>
       <c r="B202" t="s">
         <v>476</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C202" s="19" t="s">
         <v>507</v>
       </c>
       <c r="D202" s="5" t="s">
@@ -6325,13 +6333,13 @@
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A203" s="16" t="s">
+      <c r="A203" s="15" t="s">
         <v>477</v>
       </c>
       <c r="B203" t="s">
         <v>478</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C203" s="19" t="s">
         <v>507</v>
       </c>
       <c r="D203" s="5" t="s">
@@ -6345,13 +6353,13 @@
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A204" s="16" t="s">
+      <c r="A204" s="15" t="s">
         <v>309</v>
       </c>
       <c r="B204" t="s">
         <v>310</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C204" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D204" s="5" t="s">
@@ -6365,13 +6373,13 @@
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A205" s="16" t="s">
+      <c r="A205" s="15" t="s">
         <v>311</v>
       </c>
       <c r="B205" t="s">
         <v>312</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C205" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D205" s="5" t="s">
@@ -6385,13 +6393,13 @@
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A206" s="16" t="s">
+      <c r="A206" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B206" t="s">
         <v>22</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C206" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D206" s="5" t="s">
@@ -6405,13 +6413,13 @@
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A207" s="16" t="s">
+      <c r="A207" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B207" t="s">
         <v>67</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C207" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D207" s="5" t="s">
@@ -6425,13 +6433,13 @@
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A208" s="16" t="s">
+      <c r="A208" s="15" t="s">
         <v>535</v>
       </c>
       <c r="B208" t="s">
         <v>313</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C208" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D208" s="5" t="s">
@@ -6445,13 +6453,13 @@
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A209" s="16" t="s">
+      <c r="A209" s="15" t="s">
         <v>92</v>
       </c>
       <c r="B209" t="s">
         <v>93</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C209" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D209" s="5" t="s">
@@ -6465,13 +6473,13 @@
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A210" s="16" t="s">
+      <c r="A210" s="15" t="s">
         <v>68</v>
       </c>
       <c r="B210" t="s">
         <v>69</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C210" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D210" s="5" t="s">
@@ -6485,13 +6493,13 @@
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A211" s="16" t="s">
+      <c r="A211" s="15" t="s">
         <v>251</v>
       </c>
       <c r="B211" t="s">
         <v>252</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C211" s="19" t="s">
         <v>477</v>
       </c>
       <c r="D211" s="5" t="s">
@@ -6505,13 +6513,13 @@
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A212" s="16" t="s">
+      <c r="A212" s="15" t="s">
         <v>464</v>
       </c>
       <c r="B212" t="s">
         <v>465</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C212" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D212" s="5" t="s">
@@ -6525,13 +6533,13 @@
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A213" s="16" t="s">
+      <c r="A213" s="15" t="s">
         <v>430</v>
       </c>
       <c r="B213" t="s">
         <v>431</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C213" s="19" t="s">
         <v>477</v>
       </c>
       <c r="D213" s="5" t="s">
@@ -6545,13 +6553,13 @@
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A214" s="16" t="s">
+      <c r="A214" s="15" t="s">
         <v>94</v>
       </c>
       <c r="B214" t="s">
         <v>95</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C214" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D214" s="5" t="s">
@@ -6565,13 +6573,13 @@
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A215" s="16" t="s">
+      <c r="A215" s="15" t="s">
         <v>208</v>
       </c>
       <c r="B215" t="s">
         <v>209</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C215" s="19" t="s">
         <v>477</v>
       </c>
       <c r="D215" s="5" t="s">
@@ -6585,13 +6593,13 @@
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A216" s="16" t="s">
+      <c r="A216" s="15" t="s">
         <v>34</v>
       </c>
       <c r="B216" t="s">
         <v>35</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C216" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D216" s="5" t="s">
@@ -6605,13 +6613,13 @@
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A217" s="16" t="s">
+      <c r="A217" s="15" t="s">
         <v>106</v>
       </c>
       <c r="B217" t="s">
         <v>504</v>
       </c>
-      <c r="C217" t="s">
+      <c r="C217" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D217" s="5" t="s">
@@ -6625,13 +6633,13 @@
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A218" s="16" t="s">
+      <c r="A218" s="15" t="s">
         <v>115</v>
       </c>
       <c r="B218" t="s">
         <v>505</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C218" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D218" s="5" t="s">
@@ -6645,13 +6653,13 @@
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A219" s="16" t="s">
+      <c r="A219" s="15" t="s">
         <v>368</v>
       </c>
       <c r="B219" t="s">
         <v>369</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C219" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D219" s="5" t="s">
@@ -6665,13 +6673,13 @@
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A220" s="16" t="s">
+      <c r="A220" s="15" t="s">
         <v>328</v>
       </c>
       <c r="B220" t="s">
         <v>329</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C220" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D220" s="5" t="s">
@@ -6685,13 +6693,13 @@
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A221" s="16" t="s">
+      <c r="A221" s="15" t="s">
         <v>164</v>
       </c>
       <c r="B221" t="s">
         <v>165</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C221" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D221" s="5" t="s">
@@ -6705,13 +6713,13 @@
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A222" s="16" t="s">
+      <c r="A222" s="15" t="s">
         <v>536</v>
       </c>
       <c r="B222" t="s">
         <v>537</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C222" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D222" s="5" t="s">
@@ -6725,13 +6733,13 @@
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A223" s="16" t="s">
+      <c r="A223" s="15" t="s">
         <v>191</v>
       </c>
       <c r="B223" t="s">
         <v>192</v>
       </c>
-      <c r="C223" t="s">
+      <c r="C223" s="19" t="s">
         <v>477</v>
       </c>
       <c r="D223" s="5" t="s">
@@ -6745,13 +6753,13 @@
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A224" s="16" t="s">
+      <c r="A224" s="15" t="s">
         <v>253</v>
       </c>
       <c r="B224" t="s">
         <v>254</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C224" s="19" t="s">
         <v>477</v>
       </c>
       <c r="D224" s="5" t="s">
@@ -6765,13 +6773,13 @@
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A225" s="16" t="s">
+      <c r="A225" s="15" t="s">
         <v>232</v>
       </c>
       <c r="B225" t="s">
         <v>233</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C225" s="19" t="s">
         <v>477</v>
       </c>
       <c r="D225" s="5" t="s">
@@ -6785,13 +6793,13 @@
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A226" s="16" t="s">
+      <c r="A226" s="15" t="s">
         <v>96</v>
       </c>
       <c r="B226" t="s">
         <v>97</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C226" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D226" s="5" t="s">
@@ -6805,13 +6813,13 @@
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A227" s="16" t="s">
+      <c r="A227" s="15" t="s">
         <v>175</v>
       </c>
       <c r="B227" t="s">
         <v>538</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C227" s="19" t="s">
         <v>506</v>
       </c>
       <c r="D227" s="5" t="s">
@@ -6825,13 +6833,13 @@
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A228" s="16" t="s">
+      <c r="A228" s="15" t="s">
         <v>98</v>
       </c>
       <c r="B228" t="s">
         <v>99</v>
       </c>
-      <c r="C228" t="s">
+      <c r="C228" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D228" s="5" t="s">
@@ -6845,13 +6853,13 @@
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A229" s="16" t="s">
+      <c r="A229" s="15" t="s">
         <v>259</v>
       </c>
       <c r="B229" t="s">
         <v>260</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C229" s="19" t="s">
         <v>477</v>
       </c>
       <c r="D229" s="5" t="s">
@@ -6865,13 +6873,13 @@
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A230" s="16" t="s">
+      <c r="A230" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B230" t="s">
         <v>71</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C230" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D230" s="5" t="s">
@@ -6885,13 +6893,13 @@
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A231" s="16" t="s">
+      <c r="A231" s="15" t="s">
         <v>479</v>
       </c>
       <c r="B231" t="s">
         <v>480</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C231" s="19" t="s">
         <v>507</v>
       </c>
       <c r="D231" s="5" t="s">
@@ -6905,13 +6913,13 @@
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A232" s="16" t="s">
+      <c r="A232" s="15" t="s">
         <v>481</v>
       </c>
       <c r="B232" t="s">
         <v>482</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C232" s="19" t="s">
         <v>507</v>
       </c>
       <c r="D232" s="5" t="s">
@@ -6925,13 +6933,13 @@
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A233" s="16" t="s">
+      <c r="A233" s="15" t="s">
         <v>172</v>
       </c>
       <c r="B233" t="s">
         <v>173</v>
       </c>
-      <c r="C233" t="s">
+      <c r="C233" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D233" s="5" t="s">
@@ -6945,13 +6953,13 @@
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A234" s="16" t="s">
+      <c r="A234" s="15" t="s">
         <v>116</v>
       </c>
       <c r="B234" t="s">
         <v>117</v>
       </c>
-      <c r="C234" t="s">
+      <c r="C234" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D234" s="5" t="s">
@@ -6965,13 +6973,13 @@
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A235" s="16" t="s">
+      <c r="A235" s="15" t="s">
         <v>193</v>
       </c>
       <c r="B235" t="s">
         <v>194</v>
       </c>
-      <c r="C235" t="s">
+      <c r="C235" s="19" t="s">
         <v>477</v>
       </c>
       <c r="D235" s="5" t="s">
@@ -6985,13 +6993,13 @@
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A236" s="16" t="s">
+      <c r="A236" s="15" t="s">
         <v>370</v>
       </c>
       <c r="B236" t="s">
         <v>371</v>
       </c>
-      <c r="C236" t="s">
+      <c r="C236" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D236" s="5" t="s">
@@ -7005,13 +7013,13 @@
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A237" s="16" t="s">
+      <c r="A237" s="15" t="s">
         <v>483</v>
       </c>
       <c r="B237" t="s">
         <v>484</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C237" s="19" t="s">
         <v>507</v>
       </c>
       <c r="D237" s="5" t="s">
@@ -7025,13 +7033,13 @@
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A238" s="16" t="s">
+      <c r="A238" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B238" t="s">
         <v>24</v>
       </c>
-      <c r="C238" t="s">
+      <c r="C238" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D238" s="5" t="s">
@@ -7045,13 +7053,13 @@
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A239" s="16" t="s">
+      <c r="A239" s="15" t="s">
         <v>342</v>
       </c>
       <c r="B239" t="s">
         <v>343</v>
       </c>
-      <c r="C239" t="s">
+      <c r="C239" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D239" s="5" t="s">
@@ -7065,13 +7073,13 @@
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A240" s="16" t="s">
+      <c r="A240" s="15" t="s">
         <v>344</v>
       </c>
       <c r="B240" t="s">
         <v>345</v>
       </c>
-      <c r="C240" t="s">
+      <c r="C240" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D240" s="5" t="s">
@@ -7085,13 +7093,13 @@
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A241" s="16" t="s">
+      <c r="A241" s="15" t="s">
         <v>100</v>
       </c>
       <c r="B241" t="s">
         <v>101</v>
       </c>
-      <c r="C241" t="s">
+      <c r="C241" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D241" s="5" t="s">
@@ -7105,13 +7113,13 @@
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A242" s="16" t="s">
+      <c r="A242" s="15" t="s">
         <v>153</v>
       </c>
       <c r="B242" t="s">
         <v>154</v>
       </c>
-      <c r="C242" t="s">
+      <c r="C242" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D242" s="5" t="s">
@@ -7125,13 +7133,13 @@
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A243" s="16" t="s">
+      <c r="A243" s="15" t="s">
         <v>195</v>
       </c>
       <c r="B243" t="s">
         <v>196</v>
       </c>
-      <c r="C243" t="s">
+      <c r="C243" s="19" t="s">
         <v>477</v>
       </c>
       <c r="D243" s="5" t="s">
@@ -7145,13 +7153,13 @@
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A244" s="16" t="s">
+      <c r="A244" s="15" t="s">
         <v>400</v>
       </c>
       <c r="B244" t="s">
         <v>401</v>
       </c>
-      <c r="C244" t="s">
+      <c r="C244" s="19" t="s">
         <v>507</v>
       </c>
       <c r="D244" s="5" t="s">
@@ -7165,13 +7173,13 @@
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A245" s="16" t="s">
+      <c r="A245" s="15" t="s">
         <v>170</v>
       </c>
       <c r="B245" t="s">
         <v>171</v>
       </c>
-      <c r="C245" t="s">
+      <c r="C245" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D245" s="5" t="s">
@@ -7185,13 +7193,13 @@
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A246" s="16" t="s">
+      <c r="A246" s="15" t="s">
         <v>255</v>
       </c>
       <c r="B246" t="s">
         <v>256</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C246" s="19" t="s">
         <v>477</v>
       </c>
       <c r="D246" s="5" t="s">
@@ -7205,13 +7213,13 @@
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A247" s="16" t="s">
+      <c r="A247" s="15" t="s">
         <v>485</v>
       </c>
       <c r="B247" t="s">
         <v>486</v>
       </c>
-      <c r="C247" t="s">
+      <c r="C247" s="19" t="s">
         <v>507</v>
       </c>
       <c r="D247" s="5" t="s">
@@ -7225,13 +7233,13 @@
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A248" s="16" t="s">
+      <c r="A248" s="15" t="s">
         <v>168</v>
       </c>
       <c r="B248" t="s">
         <v>169</v>
       </c>
-      <c r="C248" t="s">
+      <c r="C248" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D248" s="5" t="s">
@@ -7245,13 +7253,13 @@
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A249" s="16" t="s">
+      <c r="A249" s="15" t="s">
         <v>234</v>
       </c>
       <c r="B249" t="s">
         <v>235</v>
       </c>
-      <c r="C249" t="s">
+      <c r="C249" s="19" t="s">
         <v>477</v>
       </c>
       <c r="D249" s="5" t="s">
@@ -7265,13 +7273,13 @@
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A250" s="16" t="s">
+      <c r="A250" s="15" t="s">
         <v>392</v>
       </c>
       <c r="B250" t="s">
         <v>393</v>
       </c>
-      <c r="C250" t="s">
+      <c r="C250" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D250" s="5" t="s">
@@ -7285,13 +7293,13 @@
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A251" s="16" t="s">
+      <c r="A251" s="15" t="s">
         <v>102</v>
       </c>
       <c r="B251" t="s">
         <v>103</v>
       </c>
-      <c r="C251" t="s">
+      <c r="C251" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D251" s="5" t="s">
@@ -7305,13 +7313,13 @@
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A252" s="16" t="s">
+      <c r="A252" s="15" t="s">
         <v>104</v>
       </c>
       <c r="B252" t="s">
         <v>105</v>
       </c>
-      <c r="C252" t="s">
+      <c r="C252" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D252" s="5" t="s">
@@ -7325,13 +7333,13 @@
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A253" s="16" t="s">
+      <c r="A253" s="15" t="s">
         <v>508</v>
       </c>
       <c r="B253" t="s">
         <v>489</v>
       </c>
-      <c r="C253" t="s">
+      <c r="C253" s="19" t="s">
         <v>398</v>
       </c>
       <c r="D253" s="5" t="s">
@@ -7345,13 +7353,13 @@
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A254" s="16" t="s">
+      <c r="A254" s="15" t="s">
         <v>509</v>
       </c>
       <c r="B254" t="s">
         <v>280</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C254" s="19" t="s">
         <v>285</v>
       </c>
       <c r="D254" s="5" t="s">

--- a/content/drafts/entitats/Codis_Territori_Paisos_ISOA2.xlsx
+++ b/content/drafts/entitats/Codis_Territori_Paisos_ISOA2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAYATSAL\git\Portal\portal\content\drafts\entitats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAA\CTTI\02.Projecte_DadesRef\_____c6\01.CATaleg\07.Proposta_noves_ER\04.Cataleg_Entitats_Modelades.v03\07.Continents_paisos\Propostes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A9F25D-B1FF-4FBB-8EA4-CB6757FC0D9E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6B618F-9228-4B52-AE61-6CA735C852C0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{2A9043EE-0398-4927-8C09-CA4E22432D8B}"/>
   </bookViews>

--- a/content/drafts/entitats/Codis_Territori_Paisos_ISOA2.xlsx
+++ b/content/drafts/entitats/Codis_Territori_Paisos_ISOA2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAA\CTTI\02.Projecte_DadesRef\_____c6\01.CATaleg\07.Proposta_noves_ER\04.Cataleg_Entitats_Modelades.v03\07.Continents_paisos\Propostes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6B618F-9228-4B52-AE61-6CA735C852C0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7EA2F9-6628-4D02-83D5-A917CA4B7038}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{2A9043EE-0398-4927-8C09-CA4E22432D8B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="557">
   <si>
     <t>Nom Taula:</t>
   </si>
@@ -879,9 +879,6 @@
     <t>Altres/Diversos</t>
   </si>
   <si>
-    <t>EU</t>
-  </si>
-  <si>
     <t>AL</t>
   </si>
   <si>
@@ -1551,12 +1548,6 @@
     <t>Sudan, el</t>
   </si>
   <si>
-    <t>AN</t>
-  </si>
-  <si>
-    <t>OC</t>
-  </si>
-  <si>
     <t>98</t>
   </si>
   <si>
@@ -1648,6 +1639,69 @@
   </si>
   <si>
     <t>Terres Australs i Antàrtiques Franceses</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
 </sst>
 </file>
@@ -1763,7 +1817,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1794,11 +1848,22 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1841,6 +1906,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1879,6 +1945,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2285,35 +2352,7 @@
     <col min="4" max="4" width="24.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="41" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="104.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="100.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="100.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="100.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="29.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="100.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="21.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="105.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="28.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="28" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="46.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="11.453125" style="2"/>
+    <col min="7" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -2321,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -2334,12 +2373,12 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -2359,14 +2398,14 @@
       <c r="B4" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>477</v>
+      <c r="C4" s="17" t="s">
+        <v>536</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E4" s="16">
-        <v>12</v>
+      <c r="E4" s="19" t="s">
+        <v>542</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>199</v>
@@ -2374,19 +2413,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>512</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>282</v>
+        <v>509</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="17">
-        <v>17</v>
+      <c r="E5" s="20" t="s">
+        <v>543</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>29</v>
@@ -2394,19 +2433,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>282</v>
+      <c r="C6" s="17" t="s">
+        <v>537</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="16">
-        <v>16</v>
+      <c r="E6" s="19" t="s">
+        <v>544</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>218</v>
@@ -2414,19 +2453,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>282</v>
+      <c r="C7" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="17">
-        <v>17</v>
+      <c r="E7" s="20" t="s">
+        <v>543</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>29</v>
@@ -2439,14 +2478,14 @@
       <c r="B8" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>210</v>
+      <c r="C8" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E8">
-        <v>5</v>
+      <c r="E8" s="21" t="s">
+        <v>537</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>109</v>
@@ -2454,19 +2493,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="B9" t="s">
         <v>285</v>
       </c>
-      <c r="B9" t="s">
-        <v>286</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>282</v>
+      <c r="C9" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E9">
-        <v>16</v>
+      <c r="E9" s="21" t="s">
+        <v>544</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>218</v>
@@ -2479,14 +2518,14 @@
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>210</v>
+      <c r="C10" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E10">
-        <v>1</v>
+      <c r="E10" s="21" t="s">
+        <v>538</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>8</v>
@@ -2494,19 +2533,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="B11" t="s">
         <v>386</v>
       </c>
-      <c r="B11" t="s">
-        <v>387</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>216</v>
+      <c r="C11" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E11">
-        <v>9</v>
+      <c r="E11" s="21" t="s">
+        <v>545</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>174</v>
@@ -2519,14 +2558,14 @@
       <c r="B12" t="s">
         <v>177</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>506</v>
+      <c r="C12" s="18" t="s">
+        <v>540</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E12">
-        <v>10</v>
+      <c r="E12" s="21" t="s">
+        <v>546</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>178</v>
@@ -2534,19 +2573,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="B13" t="s">
         <v>388</v>
       </c>
-      <c r="B13" t="s">
-        <v>389</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>216</v>
+      <c r="C13" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E13">
-        <v>9</v>
+      <c r="E13" s="21" t="s">
+        <v>545</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>174</v>
@@ -2554,22 +2593,22 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="B14" t="s">
         <v>432</v>
       </c>
-      <c r="B14" t="s">
-        <v>433</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>477</v>
+      <c r="C14" s="18" t="s">
+        <v>536</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E14">
-        <v>13</v>
+      <c r="E14" s="21" t="s">
+        <v>547</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -2579,14 +2618,14 @@
       <c r="B15" t="s">
         <v>156</v>
       </c>
-      <c r="C15" s="19" t="s">
-        <v>216</v>
+      <c r="C15" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E15">
-        <v>8</v>
+      <c r="E15" s="21" t="s">
+        <v>548</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>148</v>
@@ -2599,14 +2638,14 @@
       <c r="B16" t="s">
         <v>217</v>
       </c>
-      <c r="C16" s="19" t="s">
-        <v>282</v>
+      <c r="C16" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E16">
-        <v>16</v>
+      <c r="E16" s="21" t="s">
+        <v>544</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>218</v>
@@ -2614,19 +2653,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="B17" t="s">
         <v>390</v>
       </c>
-      <c r="B17" t="s">
-        <v>391</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>216</v>
+      <c r="C17" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E17">
-        <v>9</v>
+      <c r="E17" s="21" t="s">
+        <v>545</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>174</v>
@@ -2639,14 +2678,14 @@
       <c r="B18" t="s">
         <v>267</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>507</v>
+      <c r="C18" s="18" t="s">
+        <v>541</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E18">
-        <v>18</v>
+      <c r="E18" s="21" t="s">
+        <v>549</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>268</v>
@@ -2654,19 +2693,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="B19" t="s">
         <v>316</v>
       </c>
-      <c r="B19" t="s">
-        <v>317</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>282</v>
+      <c r="C19" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E19">
-        <v>17</v>
+      <c r="E19" s="21" t="s">
+        <v>543</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>29</v>
@@ -2679,14 +2718,14 @@
       <c r="B20" t="s">
         <v>279</v>
       </c>
-      <c r="C20" s="19" t="s">
-        <v>282</v>
+      <c r="C20" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E20">
-        <v>16</v>
+      <c r="E20" s="21" t="s">
+        <v>544</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>218</v>
@@ -2697,16 +2736,16 @@
         <v>275</v>
       </c>
       <c r="B21" t="s">
-        <v>492</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>216</v>
+        <v>491</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E21">
-        <v>9</v>
+      <c r="E21" s="21" t="s">
+        <v>545</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>174</v>
@@ -2714,22 +2753,22 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="B22" t="s">
         <v>434</v>
       </c>
-      <c r="B22" t="s">
-        <v>435</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>477</v>
+      <c r="C22" s="18" t="s">
+        <v>536</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E22">
-        <v>13</v>
+      <c r="E22" s="21" t="s">
+        <v>547</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -2739,14 +2778,14 @@
       <c r="B23" t="s">
         <v>213</v>
       </c>
-      <c r="C23" s="19" t="s">
-        <v>477</v>
+      <c r="C23" s="18" t="s">
+        <v>536</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E23">
-        <v>12</v>
+      <c r="E23" s="21" t="s">
+        <v>542</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>199</v>
@@ -2754,19 +2793,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="B24" t="s">
         <v>440</v>
       </c>
-      <c r="B24" t="s">
-        <v>441</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>216</v>
+      <c r="C24" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E24">
-        <v>9</v>
+      <c r="E24" s="21" t="s">
+        <v>545</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>174</v>
@@ -2774,19 +2813,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="B25" t="s">
         <v>330</v>
       </c>
-      <c r="B25" t="s">
-        <v>331</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>282</v>
+      <c r="C25" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E25">
-        <v>16</v>
+      <c r="E25" s="21" t="s">
+        <v>544</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>218</v>
@@ -2794,19 +2833,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="B26" t="s">
         <v>318</v>
       </c>
-      <c r="B26" t="s">
-        <v>319</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>282</v>
+      <c r="C26" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E26">
-        <v>17</v>
+      <c r="E26" s="21" t="s">
+        <v>543</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>29</v>
@@ -2819,14 +2858,14 @@
       <c r="B27" t="s">
         <v>119</v>
       </c>
-      <c r="C27" s="19" t="s">
-        <v>216</v>
+      <c r="C27" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E27">
-        <v>6</v>
+      <c r="E27" s="21" t="s">
+        <v>541</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>121</v>
@@ -2839,14 +2878,14 @@
       <c r="B28" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="19" t="s">
-        <v>210</v>
+      <c r="C28" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E28">
-        <v>3</v>
+      <c r="E28" s="21" t="s">
+        <v>540</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>39</v>
@@ -2859,14 +2898,14 @@
       <c r="B29" t="s">
         <v>135</v>
       </c>
-      <c r="C29" s="19" t="s">
-        <v>216</v>
+      <c r="C29" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E29">
-        <v>7</v>
+      <c r="E29" s="21" t="s">
+        <v>550</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>136</v>
@@ -2879,14 +2918,14 @@
       <c r="B30" t="s">
         <v>215</v>
       </c>
-      <c r="C30" s="19" t="s">
-        <v>477</v>
+      <c r="C30" s="18" t="s">
+        <v>536</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E30">
-        <v>12</v>
+      <c r="E30" s="21" t="s">
+        <v>542</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>199</v>
@@ -2899,14 +2938,14 @@
       <c r="B31" t="s">
         <v>147</v>
       </c>
-      <c r="C31" s="19" t="s">
-        <v>216</v>
+      <c r="C31" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E31">
-        <v>8</v>
+      <c r="E31" s="21" t="s">
+        <v>548</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>148</v>
@@ -2914,19 +2953,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="B32" t="s">
         <v>442</v>
       </c>
-      <c r="B32" t="s">
-        <v>443</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>216</v>
+      <c r="C32" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E32">
-        <v>9</v>
+      <c r="E32" s="21" t="s">
+        <v>545</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>174</v>
@@ -2934,19 +2973,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="B33" t="s">
         <v>287</v>
       </c>
-      <c r="B33" t="s">
-        <v>288</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>282</v>
+      <c r="C33" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E33">
-        <v>16</v>
+      <c r="E33" s="21" t="s">
+        <v>544</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>218</v>
@@ -2959,14 +2998,14 @@
       <c r="B34" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="19" t="s">
-        <v>210</v>
+      <c r="C34" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E34">
-        <v>2</v>
+      <c r="E34" s="21" t="s">
+        <v>539</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>27</v>
@@ -2979,14 +3018,14 @@
       <c r="B35" t="s">
         <v>152</v>
       </c>
-      <c r="C35" s="19" t="s">
-        <v>216</v>
+      <c r="C35" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E35">
-        <v>8</v>
+      <c r="E35" s="21" t="s">
+        <v>548</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>148</v>
@@ -2999,14 +3038,14 @@
       <c r="B36" t="s">
         <v>237</v>
       </c>
-      <c r="C36" s="19" t="s">
-        <v>477</v>
+      <c r="C36" s="18" t="s">
+        <v>536</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E36">
-        <v>15</v>
+      <c r="E36" s="21" t="s">
+        <v>551</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>238</v>
@@ -3019,14 +3058,14 @@
       <c r="B37" t="s">
         <v>274</v>
       </c>
-      <c r="C37" s="19" t="s">
-        <v>282</v>
+      <c r="C37" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E37">
-        <v>17</v>
+      <c r="E37" s="21" t="s">
+        <v>543</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>29</v>
@@ -3039,14 +3078,14 @@
       <c r="B38" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="19" t="s">
-        <v>210</v>
+      <c r="C38" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E38">
-        <v>3</v>
+      <c r="E38" s="21" t="s">
+        <v>540</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>39</v>
@@ -3054,19 +3093,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="B39" t="s">
         <v>382</v>
       </c>
-      <c r="B39" t="s">
-        <v>383</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>210</v>
+      <c r="C39" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E39">
-        <v>4</v>
+      <c r="E39" s="21" t="s">
+        <v>536</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>73</v>
@@ -3079,14 +3118,14 @@
       <c r="B40" t="s">
         <v>240</v>
       </c>
-      <c r="C40" s="19" t="s">
-        <v>477</v>
+      <c r="C40" s="18" t="s">
+        <v>536</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E40">
-        <v>15</v>
+      <c r="E40" s="21" t="s">
+        <v>551</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>238</v>
@@ -3099,14 +3138,14 @@
       <c r="B41" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="19" t="s">
-        <v>210</v>
+      <c r="C41" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E41">
-        <v>1</v>
+      <c r="E41" s="21" t="s">
+        <v>538</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>8</v>
@@ -3119,14 +3158,14 @@
       <c r="B42" t="s">
         <v>145</v>
       </c>
-      <c r="C42" s="19" t="s">
-        <v>216</v>
+      <c r="C42" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E42">
-        <v>7</v>
+      <c r="E42" s="21" t="s">
+        <v>550</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>136</v>
@@ -3139,14 +3178,14 @@
       <c r="B43" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="19" t="s">
-        <v>210</v>
+      <c r="C43" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E43">
-        <v>3</v>
+      <c r="E43" s="21" t="s">
+        <v>540</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>39</v>
@@ -3159,14 +3198,14 @@
       <c r="B44" t="s">
         <v>159</v>
       </c>
-      <c r="C44" s="19" t="s">
-        <v>216</v>
+      <c r="C44" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E44">
-        <v>8</v>
+      <c r="E44" s="21" t="s">
+        <v>548</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>148</v>
@@ -3177,16 +3216,16 @@
         <v>72</v>
       </c>
       <c r="B45" t="s">
-        <v>493</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>210</v>
+        <v>492</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E45">
-        <v>4</v>
+      <c r="E45" s="21" t="s">
+        <v>536</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>73</v>
@@ -3199,14 +3238,14 @@
       <c r="B46" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="19" t="s">
-        <v>210</v>
+      <c r="C46" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E46">
-        <v>1</v>
+      <c r="E46" s="21" t="s">
+        <v>538</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>8</v>
@@ -3219,14 +3258,14 @@
       <c r="B47" t="s">
         <v>222</v>
       </c>
-      <c r="C47" s="19" t="s">
-        <v>477</v>
+      <c r="C47" s="18" t="s">
+        <v>536</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E47">
-        <v>14</v>
+      <c r="E47" s="21" t="s">
+        <v>552</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>223</v>
@@ -3239,14 +3278,14 @@
       <c r="B48" t="s">
         <v>225</v>
       </c>
-      <c r="C48" s="19" t="s">
-        <v>477</v>
+      <c r="C48" s="18" t="s">
+        <v>536</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E48">
-        <v>14</v>
+      <c r="E48" s="21" t="s">
+        <v>552</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>223</v>
@@ -3259,14 +3298,14 @@
       <c r="B49" t="s">
         <v>45</v>
       </c>
-      <c r="C49" s="19" t="s">
-        <v>210</v>
+      <c r="C49" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E49">
-        <v>3</v>
+      <c r="E49" s="21" t="s">
+        <v>540</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>39</v>
@@ -3279,14 +3318,14 @@
       <c r="B50" t="s">
         <v>123</v>
       </c>
-      <c r="C50" s="19" t="s">
-        <v>216</v>
+      <c r="C50" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E50">
-        <v>6</v>
+      <c r="E50" s="21" t="s">
+        <v>541</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>121</v>
@@ -3294,19 +3333,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="B51" t="s">
         <v>289</v>
       </c>
-      <c r="B51" t="s">
-        <v>290</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>282</v>
+      <c r="C51" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E51">
-        <v>17</v>
+      <c r="E51" s="21" t="s">
+        <v>543</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>29</v>
@@ -3314,19 +3353,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="B52" t="s">
         <v>372</v>
       </c>
-      <c r="B52" t="s">
-        <v>373</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>216</v>
+      <c r="C52" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E52">
-        <v>9</v>
+      <c r="E52" s="21" t="s">
+        <v>545</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>174</v>
@@ -3334,19 +3373,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="B53" t="s">
         <v>444</v>
       </c>
-      <c r="B53" t="s">
-        <v>445</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>216</v>
+      <c r="C53" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E53">
-        <v>9</v>
+      <c r="E53" s="21" t="s">
+        <v>545</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>174</v>
@@ -3354,19 +3393,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="B54" t="s">
         <v>348</v>
       </c>
-      <c r="B54" t="s">
-        <v>349</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>282</v>
+      <c r="C54" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E54">
-        <v>17</v>
+      <c r="E54" s="21" t="s">
+        <v>543</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>29</v>
@@ -3379,14 +3418,14 @@
       <c r="B55" t="s">
         <v>75</v>
       </c>
-      <c r="C55" s="19" t="s">
-        <v>210</v>
+      <c r="C55" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E55">
-        <v>4</v>
+      <c r="E55" s="21" t="s">
+        <v>536</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>73</v>
@@ -3394,19 +3433,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="B56" t="s">
         <v>446</v>
       </c>
-      <c r="B56" t="s">
-        <v>447</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>216</v>
+      <c r="C56" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E56">
-        <v>9</v>
+      <c r="E56" s="21" t="s">
+        <v>545</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>174</v>
@@ -3414,19 +3453,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="B57" t="s">
         <v>415</v>
       </c>
-      <c r="B57" t="s">
-        <v>416</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>210</v>
+      <c r="C57" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E57">
-        <v>5</v>
+      <c r="E57" s="21" t="s">
+        <v>537</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>109</v>
@@ -3439,14 +3478,14 @@
       <c r="B58" t="s">
         <v>125</v>
       </c>
-      <c r="C58" s="19" t="s">
-        <v>216</v>
+      <c r="C58" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E58">
-        <v>6</v>
+      <c r="E58" s="21" t="s">
+        <v>541</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>121</v>
@@ -3454,22 +3493,22 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="15" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B59" t="s">
-        <v>494</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>477</v>
+        <v>493</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>536</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E59">
-        <v>13</v>
+      <c r="E59" s="21" t="s">
+        <v>547</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
@@ -3479,14 +3518,14 @@
       <c r="B60" t="s">
         <v>161</v>
       </c>
-      <c r="C60" s="19" t="s">
-        <v>216</v>
+      <c r="C60" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E60">
-        <v>8</v>
+      <c r="E60" s="21" t="s">
+        <v>548</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>148</v>
@@ -3499,14 +3538,14 @@
       <c r="B61" t="s">
         <v>77</v>
       </c>
-      <c r="C61" s="19" t="s">
-        <v>210</v>
+      <c r="C61" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E61">
-        <v>4</v>
+      <c r="E61" s="21" t="s">
+        <v>536</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>73</v>
@@ -3514,19 +3553,19 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="B62" t="s">
         <v>332</v>
       </c>
-      <c r="B62" t="s">
-        <v>333</v>
-      </c>
-      <c r="C62" s="19" t="s">
-        <v>282</v>
+      <c r="C62" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E62">
-        <v>17</v>
+      <c r="E62" s="21" t="s">
+        <v>543</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>29</v>
@@ -3534,19 +3573,19 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="B63" t="s">
         <v>291</v>
       </c>
-      <c r="B63" t="s">
-        <v>292</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>282</v>
+      <c r="C63" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E63">
-        <v>17</v>
+      <c r="E63" s="21" t="s">
+        <v>543</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>29</v>
@@ -3554,19 +3593,19 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="B64" t="s">
         <v>293</v>
       </c>
-      <c r="B64" t="s">
-        <v>294</v>
-      </c>
-      <c r="C64" s="19" t="s">
-        <v>282</v>
+      <c r="C64" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E64">
-        <v>17</v>
+      <c r="E64" s="21" t="s">
+        <v>543</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>29</v>
@@ -3577,16 +3616,16 @@
         <v>137</v>
       </c>
       <c r="B65" t="s">
-        <v>495</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>216</v>
+        <v>494</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E65">
-        <v>7</v>
+      <c r="E65" s="21" t="s">
+        <v>550</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>136</v>
@@ -3594,19 +3633,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="B66" t="s">
         <v>350</v>
       </c>
-      <c r="B66" t="s">
-        <v>351</v>
-      </c>
-      <c r="C66" s="19" t="s">
-        <v>282</v>
+      <c r="C66" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E66">
-        <v>17</v>
+      <c r="E66" s="21" t="s">
+        <v>543</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>29</v>
@@ -3617,16 +3656,16 @@
         <v>36</v>
       </c>
       <c r="B67" t="s">
-        <v>513</v>
-      </c>
-      <c r="C67" s="19" t="s">
-        <v>210</v>
+        <v>510</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E67">
-        <v>2</v>
+      <c r="E67" s="21" t="s">
+        <v>539</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>27</v>
@@ -3639,14 +3678,14 @@
       <c r="B68" t="s">
         <v>79</v>
       </c>
-      <c r="C68" s="19" t="s">
-        <v>210</v>
+      <c r="C68" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E68">
-        <v>4</v>
+      <c r="E68" s="21" t="s">
+        <v>536</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>73</v>
@@ -3654,19 +3693,19 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="B69" t="s">
         <v>352</v>
       </c>
-      <c r="B69" t="s">
-        <v>353</v>
-      </c>
-      <c r="C69" s="19" t="s">
-        <v>282</v>
+      <c r="C69" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E69">
-        <v>16</v>
+      <c r="E69" s="21" t="s">
+        <v>544</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>218</v>
@@ -3674,19 +3713,19 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="B70" t="s">
         <v>394</v>
       </c>
-      <c r="B70" t="s">
-        <v>395</v>
-      </c>
-      <c r="C70" s="19" t="s">
-        <v>507</v>
+      <c r="C70" s="18" t="s">
+        <v>541</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E70">
-        <v>19</v>
+      <c r="E70" s="21" t="s">
+        <v>553</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>264</v>
@@ -3699,14 +3738,14 @@
       <c r="B71" t="s">
         <v>242</v>
       </c>
-      <c r="C71" s="19" t="s">
-        <v>477</v>
+      <c r="C71" s="18" t="s">
+        <v>536</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E71">
-        <v>15</v>
+      <c r="E71" s="21" t="s">
+        <v>551</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>238</v>
@@ -3714,19 +3753,19 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="B72" t="s">
         <v>354</v>
       </c>
-      <c r="B72" t="s">
-        <v>355</v>
-      </c>
-      <c r="C72" s="19" t="s">
-        <v>282</v>
+      <c r="C72" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E72">
-        <v>17</v>
+      <c r="E72" s="21" t="s">
+        <v>543</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>29</v>
@@ -3734,19 +3773,19 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="B73" t="s">
         <v>320</v>
       </c>
-      <c r="B73" t="s">
-        <v>321</v>
-      </c>
-      <c r="C73" s="19" t="s">
-        <v>282</v>
+      <c r="C73" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E73">
-        <v>17</v>
+      <c r="E73" s="21" t="s">
+        <v>543</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>29</v>
@@ -3759,14 +3798,14 @@
       <c r="B74" t="s">
         <v>14</v>
       </c>
-      <c r="C74" s="19" t="s">
-        <v>210</v>
+      <c r="C74" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E74">
-        <v>1</v>
+      <c r="E74" s="21" t="s">
+        <v>538</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>8</v>
@@ -3779,14 +3818,14 @@
       <c r="B75" t="s">
         <v>47</v>
       </c>
-      <c r="C75" s="19" t="s">
-        <v>210</v>
+      <c r="C75" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E75">
-        <v>3</v>
+      <c r="E75" s="21" t="s">
+        <v>540</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>39</v>
@@ -3799,14 +3838,14 @@
       <c r="B76" t="s">
         <v>220</v>
       </c>
-      <c r="C76" s="19" t="s">
-        <v>282</v>
+      <c r="C76" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E76">
-        <v>16</v>
+      <c r="E76" s="21" t="s">
+        <v>544</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>218</v>
@@ -3819,14 +3858,14 @@
       <c r="B77" t="s">
         <v>49</v>
       </c>
-      <c r="C77" s="19" t="s">
-        <v>210</v>
+      <c r="C77" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E77">
-        <v>3</v>
+      <c r="E77" s="21" t="s">
+        <v>540</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>39</v>
@@ -3834,19 +3873,19 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="B78" t="s">
         <v>295</v>
       </c>
-      <c r="B78" t="s">
-        <v>296</v>
-      </c>
-      <c r="C78" s="19" t="s">
-        <v>282</v>
+      <c r="C78" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E78">
-        <v>17</v>
+      <c r="E78" s="21" t="s">
+        <v>543</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>29</v>
@@ -3854,19 +3893,19 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="B79" t="s">
         <v>297</v>
       </c>
-      <c r="B79" t="s">
-        <v>298</v>
-      </c>
-      <c r="C79" s="19" t="s">
-        <v>282</v>
+      <c r="C79" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E79">
-        <v>17</v>
+      <c r="E79" s="21" t="s">
+        <v>543</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>29</v>
@@ -3874,19 +3913,19 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="B80" t="s">
         <v>448</v>
       </c>
-      <c r="B80" t="s">
-        <v>449</v>
-      </c>
-      <c r="C80" s="19" t="s">
-        <v>216</v>
+      <c r="C80" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E80">
-        <v>9</v>
+      <c r="E80" s="21" t="s">
+        <v>545</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>174</v>
@@ -3899,14 +3938,14 @@
       <c r="B81" t="s">
         <v>139</v>
       </c>
-      <c r="C81" s="19" t="s">
-        <v>216</v>
+      <c r="C81" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E81">
-        <v>7</v>
+      <c r="E81" s="21" t="s">
+        <v>550</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>136</v>
@@ -3914,19 +3953,19 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="15" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B82" t="s">
-        <v>515</v>
-      </c>
-      <c r="C82" s="19" t="s">
-        <v>216</v>
+        <v>512</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E82">
-        <v>9</v>
+      <c r="E82" s="21" t="s">
+        <v>545</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>174</v>
@@ -3934,19 +3973,19 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="15" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B83" t="s">
-        <v>517</v>
-      </c>
-      <c r="C83" s="19" t="s">
-        <v>216</v>
+        <v>514</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E83">
-        <v>8</v>
+      <c r="E83" s="21" t="s">
+        <v>548</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>148</v>
@@ -3954,22 +3993,22 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="B84" t="s">
         <v>402</v>
       </c>
-      <c r="B84" t="s">
-        <v>403</v>
-      </c>
-      <c r="C84" s="19" t="s">
-        <v>507</v>
+      <c r="C84" s="18" t="s">
+        <v>541</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E84">
-        <v>20</v>
+      <c r="E84" s="21" t="s">
+        <v>554</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
@@ -3979,14 +4018,14 @@
       <c r="B85" t="s">
         <v>127</v>
       </c>
-      <c r="C85" s="19" t="s">
-        <v>216</v>
+      <c r="C85" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E85">
-        <v>6</v>
+      <c r="E85" s="21" t="s">
+        <v>541</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>121</v>
@@ -3994,19 +4033,19 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="15" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B86" t="s">
-        <v>519</v>
-      </c>
-      <c r="C86" s="19" t="s">
-        <v>282</v>
+        <v>516</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E86">
-        <v>16</v>
+      <c r="E86" s="21" t="s">
+        <v>544</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>218</v>
@@ -4019,14 +4058,14 @@
       <c r="B87" t="s">
         <v>51</v>
       </c>
-      <c r="C87" s="19" t="s">
-        <v>210</v>
+      <c r="C87" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E87">
-        <v>3</v>
+      <c r="E87" s="21" t="s">
+        <v>540</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>39</v>
@@ -4039,14 +4078,14 @@
       <c r="B88" t="s">
         <v>16</v>
       </c>
-      <c r="C88" s="19" t="s">
-        <v>210</v>
+      <c r="C88" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E88">
-        <v>1</v>
+      <c r="E88" s="21" t="s">
+        <v>538</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>8</v>
@@ -4059,14 +4098,14 @@
       <c r="B89" t="s">
         <v>53</v>
       </c>
-      <c r="C89" s="19" t="s">
-        <v>210</v>
+      <c r="C89" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E89">
-        <v>3</v>
+      <c r="E89" s="21" t="s">
+        <v>540</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>39</v>
@@ -4079,14 +4118,14 @@
       <c r="B90" t="s">
         <v>163</v>
       </c>
-      <c r="C90" s="19" t="s">
-        <v>216</v>
+      <c r="C90" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E90">
-        <v>8</v>
+      <c r="E90" s="21" t="s">
+        <v>548</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>148</v>
@@ -4094,19 +4133,19 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="B91" t="s">
         <v>374</v>
       </c>
-      <c r="B91" t="s">
-        <v>375</v>
-      </c>
-      <c r="C91" s="19" t="s">
-        <v>216</v>
+      <c r="C91" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E91">
-        <v>9</v>
+      <c r="E91" s="21" t="s">
+        <v>545</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>174</v>
@@ -4119,14 +4158,14 @@
       <c r="B92" t="s">
         <v>129</v>
       </c>
-      <c r="C92" s="19" t="s">
-        <v>216</v>
+      <c r="C92" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E92">
-        <v>6</v>
+      <c r="E92" s="21" t="s">
+        <v>541</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>121</v>
@@ -4137,16 +4176,16 @@
         <v>226</v>
       </c>
       <c r="B93" t="s">
-        <v>496</v>
-      </c>
-      <c r="C93" s="19" t="s">
-        <v>477</v>
+        <v>495</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>536</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E93">
-        <v>14</v>
+      <c r="E93" s="21" t="s">
+        <v>552</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>223</v>
@@ -4154,19 +4193,19 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="B94" t="s">
         <v>334</v>
       </c>
-      <c r="B94" t="s">
-        <v>335</v>
-      </c>
-      <c r="C94" s="19" t="s">
-        <v>282</v>
+      <c r="C94" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E94">
-        <v>17</v>
+      <c r="E94" s="21" t="s">
+        <v>543</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>29</v>
@@ -4174,22 +4213,22 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="15" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B95" t="s">
-        <v>497</v>
-      </c>
-      <c r="C95" s="19" t="s">
-        <v>477</v>
+        <v>496</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>536</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E95">
-        <v>13</v>
+      <c r="E95" s="21" t="s">
+        <v>547</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
@@ -4199,14 +4238,14 @@
       <c r="B96" t="s">
         <v>180</v>
       </c>
-      <c r="C96" s="19" t="s">
-        <v>506</v>
+      <c r="C96" s="18" t="s">
+        <v>540</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E96">
-        <v>10</v>
+      <c r="E96" s="21" t="s">
+        <v>546</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>178</v>
@@ -4219,14 +4258,14 @@
       <c r="B97" t="s">
         <v>244</v>
       </c>
-      <c r="C97" s="19" t="s">
-        <v>507</v>
+      <c r="C97" s="18" t="s">
+        <v>541</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E97">
-        <v>18</v>
+      <c r="E97" s="21" t="s">
+        <v>549</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>268</v>
@@ -4234,19 +4273,19 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="15" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B98" t="s">
-        <v>521</v>
-      </c>
-      <c r="C98" s="19" t="s">
-        <v>282</v>
+        <v>518</v>
+      </c>
+      <c r="C98" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E98">
-        <v>16</v>
+      <c r="E98" s="21" t="s">
+        <v>544</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>218</v>
@@ -4259,14 +4298,14 @@
       <c r="B99" t="s">
         <v>270</v>
       </c>
-      <c r="C99" s="19" t="s">
-        <v>507</v>
+      <c r="C99" s="18" t="s">
+        <v>541</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E99">
-        <v>18</v>
+      <c r="E99" s="21" t="s">
+        <v>549</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>268</v>
@@ -4274,19 +4313,19 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="B100" t="s">
         <v>376</v>
       </c>
-      <c r="B100" t="s">
-        <v>377</v>
-      </c>
-      <c r="C100" s="19" t="s">
-        <v>216</v>
+      <c r="C100" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E100">
-        <v>9</v>
+      <c r="E100" s="21" t="s">
+        <v>545</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>174</v>
@@ -4297,16 +4336,16 @@
         <v>265</v>
       </c>
       <c r="B101" t="s">
-        <v>498</v>
-      </c>
-      <c r="C101" s="19" t="s">
-        <v>507</v>
+        <v>497</v>
+      </c>
+      <c r="C101" s="18" t="s">
+        <v>541</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E101">
-        <v>18</v>
+      <c r="E101" s="21" t="s">
+        <v>549</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>268</v>
@@ -4314,22 +4353,22 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="B102" t="s">
         <v>466</v>
       </c>
-      <c r="B102" t="s">
-        <v>467</v>
-      </c>
-      <c r="C102" s="19" t="s">
-        <v>507</v>
+      <c r="C102" s="18" t="s">
+        <v>541</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E102">
-        <v>21</v>
+      <c r="E102" s="21" t="s">
+        <v>555</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
@@ -4337,16 +4376,16 @@
         <v>157</v>
       </c>
       <c r="B103" t="s">
-        <v>499</v>
-      </c>
-      <c r="C103" s="19" t="s">
-        <v>216</v>
+        <v>498</v>
+      </c>
+      <c r="C103" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E103">
-        <v>8</v>
+      <c r="E103" s="21" t="s">
+        <v>548</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>148</v>
@@ -4359,14 +4398,14 @@
       <c r="B104" t="s">
         <v>182</v>
       </c>
-      <c r="C104" s="19" t="s">
-        <v>506</v>
+      <c r="C104" s="18" t="s">
+        <v>540</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E104">
-        <v>10</v>
+      <c r="E104" s="21" t="s">
+        <v>546</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>178</v>
@@ -4379,14 +4418,14 @@
       <c r="B105" t="s">
         <v>184</v>
       </c>
-      <c r="C105" s="19" t="s">
-        <v>506</v>
+      <c r="C105" s="18" t="s">
+        <v>540</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E105">
-        <v>10</v>
+      <c r="E105" s="21" t="s">
+        <v>546</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>178</v>
@@ -4394,79 +4433,79 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="B106" t="s">
         <v>487</v>
       </c>
-      <c r="B106" t="s">
-        <v>488</v>
-      </c>
-      <c r="C106" s="19" t="s">
-        <v>507</v>
+      <c r="C106" s="18" t="s">
+        <v>541</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E106">
-        <v>20</v>
+      <c r="E106" s="21" t="s">
+        <v>554</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="B107" t="s">
         <v>405</v>
       </c>
-      <c r="B107" t="s">
-        <v>406</v>
-      </c>
-      <c r="C107" s="19" t="s">
-        <v>507</v>
+      <c r="C107" s="18" t="s">
+        <v>541</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E107">
-        <v>20</v>
+      <c r="E107" s="21" t="s">
+        <v>554</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B108" t="s">
-        <v>500</v>
-      </c>
-      <c r="C108" s="19" t="s">
-        <v>507</v>
+        <v>499</v>
+      </c>
+      <c r="C108" s="18" t="s">
+        <v>541</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E108">
-        <v>20</v>
+      <c r="E108" s="21" t="s">
+        <v>554</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="B109" t="s">
         <v>396</v>
       </c>
-      <c r="B109" t="s">
-        <v>397</v>
-      </c>
-      <c r="C109" s="19" t="s">
-        <v>507</v>
+      <c r="C109" s="18" t="s">
+        <v>541</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E109">
-        <v>19</v>
+      <c r="E109" s="21" t="s">
+        <v>553</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>264</v>
@@ -4479,14 +4518,14 @@
       <c r="B110" t="s">
         <v>277</v>
       </c>
-      <c r="C110" s="19" t="s">
-        <v>216</v>
+      <c r="C110" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E110">
-        <v>9</v>
+      <c r="E110" s="21" t="s">
+        <v>545</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>174</v>
@@ -4494,19 +4533,19 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="B111" t="s">
         <v>450</v>
       </c>
-      <c r="B111" t="s">
-        <v>451</v>
-      </c>
-      <c r="C111" s="19" t="s">
-        <v>216</v>
+      <c r="C111" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E111">
-        <v>9</v>
+      <c r="E111" s="21" t="s">
+        <v>545</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>174</v>
@@ -4514,19 +4553,19 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="B112" t="s">
         <v>452</v>
       </c>
-      <c r="B112" t="s">
-        <v>453</v>
-      </c>
-      <c r="C112" s="19" t="s">
-        <v>216</v>
+      <c r="C112" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E112">
-        <v>9</v>
+      <c r="E112" s="21" t="s">
+        <v>545</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>174</v>
@@ -4539,14 +4578,14 @@
       <c r="B113" t="s">
         <v>198</v>
       </c>
-      <c r="C113" s="19" t="s">
-        <v>477</v>
+      <c r="C113" s="18" t="s">
+        <v>536</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E113">
-        <v>12</v>
+      <c r="E113" s="21" t="s">
+        <v>542</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>199</v>
@@ -4559,14 +4598,14 @@
       <c r="B114" t="s">
         <v>258</v>
       </c>
-      <c r="C114" s="19" t="s">
-        <v>477</v>
+      <c r="C114" s="18" t="s">
+        <v>536</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E114">
-        <v>15</v>
+      <c r="E114" s="21" t="s">
+        <v>551</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>238</v>
@@ -4579,14 +4618,14 @@
       <c r="B115" t="s">
         <v>201</v>
       </c>
-      <c r="C115" s="19" t="s">
-        <v>477</v>
+      <c r="C115" s="18" t="s">
+        <v>536</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E115">
-        <v>12</v>
+      <c r="E115" s="21" t="s">
+        <v>542</v>
       </c>
       <c r="F115" s="5" t="s">
         <v>199</v>
@@ -4594,39 +4633,39 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B116" t="s">
-        <v>501</v>
-      </c>
-      <c r="C116" s="19" t="s">
-        <v>477</v>
+        <v>500</v>
+      </c>
+      <c r="C116" s="18" t="s">
+        <v>536</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E116">
-        <v>13</v>
+      <c r="E116" s="21" t="s">
+        <v>547</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="B117" t="s">
         <v>356</v>
       </c>
-      <c r="B117" t="s">
-        <v>357</v>
-      </c>
-      <c r="C117" s="19" t="s">
-        <v>282</v>
+      <c r="C117" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E117">
-        <v>17</v>
+      <c r="E117" s="21" t="s">
+        <v>543</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>29</v>
@@ -4634,19 +4673,19 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="B118" t="s">
         <v>358</v>
       </c>
-      <c r="B118" t="s">
-        <v>359</v>
-      </c>
-      <c r="C118" s="19" t="s">
-        <v>282</v>
+      <c r="C118" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E118">
-        <v>16</v>
+      <c r="E118" s="21" t="s">
+        <v>544</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>218</v>
@@ -4654,39 +4693,39 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="B119" t="s">
         <v>419</v>
       </c>
-      <c r="B119" t="s">
-        <v>420</v>
-      </c>
-      <c r="C119" s="19" t="s">
-        <v>477</v>
+      <c r="C119" s="18" t="s">
+        <v>536</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E119">
-        <v>13</v>
+      <c r="E119" s="21" t="s">
+        <v>547</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="B120" t="s">
         <v>299</v>
       </c>
-      <c r="B120" t="s">
-        <v>300</v>
-      </c>
-      <c r="C120" s="19" t="s">
-        <v>282</v>
+      <c r="C120" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E120">
-        <v>17</v>
+      <c r="E120" s="21" t="s">
+        <v>543</v>
       </c>
       <c r="F120" s="5" t="s">
         <v>29</v>
@@ -4694,19 +4733,19 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="B121" t="s">
         <v>378</v>
       </c>
-      <c r="B121" t="s">
-        <v>379</v>
-      </c>
-      <c r="C121" s="19" t="s">
-        <v>216</v>
+      <c r="C121" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E121">
-        <v>9</v>
+      <c r="E121" s="21" t="s">
+        <v>545</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>174</v>
@@ -4719,14 +4758,14 @@
       <c r="B122" t="s">
         <v>228</v>
       </c>
-      <c r="C122" s="19" t="s">
-        <v>477</v>
+      <c r="C122" s="18" t="s">
+        <v>536</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E122">
-        <v>14</v>
+      <c r="E122" s="21" t="s">
+        <v>552</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>223</v>
@@ -4734,19 +4773,19 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="15" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B123" t="s">
-        <v>523</v>
-      </c>
-      <c r="C123" s="19" t="s">
-        <v>282</v>
+        <v>520</v>
+      </c>
+      <c r="C123" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E123">
-        <v>16</v>
+      <c r="E123" s="21" t="s">
+        <v>544</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>218</v>
@@ -4754,22 +4793,22 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="B124" t="s">
         <v>421</v>
       </c>
-      <c r="B124" t="s">
-        <v>422</v>
-      </c>
-      <c r="C124" s="19" t="s">
-        <v>477</v>
+      <c r="C124" s="18" t="s">
+        <v>536</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E124">
-        <v>13</v>
+      <c r="E124" s="21" t="s">
+        <v>547</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
@@ -4779,14 +4818,14 @@
       <c r="B125" t="s">
         <v>186</v>
       </c>
-      <c r="C125" s="19" t="s">
-        <v>477</v>
+      <c r="C125" s="18" t="s">
+        <v>536</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E125">
-        <v>11</v>
+      <c r="E125" s="21" t="s">
+        <v>556</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>188</v>
@@ -4799,14 +4838,14 @@
       <c r="B126" t="s">
         <v>81</v>
       </c>
-      <c r="C126" s="19" t="s">
-        <v>210</v>
+      <c r="C126" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E126">
-        <v>4</v>
+      <c r="E126" s="21" t="s">
+        <v>536</v>
       </c>
       <c r="F126" s="5" t="s">
         <v>73</v>
@@ -4819,14 +4858,14 @@
       <c r="B127" t="s">
         <v>190</v>
       </c>
-      <c r="C127" s="19" t="s">
-        <v>477</v>
+      <c r="C127" s="18" t="s">
+        <v>536</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E127">
-        <v>11</v>
+      <c r="E127" s="21" t="s">
+        <v>556</v>
       </c>
       <c r="F127" s="5" t="s">
         <v>188</v>
@@ -4834,42 +4873,42 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="B128" t="s">
         <v>408</v>
       </c>
-      <c r="B128" t="s">
-        <v>409</v>
-      </c>
-      <c r="C128" s="19" t="s">
-        <v>507</v>
+      <c r="C128" s="18" t="s">
+        <v>541</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E128">
-        <v>20</v>
+      <c r="E128" s="21" t="s">
+        <v>554</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="B129" t="s">
         <v>423</v>
       </c>
-      <c r="B129" t="s">
-        <v>424</v>
-      </c>
-      <c r="C129" s="19" t="s">
-        <v>477</v>
+      <c r="C129" s="18" t="s">
+        <v>536</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E129">
-        <v>13</v>
+      <c r="E129" s="21" t="s">
+        <v>547</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
@@ -4879,14 +4918,14 @@
       <c r="B130" t="s">
         <v>246</v>
       </c>
-      <c r="C130" s="19" t="s">
-        <v>477</v>
+      <c r="C130" s="18" t="s">
+        <v>536</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E130">
-        <v>15</v>
+      <c r="E130" s="21" t="s">
+        <v>551</v>
       </c>
       <c r="F130" s="5" t="s">
         <v>238</v>
@@ -4899,14 +4938,14 @@
       <c r="B131" t="s">
         <v>31</v>
       </c>
-      <c r="C131" s="19" t="s">
-        <v>210</v>
+      <c r="C131" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E131">
-        <v>2</v>
+      <c r="E131" s="21" t="s">
+        <v>539</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>27</v>
@@ -4914,19 +4953,19 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="B132" t="s">
         <v>360</v>
       </c>
-      <c r="B132" t="s">
-        <v>361</v>
-      </c>
-      <c r="C132" s="19" t="s">
-        <v>282</v>
+      <c r="C132" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E132">
-        <v>17</v>
+      <c r="E132" s="21" t="s">
+        <v>543</v>
       </c>
       <c r="F132" s="5" t="s">
         <v>29</v>
@@ -4934,22 +4973,22 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="B133" t="s">
         <v>425</v>
       </c>
-      <c r="B133" t="s">
-        <v>426</v>
-      </c>
-      <c r="C133" s="19" t="s">
-        <v>477</v>
+      <c r="C133" s="18" t="s">
+        <v>536</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E133">
-        <v>13</v>
+      <c r="E133" s="21" t="s">
+        <v>547</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
@@ -4959,14 +4998,14 @@
       <c r="B134" t="s">
         <v>55</v>
       </c>
-      <c r="C134" s="19" t="s">
-        <v>210</v>
+      <c r="C134" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E134">
-        <v>3</v>
+      <c r="E134" s="21" t="s">
+        <v>540</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>39</v>
@@ -4979,14 +5018,14 @@
       <c r="B135" t="s">
         <v>111</v>
       </c>
-      <c r="C135" s="19" t="s">
-        <v>210</v>
+      <c r="C135" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E135">
-        <v>5</v>
+      <c r="E135" s="21" t="s">
+        <v>537</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>109</v>
@@ -4994,19 +5033,19 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="B136" t="s">
         <v>322</v>
       </c>
-      <c r="B136" t="s">
-        <v>323</v>
-      </c>
-      <c r="C136" s="19" t="s">
-        <v>282</v>
+      <c r="C136" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E136">
-        <v>16</v>
+      <c r="E136" s="21" t="s">
+        <v>544</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>218</v>
@@ -5014,19 +5053,19 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="B137" t="s">
         <v>362</v>
       </c>
-      <c r="B137" t="s">
-        <v>363</v>
-      </c>
-      <c r="C137" s="19" t="s">
-        <v>282</v>
+      <c r="C137" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E137">
-        <v>17</v>
+      <c r="E137" s="21" t="s">
+        <v>543</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>29</v>
@@ -5034,19 +5073,19 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="B138" t="s">
         <v>324</v>
       </c>
-      <c r="B138" t="s">
-        <v>325</v>
-      </c>
-      <c r="C138" s="19" t="s">
-        <v>282</v>
+      <c r="C138" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E138">
-        <v>17</v>
+      <c r="E138" s="21" t="s">
+        <v>543</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>29</v>
@@ -5057,16 +5096,16 @@
         <v>229</v>
       </c>
       <c r="B139" t="s">
-        <v>502</v>
-      </c>
-      <c r="C139" s="19" t="s">
-        <v>477</v>
+        <v>501</v>
+      </c>
+      <c r="C139" s="18" t="s">
+        <v>536</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E139">
-        <v>14</v>
+      <c r="E139" s="21" t="s">
+        <v>552</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>223</v>
@@ -5074,19 +5113,19 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="B140" t="s">
         <v>301</v>
       </c>
-      <c r="B140" t="s">
-        <v>302</v>
-      </c>
-      <c r="C140" s="19" t="s">
-        <v>282</v>
+      <c r="C140" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E140">
-        <v>16</v>
+      <c r="E140" s="21" t="s">
+        <v>544</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>218</v>
@@ -5099,14 +5138,14 @@
       <c r="B141" t="s">
         <v>83</v>
       </c>
-      <c r="C141" s="19" t="s">
-        <v>210</v>
+      <c r="C141" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E141">
-        <v>4</v>
+      <c r="E141" s="21" t="s">
+        <v>536</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>73</v>
@@ -5119,14 +5158,14 @@
       <c r="B142" t="s">
         <v>248</v>
       </c>
-      <c r="C142" s="19" t="s">
-        <v>477</v>
+      <c r="C142" s="18" t="s">
+        <v>536</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E142">
-        <v>15</v>
+      <c r="E142" s="21" t="s">
+        <v>551</v>
       </c>
       <c r="F142" s="5" t="s">
         <v>238</v>
@@ -5139,14 +5178,14 @@
       <c r="B143" t="s">
         <v>85</v>
       </c>
-      <c r="C143" s="19" t="s">
-        <v>210</v>
+      <c r="C143" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E143">
-        <v>4</v>
+      <c r="E143" s="21" t="s">
+        <v>536</v>
       </c>
       <c r="F143" s="5" t="s">
         <v>73</v>
@@ -5159,14 +5198,14 @@
       <c r="B144" t="s">
         <v>203</v>
       </c>
-      <c r="C144" s="19" t="s">
-        <v>477</v>
+      <c r="C144" s="18" t="s">
+        <v>536</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E144">
-        <v>12</v>
+      <c r="E144" s="21" t="s">
+        <v>542</v>
       </c>
       <c r="F144" s="5" t="s">
         <v>199</v>
@@ -5179,14 +5218,14 @@
       <c r="B145" t="s">
         <v>57</v>
       </c>
-      <c r="C145" s="19" t="s">
-        <v>210</v>
+      <c r="C145" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D145" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E145">
-        <v>3</v>
+      <c r="E145" s="21" t="s">
+        <v>540</v>
       </c>
       <c r="F145" s="5" t="s">
         <v>39</v>
@@ -5194,19 +5233,19 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="B146" t="s">
         <v>303</v>
       </c>
-      <c r="B146" t="s">
-        <v>304</v>
-      </c>
-      <c r="C146" s="19" t="s">
-        <v>282</v>
+      <c r="C146" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E146">
-        <v>17</v>
+      <c r="E146" s="21" t="s">
+        <v>543</v>
       </c>
       <c r="F146" s="5" t="s">
         <v>29</v>
@@ -5217,16 +5256,16 @@
         <v>112</v>
       </c>
       <c r="B147" t="s">
-        <v>503</v>
-      </c>
-      <c r="C147" s="19" t="s">
-        <v>210</v>
+        <v>502</v>
+      </c>
+      <c r="C147" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D147" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E147">
-        <v>5</v>
+      <c r="E147" s="21" t="s">
+        <v>537</v>
       </c>
       <c r="F147" s="5" t="s">
         <v>109</v>
@@ -5234,19 +5273,19 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="15" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B148" t="s">
-        <v>525</v>
-      </c>
-      <c r="C148" s="19" t="s">
-        <v>216</v>
+        <v>522</v>
+      </c>
+      <c r="C148" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E148">
-        <v>9</v>
+      <c r="E148" s="21" t="s">
+        <v>545</v>
       </c>
       <c r="F148" s="5" t="s">
         <v>174</v>
@@ -5259,14 +5298,14 @@
       <c r="B149" t="s">
         <v>87</v>
       </c>
-      <c r="C149" s="19" t="s">
-        <v>210</v>
+      <c r="C149" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D149" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E149">
-        <v>4</v>
+      <c r="E149" s="21" t="s">
+        <v>536</v>
       </c>
       <c r="F149" s="5" t="s">
         <v>73</v>
@@ -5279,14 +5318,14 @@
       <c r="B150" t="s">
         <v>59</v>
       </c>
-      <c r="C150" s="19" t="s">
-        <v>210</v>
+      <c r="C150" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D150" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E150">
-        <v>3</v>
+      <c r="E150" s="21" t="s">
+        <v>540</v>
       </c>
       <c r="F150" s="5" t="s">
         <v>39</v>
@@ -5299,14 +5338,14 @@
       <c r="B151" t="s">
         <v>89</v>
       </c>
-      <c r="C151" s="19" t="s">
-        <v>282</v>
+      <c r="C151" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D151" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E151">
-        <v>17</v>
+      <c r="E151" s="21" t="s">
+        <v>543</v>
       </c>
       <c r="F151" s="5" t="s">
         <v>29</v>
@@ -5319,14 +5358,14 @@
       <c r="B152" t="s">
         <v>141</v>
       </c>
-      <c r="C152" s="19" t="s">
-        <v>216</v>
+      <c r="C152" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D152" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E152">
-        <v>6</v>
+      <c r="E152" s="21" t="s">
+        <v>541</v>
       </c>
       <c r="F152" s="5" t="s">
         <v>121</v>
@@ -5334,22 +5373,22 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B153" t="s">
-        <v>404</v>
-      </c>
-      <c r="C153" s="19" t="s">
-        <v>507</v>
+        <v>403</v>
+      </c>
+      <c r="C153" s="18" t="s">
+        <v>541</v>
       </c>
       <c r="D153" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E153">
-        <v>20</v>
+      <c r="E153" s="21" t="s">
+        <v>554</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
@@ -5359,14 +5398,14 @@
       <c r="B154" t="s">
         <v>91</v>
       </c>
-      <c r="C154" s="19" t="s">
-        <v>210</v>
+      <c r="C154" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D154" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E154">
-        <v>4</v>
+      <c r="E154" s="21" t="s">
+        <v>536</v>
       </c>
       <c r="F154" s="5" t="s">
         <v>73</v>
@@ -5374,19 +5413,19 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="B155" t="s">
         <v>336</v>
       </c>
-      <c r="B155" t="s">
-        <v>337</v>
-      </c>
-      <c r="C155" s="19" t="s">
-        <v>282</v>
+      <c r="C155" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D155" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E155">
-        <v>16</v>
+      <c r="E155" s="21" t="s">
+        <v>544</v>
       </c>
       <c r="F155" s="5" t="s">
         <v>218</v>
@@ -5394,19 +5433,19 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B156" t="s">
-        <v>527</v>
-      </c>
-      <c r="C156" s="19" t="s">
-        <v>282</v>
+        <v>524</v>
+      </c>
+      <c r="C156" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D156" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E156">
-        <v>16</v>
+      <c r="E156" s="21" t="s">
+        <v>544</v>
       </c>
       <c r="F156" s="5" t="s">
         <v>218</v>
@@ -5419,14 +5458,14 @@
       <c r="B157" t="s">
         <v>231</v>
       </c>
-      <c r="C157" s="19" t="s">
-        <v>477</v>
+      <c r="C157" s="18" t="s">
+        <v>536</v>
       </c>
       <c r="D157" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E157">
-        <v>14</v>
+      <c r="E157" s="21" t="s">
+        <v>552</v>
       </c>
       <c r="F157" s="5" t="s">
         <v>223</v>
@@ -5434,19 +5473,19 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="B158" t="s">
         <v>305</v>
       </c>
-      <c r="B158" t="s">
-        <v>306</v>
-      </c>
-      <c r="C158" s="19" t="s">
-        <v>282</v>
+      <c r="C158" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D158" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E158">
-        <v>16</v>
+      <c r="E158" s="21" t="s">
+        <v>544</v>
       </c>
       <c r="F158" s="5" t="s">
         <v>218</v>
@@ -5454,19 +5493,19 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="B159" t="s">
         <v>454</v>
       </c>
-      <c r="B159" t="s">
-        <v>455</v>
-      </c>
-      <c r="C159" s="19" t="s">
-        <v>216</v>
+      <c r="C159" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D159" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E159">
-        <v>9</v>
+      <c r="E159" s="21" t="s">
+        <v>545</v>
       </c>
       <c r="F159" s="5" t="s">
         <v>174</v>
@@ -5479,14 +5518,14 @@
       <c r="B160" t="s">
         <v>250</v>
       </c>
-      <c r="C160" s="19" t="s">
-        <v>477</v>
+      <c r="C160" s="18" t="s">
+        <v>536</v>
       </c>
       <c r="D160" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E160">
-        <v>15</v>
+      <c r="E160" s="21" t="s">
+        <v>551</v>
       </c>
       <c r="F160" s="5" t="s">
         <v>238</v>
@@ -5499,14 +5538,14 @@
       <c r="B161" t="s">
         <v>33</v>
       </c>
-      <c r="C161" s="19" t="s">
-        <v>210</v>
+      <c r="C161" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D161" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E161">
-        <v>2</v>
+      <c r="E161" s="21" t="s">
+        <v>539</v>
       </c>
       <c r="F161" s="5" t="s">
         <v>27</v>
@@ -5514,22 +5553,22 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="B162" t="s">
         <v>411</v>
       </c>
-      <c r="B162" t="s">
-        <v>412</v>
-      </c>
-      <c r="C162" s="19" t="s">
-        <v>507</v>
+      <c r="C162" s="18" t="s">
+        <v>541</v>
       </c>
       <c r="D162" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E162">
-        <v>20</v>
+      <c r="E162" s="21" t="s">
+        <v>554</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
@@ -5539,14 +5578,14 @@
       <c r="B163" t="s">
         <v>205</v>
       </c>
-      <c r="C163" s="19" t="s">
-        <v>477</v>
+      <c r="C163" s="18" t="s">
+        <v>536</v>
       </c>
       <c r="D163" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E163">
-        <v>12</v>
+      <c r="E163" s="21" t="s">
+        <v>542</v>
       </c>
       <c r="F163" s="5" t="s">
         <v>199</v>
@@ -5559,14 +5598,14 @@
       <c r="B164" t="s">
         <v>131</v>
       </c>
-      <c r="C164" s="19" t="s">
-        <v>216</v>
+      <c r="C164" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D164" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E164">
-        <v>6</v>
+      <c r="E164" s="21" t="s">
+        <v>541</v>
       </c>
       <c r="F164" s="5" t="s">
         <v>121</v>
@@ -5579,14 +5618,14 @@
       <c r="B165" t="s">
         <v>61</v>
       </c>
-      <c r="C165" s="19" t="s">
-        <v>210</v>
+      <c r="C165" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D165" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E165">
-        <v>3</v>
+      <c r="E165" s="21" t="s">
+        <v>540</v>
       </c>
       <c r="F165" s="5" t="s">
         <v>39</v>
@@ -5599,14 +5638,14 @@
       <c r="B166" t="s">
         <v>63</v>
       </c>
-      <c r="C166" s="19" t="s">
-        <v>210</v>
+      <c r="C166" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D166" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E166">
-        <v>3</v>
+      <c r="E166" s="21" t="s">
+        <v>540</v>
       </c>
       <c r="F166" s="5" t="s">
         <v>39</v>
@@ -5614,39 +5653,39 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="B167" t="s">
         <v>469</v>
       </c>
-      <c r="B167" t="s">
-        <v>470</v>
-      </c>
-      <c r="C167" s="19" t="s">
-        <v>507</v>
+      <c r="C167" s="18" t="s">
+        <v>541</v>
       </c>
       <c r="D167" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E167">
-        <v>21</v>
+      <c r="E167" s="21" t="s">
+        <v>555</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="B168" t="s">
         <v>364</v>
       </c>
-      <c r="B168" t="s">
-        <v>365</v>
-      </c>
-      <c r="C168" s="19" t="s">
-        <v>282</v>
+      <c r="C168" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D168" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E168">
-        <v>16</v>
+      <c r="E168" s="21" t="s">
+        <v>544</v>
       </c>
       <c r="F168" s="5" t="s">
         <v>218</v>
@@ -5654,19 +5693,19 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="B169" t="s">
         <v>398</v>
       </c>
-      <c r="B169" t="s">
-        <v>399</v>
-      </c>
-      <c r="C169" s="19" t="s">
-        <v>507</v>
+      <c r="C169" s="18" t="s">
+        <v>541</v>
       </c>
       <c r="D169" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E169">
-        <v>19</v>
+      <c r="E169" s="21" t="s">
+        <v>553</v>
       </c>
       <c r="F169" s="5" t="s">
         <v>264</v>
@@ -5679,14 +5718,14 @@
       <c r="B170" t="s">
         <v>272</v>
       </c>
-      <c r="C170" s="19" t="s">
-        <v>507</v>
+      <c r="C170" s="18" t="s">
+        <v>541</v>
       </c>
       <c r="D170" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E170">
-        <v>18</v>
+      <c r="E170" s="21" t="s">
+        <v>549</v>
       </c>
       <c r="F170" s="5" t="s">
         <v>268</v>
@@ -5694,39 +5733,39 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="B171" t="s">
         <v>427</v>
       </c>
-      <c r="B171" t="s">
-        <v>428</v>
-      </c>
-      <c r="C171" s="19" t="s">
-        <v>477</v>
+      <c r="C171" s="18" t="s">
+        <v>536</v>
       </c>
       <c r="D171" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E171">
-        <v>13</v>
+      <c r="E171" s="21" t="s">
+        <v>547</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="B172" t="s">
         <v>326</v>
       </c>
-      <c r="B172" t="s">
-        <v>327</v>
-      </c>
-      <c r="C172" s="19" t="s">
-        <v>282</v>
+      <c r="C172" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D172" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E172">
-        <v>17</v>
+      <c r="E172" s="21" t="s">
+        <v>543</v>
       </c>
       <c r="F172" s="5" t="s">
         <v>29</v>
@@ -5739,14 +5778,14 @@
       <c r="B173" t="s">
         <v>207</v>
       </c>
-      <c r="C173" s="19" t="s">
-        <v>477</v>
+      <c r="C173" s="18" t="s">
+        <v>536</v>
       </c>
       <c r="D173" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E173">
-        <v>12</v>
+      <c r="E173" s="21" t="s">
+        <v>542</v>
       </c>
       <c r="F173" s="5" t="s">
         <v>199</v>
@@ -5754,42 +5793,42 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="B174" t="s">
         <v>413</v>
       </c>
-      <c r="B174" t="s">
-        <v>414</v>
-      </c>
-      <c r="C174" s="19" t="s">
-        <v>507</v>
+      <c r="C174" s="18" t="s">
+        <v>541</v>
       </c>
       <c r="D174" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E174">
-        <v>20</v>
+      <c r="E174" s="21" t="s">
+        <v>554</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="15" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B175" t="s">
-        <v>528</v>
-      </c>
-      <c r="C175" s="19" t="s">
-        <v>477</v>
+        <v>525</v>
+      </c>
+      <c r="C175" s="18" t="s">
+        <v>536</v>
       </c>
       <c r="D175" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E175">
-        <v>13</v>
+      <c r="E175" s="21" t="s">
+        <v>547</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
@@ -5799,14 +5838,14 @@
       <c r="B176" t="s">
         <v>133</v>
       </c>
-      <c r="C176" s="19" t="s">
-        <v>216</v>
+      <c r="C176" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D176" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E176">
-        <v>6</v>
+      <c r="E176" s="21" t="s">
+        <v>541</v>
       </c>
       <c r="F176" s="5" t="s">
         <v>121</v>
@@ -5819,14 +5858,14 @@
       <c r="B177" t="s">
         <v>262</v>
       </c>
-      <c r="C177" s="19" t="s">
-        <v>507</v>
+      <c r="C177" s="18" t="s">
+        <v>541</v>
       </c>
       <c r="D177" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E177">
-        <v>19</v>
+      <c r="E177" s="21" t="s">
+        <v>553</v>
       </c>
       <c r="F177" s="5" t="s">
         <v>264</v>
@@ -5839,14 +5878,14 @@
       <c r="B178" t="s">
         <v>150</v>
       </c>
-      <c r="C178" s="19" t="s">
-        <v>216</v>
+      <c r="C178" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D178" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E178">
-        <v>8</v>
+      <c r="E178" s="21" t="s">
+        <v>548</v>
       </c>
       <c r="F178" s="5" t="s">
         <v>148</v>
@@ -5859,14 +5898,14 @@
       <c r="B179" t="s">
         <v>167</v>
       </c>
-      <c r="C179" s="19" t="s">
-        <v>216</v>
+      <c r="C179" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D179" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E179">
-        <v>8</v>
+      <c r="E179" s="21" t="s">
+        <v>548</v>
       </c>
       <c r="F179" s="5" t="s">
         <v>148</v>
@@ -5874,59 +5913,59 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="B180" t="s">
         <v>471</v>
       </c>
-      <c r="B180" t="s">
-        <v>472</v>
-      </c>
-      <c r="C180" s="19" t="s">
-        <v>507</v>
+      <c r="C180" s="18" t="s">
+        <v>541</v>
       </c>
       <c r="D180" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E180">
-        <v>21</v>
+      <c r="E180" s="21" t="s">
+        <v>555</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="B181" t="s">
         <v>473</v>
       </c>
-      <c r="B181" t="s">
-        <v>474</v>
-      </c>
-      <c r="C181" s="19" t="s">
-        <v>507</v>
+      <c r="C181" s="18" t="s">
+        <v>541</v>
       </c>
       <c r="D181" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E181">
-        <v>21</v>
+      <c r="E181" s="21" t="s">
+        <v>555</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="B182" t="s">
         <v>338</v>
       </c>
-      <c r="B182" t="s">
-        <v>339</v>
-      </c>
-      <c r="C182" s="19" t="s">
-        <v>282</v>
+      <c r="C182" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D182" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E182">
-        <v>17</v>
+      <c r="E182" s="21" t="s">
+        <v>543</v>
       </c>
       <c r="F182" s="5" t="s">
         <v>29</v>
@@ -5934,19 +5973,19 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="B183" t="s">
         <v>307</v>
       </c>
-      <c r="B183" t="s">
-        <v>308</v>
-      </c>
-      <c r="C183" s="19" t="s">
-        <v>282</v>
+      <c r="C183" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D183" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E183">
-        <v>17</v>
+      <c r="E183" s="21" t="s">
+        <v>543</v>
       </c>
       <c r="F183" s="5" t="s">
         <v>29</v>
@@ -5954,19 +5993,19 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="15" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B184" t="s">
-        <v>530</v>
-      </c>
-      <c r="C184" s="19" t="s">
-        <v>216</v>
+        <v>527</v>
+      </c>
+      <c r="C184" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D184" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E184">
-        <v>9</v>
+      <c r="E184" s="21" t="s">
+        <v>545</v>
       </c>
       <c r="F184" s="5" t="s">
         <v>174</v>
@@ -5974,39 +6013,39 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="B185" t="s">
         <v>438</v>
       </c>
-      <c r="B185" t="s">
-        <v>439</v>
-      </c>
-      <c r="C185" s="19" t="s">
-        <v>477</v>
+      <c r="C185" s="18" t="s">
+        <v>536</v>
       </c>
       <c r="D185" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E185">
-        <v>13</v>
+      <c r="E185" s="21" t="s">
+        <v>547</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="B186" t="s">
         <v>366</v>
       </c>
-      <c r="B186" t="s">
-        <v>367</v>
-      </c>
-      <c r="C186" s="19" t="s">
-        <v>282</v>
+      <c r="C186" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D186" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E186">
-        <v>17</v>
+      <c r="E186" s="21" t="s">
+        <v>543</v>
       </c>
       <c r="F186" s="5" t="s">
         <v>29</v>
@@ -6019,14 +6058,14 @@
       <c r="B187" t="s">
         <v>18</v>
       </c>
-      <c r="C187" s="19" t="s">
-        <v>210</v>
+      <c r="C187" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D187" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E187">
-        <v>1</v>
+      <c r="E187" s="21" t="s">
+        <v>538</v>
       </c>
       <c r="F187" s="5" t="s">
         <v>8</v>
@@ -6039,14 +6078,14 @@
       <c r="B188" t="s">
         <v>20</v>
       </c>
-      <c r="C188" s="19" t="s">
-        <v>210</v>
+      <c r="C188" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D188" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E188">
-        <v>1</v>
+      <c r="E188" s="21" t="s">
+        <v>538</v>
       </c>
       <c r="F188" s="5" t="s">
         <v>8</v>
@@ -6054,19 +6093,19 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="B189" t="s">
         <v>380</v>
       </c>
-      <c r="B189" t="s">
-        <v>381</v>
-      </c>
-      <c r="C189" s="19" t="s">
-        <v>216</v>
+      <c r="C189" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D189" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E189">
-        <v>9</v>
+      <c r="E189" s="21" t="s">
+        <v>545</v>
       </c>
       <c r="F189" s="5" t="s">
         <v>174</v>
@@ -6074,19 +6113,19 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="15" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B190" t="s">
-        <v>532</v>
-      </c>
-      <c r="C190" s="19" t="s">
-        <v>210</v>
+        <v>529</v>
+      </c>
+      <c r="C190" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D190" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E190">
-        <v>4</v>
+      <c r="E190" s="21" t="s">
+        <v>536</v>
       </c>
       <c r="F190" s="5" t="s">
         <v>73</v>
@@ -6094,19 +6133,19 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="B191" t="s">
         <v>340</v>
       </c>
-      <c r="B191" t="s">
-        <v>341</v>
-      </c>
-      <c r="C191" s="19" t="s">
-        <v>282</v>
+      <c r="C191" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D191" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E191">
-        <v>17</v>
+      <c r="E191" s="21" t="s">
+        <v>543</v>
       </c>
       <c r="F191" s="5" t="s">
         <v>29</v>
@@ -6114,19 +6153,19 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="B192" t="s">
         <v>384</v>
       </c>
-      <c r="B192" t="s">
-        <v>385</v>
-      </c>
-      <c r="C192" s="19" t="s">
-        <v>210</v>
+      <c r="C192" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D192" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E192">
-        <v>4</v>
+      <c r="E192" s="21" t="s">
+        <v>536</v>
       </c>
       <c r="F192" s="5" t="s">
         <v>73</v>
@@ -6134,19 +6173,19 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="B193" t="s">
         <v>346</v>
       </c>
-      <c r="B193" t="s">
-        <v>347</v>
-      </c>
-      <c r="C193" s="19" t="s">
-        <v>282</v>
+      <c r="C193" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D193" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E193">
-        <v>16</v>
+      <c r="E193" s="21" t="s">
+        <v>544</v>
       </c>
       <c r="F193" s="5" t="s">
         <v>218</v>
@@ -6159,14 +6198,14 @@
       <c r="B194" t="s">
         <v>114</v>
       </c>
-      <c r="C194" s="19" t="s">
-        <v>210</v>
+      <c r="C194" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D194" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E194">
-        <v>5</v>
+      <c r="E194" s="21" t="s">
+        <v>537</v>
       </c>
       <c r="F194" s="5" t="s">
         <v>109</v>
@@ -6179,14 +6218,14 @@
       <c r="B195" t="s">
         <v>65</v>
       </c>
-      <c r="C195" s="19" t="s">
-        <v>210</v>
+      <c r="C195" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D195" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E195">
-        <v>3</v>
+      <c r="E195" s="21" t="s">
+        <v>540</v>
       </c>
       <c r="F195" s="5" t="s">
         <v>39</v>
@@ -6194,19 +6233,19 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="B196" t="s">
         <v>456</v>
       </c>
-      <c r="B196" t="s">
-        <v>457</v>
-      </c>
-      <c r="C196" s="19" t="s">
-        <v>216</v>
+      <c r="C196" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D196" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E196">
-        <v>9</v>
+      <c r="E196" s="21" t="s">
+        <v>545</v>
       </c>
       <c r="F196" s="5" t="s">
         <v>174</v>
@@ -6214,19 +6253,19 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="B197" t="s">
         <v>458</v>
       </c>
-      <c r="B197" t="s">
-        <v>459</v>
-      </c>
-      <c r="C197" s="19" t="s">
-        <v>216</v>
+      <c r="C197" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D197" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E197">
-        <v>9</v>
+      <c r="E197" s="21" t="s">
+        <v>545</v>
       </c>
       <c r="F197" s="5" t="s">
         <v>174</v>
@@ -6234,19 +6273,19 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="B198" t="s">
         <v>460</v>
       </c>
-      <c r="B198" t="s">
-        <v>461</v>
-      </c>
-      <c r="C198" s="19" t="s">
-        <v>216</v>
+      <c r="C198" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D198" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E198">
-        <v>9</v>
+      <c r="E198" s="21" t="s">
+        <v>545</v>
       </c>
       <c r="F198" s="5" t="s">
         <v>174</v>
@@ -6254,19 +6293,19 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="B199" t="s">
         <v>462</v>
       </c>
-      <c r="B199" t="s">
-        <v>463</v>
-      </c>
-      <c r="C199" s="19" t="s">
-        <v>216</v>
+      <c r="C199" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D199" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E199">
-        <v>9</v>
+      <c r="E199" s="21" t="s">
+        <v>545</v>
       </c>
       <c r="F199" s="5" t="s">
         <v>174</v>
@@ -6274,19 +6313,19 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" s="15" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B200" t="s">
-        <v>534</v>
-      </c>
-      <c r="C200" s="19" t="s">
-        <v>216</v>
+        <v>531</v>
+      </c>
+      <c r="C200" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D200" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E200">
-        <v>9</v>
+      <c r="E200" s="21" t="s">
+        <v>545</v>
       </c>
       <c r="F200" s="5" t="s">
         <v>174</v>
@@ -6299,14 +6338,14 @@
       <c r="B201" t="s">
         <v>143</v>
       </c>
-      <c r="C201" s="19" t="s">
-        <v>216</v>
+      <c r="C201" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D201" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E201">
-        <v>7</v>
+      <c r="E201" s="21" t="s">
+        <v>550</v>
       </c>
       <c r="F201" s="5" t="s">
         <v>136</v>
@@ -6314,59 +6353,59 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="B202" t="s">
         <v>475</v>
       </c>
-      <c r="B202" t="s">
-        <v>476</v>
-      </c>
-      <c r="C202" s="19" t="s">
-        <v>507</v>
+      <c r="C202" s="18" t="s">
+        <v>541</v>
       </c>
       <c r="D202" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E202">
-        <v>21</v>
+      <c r="E202" s="21" t="s">
+        <v>555</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="B203" t="s">
         <v>477</v>
       </c>
-      <c r="B203" t="s">
-        <v>478</v>
-      </c>
-      <c r="C203" s="19" t="s">
-        <v>507</v>
+      <c r="C203" s="18" t="s">
+        <v>541</v>
       </c>
       <c r="D203" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E203">
-        <v>21</v>
+      <c r="E203" s="21" t="s">
+        <v>555</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="B204" t="s">
         <v>309</v>
       </c>
-      <c r="B204" t="s">
-        <v>310</v>
-      </c>
-      <c r="C204" s="19" t="s">
-        <v>282</v>
+      <c r="C204" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D204" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E204">
-        <v>16</v>
+      <c r="E204" s="21" t="s">
+        <v>544</v>
       </c>
       <c r="F204" s="5" t="s">
         <v>218</v>
@@ -6374,19 +6413,19 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="B205" t="s">
         <v>311</v>
       </c>
-      <c r="B205" t="s">
-        <v>312</v>
-      </c>
-      <c r="C205" s="19" t="s">
-        <v>282</v>
+      <c r="C205" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D205" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E205">
-        <v>16</v>
+      <c r="E205" s="21" t="s">
+        <v>544</v>
       </c>
       <c r="F205" s="5" t="s">
         <v>218</v>
@@ -6399,14 +6438,14 @@
       <c r="B206" t="s">
         <v>22</v>
       </c>
-      <c r="C206" s="19" t="s">
-        <v>210</v>
+      <c r="C206" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D206" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E206">
-        <v>1</v>
+      <c r="E206" s="21" t="s">
+        <v>538</v>
       </c>
       <c r="F206" s="5" t="s">
         <v>8</v>
@@ -6419,14 +6458,14 @@
       <c r="B207" t="s">
         <v>67</v>
       </c>
-      <c r="C207" s="19" t="s">
-        <v>210</v>
+      <c r="C207" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D207" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E207">
-        <v>3</v>
+      <c r="E207" s="21" t="s">
+        <v>540</v>
       </c>
       <c r="F207" s="5" t="s">
         <v>39</v>
@@ -6434,19 +6473,19 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" s="15" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B208" t="s">
-        <v>313</v>
-      </c>
-      <c r="C208" s="19" t="s">
-        <v>282</v>
+        <v>312</v>
+      </c>
+      <c r="C208" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D208" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E208">
-        <v>16</v>
+      <c r="E208" s="21" t="s">
+        <v>544</v>
       </c>
       <c r="F208" s="5" t="s">
         <v>218</v>
@@ -6459,14 +6498,14 @@
       <c r="B209" t="s">
         <v>93</v>
       </c>
-      <c r="C209" s="19" t="s">
-        <v>210</v>
+      <c r="C209" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D209" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E209">
-        <v>4</v>
+      <c r="E209" s="21" t="s">
+        <v>536</v>
       </c>
       <c r="F209" s="5" t="s">
         <v>73</v>
@@ -6479,14 +6518,14 @@
       <c r="B210" t="s">
         <v>69</v>
       </c>
-      <c r="C210" s="19" t="s">
-        <v>210</v>
+      <c r="C210" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D210" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E210">
-        <v>3</v>
+      <c r="E210" s="21" t="s">
+        <v>540</v>
       </c>
       <c r="F210" s="5" t="s">
         <v>39</v>
@@ -6499,14 +6538,14 @@
       <c r="B211" t="s">
         <v>252</v>
       </c>
-      <c r="C211" s="19" t="s">
-        <v>477</v>
+      <c r="C211" s="18" t="s">
+        <v>536</v>
       </c>
       <c r="D211" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E211">
-        <v>15</v>
+      <c r="E211" s="21" t="s">
+        <v>551</v>
       </c>
       <c r="F211" s="5" t="s">
         <v>238</v>
@@ -6514,19 +6553,19 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="B212" t="s">
         <v>464</v>
       </c>
-      <c r="B212" t="s">
-        <v>465</v>
-      </c>
-      <c r="C212" s="19" t="s">
-        <v>216</v>
+      <c r="C212" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D212" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E212">
-        <v>9</v>
+      <c r="E212" s="21" t="s">
+        <v>545</v>
       </c>
       <c r="F212" s="5" t="s">
         <v>174</v>
@@ -6534,22 +6573,22 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="B213" t="s">
         <v>430</v>
       </c>
-      <c r="B213" t="s">
-        <v>431</v>
-      </c>
-      <c r="C213" s="19" t="s">
-        <v>477</v>
+      <c r="C213" s="18" t="s">
+        <v>536</v>
       </c>
       <c r="D213" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E213">
-        <v>13</v>
+      <c r="E213" s="21" t="s">
+        <v>547</v>
       </c>
       <c r="F213" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.35">
@@ -6559,14 +6598,14 @@
       <c r="B214" t="s">
         <v>95</v>
       </c>
-      <c r="C214" s="19" t="s">
-        <v>210</v>
+      <c r="C214" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D214" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E214">
-        <v>4</v>
+      <c r="E214" s="21" t="s">
+        <v>536</v>
       </c>
       <c r="F214" s="5" t="s">
         <v>73</v>
@@ -6579,14 +6618,14 @@
       <c r="B215" t="s">
         <v>209</v>
       </c>
-      <c r="C215" s="19" t="s">
-        <v>477</v>
+      <c r="C215" s="18" t="s">
+        <v>536</v>
       </c>
       <c r="D215" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E215">
-        <v>12</v>
+      <c r="E215" s="21" t="s">
+        <v>542</v>
       </c>
       <c r="F215" s="5" t="s">
         <v>199</v>
@@ -6599,14 +6638,14 @@
       <c r="B216" t="s">
         <v>35</v>
       </c>
-      <c r="C216" s="19" t="s">
-        <v>210</v>
+      <c r="C216" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D216" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E216">
-        <v>2</v>
+      <c r="E216" s="21" t="s">
+        <v>539</v>
       </c>
       <c r="F216" s="5" t="s">
         <v>27</v>
@@ -6617,16 +6656,16 @@
         <v>106</v>
       </c>
       <c r="B217" t="s">
-        <v>504</v>
-      </c>
-      <c r="C217" s="19" t="s">
-        <v>210</v>
+        <v>503</v>
+      </c>
+      <c r="C217" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D217" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E217">
-        <v>4</v>
+      <c r="E217" s="21" t="s">
+        <v>536</v>
       </c>
       <c r="F217" s="5" t="s">
         <v>73</v>
@@ -6637,16 +6676,16 @@
         <v>115</v>
       </c>
       <c r="B218" t="s">
-        <v>505</v>
-      </c>
-      <c r="C218" s="19" t="s">
-        <v>210</v>
+        <v>504</v>
+      </c>
+      <c r="C218" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D218" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E218">
-        <v>5</v>
+      <c r="E218" s="21" t="s">
+        <v>537</v>
       </c>
       <c r="F218" s="5" t="s">
         <v>109</v>
@@ -6654,19 +6693,19 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="B219" t="s">
         <v>368</v>
       </c>
-      <c r="B219" t="s">
-        <v>369</v>
-      </c>
-      <c r="C219" s="19" t="s">
-        <v>282</v>
+      <c r="C219" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D219" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E219">
-        <v>17</v>
+      <c r="E219" s="21" t="s">
+        <v>543</v>
       </c>
       <c r="F219" s="5" t="s">
         <v>29</v>
@@ -6674,19 +6713,19 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="B220" t="s">
         <v>328</v>
       </c>
-      <c r="B220" t="s">
-        <v>329</v>
-      </c>
-      <c r="C220" s="19" t="s">
-        <v>282</v>
+      <c r="C220" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D220" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E220">
-        <v>16</v>
+      <c r="E220" s="21" t="s">
+        <v>544</v>
       </c>
       <c r="F220" s="5" t="s">
         <v>218</v>
@@ -6699,14 +6738,14 @@
       <c r="B221" t="s">
         <v>165</v>
       </c>
-      <c r="C221" s="19" t="s">
-        <v>216</v>
+      <c r="C221" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D221" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E221">
-        <v>8</v>
+      <c r="E221" s="21" t="s">
+        <v>548</v>
       </c>
       <c r="F221" s="5" t="s">
         <v>148</v>
@@ -6714,19 +6753,19 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" s="15" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B222" t="s">
+        <v>534</v>
+      </c>
+      <c r="C222" s="18" t="s">
         <v>537</v>
-      </c>
-      <c r="C222" s="19" t="s">
-        <v>282</v>
       </c>
       <c r="D222" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E222">
-        <v>16</v>
+      <c r="E222" s="21" t="s">
+        <v>544</v>
       </c>
       <c r="F222" s="5" t="s">
         <v>218</v>
@@ -6739,14 +6778,14 @@
       <c r="B223" t="s">
         <v>192</v>
       </c>
-      <c r="C223" s="19" t="s">
-        <v>477</v>
+      <c r="C223" s="18" t="s">
+        <v>536</v>
       </c>
       <c r="D223" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E223">
-        <v>11</v>
+      <c r="E223" s="21" t="s">
+        <v>556</v>
       </c>
       <c r="F223" s="5" t="s">
         <v>188</v>
@@ -6759,14 +6798,14 @@
       <c r="B224" t="s">
         <v>254</v>
       </c>
-      <c r="C224" s="19" t="s">
-        <v>477</v>
+      <c r="C224" s="18" t="s">
+        <v>536</v>
       </c>
       <c r="D224" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E224">
-        <v>15</v>
+      <c r="E224" s="21" t="s">
+        <v>551</v>
       </c>
       <c r="F224" s="5" t="s">
         <v>238</v>
@@ -6779,14 +6818,14 @@
       <c r="B225" t="s">
         <v>233</v>
       </c>
-      <c r="C225" s="19" t="s">
-        <v>477</v>
+      <c r="C225" s="18" t="s">
+        <v>536</v>
       </c>
       <c r="D225" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E225">
-        <v>14</v>
+      <c r="E225" s="21" t="s">
+        <v>552</v>
       </c>
       <c r="F225" s="5" t="s">
         <v>223</v>
@@ -6799,14 +6838,14 @@
       <c r="B226" t="s">
         <v>97</v>
       </c>
-      <c r="C226" s="19" t="s">
-        <v>210</v>
+      <c r="C226" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D226" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E226">
-        <v>4</v>
+      <c r="E226" s="21" t="s">
+        <v>536</v>
       </c>
       <c r="F226" s="5" t="s">
         <v>73</v>
@@ -6817,16 +6856,16 @@
         <v>175</v>
       </c>
       <c r="B227" t="s">
-        <v>538</v>
-      </c>
-      <c r="C227" s="19" t="s">
-        <v>506</v>
+        <v>535</v>
+      </c>
+      <c r="C227" s="18" t="s">
+        <v>540</v>
       </c>
       <c r="D227" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E227">
-        <v>10</v>
+      <c r="E227" s="21" t="s">
+        <v>546</v>
       </c>
       <c r="F227" s="5" t="s">
         <v>178</v>
@@ -6839,14 +6878,14 @@
       <c r="B228" t="s">
         <v>99</v>
       </c>
-      <c r="C228" s="19" t="s">
-        <v>210</v>
+      <c r="C228" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D228" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E228">
-        <v>4</v>
+      <c r="E228" s="21" t="s">
+        <v>536</v>
       </c>
       <c r="F228" s="5" t="s">
         <v>73</v>
@@ -6859,14 +6898,14 @@
       <c r="B229" t="s">
         <v>260</v>
       </c>
-      <c r="C229" s="19" t="s">
-        <v>477</v>
+      <c r="C229" s="18" t="s">
+        <v>536</v>
       </c>
       <c r="D229" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E229">
-        <v>15</v>
+      <c r="E229" s="21" t="s">
+        <v>551</v>
       </c>
       <c r="F229" s="5" t="s">
         <v>238</v>
@@ -6879,14 +6918,14 @@
       <c r="B230" t="s">
         <v>71</v>
       </c>
-      <c r="C230" s="19" t="s">
-        <v>210</v>
+      <c r="C230" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D230" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E230">
-        <v>3</v>
+      <c r="E230" s="21" t="s">
+        <v>540</v>
       </c>
       <c r="F230" s="5" t="s">
         <v>39</v>
@@ -6894,42 +6933,42 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="B231" t="s">
         <v>479</v>
       </c>
-      <c r="B231" t="s">
-        <v>480</v>
-      </c>
-      <c r="C231" s="19" t="s">
-        <v>507</v>
+      <c r="C231" s="18" t="s">
+        <v>541</v>
       </c>
       <c r="D231" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E231">
-        <v>21</v>
+      <c r="E231" s="21" t="s">
+        <v>555</v>
       </c>
       <c r="F231" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="B232" t="s">
         <v>481</v>
       </c>
-      <c r="B232" t="s">
-        <v>482</v>
-      </c>
-      <c r="C232" s="19" t="s">
-        <v>507</v>
+      <c r="C232" s="18" t="s">
+        <v>541</v>
       </c>
       <c r="D232" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E232">
-        <v>21</v>
+      <c r="E232" s="21" t="s">
+        <v>555</v>
       </c>
       <c r="F232" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.35">
@@ -6939,14 +6978,14 @@
       <c r="B233" t="s">
         <v>173</v>
       </c>
-      <c r="C233" s="19" t="s">
-        <v>216</v>
+      <c r="C233" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D233" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E233">
-        <v>9</v>
+      <c r="E233" s="21" t="s">
+        <v>545</v>
       </c>
       <c r="F233" s="5" t="s">
         <v>174</v>
@@ -6959,14 +6998,14 @@
       <c r="B234" t="s">
         <v>117</v>
       </c>
-      <c r="C234" s="19" t="s">
-        <v>210</v>
+      <c r="C234" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D234" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E234">
-        <v>5</v>
+      <c r="E234" s="21" t="s">
+        <v>537</v>
       </c>
       <c r="F234" s="5" t="s">
         <v>109</v>
@@ -6979,14 +7018,14 @@
       <c r="B235" t="s">
         <v>194</v>
       </c>
-      <c r="C235" s="19" t="s">
-        <v>477</v>
+      <c r="C235" s="18" t="s">
+        <v>536</v>
       </c>
       <c r="D235" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E235">
-        <v>11</v>
+      <c r="E235" s="21" t="s">
+        <v>556</v>
       </c>
       <c r="F235" s="5" t="s">
         <v>188</v>
@@ -6994,19 +7033,19 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="B236" t="s">
         <v>370</v>
       </c>
-      <c r="B236" t="s">
-        <v>371</v>
-      </c>
-      <c r="C236" s="19" t="s">
-        <v>282</v>
+      <c r="C236" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D236" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E236">
-        <v>16</v>
+      <c r="E236" s="21" t="s">
+        <v>544</v>
       </c>
       <c r="F236" s="5" t="s">
         <v>218</v>
@@ -7014,22 +7053,22 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="B237" t="s">
         <v>483</v>
       </c>
-      <c r="B237" t="s">
-        <v>484</v>
-      </c>
-      <c r="C237" s="19" t="s">
-        <v>507</v>
+      <c r="C237" s="18" t="s">
+        <v>541</v>
       </c>
       <c r="D237" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E237">
-        <v>21</v>
+      <c r="E237" s="21" t="s">
+        <v>555</v>
       </c>
       <c r="F237" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.35">
@@ -7039,14 +7078,14 @@
       <c r="B238" t="s">
         <v>24</v>
       </c>
-      <c r="C238" s="19" t="s">
-        <v>210</v>
+      <c r="C238" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D238" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E238">
-        <v>1</v>
+      <c r="E238" s="21" t="s">
+        <v>538</v>
       </c>
       <c r="F238" s="5" t="s">
         <v>8</v>
@@ -7054,19 +7093,19 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="B239" t="s">
         <v>342</v>
       </c>
-      <c r="B239" t="s">
-        <v>343</v>
-      </c>
-      <c r="C239" s="19" t="s">
-        <v>282</v>
+      <c r="C239" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D239" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E239">
-        <v>17</v>
+      <c r="E239" s="21" t="s">
+        <v>543</v>
       </c>
       <c r="F239" s="5" t="s">
         <v>29</v>
@@ -7074,19 +7113,19 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="B240" t="s">
         <v>344</v>
       </c>
-      <c r="B240" t="s">
-        <v>345</v>
-      </c>
-      <c r="C240" s="19" t="s">
-        <v>282</v>
+      <c r="C240" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D240" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E240">
-        <v>16</v>
+      <c r="E240" s="21" t="s">
+        <v>544</v>
       </c>
       <c r="F240" s="5" t="s">
         <v>218</v>
@@ -7099,14 +7138,14 @@
       <c r="B241" t="s">
         <v>101</v>
       </c>
-      <c r="C241" s="19" t="s">
-        <v>210</v>
+      <c r="C241" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D241" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E241">
-        <v>4</v>
+      <c r="E241" s="21" t="s">
+        <v>536</v>
       </c>
       <c r="F241" s="5" t="s">
         <v>73</v>
@@ -7119,14 +7158,14 @@
       <c r="B242" t="s">
         <v>154</v>
       </c>
-      <c r="C242" s="19" t="s">
-        <v>216</v>
+      <c r="C242" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D242" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E242">
-        <v>8</v>
+      <c r="E242" s="21" t="s">
+        <v>548</v>
       </c>
       <c r="F242" s="5" t="s">
         <v>148</v>
@@ -7139,14 +7178,14 @@
       <c r="B243" t="s">
         <v>196</v>
       </c>
-      <c r="C243" s="19" t="s">
-        <v>477</v>
+      <c r="C243" s="18" t="s">
+        <v>536</v>
       </c>
       <c r="D243" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E243">
-        <v>11</v>
+      <c r="E243" s="21" t="s">
+        <v>556</v>
       </c>
       <c r="F243" s="5" t="s">
         <v>188</v>
@@ -7154,19 +7193,19 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="B244" t="s">
         <v>400</v>
       </c>
-      <c r="B244" t="s">
-        <v>401</v>
-      </c>
-      <c r="C244" s="19" t="s">
-        <v>507</v>
+      <c r="C244" s="18" t="s">
+        <v>541</v>
       </c>
       <c r="D244" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E244">
-        <v>19</v>
+      <c r="E244" s="21" t="s">
+        <v>553</v>
       </c>
       <c r="F244" s="5" t="s">
         <v>264</v>
@@ -7179,14 +7218,14 @@
       <c r="B245" t="s">
         <v>171</v>
       </c>
-      <c r="C245" s="19" t="s">
-        <v>216</v>
+      <c r="C245" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D245" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E245">
-        <v>8</v>
+      <c r="E245" s="21" t="s">
+        <v>548</v>
       </c>
       <c r="F245" s="5" t="s">
         <v>148</v>
@@ -7199,14 +7238,14 @@
       <c r="B246" t="s">
         <v>256</v>
       </c>
-      <c r="C246" s="19" t="s">
-        <v>477</v>
+      <c r="C246" s="18" t="s">
+        <v>536</v>
       </c>
       <c r="D246" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E246">
-        <v>15</v>
+      <c r="E246" s="21" t="s">
+        <v>551</v>
       </c>
       <c r="F246" s="5" t="s">
         <v>238</v>
@@ -7214,22 +7253,22 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="B247" t="s">
         <v>485</v>
       </c>
-      <c r="B247" t="s">
-        <v>486</v>
-      </c>
-      <c r="C247" s="19" t="s">
-        <v>507</v>
+      <c r="C247" s="18" t="s">
+        <v>541</v>
       </c>
       <c r="D247" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E247">
-        <v>21</v>
+      <c r="E247" s="21" t="s">
+        <v>555</v>
       </c>
       <c r="F247" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.35">
@@ -7239,14 +7278,14 @@
       <c r="B248" t="s">
         <v>169</v>
       </c>
-      <c r="C248" s="19" t="s">
-        <v>216</v>
+      <c r="C248" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D248" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E248">
-        <v>8</v>
+      <c r="E248" s="21" t="s">
+        <v>548</v>
       </c>
       <c r="F248" s="5" t="s">
         <v>148</v>
@@ -7259,14 +7298,14 @@
       <c r="B249" t="s">
         <v>235</v>
       </c>
-      <c r="C249" s="19" t="s">
-        <v>477</v>
+      <c r="C249" s="18" t="s">
+        <v>536</v>
       </c>
       <c r="D249" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E249">
-        <v>14</v>
+      <c r="E249" s="21" t="s">
+        <v>552</v>
       </c>
       <c r="F249" s="5" t="s">
         <v>223</v>
@@ -7274,19 +7313,19 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="B250" t="s">
         <v>392</v>
       </c>
-      <c r="B250" t="s">
-        <v>393</v>
-      </c>
-      <c r="C250" s="19" t="s">
-        <v>282</v>
+      <c r="C250" s="18" t="s">
+        <v>537</v>
       </c>
       <c r="D250" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E250">
-        <v>17</v>
+      <c r="E250" s="21" t="s">
+        <v>543</v>
       </c>
       <c r="F250" s="5" t="s">
         <v>29</v>
@@ -7299,14 +7338,14 @@
       <c r="B251" t="s">
         <v>103</v>
       </c>
-      <c r="C251" s="19" t="s">
-        <v>210</v>
+      <c r="C251" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D251" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E251">
-        <v>4</v>
+      <c r="E251" s="21" t="s">
+        <v>536</v>
       </c>
       <c r="F251" s="5" t="s">
         <v>73</v>
@@ -7319,14 +7358,14 @@
       <c r="B252" t="s">
         <v>105</v>
       </c>
-      <c r="C252" s="19" t="s">
-        <v>210</v>
+      <c r="C252" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D252" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E252">
-        <v>4</v>
+      <c r="E252" s="21" t="s">
+        <v>536</v>
       </c>
       <c r="F252" s="5" t="s">
         <v>73</v>
@@ -7334,39 +7373,39 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" s="15" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B253" t="s">
-        <v>489</v>
-      </c>
-      <c r="C253" s="19" t="s">
-        <v>398</v>
+        <v>488</v>
+      </c>
+      <c r="C253" s="18" t="s">
+        <v>505</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="E253">
-        <v>98</v>
+        <v>488</v>
+      </c>
+      <c r="E253" s="21" t="s">
+        <v>505</v>
       </c>
       <c r="F253" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254" s="15" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B254" t="s">
         <v>280</v>
       </c>
-      <c r="C254" s="19" t="s">
-        <v>285</v>
+      <c r="C254" s="18" t="s">
+        <v>506</v>
       </c>
       <c r="D254" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="E254">
-        <v>99</v>
+      <c r="E254" s="21" t="s">
+        <v>506</v>
       </c>
       <c r="F254" s="5" t="s">
         <v>281</v>
@@ -7376,7 +7415,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A253:A254" numberStoredAsText="1"/>
+    <ignoredError sqref="A253:A254 C4:C254 E4:E254" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>

--- a/content/drafts/entitats/Codis_Territori_Paisos_ISOA2.xlsx
+++ b/content/drafts/entitats/Codis_Territori_Paisos_ISOA2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAA\CTTI\02.Projecte_DadesRef\_____c6\01.CATaleg\07.Proposta_noves_ER\04.Cataleg_Entitats_Modelades.v03\07.Continents_paisos\Propostes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7EA2F9-6628-4D02-83D5-A917CA4B7038}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0CE35E-2A98-43D2-B945-608DEE242061}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{2A9043EE-0398-4927-8C09-CA4E22432D8B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="807">
   <si>
     <t>Nom Taula:</t>
   </si>
@@ -1702,6 +1702,756 @@
   </si>
   <si>
     <t>11</t>
+  </si>
+  <si>
+    <t>Codi A3</t>
+  </si>
+  <si>
+    <t>AFG</t>
+  </si>
+  <si>
+    <t>ALA</t>
+  </si>
+  <si>
+    <t>ALB</t>
+  </si>
+  <si>
+    <t>DEU</t>
+  </si>
+  <si>
+    <t>DZA</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>AGO</t>
+  </si>
+  <si>
+    <t>AIA</t>
+  </si>
+  <si>
+    <t>ATA</t>
+  </si>
+  <si>
+    <t>ATG</t>
+  </si>
+  <si>
+    <t>SAU</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>ARM</t>
+  </si>
+  <si>
+    <t>ABW</t>
+  </si>
+  <si>
+    <t>AUS</t>
+  </si>
+  <si>
+    <t>AUT</t>
+  </si>
+  <si>
+    <t>AZE</t>
+  </si>
+  <si>
+    <t>BHS</t>
+  </si>
+  <si>
+    <t>BHR</t>
+  </si>
+  <si>
+    <t>BGD</t>
+  </si>
+  <si>
+    <t>BRB</t>
+  </si>
+  <si>
+    <t>BLR</t>
+  </si>
+  <si>
+    <t>BEL</t>
+  </si>
+  <si>
+    <t>BLZ</t>
+  </si>
+  <si>
+    <t>BEN</t>
+  </si>
+  <si>
+    <t>BMU</t>
+  </si>
+  <si>
+    <t>BTN</t>
+  </si>
+  <si>
+    <t>BOL</t>
+  </si>
+  <si>
+    <t>BES</t>
+  </si>
+  <si>
+    <t>BIH</t>
+  </si>
+  <si>
+    <t>BWA</t>
+  </si>
+  <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>BRN</t>
+  </si>
+  <si>
+    <t>BGR</t>
+  </si>
+  <si>
+    <t>BFA</t>
+  </si>
+  <si>
+    <t>BDI</t>
+  </si>
+  <si>
+    <t>KHM</t>
+  </si>
+  <si>
+    <t>CMR</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>CPV</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>COM</t>
+  </si>
+  <si>
+    <t>COG</t>
+  </si>
+  <si>
+    <t>PRK</t>
+  </si>
+  <si>
+    <t>KOR</t>
+  </si>
+  <si>
+    <t>CIV</t>
+  </si>
+  <si>
+    <t>CRI</t>
+  </si>
+  <si>
+    <t>HRV</t>
+  </si>
+  <si>
+    <t>CUB</t>
+  </si>
+  <si>
+    <t>CUW</t>
+  </si>
+  <si>
+    <t>DNK</t>
+  </si>
+  <si>
+    <t>DJI</t>
+  </si>
+  <si>
+    <t>DMA</t>
+  </si>
+  <si>
+    <t>EGY</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t>ARE</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>ERI</t>
+  </si>
+  <si>
+    <t>SVK</t>
+  </si>
+  <si>
+    <t>SVN</t>
+  </si>
+  <si>
+    <t>ESP</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>SWZ</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>FRO</t>
+  </si>
+  <si>
+    <t>FJI</t>
+  </si>
+  <si>
+    <t>PHL</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>GAB</t>
+  </si>
+  <si>
+    <t>GMB</t>
+  </si>
+  <si>
+    <t>GEO</t>
+  </si>
+  <si>
+    <t>GHA</t>
+  </si>
+  <si>
+    <t>GIB</t>
+  </si>
+  <si>
+    <t>GRC</t>
+  </si>
+  <si>
+    <t>GRD</t>
+  </si>
+  <si>
+    <t>GRL</t>
+  </si>
+  <si>
+    <t>GLP</t>
+  </si>
+  <si>
+    <t>GUF</t>
+  </si>
+  <si>
+    <t>GUM</t>
+  </si>
+  <si>
+    <t>GTM</t>
+  </si>
+  <si>
+    <t>GGY</t>
+  </si>
+  <si>
+    <t>GIN</t>
+  </si>
+  <si>
+    <t>GNQ</t>
+  </si>
+  <si>
+    <t>GNB</t>
+  </si>
+  <si>
+    <t>GUY</t>
+  </si>
+  <si>
+    <t>HTI</t>
+  </si>
+  <si>
+    <t>HND</t>
+  </si>
+  <si>
+    <t>HKG</t>
+  </si>
+  <si>
+    <t>HUN</t>
+  </si>
+  <si>
+    <t>YEM</t>
+  </si>
+  <si>
+    <t>BVT</t>
+  </si>
+  <si>
+    <t>CXR</t>
+  </si>
+  <si>
+    <t>IMN</t>
+  </si>
+  <si>
+    <t>NFK</t>
+  </si>
+  <si>
+    <t>CYM</t>
+  </si>
+  <si>
+    <t>CCK</t>
+  </si>
+  <si>
+    <t>COK</t>
+  </si>
+  <si>
+    <t>FLK</t>
+  </si>
+  <si>
+    <t>SGS</t>
+  </si>
+  <si>
+    <t>HMD</t>
+  </si>
+  <si>
+    <t>MNP</t>
+  </si>
+  <si>
+    <t>MHL</t>
+  </si>
+  <si>
+    <t>UMI</t>
+  </si>
+  <si>
+    <t>SLB</t>
+  </si>
+  <si>
+    <t>TCA</t>
+  </si>
+  <si>
+    <t>VGB</t>
+  </si>
+  <si>
+    <t>VIR</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>IDN</t>
+  </si>
+  <si>
+    <t>IRN</t>
+  </si>
+  <si>
+    <t>IRQ</t>
+  </si>
+  <si>
+    <t>IRL</t>
+  </si>
+  <si>
+    <t>ISL</t>
+  </si>
+  <si>
+    <t>ISR</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>JAM</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>JEY</t>
+  </si>
+  <si>
+    <t>JOR</t>
+  </si>
+  <si>
+    <t>KAZ</t>
+  </si>
+  <si>
+    <t>KEN</t>
+  </si>
+  <si>
+    <t>KGZ</t>
+  </si>
+  <si>
+    <t>KIR</t>
+  </si>
+  <si>
+    <t>KWT</t>
+  </si>
+  <si>
+    <t>LAO</t>
+  </si>
+  <si>
+    <t>LSO</t>
+  </si>
+  <si>
+    <t>LVA</t>
+  </si>
+  <si>
+    <t>LBN</t>
+  </si>
+  <si>
+    <t>LBR</t>
+  </si>
+  <si>
+    <t>LBY</t>
+  </si>
+  <si>
+    <t>LIE</t>
+  </si>
+  <si>
+    <t>LTU</t>
+  </si>
+  <si>
+    <t>LUX</t>
+  </si>
+  <si>
+    <t>MAC</t>
+  </si>
+  <si>
+    <t>MKD</t>
+  </si>
+  <si>
+    <t>MDG</t>
+  </si>
+  <si>
+    <t>MYS</t>
+  </si>
+  <si>
+    <t>MWI</t>
+  </si>
+  <si>
+    <t>MDV</t>
+  </si>
+  <si>
+    <t>MLI</t>
+  </si>
+  <si>
+    <t>MLT</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>MTQ</t>
+  </si>
+  <si>
+    <t>MUS</t>
+  </si>
+  <si>
+    <t>MRT</t>
+  </si>
+  <si>
+    <t>MYT</t>
+  </si>
+  <si>
+    <t>MEX</t>
+  </si>
+  <si>
+    <t>FSM</t>
+  </si>
+  <si>
+    <t>MOZ</t>
+  </si>
+  <si>
+    <t>MDA</t>
+  </si>
+  <si>
+    <t>MCO</t>
+  </si>
+  <si>
+    <t>MNG</t>
+  </si>
+  <si>
+    <t>MNE</t>
+  </si>
+  <si>
+    <t>MSR</t>
+  </si>
+  <si>
+    <t>MMR</t>
+  </si>
+  <si>
+    <t>NAM</t>
+  </si>
+  <si>
+    <t>NRU</t>
+  </si>
+  <si>
+    <t>NPL</t>
+  </si>
+  <si>
+    <t>NIC</t>
+  </si>
+  <si>
+    <t>NER</t>
+  </si>
+  <si>
+    <t>NGA</t>
+  </si>
+  <si>
+    <t>NIU</t>
+  </si>
+  <si>
+    <t>NOR</t>
+  </si>
+  <si>
+    <t>NCL</t>
+  </si>
+  <si>
+    <t>NZL</t>
+  </si>
+  <si>
+    <t>OMN</t>
+  </si>
+  <si>
+    <t>NLD</t>
+  </si>
+  <si>
+    <t>PAK</t>
+  </si>
+  <si>
+    <t>PLW</t>
+  </si>
+  <si>
+    <t>PSE</t>
+  </si>
+  <si>
+    <t>PAN</t>
+  </si>
+  <si>
+    <t>PNG</t>
+  </si>
+  <si>
+    <t>PRY</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>PCN</t>
+  </si>
+  <si>
+    <t>PYF</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>PRT</t>
+  </si>
+  <si>
+    <t>PRI</t>
+  </si>
+  <si>
+    <t>QAT</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>CAF</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t>REU</t>
+  </si>
+  <si>
+    <t>ROU</t>
+  </si>
+  <si>
+    <t>RWA</t>
+  </si>
+  <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>ESH</t>
+  </si>
+  <si>
+    <t>SHN</t>
+  </si>
+  <si>
+    <t>KNA</t>
+  </si>
+  <si>
+    <t>LCA</t>
+  </si>
+  <si>
+    <t>VCT</t>
+  </si>
+  <si>
+    <t>BLM</t>
+  </si>
+  <si>
+    <t>MAF</t>
+  </si>
+  <si>
+    <t>SPM</t>
+  </si>
+  <si>
+    <t>WSM</t>
+  </si>
+  <si>
+    <t>ASM</t>
+  </si>
+  <si>
+    <t>SMR</t>
+  </si>
+  <si>
+    <t>VAT</t>
+  </si>
+  <si>
+    <t>STP</t>
+  </si>
+  <si>
+    <t>SEN</t>
+  </si>
+  <si>
+    <t>SRB</t>
+  </si>
+  <si>
+    <t>SYC</t>
+  </si>
+  <si>
+    <t>SLE</t>
+  </si>
+  <si>
+    <t>SGP</t>
+  </si>
+  <si>
+    <t>SXM</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>SOM</t>
+  </si>
+  <si>
+    <t>LKA</t>
+  </si>
+  <si>
+    <t>ZAF</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>SDN</t>
+  </si>
+  <si>
+    <t>SWE</t>
+  </si>
+  <si>
+    <t>CHE</t>
+  </si>
+  <si>
+    <t>SUR</t>
+  </si>
+  <si>
+    <t>SJM</t>
+  </si>
+  <si>
+    <t>TJK</t>
+  </si>
+  <si>
+    <t>THA</t>
+  </si>
+  <si>
+    <t>TWN</t>
+  </si>
+  <si>
+    <t>TZA</t>
+  </si>
+  <si>
+    <t>ATF</t>
+  </si>
+  <si>
+    <t>IOT</t>
+  </si>
+  <si>
+    <t>TLS</t>
+  </si>
+  <si>
+    <t>TGO</t>
+  </si>
+  <si>
+    <t>TKL</t>
+  </si>
+  <si>
+    <t>TON</t>
+  </si>
+  <si>
+    <t>TTO</t>
+  </si>
+  <si>
+    <t>TUN</t>
+  </si>
+  <si>
+    <t>TKM</t>
+  </si>
+  <si>
+    <t>TUR</t>
+  </si>
+  <si>
+    <t>TUV</t>
+  </si>
+  <si>
+    <t>TCD</t>
+  </si>
+  <si>
+    <t>CZE</t>
+  </si>
+  <si>
+    <t>UKR</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>URY</t>
+  </si>
+  <si>
+    <t>UZB</t>
+  </si>
+  <si>
+    <t>VUT</t>
+  </si>
+  <si>
+    <t>VEN</t>
+  </si>
+  <si>
+    <t>VNM</t>
+  </si>
+  <si>
+    <t>WLF</t>
+  </si>
+  <si>
+    <t>CHL</t>
+  </si>
+  <si>
+    <t>CHN</t>
+  </si>
+  <si>
+    <t>CYP</t>
+  </si>
+  <si>
+    <t>ZMB</t>
+  </si>
+  <si>
+    <t>ZWE</t>
   </si>
 </sst>
 </file>
@@ -1735,7 +2485,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1758,12 +2508,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor theme="4"/>
       </patternFill>
     </fill>
   </fills>
@@ -1817,7 +2561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1848,13 +2592,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1864,11 +2601,65 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1939,45 +2730,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -2027,17 +2779,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{88B71BE8-24CB-4CBE-9A44-0515B9EB0571}" name="Table6" displayName="Table6" ref="A3:F254" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F254">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{88B71BE8-24CB-4CBE-9A44-0515B9EB0571}" name="Table6" displayName="Table6" ref="A3:G254" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G254">
     <sortCondition ref="A4:A254"/>
   </sortState>
-  <tableColumns count="6">
-    <tableColumn id="26" xr3:uid="{62AA031B-DD73-472A-8ED6-EB4710A68C12}" name="Codi" dataDxfId="5"/>
-    <tableColumn id="36" xr3:uid="{12979B42-6545-4461-B65B-3B3EFD903AA2}" name="Nom" dataDxfId="4"/>
-    <tableColumn id="37" xr3:uid="{BB2A3AF4-E1DA-40F2-8B18-C01E946943BA}" name="Continent Codi" dataDxfId="3"/>
-    <tableColumn id="35" xr3:uid="{5B70F1A9-C0E0-4762-951B-EA69EFD3FE7E}" name="Continent Nom" dataDxfId="2"/>
-    <tableColumn id="1" xr3:uid="{EA0E7174-2119-4A3D-B113-5BA253613AE8}" name="Subcontinent Codi" dataDxfId="1"/>
-    <tableColumn id="30" xr3:uid="{08FAE73C-EE7B-424B-A2C1-7338FED0CEB0}" name="Subcontinent Nom" dataDxfId="0"/>
+  <tableColumns count="7">
+    <tableColumn id="26" xr3:uid="{62AA031B-DD73-472A-8ED6-EB4710A68C12}" name="Codi" dataDxfId="6"/>
+    <tableColumn id="36" xr3:uid="{12979B42-6545-4461-B65B-3B3EFD903AA2}" name="Nom" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{59F9B3B5-2DE7-4FFD-B2F1-169729E28FDA}" name="Codi A3" dataDxfId="0"/>
+    <tableColumn id="37" xr3:uid="{BB2A3AF4-E1DA-40F2-8B18-C01E946943BA}" name="Continent Codi" dataDxfId="1"/>
+    <tableColumn id="35" xr3:uid="{5B70F1A9-C0E0-4762-951B-EA69EFD3FE7E}" name="Continent Nom" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{EA0E7174-2119-4A3D-B113-5BA253613AE8}" name="Subcontinent Codi" dataDxfId="4"/>
+    <tableColumn id="30" xr3:uid="{08FAE73C-EE7B-424B-A2C1-7338FED0CEB0}" name="Subcontinent Nom" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2340,5074 +3093,5829 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2437B9F8-92A3-4EC2-8B66-E7A00C4A92EC}">
-  <dimension ref="A1:F254"/>
+  <dimension ref="A1:G254"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.1796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.453125" style="2"/>
+    <col min="2" max="2" width="35.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>489</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="19" t="s">
+        <v>557</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>210</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="20" t="s">
+        <v>558</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>536</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="F4" s="16" t="s">
         <v>542</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>508</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>509</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="21" t="s">
+        <v>559</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>537</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="F5" s="17" t="s">
         <v>543</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>282</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="20" t="s">
+        <v>560</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>537</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="F6" s="16" t="s">
         <v>544</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>313</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="21" t="s">
+        <v>561</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>537</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="F7" s="17" t="s">
         <v>543</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>107</v>
       </c>
       <c r="B8" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="22" t="s">
+        <v>562</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="F8" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
         <v>284</v>
       </c>
       <c r="B9" t="s">
         <v>285</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="22" t="s">
+        <v>563</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="F9" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="22" t="s">
+        <v>564</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="F10" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
         <v>385</v>
       </c>
       <c r="B11" t="s">
         <v>386</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="22" t="s">
+        <v>565</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="F11" s="18" t="s">
         <v>545</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
         <v>176</v>
       </c>
       <c r="B12" t="s">
         <v>177</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="22" t="s">
+        <v>566</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>540</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="F12" s="18" t="s">
         <v>546</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
         <v>387</v>
       </c>
       <c r="B13" t="s">
         <v>388</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="22" t="s">
+        <v>567</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="F13" s="18" t="s">
         <v>545</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="G13" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
         <v>431</v>
       </c>
       <c r="B14" t="s">
         <v>432</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="22" t="s">
+        <v>568</v>
+      </c>
+      <c r="D14" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="F14" s="18" t="s">
         <v>547</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
         <v>155</v>
       </c>
       <c r="B15" t="s">
         <v>156</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="22" t="s">
+        <v>569</v>
+      </c>
+      <c r="D15" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="F15" s="18" t="s">
         <v>548</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
         <v>216</v>
       </c>
       <c r="B16" t="s">
         <v>217</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="D16" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="F16" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
         <v>389</v>
       </c>
       <c r="B17" t="s">
         <v>390</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="22" t="s">
+        <v>571</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="F17" s="18" t="s">
         <v>545</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="G17" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
         <v>266</v>
       </c>
       <c r="B18" t="s">
         <v>267</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="22" t="s">
+        <v>572</v>
+      </c>
+      <c r="D18" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="F18" s="18" t="s">
         <v>549</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
         <v>315</v>
       </c>
       <c r="B19" t="s">
         <v>316</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="22" t="s">
+        <v>573</v>
+      </c>
+      <c r="D19" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="F19" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="G19" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
         <v>278</v>
       </c>
       <c r="B20" t="s">
         <v>279</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="D20" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="F20" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="15" t="s">
         <v>275</v>
       </c>
       <c r="B21" t="s">
         <v>491</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="22" t="s">
+        <v>575</v>
+      </c>
+      <c r="D21" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="F21" s="18" t="s">
         <v>545</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="G21" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="15" t="s">
         <v>433</v>
       </c>
       <c r="B22" t="s">
         <v>434</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="22" t="s">
+        <v>576</v>
+      </c>
+      <c r="D22" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="F22" s="18" t="s">
         <v>547</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="G22" s="5" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="15" t="s">
         <v>212</v>
       </c>
       <c r="B23" t="s">
         <v>213</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="22" t="s">
+        <v>577</v>
+      </c>
+      <c r="D23" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="F23" s="18" t="s">
         <v>542</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="G23" s="5" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="15" t="s">
         <v>439</v>
       </c>
       <c r="B24" t="s">
         <v>440</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="22" t="s">
+        <v>578</v>
+      </c>
+      <c r="D24" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="F24" s="18" t="s">
         <v>545</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="G24" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="15" t="s">
         <v>329</v>
       </c>
       <c r="B25" t="s">
         <v>330</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="22" t="s">
+        <v>579</v>
+      </c>
+      <c r="D25" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="F25" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="G25" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="15" t="s">
         <v>317</v>
       </c>
       <c r="B26" t="s">
         <v>318</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="22" t="s">
+        <v>580</v>
+      </c>
+      <c r="D26" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="F26" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="G26" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="15" t="s">
         <v>118</v>
       </c>
       <c r="B27" t="s">
         <v>119</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="22" t="s">
+        <v>581</v>
+      </c>
+      <c r="D27" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="F27" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="G27" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B28" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="22" t="s">
+        <v>582</v>
+      </c>
+      <c r="D28" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="E28" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="F28" s="18" t="s">
         <v>540</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="G28" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="15" t="s">
         <v>134</v>
       </c>
       <c r="B29" t="s">
         <v>135</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="22" t="s">
+        <v>583</v>
+      </c>
+      <c r="D29" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="F29" s="18" t="s">
         <v>550</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="G29" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="15" t="s">
         <v>214</v>
       </c>
       <c r="B30" t="s">
         <v>215</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="22" t="s">
+        <v>584</v>
+      </c>
+      <c r="D30" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="E30" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="F30" s="18" t="s">
         <v>542</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="G30" s="5" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="15" t="s">
         <v>146</v>
       </c>
       <c r="B31" t="s">
         <v>147</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="22" t="s">
+        <v>585</v>
+      </c>
+      <c r="D31" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="E31" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E31" s="21" t="s">
+      <c r="F31" s="18" t="s">
         <v>548</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="G31" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
         <v>441</v>
       </c>
       <c r="B32" t="s">
         <v>442</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="22" t="s">
+        <v>586</v>
+      </c>
+      <c r="D32" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="E32" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="F32" s="18" t="s">
         <v>545</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="G32" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="s">
         <v>286</v>
       </c>
       <c r="B33" t="s">
         <v>287</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="22" t="s">
+        <v>587</v>
+      </c>
+      <c r="D33" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="E33" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="F33" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="G33" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B34" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="22" t="s">
+        <v>588</v>
+      </c>
+      <c r="D34" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="21" t="s">
+      <c r="F34" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="G34" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="15" t="s">
         <v>151</v>
       </c>
       <c r="B35" t="s">
         <v>152</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="22" t="s">
+        <v>589</v>
+      </c>
+      <c r="D35" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="E35" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E35" s="21" t="s">
+      <c r="F35" s="18" t="s">
         <v>548</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="G35" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="15" t="s">
         <v>236</v>
       </c>
       <c r="B36" t="s">
         <v>237</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="22" t="s">
+        <v>590</v>
+      </c>
+      <c r="D36" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="E36" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E36" s="21" t="s">
+      <c r="F36" s="18" t="s">
         <v>551</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="G36" s="5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="15" t="s">
         <v>273</v>
       </c>
       <c r="B37" t="s">
         <v>274</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="22" t="s">
+        <v>591</v>
+      </c>
+      <c r="D37" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="E37" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E37" s="21" t="s">
+      <c r="F37" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="G37" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="15" t="s">
         <v>40</v>
       </c>
       <c r="B38" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="22" t="s">
+        <v>592</v>
+      </c>
+      <c r="D38" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="E38" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="F38" s="18" t="s">
         <v>540</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="G38" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="15" t="s">
         <v>381</v>
       </c>
       <c r="B39" t="s">
         <v>382</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="22" t="s">
+        <v>593</v>
+      </c>
+      <c r="D39" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="E39" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="F39" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="G39" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="15" t="s">
         <v>239</v>
       </c>
       <c r="B40" t="s">
         <v>240</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="22" t="s">
+        <v>594</v>
+      </c>
+      <c r="D40" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="E40" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E40" s="21" t="s">
+      <c r="F40" s="18" t="s">
         <v>551</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="G40" s="5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B41" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="22" t="s">
+        <v>595</v>
+      </c>
+      <c r="D41" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="E41" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E41" s="21" t="s">
+      <c r="F41" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="G41" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="15" t="s">
         <v>144</v>
       </c>
       <c r="B42" t="s">
         <v>145</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="22" t="s">
+        <v>596</v>
+      </c>
+      <c r="D42" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="E42" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E42" s="21" t="s">
+      <c r="F42" s="18" t="s">
         <v>550</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="G42" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="15" t="s">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="22" t="s">
+        <v>597</v>
+      </c>
+      <c r="D43" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="E43" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="21" t="s">
+      <c r="F43" s="18" t="s">
         <v>540</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="G43" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="15" t="s">
         <v>158</v>
       </c>
       <c r="B44" t="s">
         <v>159</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="22" t="s">
+        <v>598</v>
+      </c>
+      <c r="D44" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="E44" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E44" s="21" t="s">
+      <c r="F44" s="18" t="s">
         <v>548</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="G44" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="15" t="s">
         <v>72</v>
       </c>
       <c r="B45" t="s">
         <v>492</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="22" t="s">
+        <v>599</v>
+      </c>
+      <c r="D45" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="E45" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="21" t="s">
+      <c r="F45" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="G45" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B46" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="22" t="s">
+        <v>600</v>
+      </c>
+      <c r="D46" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="E46" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E46" s="21" t="s">
+      <c r="F46" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="G46" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="15" t="s">
         <v>221</v>
       </c>
       <c r="B47" t="s">
         <v>222</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="22" t="s">
+        <v>601</v>
+      </c>
+      <c r="D47" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="E47" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E47" s="21" t="s">
+      <c r="F47" s="18" t="s">
         <v>552</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="G47" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="15" t="s">
         <v>224</v>
       </c>
       <c r="B48" t="s">
         <v>225</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="D48" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="E48" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E48" s="21" t="s">
+      <c r="F48" s="18" t="s">
         <v>552</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="G48" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="15" t="s">
         <v>44</v>
       </c>
       <c r="B49" t="s">
         <v>45</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="22" t="s">
+        <v>603</v>
+      </c>
+      <c r="D49" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="E49" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E49" s="21" t="s">
+      <c r="F49" s="18" t="s">
         <v>540</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="G49" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="15" t="s">
         <v>122</v>
       </c>
       <c r="B50" t="s">
         <v>123</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="22" t="s">
+        <v>604</v>
+      </c>
+      <c r="D50" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="E50" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E50" s="21" t="s">
+      <c r="F50" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="G50" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="15" t="s">
         <v>288</v>
       </c>
       <c r="B51" t="s">
         <v>289</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="22" t="s">
+        <v>605</v>
+      </c>
+      <c r="D51" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="E51" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E51" s="21" t="s">
+      <c r="F51" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="G51" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="15" t="s">
         <v>371</v>
       </c>
       <c r="B52" t="s">
         <v>372</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="22" t="s">
+        <v>606</v>
+      </c>
+      <c r="D52" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="E52" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E52" s="21" t="s">
+      <c r="F52" s="18" t="s">
         <v>545</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="G52" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="15" t="s">
         <v>443</v>
       </c>
       <c r="B53" t="s">
         <v>444</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="22" t="s">
+        <v>607</v>
+      </c>
+      <c r="D53" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="E53" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E53" s="21" t="s">
+      <c r="F53" s="18" t="s">
         <v>545</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="G53" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="15" t="s">
         <v>347</v>
       </c>
       <c r="B54" t="s">
         <v>348</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="22" t="s">
+        <v>608</v>
+      </c>
+      <c r="D54" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="E54" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E54" s="21" t="s">
+      <c r="F54" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="G54" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="15" t="s">
         <v>74</v>
       </c>
       <c r="B55" t="s">
         <v>75</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="22" t="s">
+        <v>609</v>
+      </c>
+      <c r="D55" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="E55" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E55" s="21" t="s">
+      <c r="F55" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="G55" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="15" t="s">
         <v>445</v>
       </c>
       <c r="B56" t="s">
         <v>446</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="22" t="s">
+        <v>610</v>
+      </c>
+      <c r="D56" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="E56" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E56" s="21" t="s">
+      <c r="F56" s="18" t="s">
         <v>545</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="G56" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="15" t="s">
         <v>414</v>
       </c>
       <c r="B57" t="s">
         <v>415</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C57" s="22" t="s">
+        <v>611</v>
+      </c>
+      <c r="D57" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="E57" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="21" t="s">
+      <c r="F57" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="G57" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="15" t="s">
         <v>124</v>
       </c>
       <c r="B58" t="s">
         <v>125</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C58" s="22" t="s">
+        <v>612</v>
+      </c>
+      <c r="D58" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="E58" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E58" s="21" t="s">
+      <c r="F58" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="G58" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="15" t="s">
         <v>435</v>
       </c>
       <c r="B59" t="s">
         <v>493</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C59" s="22" t="s">
+        <v>613</v>
+      </c>
+      <c r="D59" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="E59" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E59" s="21" t="s">
+      <c r="F59" s="18" t="s">
         <v>547</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="G59" s="5" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="15" t="s">
         <v>160</v>
       </c>
       <c r="B60" t="s">
         <v>161</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="22" t="s">
+        <v>614</v>
+      </c>
+      <c r="D60" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="E60" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E60" s="21" t="s">
+      <c r="F60" s="18" t="s">
         <v>548</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="G60" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="15" t="s">
         <v>76</v>
       </c>
       <c r="B61" t="s">
         <v>77</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="C61" s="22" t="s">
+        <v>615</v>
+      </c>
+      <c r="D61" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="E61" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E61" s="21" t="s">
+      <c r="F61" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="G61" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="15" t="s">
         <v>331</v>
       </c>
       <c r="B62" t="s">
         <v>332</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="22" t="s">
+        <v>616</v>
+      </c>
+      <c r="D62" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="E62" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E62" s="21" t="s">
+      <c r="F62" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="G62" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="15" t="s">
         <v>290</v>
       </c>
       <c r="B63" t="s">
         <v>291</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C63" s="22" t="s">
+        <v>617</v>
+      </c>
+      <c r="D63" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="E63" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E63" s="21" t="s">
+      <c r="F63" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="G63" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="15" t="s">
         <v>292</v>
       </c>
       <c r="B64" t="s">
         <v>293</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="C64" s="22" t="s">
+        <v>618</v>
+      </c>
+      <c r="D64" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="E64" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E64" s="21" t="s">
+      <c r="F64" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="G64" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="15" t="s">
         <v>137</v>
       </c>
       <c r="B65" t="s">
         <v>494</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="C65" s="22" t="s">
+        <v>619</v>
+      </c>
+      <c r="D65" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="E65" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E65" s="21" t="s">
+      <c r="F65" s="18" t="s">
         <v>550</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="G65" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="15" t="s">
         <v>349</v>
       </c>
       <c r="B66" t="s">
         <v>350</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C66" s="22" t="s">
+        <v>620</v>
+      </c>
+      <c r="D66" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="E66" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E66" s="21" t="s">
+      <c r="F66" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="G66" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B67" t="s">
         <v>510</v>
       </c>
-      <c r="C67" s="18" t="s">
+      <c r="C67" s="22" t="s">
+        <v>621</v>
+      </c>
+      <c r="D67" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="E67" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E67" s="21" t="s">
+      <c r="F67" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="G67" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="15" t="s">
         <v>78</v>
       </c>
       <c r="B68" t="s">
         <v>79</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C68" s="22" t="s">
+        <v>622</v>
+      </c>
+      <c r="D68" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="E68" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E68" s="21" t="s">
+      <c r="F68" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="G68" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="15" t="s">
         <v>351</v>
       </c>
       <c r="B69" t="s">
         <v>352</v>
       </c>
-      <c r="C69" s="18" t="s">
+      <c r="C69" s="22" t="s">
+        <v>623</v>
+      </c>
+      <c r="D69" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="E69" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E69" s="21" t="s">
+      <c r="F69" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="G69" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="15" t="s">
         <v>393</v>
       </c>
       <c r="B70" t="s">
         <v>394</v>
       </c>
-      <c r="C70" s="18" t="s">
+      <c r="C70" s="22" t="s">
+        <v>624</v>
+      </c>
+      <c r="D70" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="E70" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E70" s="21" t="s">
+      <c r="F70" s="18" t="s">
         <v>553</v>
       </c>
-      <c r="F70" s="5" t="s">
+      <c r="G70" s="5" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="15" t="s">
         <v>241</v>
       </c>
       <c r="B71" t="s">
         <v>242</v>
       </c>
-      <c r="C71" s="18" t="s">
+      <c r="C71" s="22" t="s">
+        <v>625</v>
+      </c>
+      <c r="D71" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="E71" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E71" s="21" t="s">
+      <c r="F71" s="18" t="s">
         <v>551</v>
       </c>
-      <c r="F71" s="5" t="s">
+      <c r="G71" s="5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="15" t="s">
         <v>353</v>
       </c>
       <c r="B72" t="s">
         <v>354</v>
       </c>
-      <c r="C72" s="18" t="s">
+      <c r="C72" s="22" t="s">
+        <v>626</v>
+      </c>
+      <c r="D72" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="E72" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E72" s="21" t="s">
+      <c r="F72" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="F72" s="5" t="s">
+      <c r="G72" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="15" t="s">
         <v>319</v>
       </c>
       <c r="B73" t="s">
         <v>320</v>
       </c>
-      <c r="C73" s="18" t="s">
+      <c r="C73" s="22" t="s">
+        <v>627</v>
+      </c>
+      <c r="D73" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="E73" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E73" s="21" t="s">
+      <c r="F73" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="G73" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B74" t="s">
         <v>14</v>
       </c>
-      <c r="C74" s="18" t="s">
+      <c r="C74" s="22" t="s">
+        <v>628</v>
+      </c>
+      <c r="D74" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="E74" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E74" s="21" t="s">
+      <c r="F74" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="F74" s="5" t="s">
+      <c r="G74" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="15" t="s">
         <v>46</v>
       </c>
       <c r="B75" t="s">
         <v>47</v>
       </c>
-      <c r="C75" s="18" t="s">
+      <c r="C75" s="22" t="s">
+        <v>629</v>
+      </c>
+      <c r="D75" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="E75" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E75" s="21" t="s">
+      <c r="F75" s="18" t="s">
         <v>540</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="G75" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="15" t="s">
         <v>219</v>
       </c>
       <c r="B76" t="s">
         <v>220</v>
       </c>
-      <c r="C76" s="18" t="s">
+      <c r="C76" s="22" t="s">
+        <v>630</v>
+      </c>
+      <c r="D76" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="E76" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E76" s="21" t="s">
+      <c r="F76" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="F76" s="5" t="s">
+      <c r="G76" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B77" t="s">
         <v>49</v>
       </c>
-      <c r="C77" s="18" t="s">
+      <c r="C77" s="22" t="s">
+        <v>631</v>
+      </c>
+      <c r="D77" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="E77" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E77" s="21" t="s">
+      <c r="F77" s="18" t="s">
         <v>540</v>
       </c>
-      <c r="F77" s="5" t="s">
+      <c r="G77" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="15" t="s">
         <v>294</v>
       </c>
       <c r="B78" t="s">
         <v>295</v>
       </c>
-      <c r="C78" s="18" t="s">
+      <c r="C78" s="22" t="s">
+        <v>632</v>
+      </c>
+      <c r="D78" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="E78" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E78" s="21" t="s">
+      <c r="F78" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="F78" s="5" t="s">
+      <c r="G78" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="15" t="s">
         <v>296</v>
       </c>
       <c r="B79" t="s">
         <v>297</v>
       </c>
-      <c r="C79" s="18" t="s">
+      <c r="C79" s="22" t="s">
+        <v>633</v>
+      </c>
+      <c r="D79" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="E79" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E79" s="21" t="s">
+      <c r="F79" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="F79" s="5" t="s">
+      <c r="G79" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="15" t="s">
         <v>447</v>
       </c>
       <c r="B80" t="s">
         <v>448</v>
       </c>
-      <c r="C80" s="18" t="s">
+      <c r="C80" s="22" t="s">
+        <v>634</v>
+      </c>
+      <c r="D80" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="E80" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E80" s="21" t="s">
+      <c r="F80" s="18" t="s">
         <v>545</v>
       </c>
-      <c r="F80" s="5" t="s">
+      <c r="G80" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="15" t="s">
         <v>138</v>
       </c>
       <c r="B81" t="s">
         <v>139</v>
       </c>
-      <c r="C81" s="18" t="s">
+      <c r="C81" s="22" t="s">
+        <v>635</v>
+      </c>
+      <c r="D81" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="E81" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E81" s="21" t="s">
+      <c r="F81" s="18" t="s">
         <v>550</v>
       </c>
-      <c r="F81" s="5" t="s">
+      <c r="G81" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="15" t="s">
         <v>511</v>
       </c>
       <c r="B82" t="s">
         <v>512</v>
       </c>
-      <c r="C82" s="18" t="s">
+      <c r="C82" s="22" t="s">
+        <v>636</v>
+      </c>
+      <c r="D82" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="E82" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E82" s="21" t="s">
+      <c r="F82" s="18" t="s">
         <v>545</v>
       </c>
-      <c r="F82" s="5" t="s">
+      <c r="G82" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="15" t="s">
         <v>513</v>
       </c>
       <c r="B83" t="s">
         <v>514</v>
       </c>
-      <c r="C83" s="18" t="s">
+      <c r="C83" s="22" t="s">
+        <v>637</v>
+      </c>
+      <c r="D83" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="E83" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E83" s="21" t="s">
+      <c r="F83" s="18" t="s">
         <v>548</v>
       </c>
-      <c r="F83" s="5" t="s">
+      <c r="G83" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="15" t="s">
         <v>401</v>
       </c>
       <c r="B84" t="s">
         <v>402</v>
       </c>
-      <c r="C84" s="18" t="s">
+      <c r="C84" s="22" t="s">
+        <v>638</v>
+      </c>
+      <c r="D84" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="E84" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E84" s="21" t="s">
+      <c r="F84" s="18" t="s">
         <v>554</v>
       </c>
-      <c r="F84" s="5" t="s">
+      <c r="G84" s="5" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="15" t="s">
         <v>126</v>
       </c>
       <c r="B85" t="s">
         <v>127</v>
       </c>
-      <c r="C85" s="18" t="s">
+      <c r="C85" s="22" t="s">
+        <v>639</v>
+      </c>
+      <c r="D85" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="E85" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E85" s="21" t="s">
+      <c r="F85" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="F85" s="5" t="s">
+      <c r="G85" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="15" t="s">
         <v>515</v>
       </c>
       <c r="B86" t="s">
         <v>516</v>
       </c>
-      <c r="C86" s="18" t="s">
+      <c r="C86" s="22" t="s">
+        <v>640</v>
+      </c>
+      <c r="D86" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="E86" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E86" s="21" t="s">
+      <c r="F86" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="F86" s="5" t="s">
+      <c r="G86" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B87" t="s">
         <v>51</v>
       </c>
-      <c r="C87" s="18" t="s">
+      <c r="C87" s="22" t="s">
+        <v>641</v>
+      </c>
+      <c r="D87" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="E87" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E87" s="21" t="s">
+      <c r="F87" s="18" t="s">
         <v>540</v>
       </c>
-      <c r="F87" s="5" t="s">
+      <c r="G87" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B88" t="s">
         <v>16</v>
       </c>
-      <c r="C88" s="18" t="s">
+      <c r="C88" s="22" t="s">
+        <v>642</v>
+      </c>
+      <c r="D88" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="E88" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E88" s="21" t="s">
+      <c r="F88" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="F88" s="5" t="s">
+      <c r="G88" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="15" t="s">
         <v>52</v>
       </c>
       <c r="B89" t="s">
         <v>53</v>
       </c>
-      <c r="C89" s="18" t="s">
+      <c r="C89" s="22" t="s">
+        <v>643</v>
+      </c>
+      <c r="D89" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="E89" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E89" s="21" t="s">
+      <c r="F89" s="18" t="s">
         <v>540</v>
       </c>
-      <c r="F89" s="5" t="s">
+      <c r="G89" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="15" t="s">
         <v>162</v>
       </c>
       <c r="B90" t="s">
         <v>163</v>
       </c>
-      <c r="C90" s="18" t="s">
+      <c r="C90" s="22" t="s">
+        <v>644</v>
+      </c>
+      <c r="D90" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="E90" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E90" s="21" t="s">
+      <c r="F90" s="18" t="s">
         <v>548</v>
       </c>
-      <c r="F90" s="5" t="s">
+      <c r="G90" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="15" t="s">
         <v>373</v>
       </c>
       <c r="B91" t="s">
         <v>374</v>
       </c>
-      <c r="C91" s="18" t="s">
+      <c r="C91" s="22" t="s">
+        <v>645</v>
+      </c>
+      <c r="D91" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="E91" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E91" s="21" t="s">
+      <c r="F91" s="18" t="s">
         <v>545</v>
       </c>
-      <c r="F91" s="5" t="s">
+      <c r="G91" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="15" t="s">
         <v>128</v>
       </c>
       <c r="B92" t="s">
         <v>129</v>
       </c>
-      <c r="C92" s="18" t="s">
+      <c r="C92" s="22" t="s">
+        <v>646</v>
+      </c>
+      <c r="D92" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="E92" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E92" s="21" t="s">
+      <c r="F92" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="F92" s="5" t="s">
+      <c r="G92" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="15" t="s">
         <v>226</v>
       </c>
       <c r="B93" t="s">
         <v>495</v>
       </c>
-      <c r="C93" s="18" t="s">
+      <c r="C93" s="22" t="s">
+        <v>647</v>
+      </c>
+      <c r="D93" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="E93" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E93" s="21" t="s">
+      <c r="F93" s="18" t="s">
         <v>552</v>
       </c>
-      <c r="F93" s="5" t="s">
+      <c r="G93" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="15" t="s">
         <v>333</v>
       </c>
       <c r="B94" t="s">
         <v>334</v>
       </c>
-      <c r="C94" s="18" t="s">
+      <c r="C94" s="22" t="s">
+        <v>648</v>
+      </c>
+      <c r="D94" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="E94" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E94" s="21" t="s">
+      <c r="F94" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="F94" s="5" t="s">
+      <c r="G94" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="15" t="s">
         <v>436</v>
       </c>
       <c r="B95" t="s">
         <v>496</v>
       </c>
-      <c r="C95" s="18" t="s">
+      <c r="C95" s="22" t="s">
+        <v>649</v>
+      </c>
+      <c r="D95" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="E95" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E95" s="21" t="s">
+      <c r="F95" s="18" t="s">
         <v>547</v>
       </c>
-      <c r="F95" s="5" t="s">
+      <c r="G95" s="5" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="15" t="s">
         <v>179</v>
       </c>
       <c r="B96" t="s">
         <v>180</v>
       </c>
-      <c r="C96" s="18" t="s">
+      <c r="C96" s="22" t="s">
+        <v>650</v>
+      </c>
+      <c r="D96" s="18" t="s">
         <v>540</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="E96" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E96" s="21" t="s">
+      <c r="F96" s="18" t="s">
         <v>546</v>
       </c>
-      <c r="F96" s="5" t="s">
+      <c r="G96" s="5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="15" t="s">
         <v>243</v>
       </c>
       <c r="B97" t="s">
         <v>244</v>
       </c>
-      <c r="C97" s="18" t="s">
+      <c r="C97" s="22" t="s">
+        <v>651</v>
+      </c>
+      <c r="D97" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="E97" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E97" s="21" t="s">
+      <c r="F97" s="18" t="s">
         <v>549</v>
       </c>
-      <c r="F97" s="5" t="s">
+      <c r="G97" s="5" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="15" t="s">
         <v>517</v>
       </c>
       <c r="B98" t="s">
         <v>518</v>
       </c>
-      <c r="C98" s="18" t="s">
+      <c r="C98" s="22" t="s">
+        <v>652</v>
+      </c>
+      <c r="D98" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="E98" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E98" s="21" t="s">
+      <c r="F98" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="F98" s="5" t="s">
+      <c r="G98" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="15" t="s">
         <v>269</v>
       </c>
       <c r="B99" t="s">
         <v>270</v>
       </c>
-      <c r="C99" s="18" t="s">
+      <c r="C99" s="22" t="s">
+        <v>653</v>
+      </c>
+      <c r="D99" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="E99" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E99" s="21" t="s">
+      <c r="F99" s="18" t="s">
         <v>549</v>
       </c>
-      <c r="F99" s="5" t="s">
+      <c r="G99" s="5" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="15" t="s">
         <v>375</v>
       </c>
       <c r="B100" t="s">
         <v>376</v>
       </c>
-      <c r="C100" s="18" t="s">
+      <c r="C100" s="22" t="s">
+        <v>654</v>
+      </c>
+      <c r="D100" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="E100" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E100" s="21" t="s">
+      <c r="F100" s="18" t="s">
         <v>545</v>
       </c>
-      <c r="F100" s="5" t="s">
+      <c r="G100" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="15" t="s">
         <v>265</v>
       </c>
       <c r="B101" t="s">
         <v>497</v>
       </c>
-      <c r="C101" s="18" t="s">
+      <c r="C101" s="22" t="s">
+        <v>655</v>
+      </c>
+      <c r="D101" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="E101" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E101" s="21" t="s">
+      <c r="F101" s="18" t="s">
         <v>549</v>
       </c>
-      <c r="F101" s="5" t="s">
+      <c r="G101" s="5" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="15" t="s">
         <v>465</v>
       </c>
       <c r="B102" t="s">
         <v>466</v>
       </c>
-      <c r="C102" s="18" t="s">
+      <c r="C102" s="22" t="s">
+        <v>656</v>
+      </c>
+      <c r="D102" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="E102" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E102" s="21" t="s">
+      <c r="F102" s="18" t="s">
         <v>555</v>
       </c>
-      <c r="F102" s="5" t="s">
+      <c r="G102" s="5" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="15" t="s">
         <v>157</v>
       </c>
       <c r="B103" t="s">
         <v>498</v>
       </c>
-      <c r="C103" s="18" t="s">
+      <c r="C103" s="22" t="s">
+        <v>657</v>
+      </c>
+      <c r="D103" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="E103" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E103" s="21" t="s">
+      <c r="F103" s="18" t="s">
         <v>548</v>
       </c>
-      <c r="F103" s="5" t="s">
+      <c r="G103" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="15" t="s">
         <v>181</v>
       </c>
       <c r="B104" t="s">
         <v>182</v>
       </c>
-      <c r="C104" s="18" t="s">
+      <c r="C104" s="22" t="s">
+        <v>658</v>
+      </c>
+      <c r="D104" s="18" t="s">
         <v>540</v>
       </c>
-      <c r="D104" s="5" t="s">
+      <c r="E104" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E104" s="21" t="s">
+      <c r="F104" s="18" t="s">
         <v>546</v>
       </c>
-      <c r="F104" s="5" t="s">
+      <c r="G104" s="5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="15" t="s">
         <v>183</v>
       </c>
       <c r="B105" t="s">
         <v>184</v>
       </c>
-      <c r="C105" s="18" t="s">
+      <c r="C105" s="22" t="s">
+        <v>659</v>
+      </c>
+      <c r="D105" s="18" t="s">
         <v>540</v>
       </c>
-      <c r="D105" s="5" t="s">
+      <c r="E105" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E105" s="21" t="s">
+      <c r="F105" s="18" t="s">
         <v>546</v>
       </c>
-      <c r="F105" s="5" t="s">
+      <c r="G105" s="5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="15" t="s">
         <v>486</v>
       </c>
       <c r="B106" t="s">
         <v>487</v>
       </c>
-      <c r="C106" s="18" t="s">
+      <c r="C106" s="22" t="s">
+        <v>660</v>
+      </c>
+      <c r="D106" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="D106" s="5" t="s">
+      <c r="E106" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E106" s="21" t="s">
+      <c r="F106" s="18" t="s">
         <v>554</v>
       </c>
-      <c r="F106" s="5" t="s">
+      <c r="G106" s="5" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="15" t="s">
         <v>404</v>
       </c>
       <c r="B107" t="s">
         <v>405</v>
       </c>
-      <c r="C107" s="18" t="s">
+      <c r="C107" s="22" t="s">
+        <v>661</v>
+      </c>
+      <c r="D107" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="D107" s="5" t="s">
+      <c r="E107" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E107" s="21" t="s">
+      <c r="F107" s="18" t="s">
         <v>554</v>
       </c>
-      <c r="F107" s="5" t="s">
+      <c r="G107" s="5" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="15" t="s">
         <v>406</v>
       </c>
       <c r="B108" t="s">
         <v>499</v>
       </c>
-      <c r="C108" s="18" t="s">
+      <c r="C108" s="22" t="s">
+        <v>662</v>
+      </c>
+      <c r="D108" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="D108" s="5" t="s">
+      <c r="E108" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E108" s="21" t="s">
+      <c r="F108" s="18" t="s">
         <v>554</v>
       </c>
-      <c r="F108" s="5" t="s">
+      <c r="G108" s="5" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="15" t="s">
         <v>395</v>
       </c>
       <c r="B109" t="s">
         <v>396</v>
       </c>
-      <c r="C109" s="18" t="s">
+      <c r="C109" s="22" t="s">
+        <v>663</v>
+      </c>
+      <c r="D109" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="D109" s="5" t="s">
+      <c r="E109" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E109" s="21" t="s">
+      <c r="F109" s="18" t="s">
         <v>553</v>
       </c>
-      <c r="F109" s="5" t="s">
+      <c r="G109" s="5" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="15" t="s">
         <v>276</v>
       </c>
       <c r="B110" t="s">
         <v>277</v>
       </c>
-      <c r="C110" s="18" t="s">
+      <c r="C110" s="22" t="s">
+        <v>664</v>
+      </c>
+      <c r="D110" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D110" s="5" t="s">
+      <c r="E110" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E110" s="21" t="s">
+      <c r="F110" s="18" t="s">
         <v>545</v>
       </c>
-      <c r="F110" s="5" t="s">
+      <c r="G110" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="15" t="s">
         <v>449</v>
       </c>
       <c r="B111" t="s">
         <v>450</v>
       </c>
-      <c r="C111" s="18" t="s">
+      <c r="C111" s="22" t="s">
+        <v>665</v>
+      </c>
+      <c r="D111" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="E111" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E111" s="21" t="s">
+      <c r="F111" s="18" t="s">
         <v>545</v>
       </c>
-      <c r="F111" s="5" t="s">
+      <c r="G111" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="15" t="s">
         <v>451</v>
       </c>
       <c r="B112" t="s">
         <v>452</v>
       </c>
-      <c r="C112" s="18" t="s">
+      <c r="C112" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="D112" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D112" s="5" t="s">
+      <c r="E112" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E112" s="21" t="s">
+      <c r="F112" s="18" t="s">
         <v>545</v>
       </c>
-      <c r="F112" s="5" t="s">
+      <c r="G112" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="15" t="s">
         <v>197</v>
       </c>
       <c r="B113" t="s">
         <v>198</v>
       </c>
-      <c r="C113" s="18" t="s">
+      <c r="C113" s="22" t="s">
+        <v>667</v>
+      </c>
+      <c r="D113" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D113" s="5" t="s">
+      <c r="E113" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E113" s="21" t="s">
+      <c r="F113" s="18" t="s">
         <v>542</v>
       </c>
-      <c r="F113" s="5" t="s">
+      <c r="G113" s="5" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="15" t="s">
         <v>257</v>
       </c>
       <c r="B114" t="s">
         <v>258</v>
       </c>
-      <c r="C114" s="18" t="s">
+      <c r="C114" s="22" t="s">
+        <v>668</v>
+      </c>
+      <c r="D114" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D114" s="5" t="s">
+      <c r="E114" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E114" s="21" t="s">
+      <c r="F114" s="18" t="s">
         <v>551</v>
       </c>
-      <c r="F114" s="5" t="s">
+      <c r="G114" s="5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="15" t="s">
         <v>200</v>
       </c>
       <c r="B115" t="s">
         <v>201</v>
       </c>
-      <c r="C115" s="18" t="s">
+      <c r="C115" s="22" t="s">
+        <v>669</v>
+      </c>
+      <c r="D115" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D115" s="5" t="s">
+      <c r="E115" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E115" s="21" t="s">
+      <c r="F115" s="18" t="s">
         <v>542</v>
       </c>
-      <c r="F115" s="5" t="s">
+      <c r="G115" s="5" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="15" t="s">
         <v>416</v>
       </c>
       <c r="B116" t="s">
         <v>500</v>
       </c>
-      <c r="C116" s="18" t="s">
+      <c r="C116" s="22" t="s">
+        <v>670</v>
+      </c>
+      <c r="D116" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D116" s="5" t="s">
+      <c r="E116" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E116" s="21" t="s">
+      <c r="F116" s="18" t="s">
         <v>547</v>
       </c>
-      <c r="F116" s="5" t="s">
+      <c r="G116" s="5" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="15" t="s">
         <v>355</v>
       </c>
       <c r="B117" t="s">
         <v>356</v>
       </c>
-      <c r="C117" s="18" t="s">
+      <c r="C117" s="22" t="s">
+        <v>671</v>
+      </c>
+      <c r="D117" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="E117" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E117" s="21" t="s">
+      <c r="F117" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="F117" s="5" t="s">
+      <c r="G117" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="15" t="s">
         <v>357</v>
       </c>
       <c r="B118" t="s">
         <v>358</v>
       </c>
-      <c r="C118" s="18" t="s">
+      <c r="C118" s="22" t="s">
+        <v>672</v>
+      </c>
+      <c r="D118" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="E118" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E118" s="21" t="s">
+      <c r="F118" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="F118" s="5" t="s">
+      <c r="G118" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="15" t="s">
         <v>418</v>
       </c>
       <c r="B119" t="s">
         <v>419</v>
       </c>
-      <c r="C119" s="18" t="s">
+      <c r="C119" s="22" t="s">
+        <v>673</v>
+      </c>
+      <c r="D119" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="E119" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E119" s="21" t="s">
+      <c r="F119" s="18" t="s">
         <v>547</v>
       </c>
-      <c r="F119" s="5" t="s">
+      <c r="G119" s="5" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="15" t="s">
         <v>298</v>
       </c>
       <c r="B120" t="s">
         <v>299</v>
       </c>
-      <c r="C120" s="18" t="s">
+      <c r="C120" s="22" t="s">
+        <v>674</v>
+      </c>
+      <c r="D120" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D120" s="5" t="s">
+      <c r="E120" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E120" s="21" t="s">
+      <c r="F120" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="F120" s="5" t="s">
+      <c r="G120" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="15" t="s">
         <v>377</v>
       </c>
       <c r="B121" t="s">
         <v>378</v>
       </c>
-      <c r="C121" s="18" t="s">
+      <c r="C121" s="22" t="s">
+        <v>675</v>
+      </c>
+      <c r="D121" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D121" s="5" t="s">
+      <c r="E121" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E121" s="21" t="s">
+      <c r="F121" s="18" t="s">
         <v>545</v>
       </c>
-      <c r="F121" s="5" t="s">
+      <c r="G121" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="15" t="s">
         <v>227</v>
       </c>
       <c r="B122" t="s">
         <v>228</v>
       </c>
-      <c r="C122" s="18" t="s">
+      <c r="C122" s="22" t="s">
+        <v>676</v>
+      </c>
+      <c r="D122" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D122" s="5" t="s">
+      <c r="E122" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E122" s="21" t="s">
+      <c r="F122" s="18" t="s">
         <v>552</v>
       </c>
-      <c r="F122" s="5" t="s">
+      <c r="G122" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="15" t="s">
         <v>519</v>
       </c>
       <c r="B123" t="s">
         <v>520</v>
       </c>
-      <c r="C123" s="18" t="s">
+      <c r="C123" s="22" t="s">
+        <v>677</v>
+      </c>
+      <c r="D123" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D123" s="5" t="s">
+      <c r="E123" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E123" s="21" t="s">
+      <c r="F123" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="F123" s="5" t="s">
+      <c r="G123" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="15" t="s">
         <v>420</v>
       </c>
       <c r="B124" t="s">
         <v>421</v>
       </c>
-      <c r="C124" s="18" t="s">
+      <c r="C124" s="22" t="s">
+        <v>678</v>
+      </c>
+      <c r="D124" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D124" s="5" t="s">
+      <c r="E124" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E124" s="21" t="s">
+      <c r="F124" s="18" t="s">
         <v>547</v>
       </c>
-      <c r="F124" s="5" t="s">
+      <c r="G124" s="5" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="15" t="s">
         <v>185</v>
       </c>
       <c r="B125" t="s">
         <v>186</v>
       </c>
-      <c r="C125" s="18" t="s">
+      <c r="C125" s="22" t="s">
+        <v>679</v>
+      </c>
+      <c r="D125" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D125" s="5" t="s">
+      <c r="E125" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E125" s="21" t="s">
+      <c r="F125" s="18" t="s">
         <v>556</v>
       </c>
-      <c r="F125" s="5" t="s">
+      <c r="G125" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="15" t="s">
         <v>80</v>
       </c>
       <c r="B126" t="s">
         <v>81</v>
       </c>
-      <c r="C126" s="18" t="s">
+      <c r="C126" s="22" t="s">
+        <v>680</v>
+      </c>
+      <c r="D126" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D126" s="5" t="s">
+      <c r="E126" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E126" s="21" t="s">
+      <c r="F126" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="F126" s="5" t="s">
+      <c r="G126" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="15" t="s">
         <v>189</v>
       </c>
       <c r="B127" t="s">
         <v>190</v>
       </c>
-      <c r="C127" s="18" t="s">
+      <c r="C127" s="22" t="s">
+        <v>681</v>
+      </c>
+      <c r="D127" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D127" s="5" t="s">
+      <c r="E127" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E127" s="21" t="s">
+      <c r="F127" s="18" t="s">
         <v>556</v>
       </c>
-      <c r="F127" s="5" t="s">
+      <c r="G127" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="15" t="s">
         <v>407</v>
       </c>
       <c r="B128" t="s">
         <v>408</v>
       </c>
-      <c r="C128" s="18" t="s">
+      <c r="C128" s="22" t="s">
+        <v>682</v>
+      </c>
+      <c r="D128" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="D128" s="5" t="s">
+      <c r="E128" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E128" s="21" t="s">
+      <c r="F128" s="18" t="s">
         <v>554</v>
       </c>
-      <c r="F128" s="5" t="s">
+      <c r="G128" s="5" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" s="15" t="s">
         <v>422</v>
       </c>
       <c r="B129" t="s">
         <v>423</v>
       </c>
-      <c r="C129" s="18" t="s">
+      <c r="C129" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="D129" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D129" s="5" t="s">
+      <c r="E129" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E129" s="21" t="s">
+      <c r="F129" s="18" t="s">
         <v>547</v>
       </c>
-      <c r="F129" s="5" t="s">
+      <c r="G129" s="5" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" s="15" t="s">
         <v>245</v>
       </c>
       <c r="B130" t="s">
         <v>246</v>
       </c>
-      <c r="C130" s="18" t="s">
+      <c r="C130" s="22" t="s">
+        <v>684</v>
+      </c>
+      <c r="D130" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D130" s="5" t="s">
+      <c r="E130" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E130" s="21" t="s">
+      <c r="F130" s="18" t="s">
         <v>551</v>
       </c>
-      <c r="F130" s="5" t="s">
+      <c r="G130" s="5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B131" t="s">
         <v>31</v>
       </c>
-      <c r="C131" s="18" t="s">
+      <c r="C131" s="22" t="s">
+        <v>685</v>
+      </c>
+      <c r="D131" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D131" s="5" t="s">
+      <c r="E131" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E131" s="21" t="s">
+      <c r="F131" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="F131" s="5" t="s">
+      <c r="G131" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="15" t="s">
         <v>359</v>
       </c>
       <c r="B132" t="s">
         <v>360</v>
       </c>
-      <c r="C132" s="18" t="s">
+      <c r="C132" s="22" t="s">
+        <v>686</v>
+      </c>
+      <c r="D132" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D132" s="5" t="s">
+      <c r="E132" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E132" s="21" t="s">
+      <c r="F132" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="F132" s="5" t="s">
+      <c r="G132" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" s="15" t="s">
         <v>424</v>
       </c>
       <c r="B133" t="s">
         <v>425</v>
       </c>
-      <c r="C133" s="18" t="s">
+      <c r="C133" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="D133" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D133" s="5" t="s">
+      <c r="E133" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E133" s="21" t="s">
+      <c r="F133" s="18" t="s">
         <v>547</v>
       </c>
-      <c r="F133" s="5" t="s">
+      <c r="G133" s="5" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="15" t="s">
         <v>54</v>
       </c>
       <c r="B134" t="s">
         <v>55</v>
       </c>
-      <c r="C134" s="18" t="s">
+      <c r="C134" s="22" t="s">
+        <v>688</v>
+      </c>
+      <c r="D134" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D134" s="5" t="s">
+      <c r="E134" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E134" s="21" t="s">
+      <c r="F134" s="18" t="s">
         <v>540</v>
       </c>
-      <c r="F134" s="5" t="s">
+      <c r="G134" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" s="15" t="s">
         <v>110</v>
       </c>
       <c r="B135" t="s">
         <v>111</v>
       </c>
-      <c r="C135" s="18" t="s">
+      <c r="C135" s="22" t="s">
+        <v>689</v>
+      </c>
+      <c r="D135" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D135" s="5" t="s">
+      <c r="E135" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E135" s="21" t="s">
+      <c r="F135" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="F135" s="5" t="s">
+      <c r="G135" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" s="15" t="s">
         <v>321</v>
       </c>
       <c r="B136" t="s">
         <v>322</v>
       </c>
-      <c r="C136" s="18" t="s">
+      <c r="C136" s="22" t="s">
+        <v>690</v>
+      </c>
+      <c r="D136" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D136" s="5" t="s">
+      <c r="E136" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E136" s="21" t="s">
+      <c r="F136" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="F136" s="5" t="s">
+      <c r="G136" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" s="15" t="s">
         <v>361</v>
       </c>
       <c r="B137" t="s">
         <v>362</v>
       </c>
-      <c r="C137" s="18" t="s">
+      <c r="C137" s="22" t="s">
+        <v>691</v>
+      </c>
+      <c r="D137" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D137" s="5" t="s">
+      <c r="E137" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E137" s="21" t="s">
+      <c r="F137" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="F137" s="5" t="s">
+      <c r="G137" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" s="15" t="s">
         <v>323</v>
       </c>
       <c r="B138" t="s">
         <v>324</v>
       </c>
-      <c r="C138" s="18" t="s">
+      <c r="C138" s="22" t="s">
+        <v>692</v>
+      </c>
+      <c r="D138" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D138" s="5" t="s">
+      <c r="E138" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E138" s="21" t="s">
+      <c r="F138" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="F138" s="5" t="s">
+      <c r="G138" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" s="15" t="s">
         <v>229</v>
       </c>
       <c r="B139" t="s">
         <v>501</v>
       </c>
-      <c r="C139" s="18" t="s">
+      <c r="C139" s="22" t="s">
+        <v>693</v>
+      </c>
+      <c r="D139" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D139" s="5" t="s">
+      <c r="E139" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E139" s="21" t="s">
+      <c r="F139" s="18" t="s">
         <v>552</v>
       </c>
-      <c r="F139" s="5" t="s">
+      <c r="G139" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" s="15" t="s">
         <v>300</v>
       </c>
       <c r="B140" t="s">
         <v>301</v>
       </c>
-      <c r="C140" s="18" t="s">
+      <c r="C140" s="22" t="s">
+        <v>694</v>
+      </c>
+      <c r="D140" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D140" s="5" t="s">
+      <c r="E140" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E140" s="21" t="s">
+      <c r="F140" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="F140" s="5" t="s">
+      <c r="G140" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B141" t="s">
         <v>83</v>
       </c>
-      <c r="C141" s="18" t="s">
+      <c r="C141" s="22" t="s">
+        <v>695</v>
+      </c>
+      <c r="D141" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D141" s="5" t="s">
+      <c r="E141" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E141" s="21" t="s">
+      <c r="F141" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="F141" s="5" t="s">
+      <c r="G141" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" s="15" t="s">
         <v>247</v>
       </c>
       <c r="B142" t="s">
         <v>248</v>
       </c>
-      <c r="C142" s="18" t="s">
+      <c r="C142" s="22" t="s">
+        <v>696</v>
+      </c>
+      <c r="D142" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D142" s="5" t="s">
+      <c r="E142" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E142" s="21" t="s">
+      <c r="F142" s="18" t="s">
         <v>551</v>
       </c>
-      <c r="F142" s="5" t="s">
+      <c r="G142" s="5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" s="15" t="s">
         <v>84</v>
       </c>
       <c r="B143" t="s">
         <v>85</v>
       </c>
-      <c r="C143" s="18" t="s">
+      <c r="C143" s="22" t="s">
+        <v>697</v>
+      </c>
+      <c r="D143" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D143" s="5" t="s">
+      <c r="E143" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E143" s="21" t="s">
+      <c r="F143" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="F143" s="5" t="s">
+      <c r="G143" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" s="15" t="s">
         <v>202</v>
       </c>
       <c r="B144" t="s">
         <v>203</v>
       </c>
-      <c r="C144" s="18" t="s">
+      <c r="C144" s="22" t="s">
+        <v>698</v>
+      </c>
+      <c r="D144" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D144" s="5" t="s">
+      <c r="E144" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E144" s="21" t="s">
+      <c r="F144" s="18" t="s">
         <v>542</v>
       </c>
-      <c r="F144" s="5" t="s">
+      <c r="G144" s="5" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" s="15" t="s">
         <v>56</v>
       </c>
       <c r="B145" t="s">
         <v>57</v>
       </c>
-      <c r="C145" s="18" t="s">
+      <c r="C145" s="22" t="s">
+        <v>699</v>
+      </c>
+      <c r="D145" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D145" s="5" t="s">
+      <c r="E145" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E145" s="21" t="s">
+      <c r="F145" s="18" t="s">
         <v>540</v>
       </c>
-      <c r="F145" s="5" t="s">
+      <c r="G145" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" s="15" t="s">
         <v>302</v>
       </c>
       <c r="B146" t="s">
         <v>303</v>
       </c>
-      <c r="C146" s="18" t="s">
+      <c r="C146" s="22" t="s">
+        <v>700</v>
+      </c>
+      <c r="D146" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D146" s="5" t="s">
+      <c r="E146" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E146" s="21" t="s">
+      <c r="F146" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="F146" s="5" t="s">
+      <c r="G146" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" s="15" t="s">
         <v>112</v>
       </c>
       <c r="B147" t="s">
         <v>502</v>
       </c>
-      <c r="C147" s="18" t="s">
+      <c r="C147" s="22" t="s">
+        <v>701</v>
+      </c>
+      <c r="D147" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D147" s="5" t="s">
+      <c r="E147" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E147" s="21" t="s">
+      <c r="F147" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="F147" s="5" t="s">
+      <c r="G147" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" s="15" t="s">
         <v>521</v>
       </c>
       <c r="B148" t="s">
         <v>522</v>
       </c>
-      <c r="C148" s="18" t="s">
+      <c r="C148" s="22" t="s">
+        <v>702</v>
+      </c>
+      <c r="D148" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D148" s="5" t="s">
+      <c r="E148" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E148" s="21" t="s">
+      <c r="F148" s="18" t="s">
         <v>545</v>
       </c>
-      <c r="F148" s="5" t="s">
+      <c r="G148" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" s="15" t="s">
         <v>86</v>
       </c>
       <c r="B149" t="s">
         <v>87</v>
       </c>
-      <c r="C149" s="18" t="s">
+      <c r="C149" s="22" t="s">
+        <v>703</v>
+      </c>
+      <c r="D149" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D149" s="5" t="s">
+      <c r="E149" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E149" s="21" t="s">
+      <c r="F149" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="F149" s="5" t="s">
+      <c r="G149" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B150" t="s">
         <v>59</v>
       </c>
-      <c r="C150" s="18" t="s">
+      <c r="C150" s="22" t="s">
+        <v>704</v>
+      </c>
+      <c r="D150" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D150" s="5" t="s">
+      <c r="E150" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E150" s="21" t="s">
+      <c r="F150" s="18" t="s">
         <v>540</v>
       </c>
-      <c r="F150" s="5" t="s">
+      <c r="G150" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" s="15" t="s">
         <v>88</v>
       </c>
       <c r="B151" t="s">
         <v>89</v>
       </c>
-      <c r="C151" s="18" t="s">
+      <c r="C151" s="22" t="s">
+        <v>705</v>
+      </c>
+      <c r="D151" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D151" s="5" t="s">
+      <c r="E151" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E151" s="21" t="s">
+      <c r="F151" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="F151" s="5" t="s">
+      <c r="G151" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B152" t="s">
         <v>141</v>
       </c>
-      <c r="C152" s="18" t="s">
+      <c r="C152" s="22" t="s">
+        <v>706</v>
+      </c>
+      <c r="D152" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D152" s="5" t="s">
+      <c r="E152" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E152" s="21" t="s">
+      <c r="F152" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="F152" s="5" t="s">
+      <c r="G152" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" s="15" t="s">
         <v>409</v>
       </c>
       <c r="B153" t="s">
         <v>403</v>
       </c>
-      <c r="C153" s="18" t="s">
+      <c r="C153" s="22" t="s">
+        <v>707</v>
+      </c>
+      <c r="D153" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="D153" s="5" t="s">
+      <c r="E153" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E153" s="21" t="s">
+      <c r="F153" s="18" t="s">
         <v>554</v>
       </c>
-      <c r="F153" s="5" t="s">
+      <c r="G153" s="5" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B154" t="s">
         <v>91</v>
       </c>
-      <c r="C154" s="18" t="s">
+      <c r="C154" s="22" t="s">
+        <v>708</v>
+      </c>
+      <c r="D154" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D154" s="5" t="s">
+      <c r="E154" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E154" s="21" t="s">
+      <c r="F154" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="F154" s="5" t="s">
+      <c r="G154" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" s="15" t="s">
         <v>335</v>
       </c>
       <c r="B155" t="s">
         <v>336</v>
       </c>
-      <c r="C155" s="18" t="s">
+      <c r="C155" s="22" t="s">
+        <v>709</v>
+      </c>
+      <c r="D155" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D155" s="5" t="s">
+      <c r="E155" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E155" s="21" t="s">
+      <c r="F155" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="F155" s="5" t="s">
+      <c r="G155" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" s="15" t="s">
         <v>523</v>
       </c>
       <c r="B156" t="s">
         <v>524</v>
       </c>
-      <c r="C156" s="18" t="s">
+      <c r="C156" s="22" t="s">
+        <v>710</v>
+      </c>
+      <c r="D156" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D156" s="5" t="s">
+      <c r="E156" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E156" s="21" t="s">
+      <c r="F156" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="F156" s="5" t="s">
+      <c r="G156" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" s="15" t="s">
         <v>230</v>
       </c>
       <c r="B157" t="s">
         <v>231</v>
       </c>
-      <c r="C157" s="18" t="s">
+      <c r="C157" s="22" t="s">
+        <v>711</v>
+      </c>
+      <c r="D157" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D157" s="5" t="s">
+      <c r="E157" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E157" s="21" t="s">
+      <c r="F157" s="18" t="s">
         <v>552</v>
       </c>
-      <c r="F157" s="5" t="s">
+      <c r="G157" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" s="15" t="s">
         <v>304</v>
       </c>
       <c r="B158" t="s">
         <v>305</v>
       </c>
-      <c r="C158" s="18" t="s">
+      <c r="C158" s="22" t="s">
+        <v>712</v>
+      </c>
+      <c r="D158" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D158" s="5" t="s">
+      <c r="E158" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E158" s="21" t="s">
+      <c r="F158" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="F158" s="5" t="s">
+      <c r="G158" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" s="15" t="s">
         <v>453</v>
       </c>
       <c r="B159" t="s">
         <v>454</v>
       </c>
-      <c r="C159" s="18" t="s">
+      <c r="C159" s="22" t="s">
+        <v>713</v>
+      </c>
+      <c r="D159" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D159" s="5" t="s">
+      <c r="E159" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E159" s="21" t="s">
+      <c r="F159" s="18" t="s">
         <v>545</v>
       </c>
-      <c r="F159" s="5" t="s">
+      <c r="G159" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" s="15" t="s">
         <v>249</v>
       </c>
       <c r="B160" t="s">
         <v>250</v>
       </c>
-      <c r="C160" s="18" t="s">
+      <c r="C160" s="22" t="s">
+        <v>714</v>
+      </c>
+      <c r="D160" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D160" s="5" t="s">
+      <c r="E160" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E160" s="21" t="s">
+      <c r="F160" s="18" t="s">
         <v>551</v>
       </c>
-      <c r="F160" s="5" t="s">
+      <c r="G160" s="5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B161" t="s">
         <v>33</v>
       </c>
-      <c r="C161" s="18" t="s">
+      <c r="C161" s="22" t="s">
+        <v>715</v>
+      </c>
+      <c r="D161" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D161" s="5" t="s">
+      <c r="E161" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E161" s="21" t="s">
+      <c r="F161" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="F161" s="5" t="s">
+      <c r="G161" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" s="15" t="s">
         <v>410</v>
       </c>
       <c r="B162" t="s">
         <v>411</v>
       </c>
-      <c r="C162" s="18" t="s">
+      <c r="C162" s="22" t="s">
+        <v>716</v>
+      </c>
+      <c r="D162" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="D162" s="5" t="s">
+      <c r="E162" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E162" s="21" t="s">
+      <c r="F162" s="18" t="s">
         <v>554</v>
       </c>
-      <c r="F162" s="5" t="s">
+      <c r="G162" s="5" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" s="15" t="s">
         <v>204</v>
       </c>
       <c r="B163" t="s">
         <v>205</v>
       </c>
-      <c r="C163" s="18" t="s">
+      <c r="C163" s="22" t="s">
+        <v>717</v>
+      </c>
+      <c r="D163" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D163" s="5" t="s">
+      <c r="E163" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E163" s="21" t="s">
+      <c r="F163" s="18" t="s">
         <v>542</v>
       </c>
-      <c r="F163" s="5" t="s">
+      <c r="G163" s="5" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" s="15" t="s">
         <v>130</v>
       </c>
       <c r="B164" t="s">
         <v>131</v>
       </c>
-      <c r="C164" s="18" t="s">
+      <c r="C164" s="22" t="s">
+        <v>718</v>
+      </c>
+      <c r="D164" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D164" s="5" t="s">
+      <c r="E164" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E164" s="21" t="s">
+      <c r="F164" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="F164" s="5" t="s">
+      <c r="G164" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" s="15" t="s">
         <v>60</v>
       </c>
       <c r="B165" t="s">
         <v>61</v>
       </c>
-      <c r="C165" s="18" t="s">
+      <c r="C165" s="22" t="s">
+        <v>719</v>
+      </c>
+      <c r="D165" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D165" s="5" t="s">
+      <c r="E165" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E165" s="21" t="s">
+      <c r="F165" s="18" t="s">
         <v>540</v>
       </c>
-      <c r="F165" s="5" t="s">
+      <c r="G165" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B166" t="s">
         <v>63</v>
       </c>
-      <c r="C166" s="18" t="s">
+      <c r="C166" s="22" t="s">
+        <v>720</v>
+      </c>
+      <c r="D166" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D166" s="5" t="s">
+      <c r="E166" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E166" s="21" t="s">
+      <c r="F166" s="18" t="s">
         <v>540</v>
       </c>
-      <c r="F166" s="5" t="s">
+      <c r="G166" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" s="15" t="s">
         <v>468</v>
       </c>
       <c r="B167" t="s">
         <v>469</v>
       </c>
-      <c r="C167" s="18" t="s">
+      <c r="C167" s="22" t="s">
+        <v>721</v>
+      </c>
+      <c r="D167" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="D167" s="5" t="s">
+      <c r="E167" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E167" s="21" t="s">
+      <c r="F167" s="18" t="s">
         <v>555</v>
       </c>
-      <c r="F167" s="5" t="s">
+      <c r="G167" s="5" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" s="15" t="s">
         <v>363</v>
       </c>
       <c r="B168" t="s">
         <v>364</v>
       </c>
-      <c r="C168" s="18" t="s">
+      <c r="C168" s="22" t="s">
+        <v>722</v>
+      </c>
+      <c r="D168" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D168" s="5" t="s">
+      <c r="E168" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E168" s="21" t="s">
+      <c r="F168" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="F168" s="5" t="s">
+      <c r="G168" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" s="15" t="s">
         <v>397</v>
       </c>
       <c r="B169" t="s">
         <v>398</v>
       </c>
-      <c r="C169" s="18" t="s">
+      <c r="C169" s="22" t="s">
+        <v>723</v>
+      </c>
+      <c r="D169" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="D169" s="5" t="s">
+      <c r="E169" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E169" s="21" t="s">
+      <c r="F169" s="18" t="s">
         <v>553</v>
       </c>
-      <c r="F169" s="5" t="s">
+      <c r="G169" s="5" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" s="15" t="s">
         <v>271</v>
       </c>
       <c r="B170" t="s">
         <v>272</v>
       </c>
-      <c r="C170" s="18" t="s">
+      <c r="C170" s="22" t="s">
+        <v>724</v>
+      </c>
+      <c r="D170" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="D170" s="5" t="s">
+      <c r="E170" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E170" s="21" t="s">
+      <c r="F170" s="18" t="s">
         <v>549</v>
       </c>
-      <c r="F170" s="5" t="s">
+      <c r="G170" s="5" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" s="15" t="s">
         <v>426</v>
       </c>
       <c r="B171" t="s">
         <v>427</v>
       </c>
-      <c r="C171" s="18" t="s">
+      <c r="C171" s="22" t="s">
+        <v>725</v>
+      </c>
+      <c r="D171" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D171" s="5" t="s">
+      <c r="E171" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E171" s="21" t="s">
+      <c r="F171" s="18" t="s">
         <v>547</v>
       </c>
-      <c r="F171" s="5" t="s">
+      <c r="G171" s="5" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" s="15" t="s">
         <v>325</v>
       </c>
       <c r="B172" t="s">
         <v>326</v>
       </c>
-      <c r="C172" s="18" t="s">
+      <c r="C172" s="22" t="s">
+        <v>726</v>
+      </c>
+      <c r="D172" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D172" s="5" t="s">
+      <c r="E172" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E172" s="21" t="s">
+      <c r="F172" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="F172" s="5" t="s">
+      <c r="G172" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" s="15" t="s">
         <v>206</v>
       </c>
       <c r="B173" t="s">
         <v>207</v>
       </c>
-      <c r="C173" s="18" t="s">
+      <c r="C173" s="22" t="s">
+        <v>727</v>
+      </c>
+      <c r="D173" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D173" s="5" t="s">
+      <c r="E173" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E173" s="21" t="s">
+      <c r="F173" s="18" t="s">
         <v>542</v>
       </c>
-      <c r="F173" s="5" t="s">
+      <c r="G173" s="5" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" s="15" t="s">
         <v>412</v>
       </c>
       <c r="B174" t="s">
         <v>413</v>
       </c>
-      <c r="C174" s="18" t="s">
+      <c r="C174" s="22" t="s">
+        <v>728</v>
+      </c>
+      <c r="D174" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="D174" s="5" t="s">
+      <c r="E174" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E174" s="21" t="s">
+      <c r="F174" s="18" t="s">
         <v>554</v>
       </c>
-      <c r="F174" s="5" t="s">
+      <c r="G174" s="5" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" s="15" t="s">
         <v>428</v>
       </c>
       <c r="B175" t="s">
         <v>525</v>
       </c>
-      <c r="C175" s="18" t="s">
+      <c r="C175" s="22" t="s">
+        <v>729</v>
+      </c>
+      <c r="D175" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D175" s="5" t="s">
+      <c r="E175" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E175" s="21" t="s">
+      <c r="F175" s="18" t="s">
         <v>547</v>
       </c>
-      <c r="F175" s="5" t="s">
+      <c r="G175" s="5" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" s="15" t="s">
         <v>132</v>
       </c>
       <c r="B176" t="s">
         <v>133</v>
       </c>
-      <c r="C176" s="18" t="s">
+      <c r="C176" s="22" t="s">
+        <v>730</v>
+      </c>
+      <c r="D176" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D176" s="5" t="s">
+      <c r="E176" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E176" s="21" t="s">
+      <c r="F176" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="F176" s="5" t="s">
+      <c r="G176" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" s="15" t="s">
         <v>261</v>
       </c>
       <c r="B177" t="s">
         <v>262</v>
       </c>
-      <c r="C177" s="18" t="s">
+      <c r="C177" s="22" t="s">
+        <v>731</v>
+      </c>
+      <c r="D177" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="D177" s="5" t="s">
+      <c r="E177" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E177" s="21" t="s">
+      <c r="F177" s="18" t="s">
         <v>553</v>
       </c>
-      <c r="F177" s="5" t="s">
+      <c r="G177" s="5" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" s="15" t="s">
         <v>149</v>
       </c>
       <c r="B178" t="s">
         <v>150</v>
       </c>
-      <c r="C178" s="18" t="s">
+      <c r="C178" s="22" t="s">
+        <v>732</v>
+      </c>
+      <c r="D178" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D178" s="5" t="s">
+      <c r="E178" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E178" s="21" t="s">
+      <c r="F178" s="18" t="s">
         <v>548</v>
       </c>
-      <c r="F178" s="5" t="s">
+      <c r="G178" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" s="15" t="s">
         <v>166</v>
       </c>
       <c r="B179" t="s">
         <v>167</v>
       </c>
-      <c r="C179" s="18" t="s">
+      <c r="C179" s="22" t="s">
+        <v>733</v>
+      </c>
+      <c r="D179" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D179" s="5" t="s">
+      <c r="E179" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E179" s="21" t="s">
+      <c r="F179" s="18" t="s">
         <v>548</v>
       </c>
-      <c r="F179" s="5" t="s">
+      <c r="G179" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" s="15" t="s">
         <v>470</v>
       </c>
       <c r="B180" t="s">
         <v>471</v>
       </c>
-      <c r="C180" s="18" t="s">
+      <c r="C180" s="22" t="s">
+        <v>734</v>
+      </c>
+      <c r="D180" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="D180" s="5" t="s">
+      <c r="E180" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E180" s="21" t="s">
+      <c r="F180" s="18" t="s">
         <v>555</v>
       </c>
-      <c r="F180" s="5" t="s">
+      <c r="G180" s="5" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" s="15" t="s">
         <v>472</v>
       </c>
       <c r="B181" t="s">
         <v>473</v>
       </c>
-      <c r="C181" s="18" t="s">
+      <c r="C181" s="22" t="s">
+        <v>735</v>
+      </c>
+      <c r="D181" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="D181" s="5" t="s">
+      <c r="E181" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E181" s="21" t="s">
+      <c r="F181" s="18" t="s">
         <v>555</v>
       </c>
-      <c r="F181" s="5" t="s">
+      <c r="G181" s="5" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" s="15" t="s">
         <v>337</v>
       </c>
       <c r="B182" t="s">
         <v>338</v>
       </c>
-      <c r="C182" s="18" t="s">
+      <c r="C182" s="22" t="s">
+        <v>736</v>
+      </c>
+      <c r="D182" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D182" s="5" t="s">
+      <c r="E182" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E182" s="21" t="s">
+      <c r="F182" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="F182" s="5" t="s">
+      <c r="G182" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" s="15" t="s">
         <v>306</v>
       </c>
       <c r="B183" t="s">
         <v>307</v>
       </c>
-      <c r="C183" s="18" t="s">
+      <c r="C183" s="22" t="s">
+        <v>737</v>
+      </c>
+      <c r="D183" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D183" s="5" t="s">
+      <c r="E183" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E183" s="21" t="s">
+      <c r="F183" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="F183" s="5" t="s">
+      <c r="G183" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" s="15" t="s">
         <v>526</v>
       </c>
       <c r="B184" t="s">
         <v>527</v>
       </c>
-      <c r="C184" s="18" t="s">
+      <c r="C184" s="22" t="s">
+        <v>738</v>
+      </c>
+      <c r="D184" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D184" s="5" t="s">
+      <c r="E184" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E184" s="21" t="s">
+      <c r="F184" s="18" t="s">
         <v>545</v>
       </c>
-      <c r="F184" s="5" t="s">
+      <c r="G184" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" s="15" t="s">
         <v>437</v>
       </c>
       <c r="B185" t="s">
         <v>438</v>
       </c>
-      <c r="C185" s="18" t="s">
+      <c r="C185" s="22" t="s">
+        <v>739</v>
+      </c>
+      <c r="D185" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D185" s="5" t="s">
+      <c r="E185" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E185" s="21" t="s">
+      <c r="F185" s="18" t="s">
         <v>547</v>
       </c>
-      <c r="F185" s="5" t="s">
+      <c r="G185" s="5" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" s="15" t="s">
         <v>365</v>
       </c>
       <c r="B186" t="s">
         <v>366</v>
       </c>
-      <c r="C186" s="18" t="s">
+      <c r="C186" s="22" t="s">
+        <v>740</v>
+      </c>
+      <c r="D186" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D186" s="5" t="s">
+      <c r="E186" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E186" s="21" t="s">
+      <c r="F186" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="F186" s="5" t="s">
+      <c r="G186" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B187" t="s">
         <v>18</v>
       </c>
-      <c r="C187" s="18" t="s">
+      <c r="C187" s="22" t="s">
+        <v>741</v>
+      </c>
+      <c r="D187" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D187" s="5" t="s">
+      <c r="E187" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E187" s="21" t="s">
+      <c r="F187" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="F187" s="5" t="s">
+      <c r="G187" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B188" t="s">
         <v>20</v>
       </c>
-      <c r="C188" s="18" t="s">
+      <c r="C188" s="22" t="s">
+        <v>742</v>
+      </c>
+      <c r="D188" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D188" s="5" t="s">
+      <c r="E188" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E188" s="21" t="s">
+      <c r="F188" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="F188" s="5" t="s">
+      <c r="G188" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" s="15" t="s">
         <v>379</v>
       </c>
       <c r="B189" t="s">
         <v>380</v>
       </c>
-      <c r="C189" s="18" t="s">
+      <c r="C189" s="22" t="s">
+        <v>743</v>
+      </c>
+      <c r="D189" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D189" s="5" t="s">
+      <c r="E189" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E189" s="21" t="s">
+      <c r="F189" s="18" t="s">
         <v>545</v>
       </c>
-      <c r="F189" s="5" t="s">
+      <c r="G189" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" s="15" t="s">
         <v>528</v>
       </c>
       <c r="B190" t="s">
         <v>529</v>
       </c>
-      <c r="C190" s="18" t="s">
+      <c r="C190" s="22" t="s">
+        <v>744</v>
+      </c>
+      <c r="D190" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D190" s="5" t="s">
+      <c r="E190" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E190" s="21" t="s">
+      <c r="F190" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="F190" s="5" t="s">
+      <c r="G190" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" s="15" t="s">
         <v>339</v>
       </c>
       <c r="B191" t="s">
         <v>340</v>
       </c>
-      <c r="C191" s="18" t="s">
+      <c r="C191" s="22" t="s">
+        <v>745</v>
+      </c>
+      <c r="D191" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D191" s="5" t="s">
+      <c r="E191" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E191" s="21" t="s">
+      <c r="F191" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="F191" s="5" t="s">
+      <c r="G191" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" s="15" t="s">
         <v>383</v>
       </c>
       <c r="B192" t="s">
         <v>384</v>
       </c>
-      <c r="C192" s="18" t="s">
+      <c r="C192" s="22" t="s">
+        <v>746</v>
+      </c>
+      <c r="D192" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D192" s="5" t="s">
+      <c r="E192" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E192" s="21" t="s">
+      <c r="F192" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="F192" s="5" t="s">
+      <c r="G192" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" s="15" t="s">
         <v>345</v>
       </c>
       <c r="B193" t="s">
         <v>346</v>
       </c>
-      <c r="C193" s="18" t="s">
+      <c r="C193" s="22" t="s">
+        <v>747</v>
+      </c>
+      <c r="D193" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D193" s="5" t="s">
+      <c r="E193" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E193" s="21" t="s">
+      <c r="F193" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="F193" s="5" t="s">
+      <c r="G193" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" s="15" t="s">
         <v>113</v>
       </c>
       <c r="B194" t="s">
         <v>114</v>
       </c>
-      <c r="C194" s="18" t="s">
+      <c r="C194" s="22" t="s">
+        <v>748</v>
+      </c>
+      <c r="D194" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D194" s="5" t="s">
+      <c r="E194" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E194" s="21" t="s">
+      <c r="F194" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="F194" s="5" t="s">
+      <c r="G194" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" s="15" t="s">
         <v>64</v>
       </c>
       <c r="B195" t="s">
         <v>65</v>
       </c>
-      <c r="C195" s="18" t="s">
+      <c r="C195" s="22" t="s">
+        <v>749</v>
+      </c>
+      <c r="D195" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D195" s="5" t="s">
+      <c r="E195" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E195" s="21" t="s">
+      <c r="F195" s="18" t="s">
         <v>540</v>
       </c>
-      <c r="F195" s="5" t="s">
+      <c r="G195" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" s="15" t="s">
         <v>455</v>
       </c>
       <c r="B196" t="s">
         <v>456</v>
       </c>
-      <c r="C196" s="18" t="s">
+      <c r="C196" s="22" t="s">
+        <v>750</v>
+      </c>
+      <c r="D196" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D196" s="5" t="s">
+      <c r="E196" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E196" s="21" t="s">
+      <c r="F196" s="18" t="s">
         <v>545</v>
       </c>
-      <c r="F196" s="5" t="s">
+      <c r="G196" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" s="15" t="s">
         <v>457</v>
       </c>
       <c r="B197" t="s">
         <v>458</v>
       </c>
-      <c r="C197" s="18" t="s">
+      <c r="C197" s="22" t="s">
+        <v>751</v>
+      </c>
+      <c r="D197" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D197" s="5" t="s">
+      <c r="E197" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E197" s="21" t="s">
+      <c r="F197" s="18" t="s">
         <v>545</v>
       </c>
-      <c r="F197" s="5" t="s">
+      <c r="G197" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" s="15" t="s">
         <v>459</v>
       </c>
       <c r="B198" t="s">
         <v>460</v>
       </c>
-      <c r="C198" s="18" t="s">
+      <c r="C198" s="22" t="s">
+        <v>752</v>
+      </c>
+      <c r="D198" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D198" s="5" t="s">
+      <c r="E198" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E198" s="21" t="s">
+      <c r="F198" s="18" t="s">
         <v>545</v>
       </c>
-      <c r="F198" s="5" t="s">
+      <c r="G198" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" s="15" t="s">
         <v>461</v>
       </c>
       <c r="B199" t="s">
         <v>462</v>
       </c>
-      <c r="C199" s="18" t="s">
+      <c r="C199" s="22" t="s">
+        <v>753</v>
+      </c>
+      <c r="D199" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D199" s="5" t="s">
+      <c r="E199" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E199" s="21" t="s">
+      <c r="F199" s="18" t="s">
         <v>545</v>
       </c>
-      <c r="F199" s="5" t="s">
+      <c r="G199" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" s="15" t="s">
         <v>530</v>
       </c>
       <c r="B200" t="s">
         <v>531</v>
       </c>
-      <c r="C200" s="18" t="s">
+      <c r="C200" s="22" t="s">
+        <v>754</v>
+      </c>
+      <c r="D200" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D200" s="5" t="s">
+      <c r="E200" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E200" s="21" t="s">
+      <c r="F200" s="18" t="s">
         <v>545</v>
       </c>
-      <c r="F200" s="5" t="s">
+      <c r="G200" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" s="15" t="s">
         <v>142</v>
       </c>
       <c r="B201" t="s">
         <v>143</v>
       </c>
-      <c r="C201" s="18" t="s">
+      <c r="C201" s="22" t="s">
+        <v>755</v>
+      </c>
+      <c r="D201" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D201" s="5" t="s">
+      <c r="E201" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E201" s="21" t="s">
+      <c r="F201" s="18" t="s">
         <v>550</v>
       </c>
-      <c r="F201" s="5" t="s">
+      <c r="G201" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" s="15" t="s">
         <v>474</v>
       </c>
       <c r="B202" t="s">
         <v>475</v>
       </c>
-      <c r="C202" s="18" t="s">
+      <c r="C202" s="22" t="s">
+        <v>756</v>
+      </c>
+      <c r="D202" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="D202" s="5" t="s">
+      <c r="E202" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E202" s="21" t="s">
+      <c r="F202" s="18" t="s">
         <v>555</v>
       </c>
-      <c r="F202" s="5" t="s">
+      <c r="G202" s="5" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" s="15" t="s">
         <v>476</v>
       </c>
       <c r="B203" t="s">
         <v>477</v>
       </c>
-      <c r="C203" s="18" t="s">
+      <c r="C203" s="22" t="s">
+        <v>757</v>
+      </c>
+      <c r="D203" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="D203" s="5" t="s">
+      <c r="E203" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E203" s="21" t="s">
+      <c r="F203" s="18" t="s">
         <v>555</v>
       </c>
-      <c r="F203" s="5" t="s">
+      <c r="G203" s="5" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" s="15" t="s">
         <v>308</v>
       </c>
       <c r="B204" t="s">
         <v>309</v>
       </c>
-      <c r="C204" s="18" t="s">
+      <c r="C204" s="22" t="s">
+        <v>758</v>
+      </c>
+      <c r="D204" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D204" s="5" t="s">
+      <c r="E204" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E204" s="21" t="s">
+      <c r="F204" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="F204" s="5" t="s">
+      <c r="G204" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" s="15" t="s">
         <v>310</v>
       </c>
       <c r="B205" t="s">
         <v>311</v>
       </c>
-      <c r="C205" s="18" t="s">
+      <c r="C205" s="22" t="s">
+        <v>759</v>
+      </c>
+      <c r="D205" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D205" s="5" t="s">
+      <c r="E205" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E205" s="21" t="s">
+      <c r="F205" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="F205" s="5" t="s">
+      <c r="G205" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B206" t="s">
         <v>22</v>
       </c>
-      <c r="C206" s="18" t="s">
+      <c r="C206" s="22" t="s">
+        <v>760</v>
+      </c>
+      <c r="D206" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D206" s="5" t="s">
+      <c r="E206" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E206" s="21" t="s">
+      <c r="F206" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="F206" s="5" t="s">
+      <c r="G206" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B207" t="s">
         <v>67</v>
       </c>
-      <c r="C207" s="18" t="s">
+      <c r="C207" s="22" t="s">
+        <v>761</v>
+      </c>
+      <c r="D207" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D207" s="5" t="s">
+      <c r="E207" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E207" s="21" t="s">
+      <c r="F207" s="18" t="s">
         <v>540</v>
       </c>
-      <c r="F207" s="5" t="s">
+      <c r="G207" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" s="15" t="s">
         <v>532</v>
       </c>
       <c r="B208" t="s">
         <v>312</v>
       </c>
-      <c r="C208" s="18" t="s">
+      <c r="C208" s="22" t="s">
+        <v>762</v>
+      </c>
+      <c r="D208" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D208" s="5" t="s">
+      <c r="E208" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E208" s="21" t="s">
+      <c r="F208" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="F208" s="5" t="s">
+      <c r="G208" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" s="15" t="s">
         <v>92</v>
       </c>
       <c r="B209" t="s">
         <v>93</v>
       </c>
-      <c r="C209" s="18" t="s">
+      <c r="C209" s="22" t="s">
+        <v>763</v>
+      </c>
+      <c r="D209" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D209" s="5" t="s">
+      <c r="E209" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E209" s="21" t="s">
+      <c r="F209" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="F209" s="5" t="s">
+      <c r="G209" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" s="15" t="s">
         <v>68</v>
       </c>
       <c r="B210" t="s">
         <v>69</v>
       </c>
-      <c r="C210" s="18" t="s">
+      <c r="C210" s="22" t="s">
+        <v>764</v>
+      </c>
+      <c r="D210" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D210" s="5" t="s">
+      <c r="E210" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E210" s="21" t="s">
+      <c r="F210" s="18" t="s">
         <v>540</v>
       </c>
-      <c r="F210" s="5" t="s">
+      <c r="G210" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" s="15" t="s">
         <v>251</v>
       </c>
       <c r="B211" t="s">
         <v>252</v>
       </c>
-      <c r="C211" s="18" t="s">
+      <c r="C211" s="22" t="s">
+        <v>765</v>
+      </c>
+      <c r="D211" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D211" s="5" t="s">
+      <c r="E211" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E211" s="21" t="s">
+      <c r="F211" s="18" t="s">
         <v>551</v>
       </c>
-      <c r="F211" s="5" t="s">
+      <c r="G211" s="5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" s="15" t="s">
         <v>463</v>
       </c>
       <c r="B212" t="s">
         <v>464</v>
       </c>
-      <c r="C212" s="18" t="s">
+      <c r="C212" s="22" t="s">
+        <v>766</v>
+      </c>
+      <c r="D212" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D212" s="5" t="s">
+      <c r="E212" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E212" s="21" t="s">
+      <c r="F212" s="18" t="s">
         <v>545</v>
       </c>
-      <c r="F212" s="5" t="s">
+      <c r="G212" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" s="15" t="s">
         <v>429</v>
       </c>
       <c r="B213" t="s">
         <v>430</v>
       </c>
-      <c r="C213" s="18" t="s">
+      <c r="C213" s="22" t="s">
+        <v>767</v>
+      </c>
+      <c r="D213" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D213" s="5" t="s">
+      <c r="E213" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E213" s="21" t="s">
+      <c r="F213" s="18" t="s">
         <v>547</v>
       </c>
-      <c r="F213" s="5" t="s">
+      <c r="G213" s="5" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" s="15" t="s">
         <v>94</v>
       </c>
       <c r="B214" t="s">
         <v>95</v>
       </c>
-      <c r="C214" s="18" t="s">
+      <c r="C214" s="22" t="s">
+        <v>768</v>
+      </c>
+      <c r="D214" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D214" s="5" t="s">
+      <c r="E214" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E214" s="21" t="s">
+      <c r="F214" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="F214" s="5" t="s">
+      <c r="G214" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" s="15" t="s">
         <v>208</v>
       </c>
       <c r="B215" t="s">
         <v>209</v>
       </c>
-      <c r="C215" s="18" t="s">
+      <c r="C215" s="22" t="s">
+        <v>769</v>
+      </c>
+      <c r="D215" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D215" s="5" t="s">
+      <c r="E215" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E215" s="21" t="s">
+      <c r="F215" s="18" t="s">
         <v>542</v>
       </c>
-      <c r="F215" s="5" t="s">
+      <c r="G215" s="5" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" s="15" t="s">
         <v>34</v>
       </c>
       <c r="B216" t="s">
         <v>35</v>
       </c>
-      <c r="C216" s="18" t="s">
+      <c r="C216" s="22" t="s">
+        <v>770</v>
+      </c>
+      <c r="D216" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D216" s="5" t="s">
+      <c r="E216" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E216" s="21" t="s">
+      <c r="F216" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="F216" s="5" t="s">
+      <c r="G216" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" s="15" t="s">
         <v>106</v>
       </c>
       <c r="B217" t="s">
         <v>503</v>
       </c>
-      <c r="C217" s="18" t="s">
+      <c r="C217" s="22" t="s">
+        <v>771</v>
+      </c>
+      <c r="D217" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D217" s="5" t="s">
+      <c r="E217" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E217" s="21" t="s">
+      <c r="F217" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="F217" s="5" t="s">
+      <c r="G217" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" s="15" t="s">
         <v>115</v>
       </c>
       <c r="B218" t="s">
         <v>504</v>
       </c>
-      <c r="C218" s="18" t="s">
+      <c r="C218" s="22" t="s">
+        <v>772</v>
+      </c>
+      <c r="D218" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D218" s="5" t="s">
+      <c r="E218" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E218" s="21" t="s">
+      <c r="F218" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="F218" s="5" t="s">
+      <c r="G218" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" s="15" t="s">
         <v>367</v>
       </c>
       <c r="B219" t="s">
         <v>368</v>
       </c>
-      <c r="C219" s="18" t="s">
+      <c r="C219" s="22" t="s">
+        <v>773</v>
+      </c>
+      <c r="D219" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D219" s="5" t="s">
+      <c r="E219" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E219" s="21" t="s">
+      <c r="F219" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="F219" s="5" t="s">
+      <c r="G219" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" s="15" t="s">
         <v>327</v>
       </c>
       <c r="B220" t="s">
         <v>328</v>
       </c>
-      <c r="C220" s="18" t="s">
+      <c r="C220" s="22" t="s">
+        <v>774</v>
+      </c>
+      <c r="D220" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D220" s="5" t="s">
+      <c r="E220" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E220" s="21" t="s">
+      <c r="F220" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="F220" s="5" t="s">
+      <c r="G220" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" s="15" t="s">
         <v>164</v>
       </c>
       <c r="B221" t="s">
         <v>165</v>
       </c>
-      <c r="C221" s="18" t="s">
+      <c r="C221" s="22" t="s">
+        <v>775</v>
+      </c>
+      <c r="D221" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D221" s="5" t="s">
+      <c r="E221" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E221" s="21" t="s">
+      <c r="F221" s="18" t="s">
         <v>548</v>
       </c>
-      <c r="F221" s="5" t="s">
+      <c r="G221" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222" s="15" t="s">
         <v>533</v>
       </c>
       <c r="B222" t="s">
         <v>534</v>
       </c>
-      <c r="C222" s="18" t="s">
+      <c r="C222" s="22" t="s">
+        <v>776</v>
+      </c>
+      <c r="D222" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D222" s="5" t="s">
+      <c r="E222" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E222" s="21" t="s">
+      <c r="F222" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="F222" s="5" t="s">
+      <c r="G222" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223" s="15" t="s">
         <v>191</v>
       </c>
       <c r="B223" t="s">
         <v>192</v>
       </c>
-      <c r="C223" s="18" t="s">
+      <c r="C223" s="22" t="s">
+        <v>777</v>
+      </c>
+      <c r="D223" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D223" s="5" t="s">
+      <c r="E223" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E223" s="21" t="s">
+      <c r="F223" s="18" t="s">
         <v>556</v>
       </c>
-      <c r="F223" s="5" t="s">
+      <c r="G223" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224" s="15" t="s">
         <v>253</v>
       </c>
       <c r="B224" t="s">
         <v>254</v>
       </c>
-      <c r="C224" s="18" t="s">
+      <c r="C224" s="22" t="s">
+        <v>778</v>
+      </c>
+      <c r="D224" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D224" s="5" t="s">
+      <c r="E224" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E224" s="21" t="s">
+      <c r="F224" s="18" t="s">
         <v>551</v>
       </c>
-      <c r="F224" s="5" t="s">
+      <c r="G224" s="5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" s="15" t="s">
         <v>232</v>
       </c>
       <c r="B225" t="s">
         <v>233</v>
       </c>
-      <c r="C225" s="18" t="s">
+      <c r="C225" s="22" t="s">
+        <v>779</v>
+      </c>
+      <c r="D225" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D225" s="5" t="s">
+      <c r="E225" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E225" s="21" t="s">
+      <c r="F225" s="18" t="s">
         <v>552</v>
       </c>
-      <c r="F225" s="5" t="s">
+      <c r="G225" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" s="15" t="s">
         <v>96</v>
       </c>
       <c r="B226" t="s">
         <v>97</v>
       </c>
-      <c r="C226" s="18" t="s">
+      <c r="C226" s="22" t="s">
+        <v>780</v>
+      </c>
+      <c r="D226" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D226" s="5" t="s">
+      <c r="E226" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E226" s="21" t="s">
+      <c r="F226" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="F226" s="5" t="s">
+      <c r="G226" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227" s="15" t="s">
         <v>175</v>
       </c>
       <c r="B227" t="s">
         <v>535</v>
       </c>
-      <c r="C227" s="18" t="s">
+      <c r="C227" s="22" t="s">
+        <v>781</v>
+      </c>
+      <c r="D227" s="18" t="s">
         <v>540</v>
       </c>
-      <c r="D227" s="5" t="s">
+      <c r="E227" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E227" s="21" t="s">
+      <c r="F227" s="18" t="s">
         <v>546</v>
       </c>
-      <c r="F227" s="5" t="s">
+      <c r="G227" s="5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228" s="15" t="s">
         <v>98</v>
       </c>
       <c r="B228" t="s">
         <v>99</v>
       </c>
-      <c r="C228" s="18" t="s">
+      <c r="C228" s="22" t="s">
+        <v>782</v>
+      </c>
+      <c r="D228" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D228" s="5" t="s">
+      <c r="E228" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E228" s="21" t="s">
+      <c r="F228" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="F228" s="5" t="s">
+      <c r="G228" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" s="15" t="s">
         <v>259</v>
       </c>
       <c r="B229" t="s">
         <v>260</v>
       </c>
-      <c r="C229" s="18" t="s">
+      <c r="C229" s="22" t="s">
+        <v>783</v>
+      </c>
+      <c r="D229" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D229" s="5" t="s">
+      <c r="E229" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E229" s="21" t="s">
+      <c r="F229" s="18" t="s">
         <v>551</v>
       </c>
-      <c r="F229" s="5" t="s">
+      <c r="G229" s="5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B230" t="s">
         <v>71</v>
       </c>
-      <c r="C230" s="18" t="s">
+      <c r="C230" s="22" t="s">
+        <v>784</v>
+      </c>
+      <c r="D230" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D230" s="5" t="s">
+      <c r="E230" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E230" s="21" t="s">
+      <c r="F230" s="18" t="s">
         <v>540</v>
       </c>
-      <c r="F230" s="5" t="s">
+      <c r="G230" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" s="15" t="s">
         <v>478</v>
       </c>
       <c r="B231" t="s">
         <v>479</v>
       </c>
-      <c r="C231" s="18" t="s">
+      <c r="C231" s="22" t="s">
+        <v>785</v>
+      </c>
+      <c r="D231" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="D231" s="5" t="s">
+      <c r="E231" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E231" s="21" t="s">
+      <c r="F231" s="18" t="s">
         <v>555</v>
       </c>
-      <c r="F231" s="5" t="s">
+      <c r="G231" s="5" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232" s="15" t="s">
         <v>480</v>
       </c>
       <c r="B232" t="s">
         <v>481</v>
       </c>
-      <c r="C232" s="18" t="s">
+      <c r="C232" s="22" t="s">
+        <v>786</v>
+      </c>
+      <c r="D232" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="D232" s="5" t="s">
+      <c r="E232" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E232" s="21" t="s">
+      <c r="F232" s="18" t="s">
         <v>555</v>
       </c>
-      <c r="F232" s="5" t="s">
+      <c r="G232" s="5" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233" s="15" t="s">
         <v>172</v>
       </c>
       <c r="B233" t="s">
         <v>173</v>
       </c>
-      <c r="C233" s="18" t="s">
+      <c r="C233" s="22" t="s">
+        <v>787</v>
+      </c>
+      <c r="D233" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D233" s="5" t="s">
+      <c r="E233" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E233" s="21" t="s">
+      <c r="F233" s="18" t="s">
         <v>545</v>
       </c>
-      <c r="F233" s="5" t="s">
+      <c r="G233" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234" s="15" t="s">
         <v>116</v>
       </c>
       <c r="B234" t="s">
         <v>117</v>
       </c>
-      <c r="C234" s="18" t="s">
+      <c r="C234" s="22" t="s">
+        <v>788</v>
+      </c>
+      <c r="D234" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D234" s="5" t="s">
+      <c r="E234" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E234" s="21" t="s">
+      <c r="F234" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="F234" s="5" t="s">
+      <c r="G234" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235" s="15" t="s">
         <v>193</v>
       </c>
       <c r="B235" t="s">
         <v>194</v>
       </c>
-      <c r="C235" s="18" t="s">
+      <c r="C235" s="22" t="s">
+        <v>789</v>
+      </c>
+      <c r="D235" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D235" s="5" t="s">
+      <c r="E235" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E235" s="21" t="s">
+      <c r="F235" s="18" t="s">
         <v>556</v>
       </c>
-      <c r="F235" s="5" t="s">
+      <c r="G235" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236" s="15" t="s">
         <v>369</v>
       </c>
       <c r="B236" t="s">
         <v>370</v>
       </c>
-      <c r="C236" s="18" t="s">
+      <c r="C236" s="22" t="s">
+        <v>790</v>
+      </c>
+      <c r="D236" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D236" s="5" t="s">
+      <c r="E236" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E236" s="21" t="s">
+      <c r="F236" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="F236" s="5" t="s">
+      <c r="G236" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237" s="15" t="s">
         <v>482</v>
       </c>
       <c r="B237" t="s">
         <v>483</v>
       </c>
-      <c r="C237" s="18" t="s">
+      <c r="C237" s="22" t="s">
+        <v>791</v>
+      </c>
+      <c r="D237" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="D237" s="5" t="s">
+      <c r="E237" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E237" s="21" t="s">
+      <c r="F237" s="18" t="s">
         <v>555</v>
       </c>
-      <c r="F237" s="5" t="s">
+      <c r="G237" s="5" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B238" t="s">
         <v>24</v>
       </c>
-      <c r="C238" s="18" t="s">
+      <c r="C238" s="22" t="s">
+        <v>792</v>
+      </c>
+      <c r="D238" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D238" s="5" t="s">
+      <c r="E238" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E238" s="21" t="s">
+      <c r="F238" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="F238" s="5" t="s">
+      <c r="G238" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239" s="15" t="s">
         <v>341</v>
       </c>
       <c r="B239" t="s">
         <v>342</v>
       </c>
-      <c r="C239" s="18" t="s">
+      <c r="C239" s="22" t="s">
+        <v>793</v>
+      </c>
+      <c r="D239" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D239" s="5" t="s">
+      <c r="E239" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E239" s="21" t="s">
+      <c r="F239" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="F239" s="5" t="s">
+      <c r="G239" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240" s="15" t="s">
         <v>343</v>
       </c>
       <c r="B240" t="s">
         <v>344</v>
       </c>
-      <c r="C240" s="18" t="s">
+      <c r="C240" s="22" t="s">
+        <v>794</v>
+      </c>
+      <c r="D240" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D240" s="5" t="s">
+      <c r="E240" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E240" s="21" t="s">
+      <c r="F240" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="F240" s="5" t="s">
+      <c r="G240" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241" s="15" t="s">
         <v>100</v>
       </c>
       <c r="B241" t="s">
         <v>101</v>
       </c>
-      <c r="C241" s="18" t="s">
+      <c r="C241" s="22" t="s">
+        <v>795</v>
+      </c>
+      <c r="D241" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D241" s="5" t="s">
+      <c r="E241" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E241" s="21" t="s">
+      <c r="F241" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="F241" s="5" t="s">
+      <c r="G241" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" s="15" t="s">
         <v>153</v>
       </c>
       <c r="B242" t="s">
         <v>154</v>
       </c>
-      <c r="C242" s="18" t="s">
+      <c r="C242" s="22" t="s">
+        <v>796</v>
+      </c>
+      <c r="D242" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D242" s="5" t="s">
+      <c r="E242" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E242" s="21" t="s">
+      <c r="F242" s="18" t="s">
         <v>548</v>
       </c>
-      <c r="F242" s="5" t="s">
+      <c r="G242" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" s="15" t="s">
         <v>195</v>
       </c>
       <c r="B243" t="s">
         <v>196</v>
       </c>
-      <c r="C243" s="18" t="s">
+      <c r="C243" s="22" t="s">
+        <v>797</v>
+      </c>
+      <c r="D243" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D243" s="5" t="s">
+      <c r="E243" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E243" s="21" t="s">
+      <c r="F243" s="18" t="s">
         <v>556</v>
       </c>
-      <c r="F243" s="5" t="s">
+      <c r="G243" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" s="15" t="s">
         <v>399</v>
       </c>
       <c r="B244" t="s">
         <v>400</v>
       </c>
-      <c r="C244" s="18" t="s">
+      <c r="C244" s="22" t="s">
+        <v>798</v>
+      </c>
+      <c r="D244" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="D244" s="5" t="s">
+      <c r="E244" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E244" s="21" t="s">
+      <c r="F244" s="18" t="s">
         <v>553</v>
       </c>
-      <c r="F244" s="5" t="s">
+      <c r="G244" s="5" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" s="15" t="s">
         <v>170</v>
       </c>
       <c r="B245" t="s">
         <v>171</v>
       </c>
-      <c r="C245" s="18" t="s">
+      <c r="C245" s="22" t="s">
+        <v>799</v>
+      </c>
+      <c r="D245" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D245" s="5" t="s">
+      <c r="E245" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E245" s="21" t="s">
+      <c r="F245" s="18" t="s">
         <v>548</v>
       </c>
-      <c r="F245" s="5" t="s">
+      <c r="G245" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" s="15" t="s">
         <v>255</v>
       </c>
       <c r="B246" t="s">
         <v>256</v>
       </c>
-      <c r="C246" s="18" t="s">
+      <c r="C246" s="22" t="s">
+        <v>800</v>
+      </c>
+      <c r="D246" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D246" s="5" t="s">
+      <c r="E246" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E246" s="21" t="s">
+      <c r="F246" s="18" t="s">
         <v>551</v>
       </c>
-      <c r="F246" s="5" t="s">
+      <c r="G246" s="5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" s="15" t="s">
         <v>484</v>
       </c>
       <c r="B247" t="s">
         <v>485</v>
       </c>
-      <c r="C247" s="18" t="s">
+      <c r="C247" s="22" t="s">
+        <v>801</v>
+      </c>
+      <c r="D247" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="D247" s="5" t="s">
+      <c r="E247" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E247" s="21" t="s">
+      <c r="F247" s="18" t="s">
         <v>555</v>
       </c>
-      <c r="F247" s="5" t="s">
+      <c r="G247" s="5" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" s="15" t="s">
         <v>168</v>
       </c>
       <c r="B248" t="s">
         <v>169</v>
       </c>
-      <c r="C248" s="18" t="s">
+      <c r="C248" s="22" t="s">
+        <v>802</v>
+      </c>
+      <c r="D248" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D248" s="5" t="s">
+      <c r="E248" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E248" s="21" t="s">
+      <c r="F248" s="18" t="s">
         <v>548</v>
       </c>
-      <c r="F248" s="5" t="s">
+      <c r="G248" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" s="15" t="s">
         <v>234</v>
       </c>
       <c r="B249" t="s">
         <v>235</v>
       </c>
-      <c r="C249" s="18" t="s">
+      <c r="C249" s="22" t="s">
+        <v>803</v>
+      </c>
+      <c r="D249" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D249" s="5" t="s">
+      <c r="E249" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E249" s="21" t="s">
+      <c r="F249" s="18" t="s">
         <v>552</v>
       </c>
-      <c r="F249" s="5" t="s">
+      <c r="G249" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" s="15" t="s">
         <v>391</v>
       </c>
       <c r="B250" t="s">
         <v>392</v>
       </c>
-      <c r="C250" s="18" t="s">
+      <c r="C250" s="22" t="s">
+        <v>804</v>
+      </c>
+      <c r="D250" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D250" s="5" t="s">
+      <c r="E250" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E250" s="21" t="s">
+      <c r="F250" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="F250" s="5" t="s">
+      <c r="G250" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" s="15" t="s">
         <v>102</v>
       </c>
       <c r="B251" t="s">
         <v>103</v>
       </c>
-      <c r="C251" s="18" t="s">
+      <c r="C251" s="22" t="s">
+        <v>805</v>
+      </c>
+      <c r="D251" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D251" s="5" t="s">
+      <c r="E251" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E251" s="21" t="s">
+      <c r="F251" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="F251" s="5" t="s">
+      <c r="G251" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" s="15" t="s">
         <v>104</v>
       </c>
       <c r="B252" t="s">
         <v>105</v>
       </c>
-      <c r="C252" s="18" t="s">
+      <c r="C252" s="22" t="s">
+        <v>806</v>
+      </c>
+      <c r="D252" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D252" s="5" t="s">
+      <c r="E252" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E252" s="21" t="s">
+      <c r="F252" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="F252" s="5" t="s">
+      <c r="G252" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" s="15" t="s">
         <v>505</v>
       </c>
       <c r="B253" t="s">
         <v>488</v>
       </c>
-      <c r="C253" s="18" t="s">
+      <c r="C253" s="22">
+        <v>998</v>
+      </c>
+      <c r="D253" s="18" t="s">
         <v>505</v>
       </c>
-      <c r="D253" s="5" t="s">
+      <c r="E253" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="E253" s="21" t="s">
+      <c r="F253" s="18" t="s">
         <v>505</v>
       </c>
-      <c r="F253" s="5" t="s">
+      <c r="G253" s="5" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" s="15" t="s">
         <v>506</v>
       </c>
       <c r="B254" t="s">
         <v>280</v>
       </c>
-      <c r="C254" s="18" t="s">
+      <c r="C254" s="22">
+        <v>999</v>
+      </c>
+      <c r="D254" s="18" t="s">
         <v>506</v>
       </c>
-      <c r="D254" s="5" t="s">
+      <c r="E254" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="E254" s="21" t="s">
+      <c r="F254" s="18" t="s">
         <v>506</v>
       </c>
-      <c r="F254" s="5" t="s">
+      <c r="G254" s="5" t="s">
         <v>281</v>
       </c>
     </row>
@@ -7415,7 +8923,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A253:A254 C4:C254 E4:E254" numberStoredAsText="1"/>
+    <ignoredError sqref="A253:A254 D4:D254 F4:F254" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>

--- a/content/drafts/entitats/Codis_Territori_Paisos_ISOA2.xlsx
+++ b/content/drafts/entitats/Codis_Territori_Paisos_ISOA2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAA\CTTI\02.Projecte_DadesRef\_____c6\01.CATaleg\07.Proposta_noves_ER\04.Cataleg_Entitats_Modelades.v03\07.Continents_paisos\Propostes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAYATSAL\Generalitat de Catalunya\Franco Castanys, Llorenç - 2019 - Dades de referència\__C6\01.CATaleg\10.Modelatge_OIAD\03.Paisos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0CE35E-2A98-43D2-B945-608DEE242061}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{0A0CE35E-2A98-43D2-B945-608DEE242061}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{213057F1-0564-426B-925A-997875E8BBE8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{2A9043EE-0398-4927-8C09-CA4E22432D8B}"/>
+    <workbookView xWindow="22932" yWindow="-1152" windowWidth="23256" windowHeight="12720" xr2:uid="{2A9043EE-0398-4927-8C09-CA4E22432D8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Països_ISO_A2" sheetId="1" r:id="rId1"/>
@@ -936,9 +936,6 @@
     <t>MK</t>
   </si>
   <si>
-    <t>Macedònia</t>
-  </si>
-  <si>
     <t>MT</t>
   </si>
   <si>
@@ -2452,6 +2449,9 @@
   </si>
   <si>
     <t>ZWE</t>
+  </si>
+  <si>
+    <t>Macedònia del Nord</t>
   </si>
 </sst>
 </file>
@@ -2619,48 +2619,6 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2712,6 +2670,48 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2785,12 +2785,12 @@
   </sortState>
   <tableColumns count="7">
     <tableColumn id="26" xr3:uid="{62AA031B-DD73-472A-8ED6-EB4710A68C12}" name="Codi" dataDxfId="6"/>
-    <tableColumn id="36" xr3:uid="{12979B42-6545-4461-B65B-3B3EFD903AA2}" name="Nom" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{59F9B3B5-2DE7-4FFD-B2F1-169729E28FDA}" name="Codi A3" dataDxfId="0"/>
-    <tableColumn id="37" xr3:uid="{BB2A3AF4-E1DA-40F2-8B18-C01E946943BA}" name="Continent Codi" dataDxfId="1"/>
-    <tableColumn id="35" xr3:uid="{5B70F1A9-C0E0-4762-951B-EA69EFD3FE7E}" name="Continent Nom" dataDxfId="5"/>
-    <tableColumn id="1" xr3:uid="{EA0E7174-2119-4A3D-B113-5BA253613AE8}" name="Subcontinent Codi" dataDxfId="4"/>
-    <tableColumn id="30" xr3:uid="{08FAE73C-EE7B-424B-A2C1-7338FED0CEB0}" name="Subcontinent Nom" dataDxfId="3"/>
+    <tableColumn id="36" xr3:uid="{12979B42-6545-4461-B65B-3B3EFD903AA2}" name="Nom" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{59F9B3B5-2DE7-4FFD-B2F1-169729E28FDA}" name="Codi A3" dataDxfId="4"/>
+    <tableColumn id="37" xr3:uid="{BB2A3AF4-E1DA-40F2-8B18-C01E946943BA}" name="Continent Codi" dataDxfId="3"/>
+    <tableColumn id="35" xr3:uid="{5B70F1A9-C0E0-4762-951B-EA69EFD3FE7E}" name="Continent Nom" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{EA0E7174-2119-4A3D-B113-5BA253613AE8}" name="Subcontinent Codi" dataDxfId="1"/>
+    <tableColumn id="30" xr3:uid="{08FAE73C-EE7B-424B-A2C1-7338FED0CEB0}" name="Subcontinent Nom" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3114,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E1" s="2"/>
       <c r="G1" s="2"/>
@@ -3125,13 +3125,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>490</v>
-      </c>
       <c r="C3" s="19" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>1</v>
@@ -3154,16 +3154,16 @@
         <v>211</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>199</v>
@@ -3171,22 +3171,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>508</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>509</v>
-      </c>
       <c r="C5" s="21" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>29</v>
@@ -3200,16 +3200,16 @@
         <v>283</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>218</v>
@@ -3217,22 +3217,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>314</v>
-      </c>
       <c r="C7" s="21" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>29</v>
@@ -3246,16 +3246,16 @@
         <v>108</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>109</v>
@@ -3269,16 +3269,16 @@
         <v>285</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>218</v>
@@ -3292,16 +3292,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>8</v>
@@ -3309,22 +3309,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="B11" t="s">
         <v>385</v>
       </c>
-      <c r="B11" t="s">
-        <v>386</v>
-      </c>
       <c r="C11" s="22" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>174</v>
@@ -3338,16 +3338,16 @@
         <v>177</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>178</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>178</v>
@@ -3355,22 +3355,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="B13" t="s">
         <v>387</v>
       </c>
-      <c r="B13" t="s">
-        <v>388</v>
-      </c>
       <c r="C13" s="22" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>174</v>
@@ -3378,25 +3378,25 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="B14" t="s">
         <v>431</v>
       </c>
-      <c r="B14" t="s">
-        <v>432</v>
-      </c>
       <c r="C14" s="22" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -3407,16 +3407,16 @@
         <v>156</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>148</v>
@@ -3430,16 +3430,16 @@
         <v>217</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>218</v>
@@ -3447,22 +3447,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="B17" t="s">
         <v>389</v>
       </c>
-      <c r="B17" t="s">
-        <v>390</v>
-      </c>
       <c r="C17" s="22" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>174</v>
@@ -3476,16 +3476,16 @@
         <v>267</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>268</v>
@@ -3493,22 +3493,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="B19" t="s">
         <v>315</v>
       </c>
-      <c r="B19" t="s">
-        <v>316</v>
-      </c>
       <c r="C19" s="22" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>29</v>
@@ -3522,16 +3522,16 @@
         <v>279</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>218</v>
@@ -3542,19 +3542,19 @@
         <v>275</v>
       </c>
       <c r="B21" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>174</v>
@@ -3562,25 +3562,25 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="B22" t="s">
         <v>433</v>
       </c>
-      <c r="B22" t="s">
-        <v>434</v>
-      </c>
       <c r="C22" s="22" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -3591,16 +3591,16 @@
         <v>213</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>199</v>
@@ -3608,22 +3608,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="B24" t="s">
         <v>439</v>
       </c>
-      <c r="B24" t="s">
-        <v>440</v>
-      </c>
       <c r="C24" s="22" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>174</v>
@@ -3631,22 +3631,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="B25" t="s">
         <v>329</v>
       </c>
-      <c r="B25" t="s">
-        <v>330</v>
-      </c>
       <c r="C25" s="22" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>218</v>
@@ -3654,22 +3654,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="B26" t="s">
         <v>317</v>
       </c>
-      <c r="B26" t="s">
-        <v>318</v>
-      </c>
       <c r="C26" s="22" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>29</v>
@@ -3683,16 +3683,16 @@
         <v>119</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>121</v>
@@ -3706,16 +3706,16 @@
         <v>38</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>39</v>
@@ -3729,16 +3729,16 @@
         <v>135</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>136</v>
@@ -3752,16 +3752,16 @@
         <v>215</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>199</v>
@@ -3775,16 +3775,16 @@
         <v>147</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>148</v>
@@ -3792,22 +3792,22 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="B32" t="s">
         <v>441</v>
       </c>
-      <c r="B32" t="s">
-        <v>442</v>
-      </c>
       <c r="C32" s="22" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>174</v>
@@ -3821,16 +3821,16 @@
         <v>287</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>218</v>
@@ -3844,16 +3844,16 @@
         <v>26</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>27</v>
@@ -3867,16 +3867,16 @@
         <v>152</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>148</v>
@@ -3890,16 +3890,16 @@
         <v>237</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>238</v>
@@ -3913,16 +3913,16 @@
         <v>274</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>29</v>
@@ -3936,16 +3936,16 @@
         <v>41</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>39</v>
@@ -3953,22 +3953,22 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="B39" t="s">
         <v>381</v>
       </c>
-      <c r="B39" t="s">
-        <v>382</v>
-      </c>
       <c r="C39" s="22" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>73</v>
@@ -3982,16 +3982,16 @@
         <v>240</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>238</v>
@@ -4005,16 +4005,16 @@
         <v>10</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>8</v>
@@ -4028,16 +4028,16 @@
         <v>145</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>136</v>
@@ -4051,16 +4051,16 @@
         <v>43</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>39</v>
@@ -4074,16 +4074,16 @@
         <v>159</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>148</v>
@@ -4094,19 +4094,19 @@
         <v>72</v>
       </c>
       <c r="B45" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>73</v>
@@ -4120,16 +4120,16 @@
         <v>12</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>8</v>
@@ -4143,16 +4143,16 @@
         <v>222</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>223</v>
@@ -4166,16 +4166,16 @@
         <v>225</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>223</v>
@@ -4189,16 +4189,16 @@
         <v>45</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>39</v>
@@ -4212,16 +4212,16 @@
         <v>123</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>121</v>
@@ -4235,16 +4235,16 @@
         <v>289</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>29</v>
@@ -4252,22 +4252,22 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="B52" t="s">
         <v>371</v>
       </c>
-      <c r="B52" t="s">
-        <v>372</v>
-      </c>
       <c r="C52" s="22" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>174</v>
@@ -4275,22 +4275,22 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="B53" t="s">
         <v>443</v>
       </c>
-      <c r="B53" t="s">
-        <v>444</v>
-      </c>
       <c r="C53" s="22" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>174</v>
@@ -4298,22 +4298,22 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="B54" t="s">
         <v>347</v>
       </c>
-      <c r="B54" t="s">
-        <v>348</v>
-      </c>
       <c r="C54" s="22" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>29</v>
@@ -4327,16 +4327,16 @@
         <v>75</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>73</v>
@@ -4344,22 +4344,22 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="B56" t="s">
         <v>445</v>
       </c>
-      <c r="B56" t="s">
-        <v>446</v>
-      </c>
       <c r="C56" s="22" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>174</v>
@@ -4367,22 +4367,22 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="B57" t="s">
         <v>414</v>
       </c>
-      <c r="B57" t="s">
-        <v>415</v>
-      </c>
       <c r="C57" s="22" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>109</v>
@@ -4396,16 +4396,16 @@
         <v>125</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>121</v>
@@ -4413,25 +4413,25 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="15" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B59" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -4442,16 +4442,16 @@
         <v>161</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>148</v>
@@ -4465,16 +4465,16 @@
         <v>77</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>73</v>
@@ -4482,22 +4482,22 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="B62" t="s">
         <v>331</v>
       </c>
-      <c r="B62" t="s">
-        <v>332</v>
-      </c>
       <c r="C62" s="22" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>29</v>
@@ -4511,16 +4511,16 @@
         <v>291</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>29</v>
@@ -4534,16 +4534,16 @@
         <v>293</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>29</v>
@@ -4554,19 +4554,19 @@
         <v>137</v>
       </c>
       <c r="B65" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>136</v>
@@ -4574,22 +4574,22 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="B66" t="s">
         <v>349</v>
       </c>
-      <c r="B66" t="s">
-        <v>350</v>
-      </c>
       <c r="C66" s="22" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>29</v>
@@ -4600,19 +4600,19 @@
         <v>36</v>
       </c>
       <c r="B67" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>27</v>
@@ -4626,16 +4626,16 @@
         <v>79</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>73</v>
@@ -4643,22 +4643,22 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="B69" t="s">
         <v>351</v>
       </c>
-      <c r="B69" t="s">
-        <v>352</v>
-      </c>
       <c r="C69" s="22" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>218</v>
@@ -4666,22 +4666,22 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="B70" t="s">
         <v>393</v>
       </c>
-      <c r="B70" t="s">
-        <v>394</v>
-      </c>
       <c r="C70" s="22" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>264</v>
@@ -4695,16 +4695,16 @@
         <v>242</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>238</v>
@@ -4712,22 +4712,22 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="B72" t="s">
         <v>353</v>
       </c>
-      <c r="B72" t="s">
-        <v>354</v>
-      </c>
       <c r="C72" s="22" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>29</v>
@@ -4735,22 +4735,22 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="B73" t="s">
         <v>319</v>
       </c>
-      <c r="B73" t="s">
-        <v>320</v>
-      </c>
       <c r="C73" s="22" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>29</v>
@@ -4764,16 +4764,16 @@
         <v>14</v>
       </c>
       <c r="C74" s="22" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>8</v>
@@ -4787,16 +4787,16 @@
         <v>47</v>
       </c>
       <c r="C75" s="22" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>39</v>
@@ -4810,16 +4810,16 @@
         <v>220</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G76" s="5" t="s">
         <v>218</v>
@@ -4833,16 +4833,16 @@
         <v>49</v>
       </c>
       <c r="C77" s="22" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G77" s="5" t="s">
         <v>39</v>
@@ -4856,16 +4856,16 @@
         <v>295</v>
       </c>
       <c r="C78" s="22" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G78" s="5" t="s">
         <v>29</v>
@@ -4879,16 +4879,16 @@
         <v>297</v>
       </c>
       <c r="C79" s="22" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G79" s="5" t="s">
         <v>29</v>
@@ -4896,22 +4896,22 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="B80" t="s">
         <v>447</v>
       </c>
-      <c r="B80" t="s">
-        <v>448</v>
-      </c>
       <c r="C80" s="22" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F80" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>174</v>
@@ -4925,16 +4925,16 @@
         <v>139</v>
       </c>
       <c r="C81" s="22" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G81" s="5" t="s">
         <v>136</v>
@@ -4942,22 +4942,22 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="B82" t="s">
         <v>511</v>
       </c>
-      <c r="B82" t="s">
-        <v>512</v>
-      </c>
       <c r="C82" s="22" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>174</v>
@@ -4965,22 +4965,22 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="B83" t="s">
         <v>513</v>
       </c>
-      <c r="B83" t="s">
-        <v>514</v>
-      </c>
       <c r="C83" s="22" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>148</v>
@@ -4988,25 +4988,25 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="B84" t="s">
         <v>401</v>
       </c>
-      <c r="B84" t="s">
-        <v>402</v>
-      </c>
       <c r="C84" s="22" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F84" s="18" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
@@ -5017,16 +5017,16 @@
         <v>127</v>
       </c>
       <c r="C85" s="22" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F85" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>121</v>
@@ -5034,22 +5034,22 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="B86" t="s">
         <v>515</v>
       </c>
-      <c r="B86" t="s">
-        <v>516</v>
-      </c>
       <c r="C86" s="22" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F86" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>218</v>
@@ -5063,16 +5063,16 @@
         <v>51</v>
       </c>
       <c r="C87" s="22" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F87" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>39</v>
@@ -5086,16 +5086,16 @@
         <v>16</v>
       </c>
       <c r="C88" s="22" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F88" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G88" s="5" t="s">
         <v>8</v>
@@ -5109,16 +5109,16 @@
         <v>53</v>
       </c>
       <c r="C89" s="22" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D89" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F89" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>39</v>
@@ -5132,16 +5132,16 @@
         <v>163</v>
       </c>
       <c r="C90" s="22" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D90" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F90" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>148</v>
@@ -5149,22 +5149,22 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="B91" t="s">
         <v>373</v>
       </c>
-      <c r="B91" t="s">
-        <v>374</v>
-      </c>
       <c r="C91" s="22" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F91" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G91" s="5" t="s">
         <v>174</v>
@@ -5178,16 +5178,16 @@
         <v>129</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F92" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G92" s="5" t="s">
         <v>121</v>
@@ -5198,19 +5198,19 @@
         <v>226</v>
       </c>
       <c r="B93" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C93" s="22" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E93" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F93" s="18" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G93" s="5" t="s">
         <v>223</v>
@@ -5218,22 +5218,22 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="B94" t="s">
         <v>333</v>
       </c>
-      <c r="B94" t="s">
-        <v>334</v>
-      </c>
       <c r="C94" s="22" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F94" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G94" s="5" t="s">
         <v>29</v>
@@ -5241,25 +5241,25 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="15" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B95" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C95" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D95" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
@@ -5270,16 +5270,16 @@
         <v>180</v>
       </c>
       <c r="C96" s="22" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>178</v>
       </c>
       <c r="F96" s="18" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G96" s="5" t="s">
         <v>178</v>
@@ -5293,16 +5293,16 @@
         <v>244</v>
       </c>
       <c r="C97" s="22" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D97" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F97" s="18" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G97" s="5" t="s">
         <v>268</v>
@@ -5310,22 +5310,22 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="15" t="s">
+        <v>516</v>
+      </c>
+      <c r="B98" t="s">
         <v>517</v>
       </c>
-      <c r="B98" t="s">
-        <v>518</v>
-      </c>
       <c r="C98" s="22" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D98" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F98" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G98" s="5" t="s">
         <v>218</v>
@@ -5339,16 +5339,16 @@
         <v>270</v>
       </c>
       <c r="C99" s="22" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D99" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G99" s="5" t="s">
         <v>268</v>
@@ -5356,22 +5356,22 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="B100" t="s">
         <v>375</v>
       </c>
-      <c r="B100" t="s">
-        <v>376</v>
-      </c>
       <c r="C100" s="22" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D100" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F100" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G100" s="5" t="s">
         <v>174</v>
@@ -5382,19 +5382,19 @@
         <v>265</v>
       </c>
       <c r="B101" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C101" s="22" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F101" s="18" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G101" s="5" t="s">
         <v>268</v>
@@ -5402,25 +5402,25 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="B102" t="s">
         <v>465</v>
       </c>
-      <c r="B102" t="s">
-        <v>466</v>
-      </c>
       <c r="C102" s="22" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F102" s="18" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
@@ -5428,19 +5428,19 @@
         <v>157</v>
       </c>
       <c r="B103" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C103" s="22" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F103" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G103" s="5" t="s">
         <v>148</v>
@@ -5454,16 +5454,16 @@
         <v>182</v>
       </c>
       <c r="C104" s="22" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>178</v>
       </c>
       <c r="F104" s="18" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G104" s="5" t="s">
         <v>178</v>
@@ -5477,16 +5477,16 @@
         <v>184</v>
       </c>
       <c r="C105" s="22" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>178</v>
       </c>
       <c r="F105" s="18" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G105" s="5" t="s">
         <v>178</v>
@@ -5494,91 +5494,91 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="B106" t="s">
         <v>486</v>
       </c>
-      <c r="B106" t="s">
-        <v>487</v>
-      </c>
       <c r="C106" s="22" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D106" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F106" s="18" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="B107" t="s">
         <v>404</v>
       </c>
-      <c r="B107" t="s">
-        <v>405</v>
-      </c>
       <c r="C107" s="22" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D107" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E107" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F107" s="18" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B108" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C108" s="22" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D108" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F108" s="18" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="B109" t="s">
         <v>395</v>
       </c>
-      <c r="B109" t="s">
-        <v>396</v>
-      </c>
       <c r="C109" s="22" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E109" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F109" s="18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G109" s="5" t="s">
         <v>264</v>
@@ -5592,16 +5592,16 @@
         <v>277</v>
       </c>
       <c r="C110" s="22" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D110" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F110" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G110" s="5" t="s">
         <v>174</v>
@@ -5609,22 +5609,22 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="B111" t="s">
         <v>449</v>
       </c>
-      <c r="B111" t="s">
-        <v>450</v>
-      </c>
       <c r="C111" s="22" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E111" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F111" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G111" s="5" t="s">
         <v>174</v>
@@ -5632,22 +5632,22 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="B112" t="s">
         <v>451</v>
       </c>
-      <c r="B112" t="s">
-        <v>452</v>
-      </c>
       <c r="C112" s="22" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D112" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E112" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G112" s="5" t="s">
         <v>174</v>
@@ -5661,16 +5661,16 @@
         <v>198</v>
       </c>
       <c r="C113" s="22" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D113" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E113" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G113" s="5" t="s">
         <v>199</v>
@@ -5684,16 +5684,16 @@
         <v>258</v>
       </c>
       <c r="C114" s="22" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D114" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E114" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F114" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G114" s="5" t="s">
         <v>238</v>
@@ -5707,16 +5707,16 @@
         <v>201</v>
       </c>
       <c r="C115" s="22" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D115" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E115" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F115" s="18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G115" s="5" t="s">
         <v>199</v>
@@ -5724,45 +5724,45 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B116" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C116" s="22" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D116" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E116" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F116" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="B117" t="s">
         <v>355</v>
       </c>
-      <c r="B117" t="s">
-        <v>356</v>
-      </c>
       <c r="C117" s="22" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D117" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E117" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F117" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G117" s="5" t="s">
         <v>29</v>
@@ -5770,22 +5770,22 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="B118" t="s">
         <v>357</v>
       </c>
-      <c r="B118" t="s">
-        <v>358</v>
-      </c>
       <c r="C118" s="22" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D118" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E118" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F118" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G118" s="5" t="s">
         <v>218</v>
@@ -5793,25 +5793,25 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="B119" t="s">
         <v>418</v>
       </c>
-      <c r="B119" t="s">
-        <v>419</v>
-      </c>
       <c r="C119" s="22" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D119" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E119" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F119" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
@@ -5822,16 +5822,16 @@
         <v>299</v>
       </c>
       <c r="C120" s="22" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D120" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E120" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F120" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G120" s="5" t="s">
         <v>29</v>
@@ -5839,22 +5839,22 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="B121" t="s">
         <v>377</v>
       </c>
-      <c r="B121" t="s">
-        <v>378</v>
-      </c>
       <c r="C121" s="22" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D121" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E121" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F121" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G121" s="5" t="s">
         <v>174</v>
@@ -5868,16 +5868,16 @@
         <v>228</v>
       </c>
       <c r="C122" s="22" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D122" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E122" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F122" s="18" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G122" s="5" t="s">
         <v>223</v>
@@ -5885,22 +5885,22 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="B123" t="s">
         <v>519</v>
       </c>
-      <c r="B123" t="s">
-        <v>520</v>
-      </c>
       <c r="C123" s="22" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D123" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E123" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F123" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G123" s="5" t="s">
         <v>218</v>
@@ -5908,25 +5908,25 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="B124" t="s">
         <v>420</v>
       </c>
-      <c r="B124" t="s">
-        <v>421</v>
-      </c>
       <c r="C124" s="22" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E124" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F124" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
@@ -5937,16 +5937,16 @@
         <v>186</v>
       </c>
       <c r="C125" s="22" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D125" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E125" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F125" s="18" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G125" s="5" t="s">
         <v>188</v>
@@ -5960,16 +5960,16 @@
         <v>81</v>
       </c>
       <c r="C126" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D126" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E126" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F126" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G126" s="5" t="s">
         <v>73</v>
@@ -5983,16 +5983,16 @@
         <v>190</v>
       </c>
       <c r="C127" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D127" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E127" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F127" s="18" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G127" s="5" t="s">
         <v>188</v>
@@ -6000,48 +6000,48 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="B128" t="s">
         <v>407</v>
       </c>
-      <c r="B128" t="s">
-        <v>408</v>
-      </c>
       <c r="C128" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D128" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E128" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F128" s="18" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="B129" t="s">
         <v>422</v>
       </c>
-      <c r="B129" t="s">
-        <v>423</v>
-      </c>
       <c r="C129" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D129" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E129" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F129" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
@@ -6052,16 +6052,16 @@
         <v>246</v>
       </c>
       <c r="C130" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D130" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E130" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F130" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G130" s="5" t="s">
         <v>238</v>
@@ -6075,16 +6075,16 @@
         <v>31</v>
       </c>
       <c r="C131" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D131" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E131" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F131" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G131" s="5" t="s">
         <v>27</v>
@@ -6092,22 +6092,22 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="B132" t="s">
         <v>359</v>
       </c>
-      <c r="B132" t="s">
-        <v>360</v>
-      </c>
       <c r="C132" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D132" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E132" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F132" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G132" s="5" t="s">
         <v>29</v>
@@ -6115,25 +6115,25 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="B133" t="s">
         <v>424</v>
       </c>
-      <c r="B133" t="s">
-        <v>425</v>
-      </c>
       <c r="C133" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D133" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E133" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F133" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
@@ -6144,16 +6144,16 @@
         <v>55</v>
       </c>
       <c r="C134" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D134" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E134" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F134" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G134" s="5" t="s">
         <v>39</v>
@@ -6167,16 +6167,16 @@
         <v>111</v>
       </c>
       <c r="C135" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D135" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E135" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F135" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G135" s="5" t="s">
         <v>109</v>
@@ -6184,22 +6184,22 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="B136" t="s">
         <v>321</v>
       </c>
-      <c r="B136" t="s">
-        <v>322</v>
-      </c>
       <c r="C136" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D136" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E136" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F136" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G136" s="5" t="s">
         <v>218</v>
@@ -6207,22 +6207,22 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="B137" t="s">
         <v>361</v>
       </c>
-      <c r="B137" t="s">
-        <v>362</v>
-      </c>
       <c r="C137" s="22" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D137" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E137" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F137" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G137" s="5" t="s">
         <v>29</v>
@@ -6230,22 +6230,22 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="B138" t="s">
         <v>323</v>
       </c>
-      <c r="B138" t="s">
-        <v>324</v>
-      </c>
       <c r="C138" s="22" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D138" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E138" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F138" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G138" s="5" t="s">
         <v>29</v>
@@ -6256,19 +6256,19 @@
         <v>229</v>
       </c>
       <c r="B139" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C139" s="22" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D139" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E139" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F139" s="18" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G139" s="5" t="s">
         <v>223</v>
@@ -6279,19 +6279,19 @@
         <v>300</v>
       </c>
       <c r="B140" t="s">
-        <v>301</v>
+        <v>806</v>
       </c>
       <c r="C140" s="22" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D140" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E140" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F140" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G140" s="5" t="s">
         <v>218</v>
@@ -6305,16 +6305,16 @@
         <v>83</v>
       </c>
       <c r="C141" s="22" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D141" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E141" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F141" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G141" s="5" t="s">
         <v>73</v>
@@ -6328,16 +6328,16 @@
         <v>248</v>
       </c>
       <c r="C142" s="22" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D142" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E142" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F142" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G142" s="5" t="s">
         <v>238</v>
@@ -6351,16 +6351,16 @@
         <v>85</v>
       </c>
       <c r="C143" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D143" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E143" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F143" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G143" s="5" t="s">
         <v>73</v>
@@ -6374,16 +6374,16 @@
         <v>203</v>
       </c>
       <c r="C144" s="22" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D144" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E144" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F144" s="18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G144" s="5" t="s">
         <v>199</v>
@@ -6397,16 +6397,16 @@
         <v>57</v>
       </c>
       <c r="C145" s="22" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D145" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E145" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F145" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G145" s="5" t="s">
         <v>39</v>
@@ -6414,22 +6414,22 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="B146" t="s">
         <v>302</v>
       </c>
-      <c r="B146" t="s">
-        <v>303</v>
-      </c>
       <c r="C146" s="22" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D146" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E146" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F146" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G146" s="5" t="s">
         <v>29</v>
@@ -6440,19 +6440,19 @@
         <v>112</v>
       </c>
       <c r="B147" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C147" s="22" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D147" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E147" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F147" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G147" s="5" t="s">
         <v>109</v>
@@ -6460,22 +6460,22 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" s="15" t="s">
+        <v>520</v>
+      </c>
+      <c r="B148" t="s">
         <v>521</v>
       </c>
-      <c r="B148" t="s">
-        <v>522</v>
-      </c>
       <c r="C148" s="22" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D148" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E148" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F148" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G148" s="5" t="s">
         <v>174</v>
@@ -6489,16 +6489,16 @@
         <v>87</v>
       </c>
       <c r="C149" s="22" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D149" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E149" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F149" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G149" s="5" t="s">
         <v>73</v>
@@ -6512,16 +6512,16 @@
         <v>59</v>
       </c>
       <c r="C150" s="22" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D150" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E150" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F150" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G150" s="5" t="s">
         <v>39</v>
@@ -6535,16 +6535,16 @@
         <v>89</v>
       </c>
       <c r="C151" s="22" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D151" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E151" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F151" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G151" s="5" t="s">
         <v>29</v>
@@ -6558,16 +6558,16 @@
         <v>141</v>
       </c>
       <c r="C152" s="22" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D152" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E152" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F152" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G152" s="5" t="s">
         <v>121</v>
@@ -6575,25 +6575,25 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" s="15" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B153" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C153" s="22" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D153" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E153" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F153" s="18" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
@@ -6604,16 +6604,16 @@
         <v>91</v>
       </c>
       <c r="C154" s="22" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D154" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E154" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F154" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G154" s="5" t="s">
         <v>73</v>
@@ -6621,22 +6621,22 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="B155" t="s">
         <v>335</v>
       </c>
-      <c r="B155" t="s">
-        <v>336</v>
-      </c>
       <c r="C155" s="22" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D155" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E155" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F155" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G155" s="5" t="s">
         <v>218</v>
@@ -6644,22 +6644,22 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="B156" t="s">
         <v>523</v>
       </c>
-      <c r="B156" t="s">
-        <v>524</v>
-      </c>
       <c r="C156" s="22" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D156" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E156" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F156" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G156" s="5" t="s">
         <v>218</v>
@@ -6673,16 +6673,16 @@
         <v>231</v>
       </c>
       <c r="C157" s="22" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D157" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E157" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F157" s="18" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G157" s="5" t="s">
         <v>223</v>
@@ -6690,22 +6690,22 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="B158" t="s">
         <v>304</v>
       </c>
-      <c r="B158" t="s">
-        <v>305</v>
-      </c>
       <c r="C158" s="22" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D158" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E158" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F158" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G158" s="5" t="s">
         <v>218</v>
@@ -6713,22 +6713,22 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="B159" t="s">
         <v>453</v>
       </c>
-      <c r="B159" t="s">
-        <v>454</v>
-      </c>
       <c r="C159" s="22" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D159" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E159" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F159" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G159" s="5" t="s">
         <v>174</v>
@@ -6742,16 +6742,16 @@
         <v>250</v>
       </c>
       <c r="C160" s="22" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D160" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E160" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F160" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G160" s="5" t="s">
         <v>238</v>
@@ -6765,16 +6765,16 @@
         <v>33</v>
       </c>
       <c r="C161" s="22" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D161" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E161" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F161" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G161" s="5" t="s">
         <v>27</v>
@@ -6782,25 +6782,25 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="B162" t="s">
         <v>410</v>
       </c>
-      <c r="B162" t="s">
-        <v>411</v>
-      </c>
       <c r="C162" s="22" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D162" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E162" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F162" s="18" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G162" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.35">
@@ -6811,16 +6811,16 @@
         <v>205</v>
       </c>
       <c r="C163" s="22" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D163" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E163" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F163" s="18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G163" s="5" t="s">
         <v>199</v>
@@ -6834,16 +6834,16 @@
         <v>131</v>
       </c>
       <c r="C164" s="22" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D164" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E164" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F164" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G164" s="5" t="s">
         <v>121</v>
@@ -6857,16 +6857,16 @@
         <v>61</v>
       </c>
       <c r="C165" s="22" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D165" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E165" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F165" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G165" s="5" t="s">
         <v>39</v>
@@ -6880,16 +6880,16 @@
         <v>63</v>
       </c>
       <c r="C166" s="22" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D166" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E166" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F166" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G166" s="5" t="s">
         <v>39</v>
@@ -6897,45 +6897,45 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="B167" t="s">
         <v>468</v>
       </c>
-      <c r="B167" t="s">
-        <v>469</v>
-      </c>
       <c r="C167" s="22" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D167" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E167" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F167" s="18" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G167" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="B168" t="s">
         <v>363</v>
       </c>
-      <c r="B168" t="s">
-        <v>364</v>
-      </c>
       <c r="C168" s="22" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D168" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E168" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F168" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G168" s="5" t="s">
         <v>218</v>
@@ -6943,22 +6943,22 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="B169" t="s">
         <v>397</v>
       </c>
-      <c r="B169" t="s">
-        <v>398</v>
-      </c>
       <c r="C169" s="22" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D169" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E169" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F169" s="18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G169" s="5" t="s">
         <v>264</v>
@@ -6972,16 +6972,16 @@
         <v>272</v>
       </c>
       <c r="C170" s="22" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D170" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E170" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F170" s="18" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G170" s="5" t="s">
         <v>268</v>
@@ -6989,45 +6989,45 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="B171" t="s">
         <v>426</v>
       </c>
-      <c r="B171" t="s">
-        <v>427</v>
-      </c>
       <c r="C171" s="22" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D171" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E171" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F171" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G171" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="B172" t="s">
         <v>325</v>
       </c>
-      <c r="B172" t="s">
-        <v>326</v>
-      </c>
       <c r="C172" s="22" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D172" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E172" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F172" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G172" s="5" t="s">
         <v>29</v>
@@ -7041,16 +7041,16 @@
         <v>207</v>
       </c>
       <c r="C173" s="22" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D173" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E173" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F173" s="18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G173" s="5" t="s">
         <v>199</v>
@@ -7058,48 +7058,48 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="B174" t="s">
         <v>412</v>
       </c>
-      <c r="B174" t="s">
-        <v>413</v>
-      </c>
       <c r="C174" s="22" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D174" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E174" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F174" s="18" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G174" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" s="15" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B175" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C175" s="22" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D175" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E175" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F175" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G175" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.35">
@@ -7110,16 +7110,16 @@
         <v>133</v>
       </c>
       <c r="C176" s="22" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D176" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E176" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F176" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G176" s="5" t="s">
         <v>121</v>
@@ -7133,16 +7133,16 @@
         <v>262</v>
       </c>
       <c r="C177" s="22" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D177" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E177" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F177" s="18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G177" s="5" t="s">
         <v>264</v>
@@ -7156,16 +7156,16 @@
         <v>150</v>
       </c>
       <c r="C178" s="22" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D178" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E178" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F178" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G178" s="5" t="s">
         <v>148</v>
@@ -7179,16 +7179,16 @@
         <v>167</v>
       </c>
       <c r="C179" s="22" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D179" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E179" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F179" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G179" s="5" t="s">
         <v>148</v>
@@ -7196,68 +7196,68 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="B180" t="s">
         <v>470</v>
       </c>
-      <c r="B180" t="s">
-        <v>471</v>
-      </c>
       <c r="C180" s="22" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D180" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E180" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F180" s="18" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G180" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" s="15" t="s">
+        <v>471</v>
+      </c>
+      <c r="B181" t="s">
         <v>472</v>
       </c>
-      <c r="B181" t="s">
-        <v>473</v>
-      </c>
       <c r="C181" s="22" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D181" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E181" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F181" s="18" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G181" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="B182" t="s">
         <v>337</v>
       </c>
-      <c r="B182" t="s">
-        <v>338</v>
-      </c>
       <c r="C182" s="22" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D182" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E182" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F182" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G182" s="5" t="s">
         <v>29</v>
@@ -7265,22 +7265,22 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="B183" t="s">
         <v>306</v>
       </c>
-      <c r="B183" t="s">
-        <v>307</v>
-      </c>
       <c r="C183" s="22" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D183" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E183" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F183" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G183" s="5" t="s">
         <v>29</v>
@@ -7288,22 +7288,22 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="B184" t="s">
         <v>526</v>
       </c>
-      <c r="B184" t="s">
-        <v>527</v>
-      </c>
       <c r="C184" s="22" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D184" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E184" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F184" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G184" s="5" t="s">
         <v>174</v>
@@ -7311,45 +7311,45 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="B185" t="s">
         <v>437</v>
       </c>
-      <c r="B185" t="s">
-        <v>438</v>
-      </c>
       <c r="C185" s="22" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D185" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E185" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F185" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G185" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="B186" t="s">
         <v>365</v>
       </c>
-      <c r="B186" t="s">
-        <v>366</v>
-      </c>
       <c r="C186" s="22" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D186" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E186" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F186" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G186" s="5" t="s">
         <v>29</v>
@@ -7363,16 +7363,16 @@
         <v>18</v>
       </c>
       <c r="C187" s="22" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D187" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E187" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F187" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G187" s="5" t="s">
         <v>8</v>
@@ -7386,16 +7386,16 @@
         <v>20</v>
       </c>
       <c r="C188" s="22" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D188" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E188" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F188" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G188" s="5" t="s">
         <v>8</v>
@@ -7403,22 +7403,22 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="B189" t="s">
         <v>379</v>
       </c>
-      <c r="B189" t="s">
-        <v>380</v>
-      </c>
       <c r="C189" s="22" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D189" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E189" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F189" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G189" s="5" t="s">
         <v>174</v>
@@ -7426,22 +7426,22 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="B190" t="s">
         <v>528</v>
       </c>
-      <c r="B190" t="s">
-        <v>529</v>
-      </c>
       <c r="C190" s="22" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D190" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E190" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F190" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G190" s="5" t="s">
         <v>73</v>
@@ -7449,22 +7449,22 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="B191" t="s">
         <v>339</v>
       </c>
-      <c r="B191" t="s">
-        <v>340</v>
-      </c>
       <c r="C191" s="22" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D191" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E191" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F191" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G191" s="5" t="s">
         <v>29</v>
@@ -7472,22 +7472,22 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="B192" t="s">
         <v>383</v>
       </c>
-      <c r="B192" t="s">
-        <v>384</v>
-      </c>
       <c r="C192" s="22" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D192" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E192" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F192" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G192" s="5" t="s">
         <v>73</v>
@@ -7495,22 +7495,22 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="B193" t="s">
         <v>345</v>
       </c>
-      <c r="B193" t="s">
-        <v>346</v>
-      </c>
       <c r="C193" s="22" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D193" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E193" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F193" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G193" s="5" t="s">
         <v>218</v>
@@ -7524,16 +7524,16 @@
         <v>114</v>
       </c>
       <c r="C194" s="22" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D194" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E194" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F194" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G194" s="5" t="s">
         <v>109</v>
@@ -7547,16 +7547,16 @@
         <v>65</v>
       </c>
       <c r="C195" s="22" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D195" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E195" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F195" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G195" s="5" t="s">
         <v>39</v>
@@ -7564,22 +7564,22 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="B196" t="s">
         <v>455</v>
       </c>
-      <c r="B196" t="s">
-        <v>456</v>
-      </c>
       <c r="C196" s="22" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D196" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E196" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F196" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G196" s="5" t="s">
         <v>174</v>
@@ -7587,22 +7587,22 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="B197" t="s">
         <v>457</v>
       </c>
-      <c r="B197" t="s">
-        <v>458</v>
-      </c>
       <c r="C197" s="22" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D197" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E197" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F197" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G197" s="5" t="s">
         <v>174</v>
@@ -7610,22 +7610,22 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="B198" t="s">
         <v>459</v>
       </c>
-      <c r="B198" t="s">
-        <v>460</v>
-      </c>
       <c r="C198" s="22" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D198" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E198" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F198" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G198" s="5" t="s">
         <v>174</v>
@@ -7633,22 +7633,22 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="B199" t="s">
         <v>461</v>
       </c>
-      <c r="B199" t="s">
-        <v>462</v>
-      </c>
       <c r="C199" s="22" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D199" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E199" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F199" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G199" s="5" t="s">
         <v>174</v>
@@ -7656,22 +7656,22 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" s="15" t="s">
+        <v>529</v>
+      </c>
+      <c r="B200" t="s">
         <v>530</v>
       </c>
-      <c r="B200" t="s">
-        <v>531</v>
-      </c>
       <c r="C200" s="22" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D200" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E200" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F200" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G200" s="5" t="s">
         <v>174</v>
@@ -7685,16 +7685,16 @@
         <v>143</v>
       </c>
       <c r="C201" s="22" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D201" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E201" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F201" s="18" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G201" s="5" t="s">
         <v>136</v>
@@ -7702,68 +7702,68 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="B202" t="s">
         <v>474</v>
       </c>
-      <c r="B202" t="s">
-        <v>475</v>
-      </c>
       <c r="C202" s="22" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D202" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E202" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F202" s="18" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G202" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="B203" t="s">
         <v>476</v>
       </c>
-      <c r="B203" t="s">
-        <v>477</v>
-      </c>
       <c r="C203" s="22" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D203" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E203" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F203" s="18" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G203" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="B204" t="s">
         <v>308</v>
       </c>
-      <c r="B204" t="s">
-        <v>309</v>
-      </c>
       <c r="C204" s="22" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D204" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E204" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F204" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G204" s="5" t="s">
         <v>218</v>
@@ -7771,22 +7771,22 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B205" t="s">
         <v>310</v>
       </c>
-      <c r="B205" t="s">
-        <v>311</v>
-      </c>
       <c r="C205" s="22" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D205" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E205" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F205" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G205" s="5" t="s">
         <v>218</v>
@@ -7800,16 +7800,16 @@
         <v>22</v>
       </c>
       <c r="C206" s="22" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D206" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E206" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F206" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G206" s="5" t="s">
         <v>8</v>
@@ -7823,16 +7823,16 @@
         <v>67</v>
       </c>
       <c r="C207" s="22" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D207" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E207" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F207" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G207" s="5" t="s">
         <v>39</v>
@@ -7840,22 +7840,22 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" s="15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B208" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C208" s="22" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D208" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E208" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F208" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G208" s="5" t="s">
         <v>218</v>
@@ -7869,16 +7869,16 @@
         <v>93</v>
       </c>
       <c r="C209" s="22" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D209" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E209" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F209" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G209" s="5" t="s">
         <v>73</v>
@@ -7892,16 +7892,16 @@
         <v>69</v>
       </c>
       <c r="C210" s="22" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D210" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E210" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F210" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G210" s="5" t="s">
         <v>39</v>
@@ -7915,16 +7915,16 @@
         <v>252</v>
       </c>
       <c r="C211" s="22" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D211" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E211" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F211" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G211" s="5" t="s">
         <v>238</v>
@@ -7932,22 +7932,22 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="B212" t="s">
         <v>463</v>
       </c>
-      <c r="B212" t="s">
-        <v>464</v>
-      </c>
       <c r="C212" s="22" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D212" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E212" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F212" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G212" s="5" t="s">
         <v>174</v>
@@ -7955,25 +7955,25 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="B213" t="s">
         <v>429</v>
       </c>
-      <c r="B213" t="s">
-        <v>430</v>
-      </c>
       <c r="C213" s="22" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D213" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E213" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F213" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G213" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.35">
@@ -7984,16 +7984,16 @@
         <v>95</v>
       </c>
       <c r="C214" s="22" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D214" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E214" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F214" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G214" s="5" t="s">
         <v>73</v>
@@ -8007,16 +8007,16 @@
         <v>209</v>
       </c>
       <c r="C215" s="22" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D215" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E215" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F215" s="18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G215" s="5" t="s">
         <v>199</v>
@@ -8030,16 +8030,16 @@
         <v>35</v>
       </c>
       <c r="C216" s="22" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D216" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E216" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F216" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G216" s="5" t="s">
         <v>27</v>
@@ -8050,19 +8050,19 @@
         <v>106</v>
       </c>
       <c r="B217" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C217" s="22" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D217" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E217" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F217" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G217" s="5" t="s">
         <v>73</v>
@@ -8073,19 +8073,19 @@
         <v>115</v>
       </c>
       <c r="B218" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C218" s="22" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D218" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E218" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F218" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G218" s="5" t="s">
         <v>109</v>
@@ -8093,22 +8093,22 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="B219" t="s">
         <v>367</v>
       </c>
-      <c r="B219" t="s">
-        <v>368</v>
-      </c>
       <c r="C219" s="22" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D219" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E219" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F219" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G219" s="5" t="s">
         <v>29</v>
@@ -8116,22 +8116,22 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="B220" t="s">
         <v>327</v>
       </c>
-      <c r="B220" t="s">
-        <v>328</v>
-      </c>
       <c r="C220" s="22" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D220" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E220" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F220" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G220" s="5" t="s">
         <v>218</v>
@@ -8145,16 +8145,16 @@
         <v>165</v>
       </c>
       <c r="C221" s="22" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D221" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E221" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F221" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G221" s="5" t="s">
         <v>148</v>
@@ -8162,22 +8162,22 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="B222" t="s">
         <v>533</v>
       </c>
-      <c r="B222" t="s">
-        <v>534</v>
-      </c>
       <c r="C222" s="22" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D222" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E222" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F222" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G222" s="5" t="s">
         <v>218</v>
@@ -8191,16 +8191,16 @@
         <v>192</v>
       </c>
       <c r="C223" s="22" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D223" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E223" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F223" s="18" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G223" s="5" t="s">
         <v>188</v>
@@ -8214,16 +8214,16 @@
         <v>254</v>
       </c>
       <c r="C224" s="22" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D224" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E224" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F224" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G224" s="5" t="s">
         <v>238</v>
@@ -8237,16 +8237,16 @@
         <v>233</v>
       </c>
       <c r="C225" s="22" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D225" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E225" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F225" s="18" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G225" s="5" t="s">
         <v>223</v>
@@ -8260,16 +8260,16 @@
         <v>97</v>
       </c>
       <c r="C226" s="22" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D226" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E226" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F226" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G226" s="5" t="s">
         <v>73</v>
@@ -8280,19 +8280,19 @@
         <v>175</v>
       </c>
       <c r="B227" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C227" s="22" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D227" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E227" s="5" t="s">
         <v>178</v>
       </c>
       <c r="F227" s="18" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G227" s="5" t="s">
         <v>178</v>
@@ -8306,16 +8306,16 @@
         <v>99</v>
       </c>
       <c r="C228" s="22" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D228" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E228" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F228" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G228" s="5" t="s">
         <v>73</v>
@@ -8329,16 +8329,16 @@
         <v>260</v>
       </c>
       <c r="C229" s="22" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D229" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E229" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F229" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G229" s="5" t="s">
         <v>238</v>
@@ -8352,16 +8352,16 @@
         <v>71</v>
       </c>
       <c r="C230" s="22" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D230" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E230" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F230" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G230" s="5" t="s">
         <v>39</v>
@@ -8369,48 +8369,48 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="B231" t="s">
         <v>478</v>
       </c>
-      <c r="B231" t="s">
-        <v>479</v>
-      </c>
       <c r="C231" s="22" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D231" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E231" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F231" s="18" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G231" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="B232" t="s">
         <v>480</v>
       </c>
-      <c r="B232" t="s">
-        <v>481</v>
-      </c>
       <c r="C232" s="22" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D232" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E232" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F232" s="18" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G232" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.35">
@@ -8421,16 +8421,16 @@
         <v>173</v>
       </c>
       <c r="C233" s="22" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D233" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E233" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F233" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G233" s="5" t="s">
         <v>174</v>
@@ -8444,16 +8444,16 @@
         <v>117</v>
       </c>
       <c r="C234" s="22" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D234" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E234" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F234" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G234" s="5" t="s">
         <v>109</v>
@@ -8467,16 +8467,16 @@
         <v>194</v>
       </c>
       <c r="C235" s="22" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D235" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E235" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F235" s="18" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G235" s="5" t="s">
         <v>188</v>
@@ -8484,22 +8484,22 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="B236" t="s">
         <v>369</v>
       </c>
-      <c r="B236" t="s">
-        <v>370</v>
-      </c>
       <c r="C236" s="22" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D236" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E236" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F236" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G236" s="5" t="s">
         <v>218</v>
@@ -8507,25 +8507,25 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="B237" t="s">
         <v>482</v>
       </c>
-      <c r="B237" t="s">
-        <v>483</v>
-      </c>
       <c r="C237" s="22" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D237" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E237" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F237" s="18" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G237" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.35">
@@ -8536,16 +8536,16 @@
         <v>24</v>
       </c>
       <c r="C238" s="22" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D238" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E238" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F238" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G238" s="5" t="s">
         <v>8</v>
@@ -8553,22 +8553,22 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="B239" t="s">
         <v>341</v>
       </c>
-      <c r="B239" t="s">
-        <v>342</v>
-      </c>
       <c r="C239" s="22" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D239" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E239" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F239" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G239" s="5" t="s">
         <v>29</v>
@@ -8576,22 +8576,22 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="B240" t="s">
         <v>343</v>
       </c>
-      <c r="B240" t="s">
-        <v>344</v>
-      </c>
       <c r="C240" s="22" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D240" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E240" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F240" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G240" s="5" t="s">
         <v>218</v>
@@ -8605,16 +8605,16 @@
         <v>101</v>
       </c>
       <c r="C241" s="22" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D241" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E241" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F241" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G241" s="5" t="s">
         <v>73</v>
@@ -8628,16 +8628,16 @@
         <v>154</v>
       </c>
       <c r="C242" s="22" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D242" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E242" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F242" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G242" s="5" t="s">
         <v>148</v>
@@ -8651,16 +8651,16 @@
         <v>196</v>
       </c>
       <c r="C243" s="22" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D243" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E243" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F243" s="18" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G243" s="5" t="s">
         <v>188</v>
@@ -8668,22 +8668,22 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="B244" t="s">
         <v>399</v>
       </c>
-      <c r="B244" t="s">
-        <v>400</v>
-      </c>
       <c r="C244" s="22" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D244" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E244" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F244" s="18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G244" s="5" t="s">
         <v>264</v>
@@ -8697,16 +8697,16 @@
         <v>171</v>
       </c>
       <c r="C245" s="22" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D245" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E245" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F245" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G245" s="5" t="s">
         <v>148</v>
@@ -8720,16 +8720,16 @@
         <v>256</v>
       </c>
       <c r="C246" s="22" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D246" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E246" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F246" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G246" s="5" t="s">
         <v>238</v>
@@ -8737,25 +8737,25 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="B247" t="s">
         <v>484</v>
       </c>
-      <c r="B247" t="s">
-        <v>485</v>
-      </c>
       <c r="C247" s="22" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D247" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E247" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F247" s="18" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G247" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.35">
@@ -8766,16 +8766,16 @@
         <v>169</v>
       </c>
       <c r="C248" s="22" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D248" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E248" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F248" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G248" s="5" t="s">
         <v>148</v>
@@ -8789,16 +8789,16 @@
         <v>235</v>
       </c>
       <c r="C249" s="22" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D249" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E249" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F249" s="18" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G249" s="5" t="s">
         <v>223</v>
@@ -8806,22 +8806,22 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="B250" t="s">
         <v>391</v>
       </c>
-      <c r="B250" t="s">
-        <v>392</v>
-      </c>
       <c r="C250" s="22" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D250" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E250" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F250" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G250" s="5" t="s">
         <v>29</v>
@@ -8835,16 +8835,16 @@
         <v>103</v>
       </c>
       <c r="C251" s="22" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D251" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E251" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F251" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G251" s="5" t="s">
         <v>73</v>
@@ -8858,16 +8858,16 @@
         <v>105</v>
       </c>
       <c r="C252" s="22" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D252" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E252" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F252" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G252" s="5" t="s">
         <v>73</v>
@@ -8875,30 +8875,30 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" s="15" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B253" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C253" s="22">
         <v>998</v>
       </c>
       <c r="D253" s="18" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E253" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F253" s="18" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G253" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" s="15" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B254" t="s">
         <v>280</v>
@@ -8907,13 +8907,13 @@
         <v>999</v>
       </c>
       <c r="D254" s="18" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E254" s="5" t="s">
         <v>281</v>
       </c>
       <c r="F254" s="18" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G254" s="5" t="s">
         <v>281</v>
